--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AB9239-6A8F-45C5-8FC8-FDF538BC2771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7500304-060D-4356-BCD4-3BC21396EB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>English</t>
   </si>
@@ -113,6 +116,164 @@
   </si>
   <si>
     <t>コテツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイヌハチマキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイヌ、なんだそれは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘党ふうせん</t>
+    <rPh sb="0" eb="2">
+      <t>アマトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大変や！！</t>
+    <rPh sb="0" eb="2">
+      <t>タイヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規制済み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェッカーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クククそんなことないさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かなり重い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔Q坊や</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠近感が狂う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nicolai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボル姉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来夢ノア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羊だ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sirusira</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シルシラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beamman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビームマンP作</t>
+    <rPh sb="6" eb="7">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bmpHat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEAMHAT</t>
+  </si>
+  <si>
+    <t>Pirohiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピロ彦作</t>
+    <rPh sb="2" eb="3">
+      <t>ヒコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4rehe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4レーへTシャツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AinuRed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AinuRedPlus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amatohfusen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gattbomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>censored</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gatttttkoya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HeadOnCat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Minidon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RaimuNoah</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -444,7 +605,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -531,16 +692,154 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7500304-060D-4356-BCD4-3BC21396EB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB62795-9EDA-4BDC-8230-70FD2EB64157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>English</t>
   </si>
@@ -274,6 +274,17 @@
   </si>
   <si>
     <t>RaimuNoah</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foodneko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フード猫</t>
+    <rPh sb="3" eb="4">
+      <t>ネコ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -604,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -804,38 +815,46 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M29" t="s">
         <v>48</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB62795-9EDA-4BDC-8230-70FD2EB64157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054D8F9-70D3-4BBD-9153-AEA6CA38FD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>English</t>
   </si>
@@ -285,6 +285,14 @@
     <rPh sb="3" eb="4">
       <t>ネコ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnionJack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火薬とマーマイトの香り</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -823,6 +831,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>41</v>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB62795-9EDA-4BDC-8230-70FD2EB64157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980B4FE-0551-452C-9B16-BB21759771CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20865" yWindow="4590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>English</t>
   </si>
@@ -284,6 +284,17 @@
     <t>フード猫</t>
     <rPh sb="3" eb="4">
       <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlackKnight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒騎士</t>
+    <rPh sb="0" eb="3">
+      <t>クロキシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -823,6 +834,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>41</v>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980B4FE-0551-452C-9B16-BB21759771CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E46C3-5665-4F1B-8B8E-44112ED36056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20865" yWindow="4590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>English</t>
   </si>
@@ -296,6 +296,14 @@
     <rPh sb="0" eb="3">
       <t>クロキシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnionJack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火薬とマーマイトの香り</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -626,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -842,6 +850,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>41</v>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E46C3-5665-4F1B-8B8E-44112ED36056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD6F78-C52B-492C-9CE5-2AE62425ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>English</t>
   </si>
@@ -304,6 +304,22 @@
   </si>
   <si>
     <t>火薬とマーマイトの香り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SinnekowasaZero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新ねこわさんぐZERO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lemonsour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルすぎた</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -632,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -858,49 +874,59 @@
         <v>64</v>
       </c>
     </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD6F78-C52B-492C-9CE5-2AE62425ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAADF56-FA05-4034-8880-732ED5BA71E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>English</t>
   </si>
@@ -320,6 +320,191 @@
   </si>
   <si>
     <t>リアルすぎた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinaniki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミミッキュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひなにい作</t>
+    <rPh sb="4" eb="5">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mimikkyu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nitori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iemon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いえもん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mizore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mizoreSkin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みぞれ作</t>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みぞれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めめんともり作</t>
+    <rPh sb="6" eb="7">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めめんともり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mementMori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラテ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守護ラテ</t>
+    <rPh sb="0" eb="2">
+      <t>シュゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lateGuard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>late</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>omentMori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おめんともり</t>
+  </si>
+  <si>
+    <t>kubittake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hachiman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八幡宮作</t>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンマス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gunmuss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gunmussRocket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンマスロケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinaLuka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒナルカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>otowareLalor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音割れレイラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音割レイラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>otowaLalor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mukuro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mizoreHat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みぞれ帽</t>
+  </si>
+  <si>
+    <t>tacopi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコピー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -648,16 +833,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -928,6 +1113,179 @@
         <v>48</v>
       </c>
     </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="M45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="M46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="M48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="M49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="M52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="M57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="M61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="M62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+      <c r="M64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="M65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="M66" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAADF56-FA05-4034-8880-732ED5BA71E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4E9FCD-27C6-4FE3-9E5E-307923B040A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>English</t>
   </si>
@@ -505,6 +505,13 @@
   </si>
   <si>
     <t>タコピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>首ったけ</t>
+    <rPh sb="0" eb="1">
+      <t>クビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -835,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1237,6 +1244,9 @@
       <c r="A58" t="s">
         <v>93</v>
       </c>
+      <c r="M58" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4E9FCD-27C6-4FE3-9E5E-307923B040A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56B9576-7173-49FF-9747-28220A205649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>English</t>
   </si>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ミミッキュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひなにい作</t>
     <rPh sb="4" eb="5">
       <t>サク</t>
@@ -473,10 +469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>音割れレイラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>音割レイラー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -512,6 +504,25 @@
     <rPh sb="0" eb="1">
       <t>クビ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化けの皮</t>
+  </si>
+  <si>
+    <t>レイラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テイラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gutierrez</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toliki</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -840,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A68" sqref="A67:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1125,175 +1136,191 @@
         <v>69</v>
       </c>
       <c r="M40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" t="s">
         <v>73</v>
-      </c>
-      <c r="M42" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="M43" t="s">
         <v>75</v>
-      </c>
-      <c r="M43" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="M44" t="s">
         <v>77</v>
-      </c>
-      <c r="M44" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="M55" t="s">
         <v>83</v>
-      </c>
-      <c r="M55" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="M57" t="s">
         <v>91</v>
-      </c>
-      <c r="M57" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="M61" t="s">
         <v>94</v>
-      </c>
-      <c r="M61" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="M63" t="s">
         <v>98</v>
-      </c>
-      <c r="M63" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="M64" t="s">
         <v>100</v>
-      </c>
-      <c r="M64" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="M65" t="s">
         <v>102</v>
-      </c>
-      <c r="M65" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M66" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="M67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="M68" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56B9576-7173-49FF-9747-28220A205649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E1B3BF-C7E8-4247-BA86-A82CA6FBF25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7350" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
   <si>
     <t>English</t>
   </si>
@@ -523,6 +523,216 @@
   </si>
   <si>
     <t>toliki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miyachi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Akane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琴葉茜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Akari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紲星あかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aoi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琴葉葵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Armachan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルマちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diachan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディアちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hau</t>
+  </si>
+  <si>
+    <t>雨晴はう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴花ヒメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KANATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kotoe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンゲコトエ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水奈瀬コウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MANA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四国めたん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mikoto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴花ミコト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAKO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足立レイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REKO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ritsu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波音リツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rowen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式狼縁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜乃そら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Taigen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式大元</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tsukuyomichan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つくよみちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tsumugi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春日部つむぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yukari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結月ゆかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yuzuru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊織弓鶴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ずんだもん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zundamon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みやち作</t>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -851,16 +1061,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A68" sqref="A67:A68"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="12" width="3.75" customWidth="1"/>
     <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1323,6 +1533,222 @@
         <v>113</v>
       </c>
     </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="M70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="M71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="M72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="M73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="M74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="M75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>127</v>
+      </c>
+      <c r="M76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>128</v>
+      </c>
+      <c r="M77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>130</v>
+      </c>
+      <c r="M78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="M79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="M80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="M81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="M82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>139</v>
+      </c>
+      <c r="M83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>141</v>
+      </c>
+      <c r="M84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="M85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+      <c r="M86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="M87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>149</v>
+      </c>
+      <c r="M88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="M89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="M90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="M91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="M92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="M93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="M94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>163</v>
+      </c>
+      <c r="M95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>166</v>
+      </c>
+      <c r="M96" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E1B3BF-C7E8-4247-BA86-A82CA6FBF25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4B0BA-CFC3-4A0A-AE93-95B788DE82D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7350" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="240">
   <si>
     <t>English</t>
   </si>
@@ -733,6 +733,297 @@
     <rPh sb="3" eb="4">
       <t>サク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YJSiroSakura</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと武器庫で借りてきた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双葉アホ毛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ahoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルキラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doubleKiller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECHO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sandWich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンドイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>live</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配信中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ninshoBadge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証バッジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんな状況でもプレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redPlay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saimin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分へ催眠術</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sairiumu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイリウム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starRod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターロッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モップ掛けを忘れずに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸素をとっておこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hydration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観光には水分補給</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yojo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ょぅじょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eyemask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は寝ていません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usbHacker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USBハッカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4gou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>utyuJin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇宙人だよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nobaman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軟禁コースター管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onigiri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おにぎり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tellmebeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テルミービード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みょみょみょみょ～ん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>satori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小5+ロリ=悟り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>standImpostor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタンド:インポスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crewJuice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルージュース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gomibako</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除3秒前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silverShield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀の盾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uboa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウボァ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dokkingNiboshi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドッキングにぼし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pickaxeHead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭痛</t>
+    <rPh sb="0" eb="2">
+      <t>ズツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YJ*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悩み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thinking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jevil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェビル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>madadesuka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YJ*白桜作</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1061,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1749,6 +2040,294 @@
         <v>165</v>
       </c>
     </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>168</v>
+      </c>
+      <c r="M98" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>169</v>
+      </c>
+      <c r="M99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>172</v>
+      </c>
+      <c r="M100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="M101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>175</v>
+      </c>
+      <c r="M102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>177</v>
+      </c>
+      <c r="M103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>179</v>
+      </c>
+      <c r="M104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="M105" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>184</v>
+      </c>
+      <c r="M106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>185</v>
+      </c>
+      <c r="M107" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>187</v>
+      </c>
+      <c r="M108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="M109" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>191</v>
+      </c>
+      <c r="M110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>193</v>
+      </c>
+      <c r="M111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>195</v>
+      </c>
+      <c r="M112" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>197</v>
+      </c>
+      <c r="M113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>199</v>
+      </c>
+      <c r="M114" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>201</v>
+      </c>
+      <c r="M115" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>203</v>
+      </c>
+      <c r="M116" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>205</v>
+      </c>
+      <c r="M117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>207</v>
+      </c>
+      <c r="M118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>209</v>
+      </c>
+      <c r="M119" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>211</v>
+      </c>
+      <c r="M120" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>213</v>
+      </c>
+      <c r="M121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>215</v>
+      </c>
+      <c r="M122" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>217</v>
+      </c>
+      <c r="M123" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>219</v>
+      </c>
+      <c r="M124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>221</v>
+      </c>
+      <c r="M125" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>223</v>
+      </c>
+      <c r="M126" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>225</v>
+      </c>
+      <c r="M127" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>227</v>
+      </c>
+      <c r="M128" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>229</v>
+      </c>
+      <c r="M129" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>234</v>
+      </c>
+      <c r="M130" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>231</v>
+      </c>
+      <c r="M131" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>235</v>
+      </c>
+      <c r="M132" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>237</v>
+      </c>
+      <c r="M133" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4B0BA-CFC3-4A0A-AE93-95B788DE82D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B964D028-BBD2-4688-9B35-0B01BB00A2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="286">
   <si>
     <t>English</t>
   </si>
@@ -1024,6 +1024,188 @@
   </si>
   <si>
     <t>YJ*白桜作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月読アイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aihat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月読アイ(帽子あり)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Allial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ankomon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんこもん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Averuni</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アベルーニ</t>
+  </si>
+  <si>
+    <t>CeviMaki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弦巻マキ(Cevio)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Itako</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東北イタコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kiritan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東北きりたん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kiritanpo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東北きりたん(きりたんぽ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弦巻マキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Millial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sasara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとうささら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Seika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京町セイカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Syouta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月読ショウタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Takahashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タカハシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tsudumi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すずきつづみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tuina</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ついなちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TuinaMen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ついなちゃん(ディクソン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Una</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音街ウナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unahat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音街ウナ(オタマン帽)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unoka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽ノ華</t>
+  </si>
+  <si>
+    <t>Zunko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東北ずん子</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1352,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="M127" sqref="M127"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2040,291 +2222,483 @@
         <v>165</v>
       </c>
     </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>240</v>
+      </c>
+      <c r="M97" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="M98" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="M99" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="M100" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="M101" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="M102" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="M103" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M104" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="M105" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="M106" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="M107" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="M108" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="M109" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="M110" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="M111" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="M112" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="M113" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="M114" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="M115" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="M116" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="M117" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="M118" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="M119" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="M120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>213</v>
-      </c>
-      <c r="M121" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>215</v>
-      </c>
-      <c r="M122" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>217</v>
-      </c>
-      <c r="M123" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="M124" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="M125" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="M126" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="M127" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="M128" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="M129" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="M130" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="M131" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="M132" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
+        <v>185</v>
+      </c>
+      <c r="M133" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>187</v>
+      </c>
+      <c r="M134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>189</v>
+      </c>
+      <c r="M135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>191</v>
+      </c>
+      <c r="M136" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>193</v>
+      </c>
+      <c r="M137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>195</v>
+      </c>
+      <c r="M138" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>197</v>
+      </c>
+      <c r="M139" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>199</v>
+      </c>
+      <c r="M140" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>201</v>
+      </c>
+      <c r="M141" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>203</v>
+      </c>
+      <c r="M142" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>205</v>
+      </c>
+      <c r="M143" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>207</v>
+      </c>
+      <c r="M144" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>209</v>
+      </c>
+      <c r="M145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>211</v>
+      </c>
+      <c r="M146" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>213</v>
+      </c>
+      <c r="M147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>215</v>
+      </c>
+      <c r="M148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>217</v>
+      </c>
+      <c r="M149" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>219</v>
+      </c>
+      <c r="M150" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+      <c r="M151" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>223</v>
+      </c>
+      <c r="M152" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>225</v>
+      </c>
+      <c r="M153" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>227</v>
+      </c>
+      <c r="M154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>229</v>
+      </c>
+      <c r="M155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>234</v>
+      </c>
+      <c r="M156" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>231</v>
+      </c>
+      <c r="M157" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>235</v>
+      </c>
+      <c r="M158" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
         <v>237</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M159" t="s">
         <v>238</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B964D028-BBD2-4688-9B35-0B01BB00A2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27583C27-52C2-445E-864C-FA4CF4F9F959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="294">
   <si>
     <t>English</t>
   </si>
@@ -1206,6 +1206,41 @@
   </si>
   <si>
     <t>東北ずん子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いとう作</t>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トモカEB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tomokaEB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamatoBeetle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カブトムシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カブトムシ_茶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamatoBeetleBrown</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1534,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q159"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="M163" sqref="M163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2702,6 +2737,38 @@
         <v>238</v>
       </c>
     </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>286</v>
+      </c>
+      <c r="M162" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>289</v>
+      </c>
+      <c r="M163" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>290</v>
+      </c>
+      <c r="M164" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>293</v>
+      </c>
+      <c r="M165" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27583C27-52C2-445E-864C-FA4CF4F9F959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF32E91-A581-4BA6-9AC4-147DBA6CE950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17295" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="318">
   <si>
     <t>English</t>
   </si>
@@ -1241,6 +1241,111 @@
   </si>
   <si>
     <t>yamatoBeetleBrown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SuitJackal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スムースジャッカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kurodoru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロドル作</t>
+    <rPh sb="4" eb="5">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zombie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾンビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taskbar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unhappyset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンハッピーセット作</t>
+    <rPh sb="9" eb="10">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寄生虫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ParasiticWormwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rapu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らぷ作</t>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター最終形態(FNF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImpostorFinalform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoodToBeAlive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good To Be Alive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>babble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>capsule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>basicimpostor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベーシックインポスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicImpostor</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1569,16 +1674,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q165"/>
+  <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="M163" sqref="M163"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="M170" sqref="M170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="12" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="12" width="3.75" customWidth="1"/>
     <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1811,6 +1918,14 @@
         <v>68</v>
       </c>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
     </row>
@@ -2767,6 +2882,95 @@
       </c>
       <c r="M165" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>296</v>
+      </c>
+      <c r="M167" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>298</v>
+      </c>
+      <c r="M168" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>310</v>
+      </c>
+      <c r="M169" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>302</v>
+      </c>
+      <c r="M172" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>301</v>
+      </c>
+      <c r="B173" t="s">
+        <v>301</v>
+      </c>
+      <c r="M173" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>312</v>
+      </c>
+      <c r="B174" t="s">
+        <v>313</v>
+      </c>
+      <c r="M174" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>306</v>
+      </c>
+      <c r="M178" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>305</v>
+      </c>
+      <c r="M179" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>309</v>
+      </c>
+      <c r="M180" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" t="s">
+        <v>317</v>
+      </c>
+      <c r="M181" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF32E91-A581-4BA6-9AC4-147DBA6CE950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE20A27-E4C8-4A75-BC08-224FCA089121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17295" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="334">
   <si>
     <t>English</t>
   </si>
@@ -1346,6 +1346,69 @@
   </si>
   <si>
     <t>BasicImpostor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breadeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handmike</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hatmuff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jokercard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parasite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pcngus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suschiken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歌え</t>
+  </si>
+  <si>
+    <t>パンはおいしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハット&amp;マフラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寄生中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チキン1つ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1674,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q181"/>
+  <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="M170" sqref="M170"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="M159" sqref="M159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2852,124 +2915,188 @@
         <v>238</v>
       </c>
     </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="M160" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>319</v>
+      </c>
+      <c r="M161" t="s">
+        <v>326</v>
+      </c>
+    </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M162" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M163" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M164" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M165" t="s">
-        <v>292</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>324</v>
+      </c>
+      <c r="M166" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="M167" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>298</v>
-      </c>
-      <c r="M168" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>310</v>
-      </c>
-      <c r="M169" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="M172" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>301</v>
-      </c>
-      <c r="B173" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="M173" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>312</v>
-      </c>
-      <c r="B174" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="M174" t="s">
-        <v>314</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>293</v>
+      </c>
+      <c r="M175" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>296</v>
+      </c>
+      <c r="M177" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M178" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
+        <v>310</v>
+      </c>
+      <c r="M179" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>302</v>
+      </c>
+      <c r="M182" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>301</v>
+      </c>
+      <c r="B183" t="s">
+        <v>301</v>
+      </c>
+      <c r="M183" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>312</v>
+      </c>
+      <c r="B184" t="s">
+        <v>313</v>
+      </c>
+      <c r="M184" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>306</v>
+      </c>
+      <c r="M188" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
         <v>305</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M189" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
         <v>309</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M190" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
         <v>315</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B191" t="s">
         <v>317</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M191" t="s">
         <v>316</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE20A27-E4C8-4A75-BC08-224FCA089121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BD975-80E2-4BB8-AFF7-A74450D9D562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="336">
   <si>
     <t>English</t>
   </si>
@@ -1409,6 +1409,14 @@
   </si>
   <si>
     <t>チキン1つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KindGang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gチキくーださい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1739,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="M159" sqref="M159"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1989,6 +1997,14 @@
         <v>295</v>
       </c>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>334</v>
+      </c>
+      <c r="M26" t="s">
+        <v>335</v>
+      </c>
+    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BD975-80E2-4BB8-AFF7-A74450D9D562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F69C47-C860-4CC9-ABD3-0DEFF9CE8036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="338">
   <si>
     <t>English</t>
   </si>
@@ -1417,6 +1417,14 @@
   </si>
   <si>
     <t>Gチキくーださい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Butasan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キレそう</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1747,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2005,6 +2013,14 @@
         <v>335</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>336</v>
+      </c>
+      <c r="M27" t="s">
+        <v>337</v>
+      </c>
+    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F69C47-C860-4CC9-ABD3-0DEFF9CE8036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC87F20-832E-42DD-A121-DED4BC49EC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="342">
   <si>
     <t>English</t>
   </si>
@@ -1426,6 +1426,18 @@
   <si>
     <t>キレそう</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oyakimon</t>
+  </si>
+  <si>
+    <t>おやきもん作</t>
+  </si>
+  <si>
+    <t>oyaki</t>
+  </si>
+  <si>
+    <t>でかいおやき</t>
   </si>
 </sst>
 </file>
@@ -1753,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q191"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="J200" sqref="J200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3132,6 +3144,22 @@
         <v>316</v>
       </c>
     </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>338</v>
+      </c>
+      <c r="M194" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>340</v>
+      </c>
+      <c r="M195" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC87F20-832E-42DD-A121-DED4BC49EC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F38590-B481-49D8-B013-C5E1D6F5937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="5250" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="355">
   <si>
     <t>English</t>
   </si>
@@ -1438,6 +1438,73 @@
   </si>
   <si>
     <t>でかいおやき</t>
+  </si>
+  <si>
+    <t>もちもちクルー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mochimochicrewmate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味噌汁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>misosoup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>misosiru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noraushi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野良牛作</t>
+    <rPh sb="0" eb="2">
+      <t>ノラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noraushiHat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野良牛</t>
+    <rPh sb="0" eb="2">
+      <t>ノラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>romuniki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROMniki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆーり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yuri</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1765,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q195"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="J200" sqref="J200"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3109,6 +3176,25 @@
         <v>314</v>
       </c>
     </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>343</v>
+      </c>
+      <c r="M185" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>346</v>
+      </c>
+      <c r="B186" t="s">
+        <v>345</v>
+      </c>
+      <c r="M186" t="s">
+        <v>344</v>
+      </c>
+    </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>306</v>
@@ -3158,6 +3244,38 @@
       </c>
       <c r="M195" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>347</v>
+      </c>
+      <c r="M197" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>349</v>
+      </c>
+      <c r="M198" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>351</v>
+      </c>
+      <c r="M199" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>354</v>
+      </c>
+      <c r="M200" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VisualStudioProject\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F38590-B481-49D8-B013-C5E1D6F5937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA3CDB-51F1-4AAD-8B52-C49AA862B030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="5250" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="405">
   <si>
     <t>English</t>
   </si>
@@ -1506,12 +1506,184 @@
     <t>yuri</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>turunoda</t>
+  </si>
+  <si>
+    <t>だじゃれもんは吊るのだ。</t>
+  </si>
+  <si>
+    <t>onore_Impostor</t>
+  </si>
+  <si>
+    <t>おのれ　インポスター！</t>
+  </si>
+  <si>
+    <t>onore_Jackal</t>
+  </si>
+  <si>
+    <t>おのれジャッカル！</t>
+  </si>
+  <si>
+    <t>tinfoil_hat</t>
+  </si>
+  <si>
+    <t>思考盗聴対策</t>
+  </si>
+  <si>
+    <t>karappomon</t>
+  </si>
+  <si>
+    <t>からっぽもん作</t>
+  </si>
+  <si>
+    <t>bom_maimai</t>
+  </si>
+  <si>
+    <t>バクダンマイマイ</t>
+  </si>
+  <si>
+    <t>beer_maimai</t>
+  </si>
+  <si>
+    <t>ビールマイマイ</t>
+  </si>
+  <si>
+    <t>arumikan_turunoda</t>
+  </si>
+  <si>
+    <t>あるミカン（つるのだ）</t>
+  </si>
+  <si>
+    <t>arumikan_zundamon</t>
+  </si>
+  <si>
+    <t>あるミカン（ZUNDAMON）</t>
+  </si>
+  <si>
+    <t>arumikan_zundanrg</t>
+  </si>
+  <si>
+    <t>あるミカン（ZUNDANRG）</t>
+  </si>
+  <si>
+    <t>arumikan_grape</t>
+  </si>
+  <si>
+    <t>あるミカン（グレープ）</t>
+  </si>
+  <si>
+    <t>arumikan_tea</t>
+  </si>
+  <si>
+    <t>あるミカン（お茶）</t>
+  </si>
+  <si>
+    <t>arumikan_zunpis</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>あるミカン（ズンピス）</t>
+  </si>
+  <si>
+    <t>oyaki_maimai</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オヤキマイマイ</t>
+  </si>
+  <si>
+    <t>short_maimai</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>けーきまいまい</t>
+  </si>
+  <si>
+    <t>maimai_oyaki_reinoshippo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>しっぽ入りおやきマイマイ</t>
+  </si>
+  <si>
+    <t>maimai_oyaki_zunshippo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ずんしっぽおやきマイマイ</t>
+  </si>
+  <si>
+    <t>maimai_purin</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プリンマイマイ</t>
+  </si>
+  <si>
+    <t>mint_maimai</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チョコミントマイマイ</t>
+  </si>
+  <si>
+    <t>Takeman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹饅作</t>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_IronPick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_Defeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_Pickaxe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Defeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IronPick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイヤピッケル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HolyBeast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spinosaurus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖なる獣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピノサウルス</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,6 +1697,44 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1544,16 +1754,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{1291E846-3410-4569-AD54-4DE3730D3D28}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1832,15 +2054,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:Q227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="M193" sqref="M193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
     <col min="4" max="12" width="3.75" customWidth="1"/>
@@ -3230,52 +3452,395 @@
         <v>316</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
-        <v>338</v>
-      </c>
-      <c r="M194" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
-        <v>340</v>
-      </c>
-      <c r="M195" t="s">
-        <v>341</v>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>401</v>
+      </c>
+      <c r="M192" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>402</v>
+      </c>
+      <c r="M193" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>347</v>
+      </c>
+      <c r="M196" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M197" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M198" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M199" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
-        <v>354</v>
-      </c>
-      <c r="M200" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>338</v>
+      </c>
+      <c r="M201" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>340</v>
+      </c>
+      <c r="M202" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A203" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A204" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A205" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A206" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A208" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A209" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A210" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A211" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A212" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A213" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A214" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A215" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A216" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="M216" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A217" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="M217" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A218" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M218" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A219" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A220" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M220" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A221" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="M221" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A222" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M222" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>393</v>
+      </c>
+      <c r="M224" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>395</v>
+      </c>
+      <c r="M225" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>396</v>
+      </c>
+      <c r="M226" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>397</v>
+      </c>
+      <c r="M227" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VisualStudioProject\ExtremeHat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA3CDB-51F1-4AAD-8B52-C49AA862B030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5804A0-1F98-4A30-8CAF-80FC6E74007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="413">
   <si>
     <t>English</t>
   </si>
@@ -1676,6 +1676,38 @@
   </si>
   <si>
     <t>スピノサウルス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Humanoid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白桜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒桜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白黒桜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SakuraWhite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SakuraBlack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SakuraWhiteBlack</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2056,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="M193" sqref="M193"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3312,6 +3344,30 @@
         <v>333</v>
       </c>
     </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>410</v>
+      </c>
+      <c r="M168" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>411</v>
+      </c>
+      <c r="M169" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>412</v>
+      </c>
+      <c r="M170" t="s">
+        <v>409</v>
+      </c>
+    </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>286</v>
@@ -3466,6 +3522,17 @@
       </c>
       <c r="M193" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>405</v>
+      </c>
+      <c r="B194" t="s">
+        <v>405</v>
+      </c>
+      <c r="M194" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5804A0-1F98-4A30-8CAF-80FC6E74007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F97499F-59FB-4AE0-AF2C-4CDED567883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="420">
   <si>
     <t>English</t>
   </si>
@@ -1708,6 +1708,34 @@
   </si>
   <si>
     <t>SakuraWhiteBlack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nyayuta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trickAndTreat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリック＆トリート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meronpan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メロンパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gunman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンマン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2086,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q227"/>
+  <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="M231" sqref="M231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3910,6 +3938,38 @@
         <v>400</v>
       </c>
     </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>413</v>
+      </c>
+      <c r="M229" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>414</v>
+      </c>
+      <c r="M230" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>416</v>
+      </c>
+      <c r="M231" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>418</v>
+      </c>
+      <c r="M232" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F97499F-59FB-4AE0-AF2C-4CDED567883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A58749-6E53-4C92-B9D8-E67F33920F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="421">
   <si>
     <t>English</t>
   </si>
@@ -1736,6 +1736,13 @@
   </si>
   <si>
     <t>ガンマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nyayuta作</t>
+    <rPh sb="7" eb="8">
+      <t>サク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2117,7 +2124,7 @@
   <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="M231" sqref="M231"/>
+      <selection activeCell="M230" sqref="M230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3943,7 +3950,7 @@
         <v>413</v>
       </c>
       <c r="M229" s="9" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A58749-6E53-4C92-B9D8-E67F33920F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AAAD7D-B24A-476B-B9A8-470532E1B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20535" yWindow="3060" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="448">
   <si>
     <t>English</t>
   </si>
@@ -1744,6 +1744,114 @@
       <t>サク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AibayashiMizuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yu作</t>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藍林瑞希</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>莇野ヒナタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AzaminoHinata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シティ派たぬき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CITYHATANUKI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KatagiriKonsuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片桐紺介</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川原辺熊尓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KawarabeKumaji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mutari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むたリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NekoNoKnmichi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫の小道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nekomatamasao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫叉まさお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShimizuAlm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枝水アルム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YuHat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YukitoFuyumori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬森ゆきと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪月ノア</t>
+  </si>
+  <si>
+    <t>YukizukiNoir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oyaki_mini</t>
+  </si>
+  <si>
+    <t>ミニおやき</t>
   </si>
 </sst>
 </file>
@@ -2121,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q232"/>
+  <dimension ref="A1:Q247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="M230" sqref="M230"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3694,28 +3802,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A208" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2" t="s">
-        <v>364</v>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>446</v>
+      </c>
+      <c r="M207" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3729,12 +3826,12 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3748,12 +3845,12 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3767,12 +3864,12 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3786,12 +3883,12 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3805,12 +3902,12 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3823,13 +3920,13 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
-      <c r="M214" s="3" t="s">
-        <v>376</v>
+      <c r="M214" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3843,138 +3940,261 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A216" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216" s="4" t="s">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A217" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="M216" s="5" t="s">
+      <c r="M217" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A217" s="6" t="s">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A218" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="M217" s="6" t="s">
+      <c r="M218" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A218" s="7" t="s">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A219" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="M218" s="7" t="s">
+      <c r="M219" s="7" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A219" s="6" t="s">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A220" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="6" t="s">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A220" s="7" t="s">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A221" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="M220" s="7" t="s">
+      <c r="M221" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A221" s="8" t="s">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A222" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="M221" s="7" t="s">
+      <c r="M222" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A222" s="7" t="s">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A223" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="M222" s="7" t="s">
+      <c r="M223" s="7" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
-        <v>393</v>
-      </c>
-      <c r="M224" s="9" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>395</v>
-      </c>
-      <c r="M225" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
+      </c>
+      <c r="M225" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>396</v>
-      </c>
-      <c r="M226" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="M226" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
+        <v>396</v>
+      </c>
+      <c r="M227" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
         <v>397</v>
       </c>
-      <c r="M227" s="9" t="s">
+      <c r="M228" s="7" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
-        <v>413</v>
-      </c>
-      <c r="M229" s="9" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>414</v>
-      </c>
-      <c r="M230" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="M230" s="7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>416</v>
-      </c>
-      <c r="M231" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
+      </c>
+      <c r="M231" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
+        <v>416</v>
+      </c>
+      <c r="M232" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
         <v>418</v>
       </c>
-      <c r="M232" s="9" t="s">
+      <c r="M233" s="7" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>422</v>
+      </c>
+      <c r="M235" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>421</v>
+      </c>
+      <c r="M236" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>426</v>
+      </c>
+      <c r="M237" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>428</v>
+      </c>
+      <c r="M238" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>429</v>
+      </c>
+      <c r="M239" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>432</v>
+      </c>
+      <c r="M240" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>433</v>
+      </c>
+      <c r="M241" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>435</v>
+      </c>
+      <c r="M242" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>437</v>
+      </c>
+      <c r="M243" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>439</v>
+      </c>
+      <c r="M244" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>441</v>
+      </c>
+      <c r="M245" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>442</v>
+      </c>
+      <c r="M246" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>445</v>
+      </c>
+      <c r="M247" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AAAD7D-B24A-476B-B9A8-470532E1B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C51064-B82A-4A7A-AE33-BD608552BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20535" yWindow="3060" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="462">
   <si>
     <t>English</t>
   </si>
@@ -1852,6 +1852,62 @@
   </si>
   <si>
     <t>ミニおやき</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OldGlass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mystery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角い顔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎の存在</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigcolorcone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大カラーコーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火事</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genocide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェノサイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイス</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1933,7 +1989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1947,7 +2003,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{1291E846-3410-4569-AD54-4DE3730D3D28}"/>
@@ -2229,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q247"/>
+  <dimension ref="A1:Q258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3511,403 +3566,280 @@
         <v>409</v>
       </c>
     </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>448</v>
+      </c>
+      <c r="M171" t="s">
+        <v>451</v>
+      </c>
+    </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="M172" t="s">
-        <v>287</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="M173" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>290</v>
-      </c>
-      <c r="M174" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>293</v>
-      </c>
-      <c r="M175" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>296</v>
-      </c>
-      <c r="M177" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>298</v>
-      </c>
-      <c r="M178" t="s">
-        <v>299</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="M179" t="s">
-        <v>311</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>289</v>
+      </c>
+      <c r="M180" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>290</v>
+      </c>
+      <c r="M181" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M182" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>301</v>
-      </c>
-      <c r="B183" t="s">
-        <v>301</v>
-      </c>
-      <c r="M183" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>312</v>
-      </c>
-      <c r="B184" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="M184" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="M185" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>346</v>
-      </c>
-      <c r="B186" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="M186" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>306</v>
-      </c>
-      <c r="M188" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M189" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>309</v>
+        <v>301</v>
+      </c>
+      <c r="B190" t="s">
+        <v>301</v>
       </c>
       <c r="M190" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B191" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M191" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="M192" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>402</v>
+        <v>346</v>
+      </c>
+      <c r="B193" t="s">
+        <v>345</v>
       </c>
       <c r="M193" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>405</v>
-      </c>
-      <c r="B194" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="M194" t="s">
-        <v>406</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>454</v>
+      </c>
+      <c r="M195" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>347</v>
+        <v>458</v>
       </c>
       <c r="M196" t="s">
-        <v>348</v>
+        <v>459</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>349</v>
+        <v>460</v>
       </c>
       <c r="M197" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
-        <v>351</v>
-      </c>
-      <c r="M198" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="M199" t="s">
-        <v>353</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>305</v>
+      </c>
+      <c r="M200" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="M201" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>340</v>
+        <v>315</v>
+      </c>
+      <c r="B202" t="s">
+        <v>317</v>
       </c>
       <c r="M202" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A203" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2" t="s">
-        <v>356</v>
+      <c r="A203" t="s">
+        <v>401</v>
+      </c>
+      <c r="M203" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A204" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2" t="s">
-        <v>358</v>
+      <c r="A204" t="s">
+        <v>402</v>
+      </c>
+      <c r="M204" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A205" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A206" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2" t="s">
-        <v>362</v>
+      <c r="A205" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" t="s">
+        <v>405</v>
+      </c>
+      <c r="M205" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="M207" t="s">
-        <v>447</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>349</v>
+      </c>
+      <c r="M208" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A209" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2" t="s">
-        <v>364</v>
+      <c r="A209" t="s">
+        <v>351</v>
+      </c>
+      <c r="M209" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A210" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A211" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2" t="s">
-        <v>368</v>
+      <c r="A210" t="s">
+        <v>354</v>
+      </c>
+      <c r="M210" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A212" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2" t="s">
-        <v>370</v>
+      <c r="A212" t="s">
+        <v>338</v>
+      </c>
+      <c r="M212" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A213" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2" t="s">
-        <v>372</v>
+      <c r="A213" t="s">
+        <v>340</v>
+      </c>
+      <c r="M213" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3921,12 +3853,12 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3939,13 +3871,13 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
-      <c r="M215" s="3" t="s">
-        <v>376</v>
+      <c r="M215" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3958,37 +3890,40 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
-      <c r="M216" s="3" t="s">
-        <v>378</v>
+      <c r="M216" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A217" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="M217" s="5" t="s">
-        <v>380</v>
+      <c r="A217" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A218" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="M218" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A219" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M219" s="7" t="s">
-        <v>384</v>
+      <c r="A218" t="s">
+        <v>446</v>
+      </c>
+      <c r="M218" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A220" s="6" t="s">
-        <v>385</v>
+      <c r="A220" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -4001,199 +3936,375 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
-      <c r="M220" s="6" t="s">
+      <c r="M220" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A221" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A222" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A223" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A224" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A225" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A226" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A227" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A228" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="M228" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A229" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="M229" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A230" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M230" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A231" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A221" s="7" t="s">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A232" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="M221" s="7" t="s">
+      <c r="M232" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A222" s="8" t="s">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A233" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="M222" s="7" t="s">
+      <c r="M233" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A223" s="7" t="s">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A234" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="M223" s="7" t="s">
+      <c r="M234" s="7" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
-        <v>393</v>
-      </c>
-      <c r="M225" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>395</v>
-      </c>
-      <c r="M226" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
-        <v>396</v>
-      </c>
-      <c r="M227" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
-        <v>397</v>
-      </c>
-      <c r="M228" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
-        <v>413</v>
-      </c>
-      <c r="M230" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
-        <v>414</v>
-      </c>
-      <c r="M231" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
-        <v>416</v>
-      </c>
-      <c r="M232" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
-        <v>418</v>
-      </c>
-      <c r="M233" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
-        <v>422</v>
-      </c>
-      <c r="M235" s="9" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>421</v>
-      </c>
-      <c r="M236" s="9" t="s">
-        <v>424</v>
+        <v>393</v>
+      </c>
+      <c r="M236" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>426</v>
-      </c>
-      <c r="M237" s="9" t="s">
-        <v>425</v>
+        <v>395</v>
+      </c>
+      <c r="M237" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>428</v>
-      </c>
-      <c r="M238" s="9" t="s">
-        <v>427</v>
+        <v>396</v>
+      </c>
+      <c r="M238" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>429</v>
-      </c>
-      <c r="M239" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
-        <v>432</v>
-      </c>
-      <c r="M240" s="9" t="s">
-        <v>431</v>
+        <v>397</v>
+      </c>
+      <c r="M239" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>433</v>
-      </c>
-      <c r="M241" s="9" t="s">
-        <v>434</v>
+        <v>413</v>
+      </c>
+      <c r="M241" s="7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>435</v>
-      </c>
-      <c r="M242" s="9" t="s">
-        <v>436</v>
+        <v>414</v>
+      </c>
+      <c r="M242" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>437</v>
-      </c>
-      <c r="M243" s="9" t="s">
-        <v>438</v>
+        <v>416</v>
+      </c>
+      <c r="M243" s="7" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>439</v>
-      </c>
-      <c r="M244" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
-        <v>441</v>
-      </c>
-      <c r="M245" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="M244" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>442</v>
-      </c>
-      <c r="M246" s="9" t="s">
-        <v>443</v>
+        <v>422</v>
+      </c>
+      <c r="M246" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
+        <v>421</v>
+      </c>
+      <c r="M247" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>426</v>
+      </c>
+      <c r="M248" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>428</v>
+      </c>
+      <c r="M249" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>429</v>
+      </c>
+      <c r="M250" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>432</v>
+      </c>
+      <c r="M251" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>433</v>
+      </c>
+      <c r="M252" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
+        <v>435</v>
+      </c>
+      <c r="M253" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>437</v>
+      </c>
+      <c r="M254" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>439</v>
+      </c>
+      <c r="M255" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
+        <v>441</v>
+      </c>
+      <c r="M256" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A257" t="s">
+        <v>442</v>
+      </c>
+      <c r="M257" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
         <v>445</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M258" t="s">
         <v>444</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C51064-B82A-4A7A-AE33-BD608552BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB853196-E8BA-4C53-9652-5505ED822252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="494">
   <si>
     <t>English</t>
   </si>
@@ -1907,6 +1907,134 @@
   </si>
   <si>
     <t>アイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AkaneSy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琴葉茜(Synthesizer V)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AkariAI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AkariTu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紲星あかり 蕾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紲星あかり AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoiSy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chifuyu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花隈千冬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Karin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏色花梨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kiritan2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東北きりたん 私服</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kiritanpo2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琴葉葵(Synthesizer V)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東北きりたん 私服(きりたんぽ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kou2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水奈瀬コウ(上着あり)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ohoshi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お星</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rikka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小春六花</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SasaraAI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとうささら AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tobari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜語トバリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TsudumiAI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すずきつづみ AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YukariAI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結月ゆかり AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yukarisizuku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結月ゆかり 雫</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2284,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q258"/>
+  <dimension ref="A1:Q272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:M272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3190,916 +3318,841 @@
         <v>285</v>
       </c>
     </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>462</v>
+      </c>
+      <c r="M121" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>464</v>
+      </c>
+      <c r="M122" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>465</v>
+      </c>
+      <c r="M123" t="s">
+        <v>466</v>
+      </c>
+    </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>168</v>
+        <v>468</v>
       </c>
       <c r="M124" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>469</v>
       </c>
       <c r="M125" t="s">
-        <v>170</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="M126" t="s">
-        <v>171</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>473</v>
       </c>
       <c r="M127" t="s">
-        <v>173</v>
+        <v>474</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>475</v>
       </c>
       <c r="M128" t="s">
-        <v>176</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>478</v>
       </c>
       <c r="M129" t="s">
-        <v>178</v>
+        <v>479</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>480</v>
       </c>
       <c r="M130" t="s">
-        <v>180</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>482</v>
       </c>
       <c r="M131" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>484</v>
       </c>
       <c r="M132" t="s">
-        <v>183</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>185</v>
+        <v>486</v>
       </c>
       <c r="M133" t="s">
-        <v>186</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>187</v>
+        <v>488</v>
       </c>
       <c r="M134" t="s">
-        <v>188</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>490</v>
       </c>
       <c r="M135" t="s">
-        <v>190</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>191</v>
+        <v>492</v>
       </c>
       <c r="M136" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>193</v>
-      </c>
-      <c r="M137" t="s">
-        <v>194</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="M138" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="M139" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="M140" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="M141" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="M142" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="M143" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="M144" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="M145" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="M146" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="M147" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="M148" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="M149" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="M150" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M151" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="M152" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="M153" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="M154" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="M155" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="M156" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="M157" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="M158" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="M159" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="M160" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="M161" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="M162" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="M163" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="M164" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="M165" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="M166" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="M167" t="s">
-        <v>333</v>
+        <v>226</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>410</v>
+        <v>227</v>
       </c>
       <c r="M168" t="s">
-        <v>407</v>
+        <v>228</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>411</v>
+        <v>229</v>
       </c>
       <c r="M169" t="s">
-        <v>408</v>
+        <v>230</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>412</v>
+        <v>234</v>
       </c>
       <c r="M170" t="s">
-        <v>409</v>
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>448</v>
+        <v>231</v>
       </c>
       <c r="M171" t="s">
-        <v>451</v>
+        <v>232</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>449</v>
+        <v>235</v>
       </c>
       <c r="M172" t="s">
-        <v>452</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>450</v>
+        <v>237</v>
       </c>
       <c r="M173" t="s">
-        <v>453</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>318</v>
+      </c>
+      <c r="M174" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>319</v>
+      </c>
+      <c r="M175" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>320</v>
+      </c>
+      <c r="M176" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>321</v>
+      </c>
+      <c r="M177" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>322</v>
+      </c>
+      <c r="M178" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M179" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M180" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="M181" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="M182" t="s">
-        <v>292</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>411</v>
+      </c>
+      <c r="M183" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>296</v>
+        <v>412</v>
       </c>
       <c r="M184" t="s">
-        <v>297</v>
+        <v>409</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="M185" t="s">
-        <v>299</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>310</v>
+        <v>449</v>
       </c>
       <c r="M186" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>302</v>
-      </c>
-      <c r="M189" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
-        <v>301</v>
-      </c>
-      <c r="B190" t="s">
-        <v>301</v>
-      </c>
-      <c r="M190" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
-        <v>312</v>
-      </c>
-      <c r="B191" t="s">
-        <v>313</v>
-      </c>
-      <c r="M191" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>343</v>
-      </c>
-      <c r="M192" t="s">
-        <v>342</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>450</v>
+      </c>
+      <c r="M187" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>346</v>
-      </c>
-      <c r="B193" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="M193" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>456</v>
+        <v>289</v>
       </c>
       <c r="M194" t="s">
-        <v>457</v>
+        <v>288</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>454</v>
+        <v>290</v>
       </c>
       <c r="M195" t="s">
-        <v>455</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>458</v>
+        <v>293</v>
       </c>
       <c r="M196" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
-        <v>460</v>
-      </c>
-      <c r="M197" t="s">
-        <v>461</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>296</v>
+      </c>
+      <c r="M198" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M199" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M200" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
-        <v>309</v>
-      </c>
-      <c r="M201" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
-        <v>315</v>
-      </c>
-      <c r="B202" t="s">
-        <v>317</v>
-      </c>
-      <c r="M202" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="M203" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>301</v>
+      </c>
+      <c r="B204" t="s">
+        <v>301</v>
       </c>
       <c r="M204" t="s">
-        <v>404</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="B205" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="M205" t="s">
-        <v>406</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>343</v>
+      </c>
+      <c r="M206" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="B207" t="s">
+        <v>345</v>
       </c>
       <c r="M207" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>349</v>
+        <v>456</v>
       </c>
       <c r="M208" t="s">
-        <v>350</v>
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>351</v>
+        <v>454</v>
       </c>
       <c r="M209" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>354</v>
+        <v>458</v>
       </c>
       <c r="M210" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
-        <v>338</v>
-      </c>
-      <c r="M212" t="s">
-        <v>339</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>460</v>
+      </c>
+      <c r="M211" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="M213" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A214" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2" t="s">
-        <v>356</v>
+      <c r="A214" t="s">
+        <v>305</v>
+      </c>
+      <c r="M214" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A215" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2" t="s">
-        <v>358</v>
+      <c r="A215" t="s">
+        <v>309</v>
+      </c>
+      <c r="M215" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2" t="s">
-        <v>360</v>
+      <c r="A216" t="s">
+        <v>315</v>
+      </c>
+      <c r="B216" t="s">
+        <v>317</v>
+      </c>
+      <c r="M216" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A217" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2" t="s">
-        <v>362</v>
+      <c r="A217" t="s">
+        <v>401</v>
+      </c>
+      <c r="M217" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="M218" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A220" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2" t="s">
-        <v>364</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>405</v>
+      </c>
+      <c r="B219" t="s">
+        <v>405</v>
+      </c>
+      <c r="M219" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A221" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2" t="s">
-        <v>366</v>
+      <c r="A221" t="s">
+        <v>347</v>
+      </c>
+      <c r="M221" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A222" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2" t="s">
-        <v>368</v>
+      <c r="A222" t="s">
+        <v>349</v>
+      </c>
+      <c r="M222" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A223" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2" t="s">
-        <v>370</v>
+      <c r="A223" t="s">
+        <v>351</v>
+      </c>
+      <c r="M223" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A224" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A225" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2" t="s">
-        <v>374</v>
+      <c r="A224" t="s">
+        <v>354</v>
+      </c>
+      <c r="M224" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A226" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="3" t="s">
-        <v>376</v>
+      <c r="A226" t="s">
+        <v>338</v>
+      </c>
+      <c r="M226" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A227" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="3" t="s">
-        <v>378</v>
+      <c r="A227" t="s">
+        <v>340</v>
+      </c>
+      <c r="M227" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A228" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="M228" s="5" t="s">
-        <v>380</v>
+      <c r="A228" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A229" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="M229" s="6" t="s">
-        <v>382</v>
+      <c r="A229" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A230" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M230" s="7" t="s">
-        <v>384</v>
+      <c r="A230" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A231" s="6" t="s">
-        <v>385</v>
+      <c r="A231" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4112,199 +4165,402 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
-      <c r="M231" s="6" t="s">
+      <c r="M231" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>446</v>
+      </c>
+      <c r="M232" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A234" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A235" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A236" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A237" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A238" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A239" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A240" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A241" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A242" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A243" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="M243" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A244" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M244" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A245" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A232" s="7" t="s">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A246" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="M232" s="7" t="s">
+      <c r="M246" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A233" s="8" t="s">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A247" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="M233" s="7" t="s">
+      <c r="M247" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A234" s="7" t="s">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A248" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="M234" s="7" t="s">
+      <c r="M248" s="7" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
-        <v>393</v>
-      </c>
-      <c r="M236" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
-        <v>395</v>
-      </c>
-      <c r="M237" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
-        <v>396</v>
-      </c>
-      <c r="M238" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
-        <v>397</v>
-      </c>
-      <c r="M239" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
-        <v>413</v>
-      </c>
-      <c r="M241" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
-        <v>414</v>
-      </c>
-      <c r="M242" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
-        <v>416</v>
-      </c>
-      <c r="M243" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
-        <v>418</v>
-      </c>
-      <c r="M244" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
-        <v>422</v>
-      </c>
-      <c r="M246" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
-        <v>421</v>
-      </c>
-      <c r="M247" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
-        <v>426</v>
-      </c>
-      <c r="M248" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
-        <v>428</v>
-      </c>
-      <c r="M249" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="M250" s="7" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="M251" s="7" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="M252" s="7" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="M253" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
-        <v>437</v>
-      </c>
-      <c r="M254" s="7" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="M255" s="7" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="M256" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="M257" s="7" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
+        <v>418</v>
+      </c>
+      <c r="M258" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>422</v>
+      </c>
+      <c r="M260" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>421</v>
+      </c>
+      <c r="M261" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
+        <v>426</v>
+      </c>
+      <c r="M262" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A263" t="s">
+        <v>428</v>
+      </c>
+      <c r="M263" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
+        <v>429</v>
+      </c>
+      <c r="M264" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A265" t="s">
+        <v>432</v>
+      </c>
+      <c r="M265" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A266" t="s">
+        <v>433</v>
+      </c>
+      <c r="M266" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>435</v>
+      </c>
+      <c r="M267" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
+        <v>437</v>
+      </c>
+      <c r="M268" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A269" t="s">
+        <v>439</v>
+      </c>
+      <c r="M269" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A270" t="s">
+        <v>441</v>
+      </c>
+      <c r="M270" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A271" t="s">
+        <v>442</v>
+      </c>
+      <c r="M271" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A272" t="s">
         <v>445</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M272" t="s">
         <v>444</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB853196-E8BA-4C53-9652-5505ED822252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE1739B-BC27-440F-813B-E156F47B2B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="500">
   <si>
     <t>English</t>
   </si>
@@ -2035,6 +2035,28 @@
   </si>
   <si>
     <t>結月ゆかり 雫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iva</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iVa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月が綺麗ですね</t>
+  </si>
+  <si>
+    <t>月は出ているか？</t>
+  </si>
+  <si>
+    <t>big_moon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mini_moon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2412,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q272"/>
+  <dimension ref="A1:Q275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:M272"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4077,44 +4099,33 @@
         <v>353</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>338</v>
-      </c>
-      <c r="M226" t="s">
-        <v>339</v>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>494</v>
+      </c>
+      <c r="M225" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
+        <v>338</v>
+      </c>
+      <c r="M227" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
         <v>340</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M228" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A228" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4128,12 +4139,12 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4147,12 +4158,12 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4166,39 +4177,39 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A232" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
         <v>446</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M233" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A234" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -4212,12 +4223,12 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -4231,12 +4242,12 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -4250,12 +4261,12 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4269,12 +4280,12 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -4288,12 +4299,12 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -4306,13 +4317,13 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
-      <c r="M240" s="3" t="s">
-        <v>376</v>
+      <c r="M240" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -4326,241 +4337,298 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A242" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A242" s="4" t="s">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A243" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="M242" s="5" t="s">
+      <c r="M243" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A243" s="6" t="s">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A244" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="M243" s="6" t="s">
+      <c r="M244" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A244" s="7" t="s">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A245" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="M244" s="7" t="s">
+      <c r="M245" s="7" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A245" s="6" t="s">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A246" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
-      <c r="M245" s="6" t="s">
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A246" s="7" t="s">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A247" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="M246" s="7" t="s">
+      <c r="M247" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A247" s="8" t="s">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A248" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="M247" s="7" t="s">
+      <c r="M248" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A248" s="7" t="s">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A249" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="M248" s="7" t="s">
+      <c r="M249" s="7" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
-        <v>393</v>
-      </c>
+      <c r="A250" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
       <c r="M250" s="7" t="s">
-        <v>394</v>
+        <v>496</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
-        <v>395</v>
-      </c>
+      <c r="A251" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
       <c r="M251" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
-        <v>396</v>
-      </c>
-      <c r="M252" s="7" t="s">
-        <v>398</v>
+        <v>497</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M253" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>395</v>
+      </c>
+      <c r="M254" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="M255" s="7" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="M256" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A257" t="s">
-        <v>416</v>
-      </c>
-      <c r="M257" s="7" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M258" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>414</v>
+      </c>
+      <c r="M259" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M260" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M261" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
-        <v>426</v>
-      </c>
-      <c r="M262" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M263" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M264" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M265" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M266" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M267" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M268" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M269" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M270" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M271" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
+        <v>439</v>
+      </c>
+      <c r="M272" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A273" t="s">
+        <v>441</v>
+      </c>
+      <c r="M273" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A274" t="s">
+        <v>442</v>
+      </c>
+      <c r="M274" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A275" t="s">
         <v>445</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M275" t="s">
         <v>444</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66964199-9C0C-44E7-BF64-FD056EB8DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071A315-3EB8-49B7-9546-3D4809C1FC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="539">
   <si>
     <t>English</t>
   </si>
@@ -1083,75 +1083,6 @@
     <t>謎の存在</t>
   </si>
   <si>
-    <t>itow</t>
-  </si>
-  <si>
-    <t>いとう作</t>
-  </si>
-  <si>
-    <t>tomokaEB</t>
-  </si>
-  <si>
-    <t>トモカEB</t>
-  </si>
-  <si>
-    <t>yamatoBeetle</t>
-  </si>
-  <si>
-    <t>カブトムシ</t>
-  </si>
-  <si>
-    <t>yamatoBeetleBrown</t>
-  </si>
-  <si>
-    <t>カブトムシ_茶</t>
-  </si>
-  <si>
-    <t>Kurodoru</t>
-  </si>
-  <si>
-    <t>クロドル作</t>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>ゾンビ</t>
-  </si>
-  <si>
-    <t>GoodToBeAlive</t>
-  </si>
-  <si>
-    <t>Good To Be Alive</t>
-  </si>
-  <si>
-    <t>unhappyset</t>
-  </si>
-  <si>
-    <t>アンハッピーセット作</t>
-  </si>
-  <si>
-    <t>taskbar</t>
-  </si>
-  <si>
-    <t>タスクバー</t>
-  </si>
-  <si>
-    <t>babble</t>
-  </si>
-  <si>
-    <t>capsule</t>
-  </si>
-  <si>
-    <t>カプセル</t>
-  </si>
-  <si>
-    <t>mochimochicrewmate</t>
-  </si>
-  <si>
-    <t>もちもちクルー</t>
-  </si>
-  <si>
     <t>misosiru</t>
   </si>
   <si>
@@ -1615,6 +1546,102 @@
   </si>
   <si>
     <t>moon_mini</t>
+  </si>
+  <si>
+    <t>AkaneGo</t>
+  </si>
+  <si>
+    <t>琴葉茜（ゴシック）</t>
+  </si>
+  <si>
+    <t>AkaneSe</t>
+  </si>
+  <si>
+    <t>琴葉茜（Seiren Voice）</t>
+  </si>
+  <si>
+    <t>Akari2</t>
+  </si>
+  <si>
+    <t>紲星あかり（ジャケット無し）</t>
+  </si>
+  <si>
+    <t>Ankomon2</t>
+  </si>
+  <si>
+    <t>あんこもん（妖精）</t>
+  </si>
+  <si>
+    <t>AoiGo</t>
+  </si>
+  <si>
+    <t>琴葉葵（ゴシック）</t>
+  </si>
+  <si>
+    <t>AoiSe</t>
+  </si>
+  <si>
+    <t>琴葉葵（Seiren Voice）</t>
+  </si>
+  <si>
+    <t>Mochiko</t>
+  </si>
+  <si>
+    <t>もち子</t>
+  </si>
+  <si>
+    <t>YukariO</t>
+  </si>
+  <si>
+    <t>結月ゆかりの双子の弟</t>
+  </si>
+  <si>
+    <t>Yuzuru2</t>
+  </si>
+  <si>
+    <t>伊織弓鶴（シャツあり）</t>
+  </si>
+  <si>
+    <t>YuzuruSe</t>
+  </si>
+  <si>
+    <t>伊織弓鶴（Seiren Voice）</t>
+  </si>
+  <si>
+    <t>Zundamon2</t>
+  </si>
+  <si>
+    <t>ずんだもん（妖精）</t>
+  </si>
+  <si>
+    <t>ZunkoZ</t>
+  </si>
+  <si>
+    <t>東北ずんこ（ずんだもん）</t>
+  </si>
+  <si>
+    <t>ZZKashiwa</t>
+  </si>
+  <si>
+    <t>かしわもち</t>
+  </si>
+  <si>
+    <t>ZZOhagia</t>
+  </si>
+  <si>
+    <t>おはぎ（あんこ）</t>
+  </si>
+  <si>
+    <t>ZZOhagik</t>
+  </si>
+  <si>
+    <t>おはぎ（きなこ）</t>
+  </si>
+  <si>
+    <t>ZZZunda</t>
+  </si>
+  <si>
+    <t>ずんだもち</t>
   </si>
 </sst>
 </file>
@@ -2012,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M230" sqref="M230"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M193" sqref="M193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3044,664 +3071,874 @@
         <v>251</v>
       </c>
     </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>252</v>
-      </c>
-      <c r="M138" t="s">
-        <v>253</v>
+      <c r="A138" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>254</v>
-      </c>
-      <c r="M139" t="s">
-        <v>255</v>
+      <c r="A139" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>256</v>
-      </c>
-      <c r="M140" t="s">
-        <v>257</v>
+      <c r="A140" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>258</v>
-      </c>
-      <c r="M141" t="s">
-        <v>259</v>
+      <c r="A141" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>260</v>
-      </c>
-      <c r="M142" t="s">
-        <v>261</v>
+      <c r="A142" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>262</v>
-      </c>
-      <c r="M143" t="s">
-        <v>263</v>
+      <c r="A143" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>264</v>
-      </c>
-      <c r="M144" t="s">
-        <v>265</v>
+      <c r="A144" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>266</v>
-      </c>
-      <c r="M145" t="s">
-        <v>267</v>
+      <c r="A145" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>268</v>
-      </c>
-      <c r="M146" t="s">
-        <v>269</v>
+      <c r="A146" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>270</v>
-      </c>
-      <c r="M147" t="s">
-        <v>271</v>
+      <c r="A147" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>272</v>
-      </c>
-      <c r="M148" t="s">
-        <v>273</v>
+      <c r="A148" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>274</v>
-      </c>
-      <c r="M149" t="s">
-        <v>275</v>
+      <c r="A149" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>276</v>
-      </c>
-      <c r="M150" t="s">
-        <v>277</v>
+      <c r="A150" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>278</v>
-      </c>
-      <c r="M151" t="s">
-        <v>279</v>
+      <c r="A151" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>280</v>
-      </c>
-      <c r="M152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>282</v>
-      </c>
-      <c r="M153" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>284</v>
-      </c>
-      <c r="M154" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>286</v>
-      </c>
-      <c r="M155" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>288</v>
-      </c>
-      <c r="M156" t="s">
-        <v>289</v>
+      <c r="A152" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="M157" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="M158" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="M159" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="M160" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="M161" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="M162" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="M163" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="M164" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="M165" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="M166" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="M167" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="M168" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="M169" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="M170" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="M171" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="M172" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="M173" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="M174" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="M175" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M176" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="M177" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="M178" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="M179" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="M180" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="M181" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="M182" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="M183" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="M184" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="M185" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="M186" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="M187" t="s">
-        <v>351</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>314</v>
+      </c>
+      <c r="M188" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>316</v>
+      </c>
+      <c r="M189" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>318</v>
+      </c>
+      <c r="M190" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>320</v>
+      </c>
+      <c r="M191" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>322</v>
+      </c>
+      <c r="M192" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="M193" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="M194" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="M195" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="M196" t="s">
-        <v>359</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>332</v>
+      </c>
+      <c r="M197" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="M198" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="M199" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="M200" t="s">
-        <v>365</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>340</v>
+      </c>
+      <c r="M201" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>342</v>
+      </c>
+      <c r="M202" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="M203" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>368</v>
-      </c>
-      <c r="B204" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="M204" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>370</v>
-      </c>
-      <c r="B205" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="M205" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="M206" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B207" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="M207" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="M208" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="M209" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="M210" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="M211" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="M213" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="M214" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="M215" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="B216" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="M216" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="M217" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="M218" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="B219" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="M219" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="M221" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="M222" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="M223" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="M224" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="M225" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="M227" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="M228" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -3715,13 +3952,13 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="N229" s="1"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -3735,12 +3972,12 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="1" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -3754,12 +3991,12 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="1" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3773,20 +4010,20 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="M233" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3800,12 +4037,12 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3819,12 +4056,12 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3838,12 +4075,12 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3857,12 +4094,12 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3876,12 +4113,12 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3895,12 +4132,12 @@
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3914,12 +4151,12 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -3933,36 +4170,36 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" s="3" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="M243" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" s="4" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="M244" s="4" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" s="4" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -3976,36 +4213,36 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
       <c r="M246" s="4" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" s="5" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" s="5" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="M249" s="5" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -4019,12 +4256,12 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
       <c r="M250" s="1" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -4038,295 +4275,295 @@
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
       <c r="M251" s="1" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="M269" s="5" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="M274" s="5" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="M275" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="M277" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="M278" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="M279" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="M280" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="M281" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="M282" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="M283" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="M284" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="M285" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="M286" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="M287" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="M288" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="M289" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="M290" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="M291" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071A315-3EB8-49B7-9546-3D4809C1FC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FF79C8-F3A1-4864-B219-ED8C623D4BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="562">
   <si>
     <t>English</t>
   </si>
@@ -1642,6 +1642,75 @@
   </si>
   <si>
     <t>ずんだもち</t>
+  </si>
+  <si>
+    <t>itow</t>
+  </si>
+  <si>
+    <t>いとう作</t>
+  </si>
+  <si>
+    <t>tomokaEB</t>
+  </si>
+  <si>
+    <t>トモカEB</t>
+  </si>
+  <si>
+    <t>yamatoBeetle</t>
+  </si>
+  <si>
+    <t>カブトムシ</t>
+  </si>
+  <si>
+    <t>yamatoBeetleBrown</t>
+  </si>
+  <si>
+    <t>カブトムシ_茶</t>
+  </si>
+  <si>
+    <t>Kurodoru</t>
+  </si>
+  <si>
+    <t>クロドル作</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>ゾンビ</t>
+  </si>
+  <si>
+    <t>GoodToBeAlive</t>
+  </si>
+  <si>
+    <t>Good To Be Alive</t>
+  </si>
+  <si>
+    <t>unhappyset</t>
+  </si>
+  <si>
+    <t>アンハッピーセット作</t>
+  </si>
+  <si>
+    <t>taskbar</t>
+  </si>
+  <si>
+    <t>タスクバー</t>
+  </si>
+  <si>
+    <t>babble</t>
+  </si>
+  <si>
+    <t>capsule</t>
+  </si>
+  <si>
+    <t>カプセル</t>
+  </si>
+  <si>
+    <t>mochimochicrewmate</t>
+  </si>
+  <si>
+    <t>もちもちクルー</t>
   </si>
 </sst>
 </file>
@@ -2037,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q291"/>
+  <dimension ref="A1:Q310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M193" sqref="M193"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P236" sqref="P236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3775,794 +3844,888 @@
         <v>351</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
-        <v>352</v>
-      </c>
-      <c r="B207" t="s">
-        <v>353</v>
-      </c>
-      <c r="M207" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
-        <v>355</v>
-      </c>
-      <c r="M208" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
-        <v>357</v>
-      </c>
-      <c r="M209" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
-        <v>359</v>
-      </c>
-      <c r="M210" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
-        <v>361</v>
-      </c>
-      <c r="M211" t="s">
-        <v>362</v>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>539</v>
+      </c>
+      <c r="M212" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>363</v>
+        <v>541</v>
       </c>
       <c r="M213" t="s">
-        <v>364</v>
+        <v>542</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>365</v>
+        <v>543</v>
       </c>
       <c r="M214" t="s">
-        <v>366</v>
+        <v>544</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>367</v>
+        <v>545</v>
       </c>
       <c r="M215" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
-        <v>369</v>
-      </c>
-      <c r="B216" t="s">
-        <v>370</v>
-      </c>
-      <c r="M216" t="s">
-        <v>371</v>
+        <v>546</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>372</v>
+        <v>547</v>
       </c>
       <c r="M217" t="s">
-        <v>373</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>374</v>
+        <v>549</v>
       </c>
       <c r="M218" t="s">
-        <v>375</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>376</v>
-      </c>
-      <c r="B219" t="s">
-        <v>376</v>
+        <v>551</v>
       </c>
       <c r="M219" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
-        <v>378</v>
-      </c>
-      <c r="M221" t="s">
-        <v>379</v>
+        <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>380</v>
+        <v>553</v>
       </c>
       <c r="M222" t="s">
-        <v>381</v>
+        <v>554</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>382</v>
+        <v>555</v>
+      </c>
+      <c r="B223" t="s">
+        <v>555</v>
       </c>
       <c r="M223" t="s">
-        <v>383</v>
+        <v>556</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>384</v>
+        <v>557</v>
+      </c>
+      <c r="B224" t="s">
+        <v>558</v>
       </c>
       <c r="M224" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="M225" t="s">
-        <v>387</v>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>352</v>
+      </c>
+      <c r="B226" t="s">
+        <v>353</v>
+      </c>
+      <c r="M226" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="M227" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="M228" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A229" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1" t="s">
-        <v>393</v>
+      <c r="A229" t="s">
+        <v>359</v>
+      </c>
+      <c r="M229" t="s">
+        <v>360</v>
       </c>
       <c r="N229" s="1"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A230" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A231" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="1" t="s">
-        <v>396</v>
+      <c r="A230" t="s">
+        <v>361</v>
+      </c>
+      <c r="M230" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A232" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2" t="s">
-        <v>398</v>
+      <c r="A232" t="s">
+        <v>363</v>
+      </c>
+      <c r="M232" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="M233" t="s">
-        <v>400</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>367</v>
+      </c>
+      <c r="M234" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A235" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2" t="s">
-        <v>402</v>
+      <c r="A235" t="s">
+        <v>369</v>
+      </c>
+      <c r="B235" t="s">
+        <v>370</v>
+      </c>
+      <c r="M235" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A236" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2" t="s">
-        <v>404</v>
+      <c r="A236" t="s">
+        <v>372</v>
+      </c>
+      <c r="M236" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A237" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2" t="s">
-        <v>406</v>
+      <c r="A237" t="s">
+        <v>374</v>
+      </c>
+      <c r="M237" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A238" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A239" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2" t="s">
-        <v>410</v>
+      <c r="A238" t="s">
+        <v>376</v>
+      </c>
+      <c r="B238" t="s">
+        <v>376</v>
+      </c>
+      <c r="M238" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A240" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2" t="s">
-        <v>412</v>
+      <c r="A240" t="s">
+        <v>378</v>
+      </c>
+      <c r="M240" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A241" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2" t="s">
-        <v>414</v>
+      <c r="A241" t="s">
+        <v>380</v>
+      </c>
+      <c r="M241" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A242" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2" t="s">
-        <v>416</v>
+      <c r="A242" t="s">
+        <v>382</v>
+      </c>
+      <c r="M242" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A243" s="3" t="s">
-        <v>417</v>
+      <c r="A243" t="s">
+        <v>384</v>
       </c>
       <c r="M243" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A244" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M244" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A245" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="M245" s="5" t="s">
-        <v>422</v>
+      <c r="A244" t="s">
+        <v>386</v>
+      </c>
+      <c r="M244" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A246" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="4" t="s">
-        <v>424</v>
+      <c r="A246" t="s">
+        <v>388</v>
+      </c>
+      <c r="M246" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A247" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="M247" s="5" t="s">
-        <v>426</v>
+      <c r="A247" t="s">
+        <v>390</v>
+      </c>
+      <c r="M247" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A248" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="M248" s="5" t="s">
-        <v>428</v>
+      <c r="A248" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A249" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="M249" s="5" t="s">
-        <v>430</v>
+      <c r="A249" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A251" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>399</v>
+      </c>
+      <c r="M252" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A254" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A255" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A256" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+      <c r="M256" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A257" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A258" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+      <c r="L258" s="2"/>
+      <c r="M258" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A259" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A260" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A261" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A262" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="M262" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A263" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="M263" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A264" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A265" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A266" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="M266" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A267" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="M267" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A268" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="M268" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A269" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="M250" s="1" t="s">
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A251" s="1" t="s">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A270" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1" t="s">
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
-        <v>433</v>
-      </c>
-      <c r="M253" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
-        <v>435</v>
-      </c>
-      <c r="M254" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
-        <v>437</v>
-      </c>
-      <c r="M255" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
-        <v>439</v>
-      </c>
-      <c r="M256" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A258" t="s">
-        <v>441</v>
-      </c>
-      <c r="M258" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
-        <v>443</v>
-      </c>
-      <c r="M259" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
-        <v>445</v>
-      </c>
-      <c r="M260" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A261" t="s">
-        <v>447</v>
-      </c>
-      <c r="M261" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A263" t="s">
-        <v>449</v>
-      </c>
-      <c r="M263" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A264" t="s">
-        <v>451</v>
-      </c>
-      <c r="M264" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A265" t="s">
-        <v>453</v>
-      </c>
-      <c r="M265" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A266" t="s">
-        <v>455</v>
-      </c>
-      <c r="M266" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A267" t="s">
-        <v>457</v>
-      </c>
-      <c r="M267" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A268" t="s">
-        <v>459</v>
-      </c>
-      <c r="M268" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A269" t="s">
-        <v>461</v>
-      </c>
-      <c r="M269" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A270" t="s">
-        <v>463</v>
-      </c>
-      <c r="M270" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A271" t="s">
-        <v>465</v>
-      </c>
-      <c r="M271" s="5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="M274" s="5" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>472</v>
-      </c>
-      <c r="M275" t="s">
-        <v>473</v>
+        <v>439</v>
+      </c>
+      <c r="M275" s="5" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>474</v>
-      </c>
-      <c r="M277" t="s">
-        <v>475</v>
+        <v>441</v>
+      </c>
+      <c r="M277" s="5" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>476</v>
-      </c>
-      <c r="M278" t="s">
-        <v>477</v>
+        <v>443</v>
+      </c>
+      <c r="M278" s="5" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>478</v>
-      </c>
-      <c r="M279" t="s">
-        <v>479</v>
+        <v>445</v>
+      </c>
+      <c r="M279" s="5" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>480</v>
-      </c>
-      <c r="M280" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A281" t="s">
-        <v>482</v>
-      </c>
-      <c r="M281" t="s">
-        <v>483</v>
+        <v>447</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>484</v>
-      </c>
-      <c r="M282" t="s">
-        <v>485</v>
+        <v>449</v>
+      </c>
+      <c r="M282" s="5" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>486</v>
-      </c>
-      <c r="M283" t="s">
-        <v>487</v>
+        <v>451</v>
+      </c>
+      <c r="M283" s="5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>488</v>
-      </c>
-      <c r="M284" t="s">
-        <v>489</v>
+        <v>453</v>
+      </c>
+      <c r="M284" s="5" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>490</v>
-      </c>
-      <c r="M285" t="s">
-        <v>491</v>
+        <v>455</v>
+      </c>
+      <c r="M285" s="5" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>492</v>
-      </c>
-      <c r="M286" t="s">
-        <v>493</v>
+        <v>457</v>
+      </c>
+      <c r="M286" s="5" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>494</v>
-      </c>
-      <c r="M287" t="s">
-        <v>495</v>
+        <v>459</v>
+      </c>
+      <c r="M287" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>496</v>
-      </c>
-      <c r="M288" t="s">
-        <v>497</v>
+        <v>461</v>
+      </c>
+      <c r="M288" s="5" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>498</v>
-      </c>
-      <c r="M289" t="s">
-        <v>499</v>
+        <v>463</v>
+      </c>
+      <c r="M289" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>500</v>
-      </c>
-      <c r="M290" t="s">
-        <v>501</v>
+        <v>465</v>
+      </c>
+      <c r="M290" s="5" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
+        <v>467</v>
+      </c>
+      <c r="M291" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A292" t="s">
+        <v>469</v>
+      </c>
+      <c r="M292" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A293" t="s">
+        <v>470</v>
+      </c>
+      <c r="M293" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>472</v>
+      </c>
+      <c r="M294" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
+        <v>474</v>
+      </c>
+      <c r="M296" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
+        <v>476</v>
+      </c>
+      <c r="M297" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A298" t="s">
+        <v>478</v>
+      </c>
+      <c r="M298" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
+        <v>480</v>
+      </c>
+      <c r="M299" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
+        <v>482</v>
+      </c>
+      <c r="M300" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
+        <v>484</v>
+      </c>
+      <c r="M301" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
+        <v>486</v>
+      </c>
+      <c r="M302" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A303" t="s">
+        <v>488</v>
+      </c>
+      <c r="M303" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
+        <v>490</v>
+      </c>
+      <c r="M304" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
+        <v>492</v>
+      </c>
+      <c r="M305" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
+        <v>494</v>
+      </c>
+      <c r="M306" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
+        <v>496</v>
+      </c>
+      <c r="M307" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
+        <v>498</v>
+      </c>
+      <c r="M308" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>500</v>
+      </c>
+      <c r="M309" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
         <v>502</v>
       </c>
-      <c r="M291" t="s">
+      <c r="M310" t="s">
         <v>503</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28A23E2-32E5-478B-A454-C6DE1A571DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBF54A8-7569-4FD8-8993-3A8D2F2DAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="625">
   <si>
     <t>English</t>
   </si>
@@ -1759,6 +1759,149 @@
   </si>
   <si>
     <t>画鋲</t>
+  </si>
+  <si>
+    <t>SuperBurger</t>
+  </si>
+  <si>
+    <t>でかすぎるバーガー</t>
+  </si>
+  <si>
+    <t>SuperPotato</t>
+  </si>
+  <si>
+    <t>多すぎるフライドポテト</t>
+  </si>
+  <si>
+    <t>SuperCola</t>
+  </si>
+  <si>
+    <t>いっぱい飲めるコーラ</t>
+  </si>
+  <si>
+    <t>kannagi_drive</t>
+  </si>
+  <si>
+    <t>かんなぎドライブ作</t>
+  </si>
+  <si>
+    <t>kannagi</t>
+  </si>
+  <si>
+    <t>かんなぎドライブ</t>
+  </si>
+  <si>
+    <t>aiueojyun</t>
+  </si>
+  <si>
+    <t>あいうえお順で吊ろうぜ</t>
+  </si>
+  <si>
+    <t>anmaridesuwa</t>
+  </si>
+  <si>
+    <t>あんまりですわー</t>
+  </si>
+  <si>
+    <t>bobebagyua</t>
+  </si>
+  <si>
+    <t>ぼべばぎゅあ</t>
+  </si>
+  <si>
+    <t>crew_dokoya</t>
+  </si>
+  <si>
+    <t>クルーどこやー</t>
+  </si>
+  <si>
+    <t>Impostor_dokoya</t>
+  </si>
+  <si>
+    <t>インポスターどこやー</t>
+  </si>
+  <si>
+    <t>hai_gattyan</t>
+  </si>
+  <si>
+    <t>はいがっちゃーん</t>
+  </si>
+  <si>
+    <t>jitouhyou</t>
+  </si>
+  <si>
+    <t>私は私に投票します</t>
+  </si>
+  <si>
+    <t>kenzenketu</t>
+  </si>
+  <si>
+    <t>健全ヤッター</t>
+  </si>
+  <si>
+    <t>owamura</t>
+  </si>
+  <si>
+    <t>終わりやこんな村ァ!</t>
+  </si>
+  <si>
+    <t>milk_big</t>
+  </si>
+  <si>
+    <t>等身大牛乳パック</t>
+  </si>
+  <si>
+    <t>milk_rainbow</t>
+  </si>
+  <si>
+    <t>レインボーパック</t>
+  </si>
+  <si>
+    <t>milk_coffee</t>
+  </si>
+  <si>
+    <t>コーヒーミルク</t>
+  </si>
+  <si>
+    <t>tukihatu</t>
+  </si>
+  <si>
+    <t>牛乳先生作</t>
+  </si>
+  <si>
+    <t>Composter</t>
+  </si>
+  <si>
+    <t>コンポスター作</t>
+  </si>
+  <si>
+    <t>among guys</t>
+  </si>
+  <si>
+    <t>アモング ガイズ</t>
+  </si>
+  <si>
+    <t>beast</t>
+  </si>
+  <si>
+    <t>獣</t>
+  </si>
+  <si>
+    <t>猛獣</t>
+  </si>
+  <si>
+    <t>witch</t>
+  </si>
+  <si>
+    <t>魔女</t>
+  </si>
+  <si>
+    <t>Miso_soup</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>beast_of_prey</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2154,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q318"/>
+  <dimension ref="A1:Q366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366:M366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3949,6 +4092,63 @@
         <v>577</v>
       </c>
     </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>384</v>
@@ -4546,332 +4746,779 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A275" t="s">
-        <v>491</v>
-      </c>
-      <c r="M275" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A276" t="s">
-        <v>493</v>
-      </c>
-      <c r="M276" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A277" t="s">
-        <v>495</v>
-      </c>
-      <c r="M277" s="5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A278" t="s">
-        <v>497</v>
-      </c>
-      <c r="M278" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A280" t="s">
-        <v>499</v>
-      </c>
-      <c r="M280" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A281" t="s">
-        <v>501</v>
-      </c>
-      <c r="M281" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A282" t="s">
-        <v>503</v>
-      </c>
-      <c r="M282" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A283" t="s">
-        <v>505</v>
-      </c>
-      <c r="M283" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="M285" s="5" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="M286" s="5" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="M287" s="5" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M288" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A289" t="s">
-        <v>515</v>
-      </c>
-      <c r="M289" s="5" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="M290" s="5" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="M291" s="5" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="M292" s="5" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="M293" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
-        <v>525</v>
-      </c>
-      <c r="M294" s="5" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="M295" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="M296" s="5" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>530</v>
-      </c>
-      <c r="M297" t="s">
-        <v>531</v>
+        <v>511</v>
+      </c>
+      <c r="M297" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A298" t="s">
+        <v>513</v>
+      </c>
+      <c r="M298" s="5" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>532</v>
-      </c>
-      <c r="M299" t="s">
-        <v>533</v>
+        <v>515</v>
+      </c>
+      <c r="M299" s="5" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>534</v>
-      </c>
-      <c r="M300" t="s">
-        <v>535</v>
+        <v>517</v>
+      </c>
+      <c r="M300" s="5" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>536</v>
-      </c>
-      <c r="M301" t="s">
-        <v>537</v>
+        <v>519</v>
+      </c>
+      <c r="M301" s="5" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>538</v>
-      </c>
-      <c r="M302" t="s">
-        <v>539</v>
+        <v>521</v>
+      </c>
+      <c r="M302" s="5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>540</v>
-      </c>
-      <c r="M303" t="s">
-        <v>541</v>
+        <v>523</v>
+      </c>
+      <c r="M303" s="5" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>542</v>
-      </c>
-      <c r="M304" t="s">
-        <v>543</v>
+        <v>525</v>
+      </c>
+      <c r="M304" s="5" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>544</v>
-      </c>
-      <c r="M305" t="s">
-        <v>545</v>
+        <v>527</v>
+      </c>
+      <c r="M305" s="5" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>546</v>
-      </c>
-      <c r="M306" t="s">
-        <v>547</v>
+        <v>528</v>
+      </c>
+      <c r="M306" s="5" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="M307" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
-        <v>550</v>
-      </c>
-      <c r="M308" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="M309" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="M310" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="M311" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="M312" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="M313" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="M314" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="M315" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="M316" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="M317" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
+        <v>550</v>
+      </c>
+      <c r="M318" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>552</v>
+      </c>
+      <c r="M319" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>554</v>
+      </c>
+      <c r="M320" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>556</v>
+      </c>
+      <c r="M321" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>558</v>
+      </c>
+      <c r="M322" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>560</v>
+      </c>
+      <c r="M323" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>562</v>
+      </c>
+      <c r="M324" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>564</v>
+      </c>
+      <c r="M325" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>566</v>
+      </c>
+      <c r="M326" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>568</v>
+      </c>
+      <c r="M327" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
         <v>570</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M328" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+      <c r="K329" s="1"/>
+      <c r="L329" s="1"/>
+      <c r="M329" s="1"/>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+      <c r="K330" s="1"/>
+      <c r="L330" s="1"/>
+      <c r="M330" s="1"/>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A336" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+      <c r="K336" s="1"/>
+      <c r="L336" s="1"/>
+      <c r="M336" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A337" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1"/>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+      <c r="K337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="M337" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A338" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1"/>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+      <c r="K338" s="1"/>
+      <c r="L338" s="1"/>
+      <c r="M338" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A339" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A340" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A341" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+      <c r="K341" s="1"/>
+      <c r="L341" s="1"/>
+      <c r="M341" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A342" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+      <c r="K342" s="1"/>
+      <c r="L342" s="1"/>
+      <c r="M342" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A343" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+      <c r="K343" s="1"/>
+      <c r="L343" s="1"/>
+      <c r="M343" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A344" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
+      <c r="K344" s="1"/>
+      <c r="L344" s="1"/>
+      <c r="M344" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A345" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+      <c r="K345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="M345" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A346" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+      <c r="K346" s="1"/>
+      <c r="L346" s="1"/>
+      <c r="M346" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A356" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="1"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+      <c r="K356" s="1"/>
+      <c r="L356" s="1"/>
+      <c r="M356" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A357" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A358" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A359" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+      <c r="K359" s="1"/>
+      <c r="L359" s="1"/>
+      <c r="M359" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A361" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="H361" s="1"/>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="M361" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A362" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+      <c r="H362" s="1"/>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="M362" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A363" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="M363" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A364" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+      <c r="H364" s="1"/>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="M364" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A365" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+      <c r="H365" s="1"/>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+      <c r="K365" s="1"/>
+      <c r="L365" s="1"/>
+      <c r="M365" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A366" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
+      <c r="H366" s="1"/>
+      <c r="I366" s="1"/>
+      <c r="J366" s="1"/>
+      <c r="K366" s="1"/>
+      <c r="L366" s="1"/>
+      <c r="M366" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325062C-5D38-441B-8295-717A4F0627CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C3D3C-FF6B-4DE2-A6FC-3BFE6900E31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="693">
   <si>
     <t>English</t>
   </si>
@@ -1936,6 +1936,174 @@
   </si>
   <si>
     <t>頭にカセット</t>
+  </si>
+  <si>
+    <t>aitu1</t>
+  </si>
+  <si>
+    <t>aitu2</t>
+  </si>
+  <si>
+    <t>aitu3</t>
+  </si>
+  <si>
+    <t>aitu4</t>
+  </si>
+  <si>
+    <t>aitu5</t>
+  </si>
+  <si>
+    <t>aitu6</t>
+  </si>
+  <si>
+    <t>aitu7</t>
+  </si>
+  <si>
+    <t>aitu8</t>
+  </si>
+  <si>
+    <t>aitu9</t>
+  </si>
+  <si>
+    <t>dousite</t>
+  </si>
+  <si>
+    <t>gue1</t>
+  </si>
+  <si>
+    <t>gue2</t>
+  </si>
+  <si>
+    <t>iamcrew</t>
+  </si>
+  <si>
+    <t>iamimpostar</t>
+  </si>
+  <si>
+    <t>imnotimpostar</t>
+  </si>
+  <si>
+    <t>kirubotan</t>
+  </si>
+  <si>
+    <t>kokoroyasasiki</t>
+  </si>
+  <si>
+    <t>kondomisetene</t>
+  </si>
+  <si>
+    <t>mutegaba</t>
+  </si>
+  <si>
+    <t>pien</t>
+  </si>
+  <si>
+    <t>rollerjay</t>
+  </si>
+  <si>
+    <t>seizoniyoku</t>
+  </si>
+  <si>
+    <t>siteyattarizazze</t>
+  </si>
+  <si>
+    <t>soudaroinumi</t>
+  </si>
+  <si>
+    <t>syukkayo1</t>
+  </si>
+  <si>
+    <t>syukkayo2</t>
+  </si>
+  <si>
+    <t>tmkami</t>
+  </si>
+  <si>
+    <t>yameyokka</t>
+  </si>
+  <si>
+    <t>あいつはシェリフのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>あいつはトレイターのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>あいつはジャッカルのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>あいつはヤンデレのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>あいつはアリスのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>あいつはクイーンのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>あいつはイーターのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>あいつはマイナーのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>あいつはミッショナリーのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>どうしてつきあっているのかなぁ。</t>
+  </si>
+  <si>
+    <t>ぐえー１</t>
+  </si>
+  <si>
+    <t>ぐえー２</t>
+  </si>
+  <si>
+    <t>私はクルーです</t>
+  </si>
+  <si>
+    <t>私はインポスターです</t>
+  </si>
+  <si>
+    <t>どう見てもインポスターではない</t>
+  </si>
+  <si>
+    <t>あいつにキルボタン持たせたら絶対ダメな奴だこれ</t>
+  </si>
+  <si>
+    <t>私は心優しきクルーメイト</t>
+  </si>
+  <si>
+    <t>今度見せてね</t>
+  </si>
+  <si>
+    <t>戻ってきて第一声が「出荷よー」なの？</t>
+  </si>
+  <si>
+    <t>ぴえん</t>
+  </si>
+  <si>
+    <t>ローラーじゃいローラーじゃい</t>
+  </si>
+  <si>
+    <t>生存意欲が高い…。</t>
+  </si>
+  <si>
+    <t>してやったりだぜー！</t>
+  </si>
+  <si>
+    <t>そうだろクルー！</t>
+  </si>
+  <si>
+    <t>出荷よ～～～～っ！</t>
+  </si>
+  <si>
+    <t>出荷よー</t>
+  </si>
+  <si>
+    <t>あいつはタイムマスターをよく噛むから…。</t>
+  </si>
+  <si>
+    <t>やめよ…っか。</t>
   </si>
 </sst>
 </file>
@@ -2331,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q366"/>
+  <dimension ref="A1:Q394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:M38"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5383,193 +5551,417 @@
         <v>615</v>
       </c>
     </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A347" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="M347" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A348" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="M348" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A349" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="M349" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A350" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="M350" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A351" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A352" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="M352" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A353" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="M353" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A354" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="M354" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A355" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-      <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
+        <v>646</v>
+      </c>
       <c r="M356" s="1" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
-      <c r="E357" s="1"/>
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
-      <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
+        <v>647</v>
+      </c>
       <c r="M357" s="1" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
+        <v>648</v>
+      </c>
       <c r="M358" s="1" t="s">
-        <v>621</v>
+        <v>676</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="1"/>
-      <c r="E359" s="1"/>
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
-      <c r="I359" s="1"/>
-      <c r="J359" s="1"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="1"/>
+        <v>649</v>
+      </c>
       <c r="M359" s="1" t="s">
-        <v>623</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A360" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="M360" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="1"/>
-      <c r="E361" s="1"/>
-      <c r="F361" s="1"/>
-      <c r="G361" s="1"/>
-      <c r="H361" s="1"/>
-      <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
+        <v>651</v>
+      </c>
       <c r="M361" s="1" t="s">
-        <v>625</v>
+        <v>679</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1"/>
-      <c r="F362" s="1"/>
-      <c r="G362" s="1"/>
-      <c r="H362" s="1"/>
-      <c r="I362" s="1"/>
-      <c r="J362" s="1"/>
-      <c r="K362" s="1"/>
-      <c r="L362" s="1"/>
+        <v>652</v>
+      </c>
       <c r="M362" s="1" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
-      <c r="D363" s="1"/>
-      <c r="E363" s="1"/>
-      <c r="F363" s="1"/>
-      <c r="G363" s="1"/>
-      <c r="H363" s="1"/>
-      <c r="I363" s="1"/>
-      <c r="J363" s="1"/>
-      <c r="K363" s="1"/>
-      <c r="L363" s="1"/>
+        <v>653</v>
+      </c>
       <c r="M363" s="1" t="s">
-        <v>629</v>
+        <v>681</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="1"/>
-      <c r="E364" s="1"/>
-      <c r="F364" s="1"/>
-      <c r="G364" s="1"/>
-      <c r="H364" s="1"/>
-      <c r="I364" s="1"/>
-      <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
-      <c r="L364" s="1"/>
+        <v>654</v>
+      </c>
       <c r="M364" s="1" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1"/>
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
-      <c r="H365" s="1"/>
-      <c r="I365" s="1"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1"/>
+        <v>655</v>
+      </c>
       <c r="M365" s="1" t="s">
-        <v>421</v>
+        <v>683</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="M366" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A367" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M367" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A368" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M368" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A369" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="M369" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A370" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M370" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A371" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="M371" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A372" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="M372" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A373" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="M373" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A374" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="M374" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A384" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="1"/>
+      <c r="I384" s="1"/>
+      <c r="J384" s="1"/>
+      <c r="K384" s="1"/>
+      <c r="L384" s="1"/>
+      <c r="M384" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A385" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+      <c r="K385" s="1"/>
+      <c r="L385" s="1"/>
+      <c r="M385" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A386" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="1"/>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+      <c r="K386" s="1"/>
+      <c r="L386" s="1"/>
+      <c r="M386" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A387" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+      <c r="H387" s="1"/>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+      <c r="K387" s="1"/>
+      <c r="L387" s="1"/>
+      <c r="M387" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A389" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1"/>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+      <c r="K389" s="1"/>
+      <c r="L389" s="1"/>
+      <c r="M389" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A390" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="1"/>
+      <c r="H390" s="1"/>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+      <c r="K390" s="1"/>
+      <c r="L390" s="1"/>
+      <c r="M390" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A391" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="M391" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A392" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="1"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+      <c r="K392" s="1"/>
+      <c r="L392" s="1"/>
+      <c r="M392" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A393" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A394" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1"/>
-      <c r="F366" s="1"/>
-      <c r="G366" s="1"/>
-      <c r="H366" s="1"/>
-      <c r="I366" s="1"/>
-      <c r="J366" s="1"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1"/>
-      <c r="M366" s="1" t="s">
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C3D3C-FF6B-4DE2-A6FC-3BFE6900E31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1560226A-7E02-43E8-9785-ECF39A85E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="695">
   <si>
     <t>English</t>
   </si>
@@ -2104,6 +2104,13 @@
   </si>
   <si>
     <t>やめよ…っか。</t>
+  </si>
+  <si>
+    <t>パワーマックス!</t>
+  </si>
+  <si>
+    <t>PowerMax</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2499,10 +2506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q394"/>
+  <dimension ref="A1:Q395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F366" sqref="F366"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4559,103 +4566,103 @@
         <v>444</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
-        <v>445</v>
-      </c>
-      <c r="M243" t="s">
-        <v>446</v>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A242" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M244" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M245" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M246" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
+        <v>451</v>
+      </c>
+      <c r="M247" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
         <v>453</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M248" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
-        <v>455</v>
-      </c>
-      <c r="M249" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
+        <v>455</v>
+      </c>
+      <c r="M250" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
         <v>457</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M251" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A251" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
       <c r="M252" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4669,12 +4676,12 @@
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
       <c r="M253" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A254" s="2" t="s">
-        <v>465</v>
+      <c r="A254" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4687,40 +4694,40 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A255" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
         <v>467</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M256" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A257" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4734,12 +4741,12 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4753,12 +4760,12 @@
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4772,12 +4779,12 @@
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4791,12 +4798,12 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4810,12 +4817,12 @@
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4829,12 +4836,12 @@
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4848,98 +4855,98 @@
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A265" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A265" s="3" t="s">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A266" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M266" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A266" s="4" t="s">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A267" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="M266" s="4" t="s">
+      <c r="M267" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A267" s="5" t="s">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A268" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="M267" s="5" t="s">
+      <c r="M268" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A268" s="4" t="s">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A269" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="4" t="s">
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+      <c r="L269" s="2"/>
+      <c r="M269" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A269" s="5" t="s">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A270" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="M269" s="5" t="s">
+      <c r="M270" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A270" s="6" t="s">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A271" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="M270" s="5" t="s">
+      <c r="M271" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A271" s="5" t="s">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A272" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="M271" s="5" t="s">
+      <c r="M272" s="5" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A272" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
-      <c r="K272" s="1"/>
-      <c r="L272" s="1"/>
-      <c r="M272" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4953,399 +4960,399 @@
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
       <c r="M273" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A274" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="M274" s="1" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A285" t="s">
-        <v>503</v>
-      </c>
-      <c r="M285" s="5" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M286" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M287" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
+        <v>507</v>
+      </c>
+      <c r="M288" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A289" t="s">
         <v>509</v>
       </c>
-      <c r="M288" s="5" t="s">
+      <c r="M289" s="5" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A290" t="s">
-        <v>511</v>
-      </c>
-      <c r="M290" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M291" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M292" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
+        <v>515</v>
+      </c>
+      <c r="M293" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
         <v>517</v>
       </c>
-      <c r="M293" s="5" t="s">
+      <c r="M294" s="5" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
-        <v>519</v>
-      </c>
-      <c r="M295" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M296" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M297" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M298" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M299" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M300" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M301" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M302" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M303" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M304" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M305" s="5" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M306" s="5" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
+        <v>540</v>
+      </c>
+      <c r="M307" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
         <v>542</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M308" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
-        <v>544</v>
-      </c>
-      <c r="M309" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M310" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M311" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M312" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M313" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M314" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M315" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M316" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M317" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M318" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M319" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M320" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M321" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M322" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M323" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M324" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M325" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M326" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M327" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M328" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M329" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M330" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M331" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M332" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
+        <v>590</v>
+      </c>
+      <c r="M333" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
         <v>592</v>
       </c>
-      <c r="M333" t="s">
+      <c r="M334" t="s">
         <v>593</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A336" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
-      <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
-      <c r="M336" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5359,16 +5366,14 @@
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
       <c r="M337" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>598</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -5380,15 +5385,15 @@
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
       <c r="M338" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -5401,15 +5406,15 @@
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
       <c r="M339" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -5422,15 +5427,15 @@
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
       <c r="M340" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -5443,15 +5448,15 @@
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
       <c r="M341" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -5464,15 +5469,15 @@
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
       <c r="M342" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -5485,15 +5490,15 @@
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
       <c r="M343" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -5506,15 +5511,15 @@
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
       <c r="M344" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -5527,15 +5532,15 @@
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
       <c r="M345" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -5548,255 +5553,257 @@
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
       <c r="M346" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
-        <v>637</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1"/>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+      <c r="K347" s="1"/>
+      <c r="L347" s="1"/>
       <c r="M347" s="1" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A348" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M350" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M351" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M352" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M353" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M354" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M355" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M356" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M357" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M358" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M359" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A360" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M360" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M361" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M362" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M363" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M364" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M365" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M366" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M367" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M368" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A369" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M369" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A370" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M370" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M371" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M372" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M373" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="M374" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A375" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="M374" s="1" t="s">
+      <c r="M375" s="1" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A384" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
-      <c r="D384" s="1"/>
-      <c r="E384" s="1"/>
-      <c r="F384" s="1"/>
-      <c r="G384" s="1"/>
-      <c r="H384" s="1"/>
-      <c r="I384" s="1"/>
-      <c r="J384" s="1"/>
-      <c r="K384" s="1"/>
-      <c r="L384" s="1"/>
-      <c r="M384" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -5810,12 +5817,12 @@
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
       <c r="M385" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -5829,12 +5836,12 @@
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
       <c r="M386" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -5848,31 +5855,31 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
       <c r="M387" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A388" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+      <c r="H388" s="1"/>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+      <c r="K388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="M388" s="1" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A389" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-      <c r="D389" s="1"/>
-      <c r="E389" s="1"/>
-      <c r="F389" s="1"/>
-      <c r="G389" s="1"/>
-      <c r="H389" s="1"/>
-      <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
-      <c r="K389" s="1"/>
-      <c r="L389" s="1"/>
-      <c r="M389" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -5886,12 +5893,12 @@
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
       <c r="M390" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -5905,12 +5912,12 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
       <c r="M391" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -5924,12 +5931,12 @@
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
       <c r="M392" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -5943,12 +5950,12 @@
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
       <c r="M393" s="1" t="s">
-        <v>421</v>
+        <v>631</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -5962,6 +5969,25 @@
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
       <c r="M394" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A395" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+      <c r="K395" s="1"/>
+      <c r="L395" s="1"/>
+      <c r="M395" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1560226A-7E02-43E8-9785-ECF39A85E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D212F121-B2CE-4BCE-B1F9-E527C758C91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="735">
   <si>
     <t>English</t>
   </si>
@@ -2111,6 +2111,126 @@
   <si>
     <t>PowerMax</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sabufuremu</t>
+  </si>
+  <si>
+    <t>soredemo</t>
+  </si>
+  <si>
+    <t>turi2</t>
+  </si>
+  <si>
+    <t>turi3</t>
+  </si>
+  <si>
+    <t>watasinakayosi</t>
+  </si>
+  <si>
+    <t>gessa</t>
+  </si>
+  <si>
+    <t>kirukirukiru</t>
+  </si>
+  <si>
+    <t>kusosamugyagu</t>
+  </si>
+  <si>
+    <t>pui</t>
+  </si>
+  <si>
+    <t>rsnsuu</t>
+  </si>
+  <si>
+    <t>sanjikan</t>
+  </si>
+  <si>
+    <t>utimukeba</t>
+  </si>
+  <si>
+    <t>abaaaa</t>
+  </si>
+  <si>
+    <t>basakugessa</t>
+  </si>
+  <si>
+    <t>dekimasita</t>
+  </si>
+  <si>
+    <t>gokigenyo</t>
+  </si>
+  <si>
+    <t>hennandesu</t>
+  </si>
+  <si>
+    <t>iikiru</t>
+  </si>
+  <si>
+    <t>iisatui</t>
+  </si>
+  <si>
+    <t>omaejai</t>
+  </si>
+  <si>
+    <t>サブフレームリセットォ！</t>
+  </si>
+  <si>
+    <t>それでもっっっ！！！</t>
+  </si>
+  <si>
+    <t>アルファベット順に吊ろうぜ！</t>
+  </si>
+  <si>
+    <t>いろは順に吊ろうぜ！</t>
+  </si>
+  <si>
+    <t>わたし！仲良し！</t>
+  </si>
+  <si>
+    <t>このゲッサーには役職が見えている</t>
+  </si>
+  <si>
+    <t>キルキルキルキルキルキルキルキル(ry</t>
+  </si>
+  <si>
+    <t>バルチャーしょうがねぇ</t>
+  </si>
+  <si>
+    <t>きゅっきゅっぷぃっ</t>
+  </si>
+  <si>
+    <t>乱数調整だ。</t>
+  </si>
+  <si>
+    <t>ゲーム開始から3時間です。</t>
+  </si>
+  <si>
+    <t>クルーで撃ち抜けばまず当たる</t>
+  </si>
+  <si>
+    <t>アバアアアアアア！</t>
+  </si>
+  <si>
+    <t>『バーサークゲッサー』！</t>
+  </si>
+  <si>
+    <t>でーきまーしたー！</t>
+  </si>
+  <si>
+    <t>ごーきげーんよー！</t>
+  </si>
+  <si>
+    <t>この人変なんです！</t>
+  </si>
+  <si>
+    <t>俺のキルはいいキルなんだ！</t>
+  </si>
+  <si>
+    <t>俺の殺意はいい殺意なんだ！</t>
+  </si>
+  <si>
+    <t>お前じゃい！</t>
   </si>
 </sst>
 </file>
@@ -2506,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q395"/>
+  <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E245" sqref="E245"/>
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400:M410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5801,193 +5921,353 @@
         <v>692</v>
       </c>
     </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A376" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="M376" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A377" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="M377" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A378" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M378" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A379" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M379" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A380" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="M380" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A381" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="M381" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A382" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="M382" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A383" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="M383" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A384" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M384" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
-      <c r="D385" s="1"/>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
-      <c r="G385" s="1"/>
-      <c r="H385" s="1"/>
-      <c r="I385" s="1"/>
-      <c r="J385" s="1"/>
-      <c r="K385" s="1"/>
-      <c r="L385" s="1"/>
+        <v>704</v>
+      </c>
       <c r="M385" s="1" t="s">
-        <v>617</v>
+        <v>724</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
-      <c r="D386" s="1"/>
-      <c r="E386" s="1"/>
-      <c r="F386" s="1"/>
-      <c r="G386" s="1"/>
-      <c r="H386" s="1"/>
-      <c r="I386" s="1"/>
-      <c r="J386" s="1"/>
-      <c r="K386" s="1"/>
-      <c r="L386" s="1"/>
+        <v>705</v>
+      </c>
       <c r="M386" s="1" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B387" s="1"/>
-      <c r="C387" s="1"/>
-      <c r="D387" s="1"/>
-      <c r="E387" s="1"/>
-      <c r="F387" s="1"/>
-      <c r="G387" s="1"/>
-      <c r="H387" s="1"/>
-      <c r="I387" s="1"/>
-      <c r="J387" s="1"/>
-      <c r="K387" s="1"/>
-      <c r="L387" s="1"/>
+        <v>706</v>
+      </c>
       <c r="M387" s="1" t="s">
-        <v>621</v>
+        <v>726</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
-      <c r="D388" s="1"/>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
-      <c r="H388" s="1"/>
-      <c r="I388" s="1"/>
-      <c r="J388" s="1"/>
-      <c r="K388" s="1"/>
-      <c r="L388" s="1"/>
+        <v>707</v>
+      </c>
       <c r="M388" s="1" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A389" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="M389" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
-      <c r="D390" s="1"/>
-      <c r="E390" s="1"/>
-      <c r="F390" s="1"/>
-      <c r="G390" s="1"/>
-      <c r="H390" s="1"/>
-      <c r="I390" s="1"/>
-      <c r="J390" s="1"/>
-      <c r="K390" s="1"/>
-      <c r="L390" s="1"/>
+        <v>709</v>
+      </c>
       <c r="M390" s="1" t="s">
-        <v>625</v>
+        <v>729</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-      <c r="D391" s="1"/>
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
-      <c r="G391" s="1"/>
-      <c r="H391" s="1"/>
-      <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
-      <c r="K391" s="1"/>
-      <c r="L391" s="1"/>
+        <v>710</v>
+      </c>
       <c r="M391" s="1" t="s">
-        <v>627</v>
+        <v>730</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-      <c r="D392" s="1"/>
-      <c r="E392" s="1"/>
-      <c r="F392" s="1"/>
-      <c r="G392" s="1"/>
-      <c r="H392" s="1"/>
-      <c r="I392" s="1"/>
-      <c r="J392" s="1"/>
-      <c r="K392" s="1"/>
-      <c r="L392" s="1"/>
+        <v>711</v>
+      </c>
       <c r="M392" s="1" t="s">
-        <v>629</v>
+        <v>731</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
-      <c r="D393" s="1"/>
-      <c r="E393" s="1"/>
-      <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
-      <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
-      <c r="K393" s="1"/>
-      <c r="L393" s="1"/>
+        <v>712</v>
+      </c>
       <c r="M393" s="1" t="s">
-        <v>631</v>
+        <v>732</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
-      <c r="H394" s="1"/>
-      <c r="I394" s="1"/>
-      <c r="J394" s="1"/>
-      <c r="K394" s="1"/>
-      <c r="L394" s="1"/>
+        <v>713</v>
+      </c>
       <c r="M394" s="1" t="s">
-        <v>421</v>
+        <v>733</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="M395" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A400" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+      <c r="H400" s="1"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+      <c r="K400" s="1"/>
+      <c r="L400" s="1"/>
+      <c r="M400" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A401" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+      <c r="H401" s="1"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="M401" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A402" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="H402" s="1"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+      <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="M402" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A403" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A405" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="H405" s="1"/>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
+      <c r="K405" s="1"/>
+      <c r="L405" s="1"/>
+      <c r="M405" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A406" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="H406" s="1"/>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
+      <c r="K406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="M406" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A407" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+      <c r="H407" s="1"/>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+      <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="M407" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A408" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+      <c r="H408" s="1"/>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1"/>
+      <c r="K408" s="1"/>
+      <c r="L408" s="1"/>
+      <c r="M408" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A409" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="1"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+      <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="M409" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A410" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
-      <c r="D395" s="1"/>
-      <c r="E395" s="1"/>
-      <c r="F395" s="1"/>
-      <c r="G395" s="1"/>
-      <c r="H395" s="1"/>
-      <c r="I395" s="1"/>
-      <c r="J395" s="1"/>
-      <c r="K395" s="1"/>
-      <c r="L395" s="1"/>
-      <c r="M395" s="1" t="s">
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="1"/>
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+      <c r="H410" s="1"/>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+      <c r="K410" s="1"/>
+      <c r="L410" s="1"/>
+      <c r="M410" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D212F121-B2CE-4BCE-B1F9-E527C758C91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B939BD-DA45-4DFD-9F89-E10608D86711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="749">
   <si>
     <t>English</t>
   </si>
@@ -252,6 +263,12 @@
     <t>4レーへTシャツ</t>
   </si>
   <si>
+    <t>AmongUsROM</t>
+  </si>
+  <si>
+    <t>頭にカセット</t>
+  </si>
+  <si>
     <t>hinaniki</t>
   </si>
   <si>
@@ -1215,6 +1232,48 @@
     <t>いっぱい飲めるコーラ</t>
   </si>
   <si>
+    <t>SnowShavel</t>
+  </si>
+  <si>
+    <t>雪堀り</t>
+  </si>
+  <si>
+    <t>FireStick</t>
+  </si>
+  <si>
+    <t>火で温まる</t>
+  </si>
+  <si>
+    <t>MaguroSUSHI</t>
+  </si>
+  <si>
+    <t>まぐろ</t>
+  </si>
+  <si>
+    <t>TamagoSUSHI</t>
+  </si>
+  <si>
+    <t>たまご</t>
+  </si>
+  <si>
+    <t>SalmonSUSHI</t>
+  </si>
+  <si>
+    <t>サーモン</t>
+  </si>
+  <si>
+    <t>IkaSUSHI</t>
+  </si>
+  <si>
+    <t>イカ</t>
+  </si>
+  <si>
+    <t>EbiSUSHI</t>
+  </si>
+  <si>
+    <t>えび</t>
+  </si>
+  <si>
     <t>itow</t>
   </si>
   <si>
@@ -1360,884 +1419,878 @@
   </si>
   <si>
     <t>人型</t>
-  </si>
-  <si>
-    <t>noraushi</t>
-  </si>
-  <si>
-    <t>野良牛作</t>
-  </si>
-  <si>
-    <t>noraushiHat</t>
-  </si>
-  <si>
-    <t>野良牛</t>
-  </si>
-  <si>
-    <t>romuniki</t>
-  </si>
-  <si>
-    <t>ROMniki</t>
-  </si>
-  <si>
-    <t>yuri</t>
-  </si>
-  <si>
-    <t>ゆーり</t>
-  </si>
-  <si>
-    <t>iva</t>
-  </si>
-  <si>
-    <t>iVa</t>
-  </si>
-  <si>
-    <t>oyakimon</t>
-  </si>
-  <si>
-    <t>おやきもん作</t>
-  </si>
-  <si>
-    <t>oyaki</t>
-  </si>
-  <si>
-    <t>でかいおやき</t>
-  </si>
-  <si>
-    <t>turunoda</t>
-  </si>
-  <si>
-    <t>だじゃれもんは吊るのだ。</t>
-  </si>
-  <si>
-    <t>onore_Impostor</t>
-  </si>
-  <si>
-    <t>おのれインポスター！</t>
-  </si>
-  <si>
-    <t>onore_Jackal</t>
-  </si>
-  <si>
-    <t>おのれジャッカル！</t>
-  </si>
-  <si>
-    <t>tinfoil_hat</t>
-  </si>
-  <si>
-    <t>思考盗聴対策</t>
-  </si>
-  <si>
-    <t>oyaki_mini</t>
-  </si>
-  <si>
-    <t>ミニおやき</t>
-  </si>
-  <si>
-    <t>karappomon</t>
-  </si>
-  <si>
-    <t>からっぽもん作</t>
-  </si>
-  <si>
-    <t>bom_maimai</t>
-  </si>
-  <si>
-    <t>バクダンマイマイ</t>
-  </si>
-  <si>
-    <t>beer_maimai</t>
-  </si>
-  <si>
-    <t>ビールマイマイ</t>
-  </si>
-  <si>
-    <t>arumikan_turunoda</t>
-  </si>
-  <si>
-    <t>あるミカン（つるのだ）</t>
-  </si>
-  <si>
-    <t>arumikan_zundamon</t>
-  </si>
-  <si>
-    <t>あるミカン（ZUNDAMON）</t>
-  </si>
-  <si>
-    <t>arumikan_zundanrg</t>
-  </si>
-  <si>
-    <t>あるミカン（ZUNDANRG）</t>
-  </si>
-  <si>
-    <t>arumikan_grape</t>
-  </si>
-  <si>
-    <t>あるミカン（グレープ）</t>
-  </si>
-  <si>
-    <t>arumikan_tea</t>
-  </si>
-  <si>
-    <t>あるミカン（お茶）</t>
-  </si>
-  <si>
-    <t>arumikan_zunpis</t>
-  </si>
-  <si>
-    <t>あるミカン（ズンピス）</t>
-  </si>
-  <si>
-    <t>oyaki_maimai</t>
-  </si>
-  <si>
-    <t>オヤキマイマイ</t>
-  </si>
-  <si>
-    <t>short_maimai</t>
-  </si>
-  <si>
-    <t>けーきまいまい</t>
-  </si>
-  <si>
-    <t>maimai_oyaki_reinoshippo</t>
-  </si>
-  <si>
-    <t>しっぽ入りおやきマイマイ</t>
-  </si>
-  <si>
-    <t>maimai_oyaki_zunshippo</t>
-  </si>
-  <si>
-    <t>ずんしっぽおやきマイマイ</t>
-  </si>
-  <si>
-    <t>maimai_purin</t>
-  </si>
-  <si>
-    <t>プリンマイマイ</t>
-  </si>
-  <si>
-    <t>mint_maimai</t>
-  </si>
-  <si>
-    <t>チョコミントマイマイ</t>
-  </si>
-  <si>
-    <t>moon_big</t>
-  </si>
-  <si>
-    <t>月が綺麗ですね</t>
-  </si>
-  <si>
-    <t>moon_mini</t>
-  </si>
-  <si>
-    <t>月は出ているか？</t>
-  </si>
-  <si>
-    <t>Takeman</t>
-  </si>
-  <si>
-    <t>竹饅作</t>
-  </si>
-  <si>
-    <t>T_IronPick</t>
-  </si>
-  <si>
-    <t>IronPick</t>
-  </si>
-  <si>
-    <t>T_Defeat</t>
-  </si>
-  <si>
-    <t>Defeat</t>
-  </si>
-  <si>
-    <t>T_Pickaxe</t>
-  </si>
-  <si>
-    <t>ダイヤピッケル</t>
-  </si>
-  <si>
-    <t>Nyayuta</t>
-  </si>
-  <si>
-    <t>Nyayuta作</t>
-  </si>
-  <si>
-    <t>trickAndTreat</t>
-  </si>
-  <si>
-    <t>トリック＆トリート</t>
-  </si>
-  <si>
-    <t>meronpan</t>
-  </si>
-  <si>
-    <t>メロンパン</t>
-  </si>
-  <si>
-    <t>gunman</t>
-  </si>
-  <si>
-    <t>ガンマン</t>
-  </si>
-  <si>
-    <t>Yu</t>
-  </si>
-  <si>
-    <t>Yu作</t>
-  </si>
-  <si>
-    <t>AibayashiMizuki</t>
-  </si>
-  <si>
-    <t>藍林瑞希</t>
-  </si>
-  <si>
-    <t>AzaminoHinata</t>
-  </si>
-  <si>
-    <t>莇野ヒナタ</t>
-  </si>
-  <si>
-    <t>CITYHATANUKI</t>
-  </si>
-  <si>
-    <t>シティ派たぬき</t>
-  </si>
-  <si>
-    <t>KatagiriKonsuke</t>
-  </si>
-  <si>
-    <t>片桐紺介</t>
-  </si>
-  <si>
-    <t>KawarabeKumaji</t>
-  </si>
-  <si>
-    <t>川原辺熊尓</t>
-  </si>
-  <si>
-    <t>mutari</t>
-  </si>
-  <si>
-    <t>むたリ</t>
-  </si>
-  <si>
-    <t>NekoNoKnmichi</t>
-  </si>
-  <si>
-    <t>猫の小道</t>
-  </si>
-  <si>
-    <t>nekomatamasao</t>
-  </si>
-  <si>
-    <t>猫叉まさお</t>
-  </si>
-  <si>
-    <t>ShimizuAlm</t>
-  </si>
-  <si>
-    <t>枝水アルム</t>
-  </si>
-  <si>
-    <t>YuHat</t>
-  </si>
-  <si>
-    <t>YukitoFuyumori</t>
-  </si>
-  <si>
-    <t>冬森ゆきと</t>
-  </si>
-  <si>
-    <t>YukizukiNoir</t>
-  </si>
-  <si>
-    <t>雪月ノア</t>
-  </si>
-  <si>
-    <t>UzomuZo</t>
-  </si>
-  <si>
-    <t>ウゾーム象作</t>
-  </si>
-  <si>
-    <t>EyeLight_Blue</t>
-  </si>
-  <si>
-    <t>アイライト(青)</t>
-  </si>
-  <si>
-    <t>EyeLight_Green</t>
-  </si>
-  <si>
-    <t>アイライト(緑)</t>
-  </si>
-  <si>
-    <t>EyeLight_Red</t>
-  </si>
-  <si>
-    <t>アイライト(赤)</t>
-  </si>
-  <si>
-    <t>EyeLight_Yellow</t>
-  </si>
-  <si>
-    <t>アイライト(黄)</t>
-  </si>
-  <si>
-    <t>Mono_EyeLight_Blue</t>
-  </si>
-  <si>
-    <t>アイライト(青・単)</t>
-  </si>
-  <si>
-    <t>Mono_EyeLight_Green</t>
-  </si>
-  <si>
-    <t>アイライト(緑・単)</t>
-  </si>
-  <si>
-    <t>Mono_EyeLight_Red</t>
-  </si>
-  <si>
-    <t>アイライト(赤・単)</t>
-  </si>
-  <si>
-    <t>Mono_EyeLight_Yellow</t>
-  </si>
-  <si>
-    <t>アイライト(黄・単)</t>
-  </si>
-  <si>
-    <t>Halo</t>
-  </si>
-  <si>
-    <t>後光</t>
-  </si>
-  <si>
-    <t>JackOHead</t>
-  </si>
-  <si>
-    <t>カボチャ頭</t>
-  </si>
-  <si>
-    <t>Long-tailed_Tit</t>
-  </si>
-  <si>
-    <t>シマエナガ</t>
-  </si>
-  <si>
-    <t>Sparrow</t>
-  </si>
-  <si>
-    <t>スズメ</t>
-  </si>
-  <si>
-    <t>Snowman</t>
-  </si>
-  <si>
-    <t>雪だるま</t>
-  </si>
-  <si>
-    <t>SnowmanColor</t>
-  </si>
-  <si>
-    <t>雪だるま(カラー対応)</t>
-  </si>
-  <si>
-    <t>Booster</t>
-  </si>
-  <si>
-    <t>ブースター</t>
-  </si>
-  <si>
-    <t>Faceless</t>
-  </si>
-  <si>
-    <t>のっぺらぼう</t>
-  </si>
-  <si>
-    <t>Hands_of_the_Dead</t>
-  </si>
-  <si>
-    <t>亡者の手</t>
-  </si>
-  <si>
-    <t>I_am_Werewolf</t>
-  </si>
-  <si>
-    <t>我は人狼なり</t>
-  </si>
-  <si>
-    <t>WorkHelmet_Yellow</t>
-  </si>
-  <si>
-    <t>ヘルメット(黄)</t>
-  </si>
-  <si>
-    <t>Medjed</t>
-  </si>
-  <si>
-    <t>メジエド様</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>ペンギン</t>
-  </si>
-  <si>
-    <t>SamuraiBlade</t>
-  </si>
-  <si>
-    <t>刀</t>
-  </si>
-  <si>
-    <t>SurportArms</t>
-  </si>
-  <si>
-    <t>補助アーム</t>
-  </si>
-  <si>
-    <t>WorkHelmet_White</t>
-  </si>
-  <si>
-    <t>ヘルメット(白)</t>
-  </si>
-  <si>
-    <t>kannagi_drive</t>
-  </si>
-  <si>
-    <t>かんなぎドライブ作</t>
-  </si>
-  <si>
-    <t>owamura</t>
-  </si>
-  <si>
-    <t>終わりやこんな村ァ!</t>
-  </si>
-  <si>
-    <t>kannagi</t>
-  </si>
-  <si>
-    <t>かんなぎドライブ</t>
-  </si>
-  <si>
-    <t>aiueojyun</t>
-  </si>
-  <si>
-    <t>あいうえお順で吊ろうぜ</t>
-  </si>
-  <si>
-    <t>anmaridesuwa</t>
-  </si>
-  <si>
-    <t>あんまりですわー</t>
-  </si>
-  <si>
-    <t>bobebagyua</t>
-  </si>
-  <si>
-    <t>ぼべばぎゅあ</t>
-  </si>
-  <si>
-    <t>crew_dokoya</t>
-  </si>
-  <si>
-    <t>クルーどこやー</t>
-  </si>
-  <si>
-    <t>Impostor_dokoya</t>
-  </si>
-  <si>
-    <t>インポスターどこやー</t>
-  </si>
-  <si>
-    <t>hai_gattyan</t>
-  </si>
-  <si>
-    <t>はいがっちゃーん</t>
-  </si>
-  <si>
-    <t>jitouhyou</t>
-  </si>
-  <si>
-    <t>私は私に投票します</t>
-  </si>
-  <si>
-    <t>kenzenketu</t>
-  </si>
-  <si>
-    <t>健全ヤッター</t>
-  </si>
-  <si>
-    <t>tukihatu</t>
-  </si>
-  <si>
-    <t>牛乳先生作</t>
-  </si>
-  <si>
-    <t>milk_big</t>
-  </si>
-  <si>
-    <t>等身大牛乳パック</t>
-  </si>
-  <si>
-    <t>milk_rainbow</t>
-  </si>
-  <si>
-    <t>レインボーパック</t>
-  </si>
-  <si>
-    <t>milk_coffee</t>
-  </si>
-  <si>
-    <t>コーヒーミルク</t>
-  </si>
-  <si>
-    <t>Composter</t>
-  </si>
-  <si>
-    <t>コンポスター作</t>
-  </si>
-  <si>
-    <t>among guys</t>
-  </si>
-  <si>
-    <t>アモング ガイズ</t>
-  </si>
-  <si>
-    <t>beast</t>
-  </si>
-  <si>
-    <t>獣</t>
-  </si>
-  <si>
-    <t>beast_of_prey</t>
-  </si>
-  <si>
-    <t>猛獣</t>
-  </si>
-  <si>
-    <t>Miso_soup</t>
-  </si>
-  <si>
-    <t>witch</t>
-  </si>
-  <si>
-    <t>魔女</t>
-  </si>
-  <si>
-    <t>AmongUsROM</t>
-  </si>
-  <si>
-    <t>頭にカセット</t>
-  </si>
-  <si>
-    <t>aitu1</t>
-  </si>
-  <si>
-    <t>aitu2</t>
-  </si>
-  <si>
-    <t>aitu3</t>
-  </si>
-  <si>
-    <t>aitu4</t>
-  </si>
-  <si>
-    <t>aitu5</t>
-  </si>
-  <si>
-    <t>aitu6</t>
-  </si>
-  <si>
-    <t>aitu7</t>
-  </si>
-  <si>
-    <t>aitu8</t>
-  </si>
-  <si>
-    <t>aitu9</t>
-  </si>
-  <si>
-    <t>dousite</t>
-  </si>
-  <si>
-    <t>gue1</t>
-  </si>
-  <si>
-    <t>gue2</t>
-  </si>
-  <si>
-    <t>iamcrew</t>
-  </si>
-  <si>
-    <t>iamimpostar</t>
-  </si>
-  <si>
-    <t>imnotimpostar</t>
-  </si>
-  <si>
-    <t>kirubotan</t>
-  </si>
-  <si>
-    <t>kokoroyasasiki</t>
-  </si>
-  <si>
-    <t>kondomisetene</t>
-  </si>
-  <si>
-    <t>mutegaba</t>
-  </si>
-  <si>
-    <t>pien</t>
-  </si>
-  <si>
-    <t>rollerjay</t>
-  </si>
-  <si>
-    <t>seizoniyoku</t>
-  </si>
-  <si>
-    <t>siteyattarizazze</t>
-  </si>
-  <si>
-    <t>soudaroinumi</t>
-  </si>
-  <si>
-    <t>syukkayo1</t>
-  </si>
-  <si>
-    <t>syukkayo2</t>
-  </si>
-  <si>
-    <t>tmkami</t>
-  </si>
-  <si>
-    <t>yameyokka</t>
-  </si>
-  <si>
-    <t>あいつはシェリフのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>あいつはトレイターのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>あいつはジャッカルのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>あいつはヤンデレのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>あいつはアリスのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>あいつはクイーンのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>あいつはイーターのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>あいつはマイナーのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>あいつはミッショナリーのこと悪く言ったから…。</t>
-  </si>
-  <si>
-    <t>どうしてつきあっているのかなぁ。</t>
-  </si>
-  <si>
-    <t>ぐえー１</t>
-  </si>
-  <si>
-    <t>ぐえー２</t>
-  </si>
-  <si>
-    <t>私はクルーです</t>
-  </si>
-  <si>
-    <t>私はインポスターです</t>
-  </si>
-  <si>
-    <t>どう見てもインポスターではない</t>
-  </si>
-  <si>
-    <t>あいつにキルボタン持たせたら絶対ダメな奴だこれ</t>
-  </si>
-  <si>
-    <t>私は心優しきクルーメイト</t>
-  </si>
-  <si>
-    <t>今度見せてね</t>
-  </si>
-  <si>
-    <t>戻ってきて第一声が「出荷よー」なの？</t>
-  </si>
-  <si>
-    <t>ぴえん</t>
-  </si>
-  <si>
-    <t>ローラーじゃいローラーじゃい</t>
-  </si>
-  <si>
-    <t>生存意欲が高い…。</t>
-  </si>
-  <si>
-    <t>してやったりだぜー！</t>
-  </si>
-  <si>
-    <t>そうだろクルー！</t>
-  </si>
-  <si>
-    <t>出荷よ～～～～っ！</t>
-  </si>
-  <si>
-    <t>出荷よー</t>
-  </si>
-  <si>
-    <t>あいつはタイムマスターをよく噛むから…。</t>
-  </si>
-  <si>
-    <t>やめよ…っか。</t>
-  </si>
-  <si>
-    <t>パワーマックス!</t>
   </si>
   <si>
     <t>PowerMax</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>パワーマックス!</t>
+  </si>
+  <si>
+    <t>noraushi</t>
+  </si>
+  <si>
+    <t>野良牛作</t>
+  </si>
+  <si>
+    <t>noraushiHat</t>
+  </si>
+  <si>
+    <t>野良牛</t>
+  </si>
+  <si>
+    <t>romuniki</t>
+  </si>
+  <si>
+    <t>ROMniki</t>
+  </si>
+  <si>
+    <t>yuri</t>
+  </si>
+  <si>
+    <t>ゆーり</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>iVa</t>
+  </si>
+  <si>
+    <t>oyakimon</t>
+  </si>
+  <si>
+    <t>おやきもん作</t>
+  </si>
+  <si>
+    <t>oyaki</t>
+  </si>
+  <si>
+    <t>でかいおやき</t>
+  </si>
+  <si>
+    <t>turunoda</t>
+  </si>
+  <si>
+    <t>だじゃれもんは吊るのだ。</t>
+  </si>
+  <si>
+    <t>onore_Impostor</t>
+  </si>
+  <si>
+    <t>おのれインポスター！</t>
+  </si>
+  <si>
+    <t>onore_Jackal</t>
+  </si>
+  <si>
+    <t>おのれジャッカル！</t>
+  </si>
+  <si>
+    <t>tinfoil_hat</t>
+  </si>
+  <si>
+    <t>思考盗聴対策</t>
+  </si>
+  <si>
+    <t>oyaki_mini</t>
+  </si>
+  <si>
+    <t>ミニおやき</t>
+  </si>
+  <si>
+    <t>karappomon</t>
+  </si>
+  <si>
+    <t>からっぽもん作</t>
+  </si>
+  <si>
+    <t>bom_maimai</t>
+  </si>
+  <si>
+    <t>バクダンマイマイ</t>
+  </si>
+  <si>
+    <t>beer_maimai</t>
+  </si>
+  <si>
+    <t>ビールマイマイ</t>
+  </si>
+  <si>
+    <t>arumikan_turunoda</t>
+  </si>
+  <si>
+    <t>あるミカン（つるのだ）</t>
+  </si>
+  <si>
+    <t>arumikan_zundamon</t>
+  </si>
+  <si>
+    <t>あるミカン（ZUNDAMON）</t>
+  </si>
+  <si>
+    <t>arumikan_zundanrg</t>
+  </si>
+  <si>
+    <t>あるミカン（ZUNDANRG）</t>
+  </si>
+  <si>
+    <t>arumikan_grape</t>
+  </si>
+  <si>
+    <t>あるミカン（グレープ）</t>
+  </si>
+  <si>
+    <t>arumikan_tea</t>
+  </si>
+  <si>
+    <t>あるミカン（お茶）</t>
+  </si>
+  <si>
+    <t>arumikan_zunpis</t>
+  </si>
+  <si>
+    <t>あるミカン（ズンピス）</t>
+  </si>
+  <si>
+    <t>oyaki_maimai</t>
+  </si>
+  <si>
+    <t>オヤキマイマイ</t>
+  </si>
+  <si>
+    <t>short_maimai</t>
+  </si>
+  <si>
+    <t>けーきまいまい</t>
+  </si>
+  <si>
+    <t>maimai_oyaki_reinoshippo</t>
+  </si>
+  <si>
+    <t>しっぽ入りおやきマイマイ</t>
+  </si>
+  <si>
+    <t>maimai_oyaki_zunshippo</t>
+  </si>
+  <si>
+    <t>ずんしっぽおやきマイマイ</t>
+  </si>
+  <si>
+    <t>maimai_purin</t>
+  </si>
+  <si>
+    <t>プリンマイマイ</t>
+  </si>
+  <si>
+    <t>mint_maimai</t>
+  </si>
+  <si>
+    <t>チョコミントマイマイ</t>
+  </si>
+  <si>
+    <t>moon_big</t>
+  </si>
+  <si>
+    <t>月が綺麗ですね</t>
+  </si>
+  <si>
+    <t>moon_mini</t>
+  </si>
+  <si>
+    <t>月は出ているか？</t>
+  </si>
+  <si>
+    <t>Takeman</t>
+  </si>
+  <si>
+    <t>竹饅作</t>
+  </si>
+  <si>
+    <t>T_IronPick</t>
+  </si>
+  <si>
+    <t>IronPick</t>
+  </si>
+  <si>
+    <t>T_Defeat</t>
+  </si>
+  <si>
+    <t>Defeat</t>
+  </si>
+  <si>
+    <t>T_Pickaxe</t>
+  </si>
+  <si>
+    <t>ダイヤピッケル</t>
+  </si>
+  <si>
+    <t>Nyayuta</t>
+  </si>
+  <si>
+    <t>Nyayuta作</t>
+  </si>
+  <si>
+    <t>trickAndTreat</t>
+  </si>
+  <si>
+    <t>トリック＆トリート</t>
+  </si>
+  <si>
+    <t>meronpan</t>
+  </si>
+  <si>
+    <t>メロンパン</t>
+  </si>
+  <si>
+    <t>gunman</t>
+  </si>
+  <si>
+    <t>ガンマン</t>
+  </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>Yu作</t>
+  </si>
+  <si>
+    <t>AibayashiMizuki</t>
+  </si>
+  <si>
+    <t>藍林瑞希</t>
+  </si>
+  <si>
+    <t>AzaminoHinata</t>
+  </si>
+  <si>
+    <t>莇野ヒナタ</t>
+  </si>
+  <si>
+    <t>CITYHATANUKI</t>
+  </si>
+  <si>
+    <t>シティ派たぬき</t>
+  </si>
+  <si>
+    <t>KatagiriKonsuke</t>
+  </si>
+  <si>
+    <t>片桐紺介</t>
+  </si>
+  <si>
+    <t>KawarabeKumaji</t>
+  </si>
+  <si>
+    <t>川原辺熊尓</t>
+  </si>
+  <si>
+    <t>mutari</t>
+  </si>
+  <si>
+    <t>むたリ</t>
+  </si>
+  <si>
+    <t>NekoNoKnmichi</t>
+  </si>
+  <si>
+    <t>猫の小道</t>
+  </si>
+  <si>
+    <t>nekomatamasao</t>
+  </si>
+  <si>
+    <t>猫叉まさお</t>
+  </si>
+  <si>
+    <t>ShimizuAlm</t>
+  </si>
+  <si>
+    <t>枝水アルム</t>
+  </si>
+  <si>
+    <t>YuHat</t>
+  </si>
+  <si>
+    <t>YukitoFuyumori</t>
+  </si>
+  <si>
+    <t>冬森ゆきと</t>
+  </si>
+  <si>
+    <t>YukizukiNoir</t>
+  </si>
+  <si>
+    <t>雪月ノア</t>
+  </si>
+  <si>
+    <t>UzomuZo</t>
+  </si>
+  <si>
+    <t>ウゾーム象作</t>
+  </si>
+  <si>
+    <t>EyeLight_Blue</t>
+  </si>
+  <si>
+    <t>アイライト(青)</t>
+  </si>
+  <si>
+    <t>EyeLight_Green</t>
+  </si>
+  <si>
+    <t>アイライト(緑)</t>
+  </si>
+  <si>
+    <t>EyeLight_Red</t>
+  </si>
+  <si>
+    <t>アイライト(赤)</t>
+  </si>
+  <si>
+    <t>EyeLight_Yellow</t>
+  </si>
+  <si>
+    <t>アイライト(黄)</t>
+  </si>
+  <si>
+    <t>Mono_EyeLight_Blue</t>
+  </si>
+  <si>
+    <t>アイライト(青・単)</t>
+  </si>
+  <si>
+    <t>Mono_EyeLight_Green</t>
+  </si>
+  <si>
+    <t>アイライト(緑・単)</t>
+  </si>
+  <si>
+    <t>Mono_EyeLight_Red</t>
+  </si>
+  <si>
+    <t>アイライト(赤・単)</t>
+  </si>
+  <si>
+    <t>Mono_EyeLight_Yellow</t>
+  </si>
+  <si>
+    <t>アイライト(黄・単)</t>
+  </si>
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t>後光</t>
+  </si>
+  <si>
+    <t>JackOHead</t>
+  </si>
+  <si>
+    <t>カボチャ頭</t>
+  </si>
+  <si>
+    <t>Long-tailed_Tit</t>
+  </si>
+  <si>
+    <t>シマエナガ</t>
+  </si>
+  <si>
+    <t>Sparrow</t>
+  </si>
+  <si>
+    <t>スズメ</t>
+  </si>
+  <si>
+    <t>Snowman</t>
+  </si>
+  <si>
+    <t>雪だるま</t>
+  </si>
+  <si>
+    <t>SnowmanColor</t>
+  </si>
+  <si>
+    <t>雪だるま(カラー対応)</t>
+  </si>
+  <si>
+    <t>Booster</t>
+  </si>
+  <si>
+    <t>ブースター</t>
+  </si>
+  <si>
+    <t>Faceless</t>
+  </si>
+  <si>
+    <t>のっぺらぼう</t>
+  </si>
+  <si>
+    <t>Hands_of_the_Dead</t>
+  </si>
+  <si>
+    <t>亡者の手</t>
+  </si>
+  <si>
+    <t>I_am_Werewolf</t>
+  </si>
+  <si>
+    <t>我は人狼なり</t>
+  </si>
+  <si>
+    <t>WorkHelmet_Yellow</t>
+  </si>
+  <si>
+    <t>ヘルメット(黄)</t>
+  </si>
+  <si>
+    <t>Medjed</t>
+  </si>
+  <si>
+    <t>メジエド様</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>ペンギン</t>
+  </si>
+  <si>
+    <t>SamuraiBlade</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>SurportArms</t>
+  </si>
+  <si>
+    <t>補助アーム</t>
+  </si>
+  <si>
+    <t>WorkHelmet_White</t>
+  </si>
+  <si>
+    <t>ヘルメット(白)</t>
+  </si>
+  <si>
+    <t>kannagi_drive</t>
+  </si>
+  <si>
+    <t>かんなぎドライブ作</t>
+  </si>
+  <si>
+    <t>owamura</t>
+  </si>
+  <si>
+    <t>終わりやこんな村ァ!</t>
+  </si>
+  <si>
+    <t>kannagi</t>
+  </si>
+  <si>
+    <t>かんなぎドライブ</t>
+  </si>
+  <si>
+    <t>aiueojyun</t>
+  </si>
+  <si>
+    <t>あいうえお順で吊ろうぜ</t>
+  </si>
+  <si>
+    <t>anmaridesuwa</t>
+  </si>
+  <si>
+    <t>あんまりですわー</t>
+  </si>
+  <si>
+    <t>bobebagyua</t>
+  </si>
+  <si>
+    <t>ぼべばぎゅあ</t>
+  </si>
+  <si>
+    <t>crew_dokoya</t>
+  </si>
+  <si>
+    <t>クルーどこやー</t>
+  </si>
+  <si>
+    <t>Impostor_dokoya</t>
+  </si>
+  <si>
+    <t>インポスターどこやー</t>
+  </si>
+  <si>
+    <t>hai_gattyan</t>
+  </si>
+  <si>
+    <t>はいがっちゃーん</t>
+  </si>
+  <si>
+    <t>jitouhyou</t>
+  </si>
+  <si>
+    <t>私は私に投票します</t>
+  </si>
+  <si>
+    <t>kenzenketu</t>
+  </si>
+  <si>
+    <t>健全ヤッター</t>
+  </si>
+  <si>
+    <t>aitu1</t>
+  </si>
+  <si>
+    <t>あいつはシェリフのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>aitu2</t>
+  </si>
+  <si>
+    <t>あいつはトレイターのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>aitu3</t>
+  </si>
+  <si>
+    <t>あいつはジャッカルのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>aitu4</t>
+  </si>
+  <si>
+    <t>あいつはヤンデレのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>aitu5</t>
+  </si>
+  <si>
+    <t>あいつはアリスのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>aitu6</t>
+  </si>
+  <si>
+    <t>あいつはクイーンのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>aitu7</t>
+  </si>
+  <si>
+    <t>あいつはイーターのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>aitu8</t>
+  </si>
+  <si>
+    <t>あいつはマイナーのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>aitu9</t>
+  </si>
+  <si>
+    <t>あいつはミッショナリーのこと悪く言ったから…。</t>
+  </si>
+  <si>
+    <t>dousite</t>
+  </si>
+  <si>
+    <t>どうしてつきあっているのかなぁ。</t>
+  </si>
+  <si>
+    <t>gue1</t>
+  </si>
+  <si>
+    <t>ぐえー１</t>
+  </si>
+  <si>
+    <t>gue2</t>
+  </si>
+  <si>
+    <t>ぐえー２</t>
+  </si>
+  <si>
+    <t>iamcrew</t>
+  </si>
+  <si>
+    <t>私はクルーです</t>
+  </si>
+  <si>
+    <t>iamimpostar</t>
+  </si>
+  <si>
+    <t>私はインポスターです</t>
+  </si>
+  <si>
+    <t>imnotimpostar</t>
+  </si>
+  <si>
+    <t>どう見てもインポスターではない</t>
+  </si>
+  <si>
+    <t>kirubotan</t>
+  </si>
+  <si>
+    <t>あいつにキルボタン持たせたら絶対ダメな奴だこれ</t>
+  </si>
+  <si>
+    <t>kokoroyasasiki</t>
+  </si>
+  <si>
+    <t>私は心優しきクルーメイト</t>
+  </si>
+  <si>
+    <t>kondomisetene</t>
+  </si>
+  <si>
+    <t>今度見せてね</t>
+  </si>
+  <si>
+    <t>mutegaba</t>
+  </si>
+  <si>
+    <t>戻ってきて第一声が「出荷よー」なの？</t>
+  </si>
+  <si>
+    <t>pien</t>
+  </si>
+  <si>
+    <t>ぴえん</t>
+  </si>
+  <si>
+    <t>rollerjay</t>
+  </si>
+  <si>
+    <t>ローラーじゃいローラーじゃい</t>
+  </si>
+  <si>
+    <t>seizoniyoku</t>
+  </si>
+  <si>
+    <t>生存意欲が高い…。</t>
+  </si>
+  <si>
+    <t>siteyattarizazze</t>
+  </si>
+  <si>
+    <t>してやったりだぜー！</t>
+  </si>
+  <si>
+    <t>soudaroinumi</t>
+  </si>
+  <si>
+    <t>そうだろクルー！</t>
+  </si>
+  <si>
+    <t>syukkayo1</t>
+  </si>
+  <si>
+    <t>出荷よ～～～～っ！</t>
+  </si>
+  <si>
+    <t>syukkayo2</t>
+  </si>
+  <si>
+    <t>出荷よー</t>
+  </si>
+  <si>
+    <t>tmkami</t>
+  </si>
+  <si>
+    <t>あいつはタイムマスターをよく噛むから…。</t>
+  </si>
+  <si>
+    <t>yameyokka</t>
+  </si>
+  <si>
+    <t>やめよ…っか。</t>
+  </si>
+  <si>
     <t>sabufuremu</t>
   </si>
   <si>
+    <t>サブフレームリセットォ！</t>
+  </si>
+  <si>
     <t>soredemo</t>
   </si>
   <si>
+    <t>それでもっっっ！！！</t>
+  </si>
+  <si>
     <t>turi2</t>
   </si>
   <si>
+    <t>アルファベット順に吊ろうぜ！</t>
+  </si>
+  <si>
     <t>turi3</t>
   </si>
   <si>
+    <t>いろは順に吊ろうぜ！</t>
+  </si>
+  <si>
     <t>watasinakayosi</t>
   </si>
   <si>
+    <t>わたし！仲良し！</t>
+  </si>
+  <si>
     <t>gessa</t>
   </si>
   <si>
+    <t>このゲッサーには役職が見えている</t>
+  </si>
+  <si>
     <t>kirukirukiru</t>
   </si>
   <si>
+    <t>キルキルキルキルキルキルキルキル(ry</t>
+  </si>
+  <si>
     <t>kusosamugyagu</t>
   </si>
   <si>
+    <t>バルチャーしょうがねぇ</t>
+  </si>
+  <si>
     <t>pui</t>
   </si>
   <si>
+    <t>きゅっきゅっぷぃっ</t>
+  </si>
+  <si>
     <t>rsnsuu</t>
   </si>
   <si>
+    <t>乱数調整だ。</t>
+  </si>
+  <si>
     <t>sanjikan</t>
   </si>
   <si>
+    <t>ゲーム開始から3時間です。</t>
+  </si>
+  <si>
     <t>utimukeba</t>
   </si>
   <si>
+    <t>クルーで撃ち抜けばまず当たる</t>
+  </si>
+  <si>
     <t>abaaaa</t>
   </si>
   <si>
+    <t>アバアアアアアア！</t>
+  </si>
+  <si>
     <t>basakugessa</t>
   </si>
   <si>
+    <t>『バーサークゲッサー』！</t>
+  </si>
+  <si>
     <t>dekimasita</t>
   </si>
   <si>
+    <t>でーきまーしたー！</t>
+  </si>
+  <si>
     <t>gokigenyo</t>
   </si>
   <si>
+    <t>ごーきげーんよー！</t>
+  </si>
+  <si>
     <t>hennandesu</t>
   </si>
   <si>
+    <t>この人変なんです！</t>
+  </si>
+  <si>
     <t>iikiru</t>
   </si>
   <si>
+    <t>俺のキルはいいキルなんだ！</t>
+  </si>
+  <si>
     <t>iisatui</t>
   </si>
   <si>
+    <t>俺の殺意はいい殺意なんだ！</t>
+  </si>
+  <si>
     <t>omaejai</t>
   </si>
   <si>
-    <t>サブフレームリセットォ！</t>
-  </si>
-  <si>
-    <t>それでもっっっ！！！</t>
-  </si>
-  <si>
-    <t>アルファベット順に吊ろうぜ！</t>
-  </si>
-  <si>
-    <t>いろは順に吊ろうぜ！</t>
-  </si>
-  <si>
-    <t>わたし！仲良し！</t>
-  </si>
-  <si>
-    <t>このゲッサーには役職が見えている</t>
-  </si>
-  <si>
-    <t>キルキルキルキルキルキルキルキル(ry</t>
-  </si>
-  <si>
-    <t>バルチャーしょうがねぇ</t>
-  </si>
-  <si>
-    <t>きゅっきゅっぷぃっ</t>
-  </si>
-  <si>
-    <t>乱数調整だ。</t>
-  </si>
-  <si>
-    <t>ゲーム開始から3時間です。</t>
-  </si>
-  <si>
-    <t>クルーで撃ち抜けばまず当たる</t>
-  </si>
-  <si>
-    <t>アバアアアアアア！</t>
-  </si>
-  <si>
-    <t>『バーサークゲッサー』！</t>
-  </si>
-  <si>
-    <t>でーきまーしたー！</t>
-  </si>
-  <si>
-    <t>ごーきげーんよー！</t>
-  </si>
-  <si>
-    <t>この人変なんです！</t>
-  </si>
-  <si>
-    <t>俺のキルはいいキルなんだ！</t>
-  </si>
-  <si>
-    <t>俺の殺意はいい殺意なんだ！</t>
-  </si>
-  <si>
     <t>お前じゃい！</t>
+  </si>
+  <si>
+    <t>tukihatu</t>
+  </si>
+  <si>
+    <t>牛乳先生作</t>
+  </si>
+  <si>
+    <t>milk_big</t>
+  </si>
+  <si>
+    <t>等身大牛乳パック</t>
+  </si>
+  <si>
+    <t>milk_rainbow</t>
+  </si>
+  <si>
+    <t>レインボーパック</t>
+  </si>
+  <si>
+    <t>milk_coffee</t>
+  </si>
+  <si>
+    <t>コーヒーミルク</t>
+  </si>
+  <si>
+    <t>Composter</t>
+  </si>
+  <si>
+    <t>コンポスター作</t>
+  </si>
+  <si>
+    <t>among guys</t>
+  </si>
+  <si>
+    <t>アモング ガイズ</t>
+  </si>
+  <si>
+    <t>beast</t>
+  </si>
+  <si>
+    <t>獣</t>
+  </si>
+  <si>
+    <t>beast_of_prey</t>
+  </si>
+  <si>
+    <t>猛獣</t>
+  </si>
+  <si>
+    <t>Miso_soup</t>
+  </si>
+  <si>
+    <t>witch</t>
+  </si>
+  <si>
+    <t>魔女</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2314,7 +2367,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2330,7 +2383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2618,7 +2671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2626,13 +2679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q410"/>
+  <dimension ref="A1:Q417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:M410"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M219" sqref="M219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -2641,7 +2694,7 @@
     <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2710,7 +2763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2718,7 +2771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2726,7 +2779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2734,7 +2787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2742,7 +2795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2750,7 +2803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2758,7 +2811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2766,7 +2819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2774,7 +2827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2782,7 +2835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2790,7 +2843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2798,7 +2851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2806,7 +2859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2814,7 +2867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2822,7 +2875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2830,7 +2883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2838,7 +2891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2846,7 +2899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2854,7 +2907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2862,7 +2915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2870,7 +2923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2878,7 +2931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2886,7 +2939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2894,10 +2947,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2905,7 +2958,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2913,10 +2966,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -2924,7 +2977,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2932,745 +2985,745 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>635</v>
+        <v>75</v>
       </c>
       <c r="M38" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M70" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M71" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M75" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M76" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M77" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M79" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M80" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M82" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M84" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M87" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M88" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M89" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M90" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M91" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M92" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M94" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M95" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M96" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M97" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M98" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M99" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M100" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M101" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M102" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M103" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M105" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M106" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M107" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M108" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M109" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M110" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M111" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M112" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M113" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M114" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M115" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M116" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M117" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M118" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M119" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M120" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M121" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M123" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M124" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M125" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M126" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M127" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M128" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M129" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M131" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M132" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M133" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M134" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M135" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M136" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3684,12 +3737,12 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3703,12 +3756,12 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3722,12 +3775,12 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3741,12 +3794,12 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3760,12 +3813,12 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3779,12 +3832,12 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3798,12 +3851,12 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3817,12 +3870,12 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3836,12 +3889,12 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3855,12 +3908,12 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3874,12 +3927,12 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3893,12 +3946,12 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3912,12 +3965,12 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3931,12 +3984,12 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3950,12 +4003,12 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3969,412 +4022,412 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M157" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M158" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M159" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M160" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M161" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M162" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M163" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M164" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M165" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M166" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M167" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M168" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M169" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M170" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M171" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M172" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M173" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M174" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M175" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M176" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M177" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M178" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M179" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M180" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M181" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M182" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M183" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M184" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M185" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M186" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M187" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M188" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M189" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M190" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M191" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M192" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M193" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M194" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M195" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M196" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M197" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M198" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M199" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M200" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M201" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M202" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M203" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M204" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M205" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M206" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -4388,12 +4441,12 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -4407,12 +4460,12 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4426,12 +4479,12 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4445,12 +4498,12 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4464,12 +4517,12 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4483,132 +4536,199 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
-        <v>396</v>
-      </c>
-      <c r="M215" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
+    <row r="213" spans="1:13">
+      <c r="A213" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="M216" t="s">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
+    <row r="214" spans="1:13">
+      <c r="A214" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M217" t="s">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
+    <row r="215" spans="1:13">
+      <c r="A215" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="M218" t="s">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
+    <row r="216" spans="1:13">
+      <c r="A216" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="M220" t="s">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
+    <row r="217" spans="1:13">
+      <c r="A217" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="M221" t="s">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13">
+      <c r="A218" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
+      <c r="A219" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M222" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
+      <c r="A223" t="s">
+        <v>414</v>
+      </c>
+      <c r="M223" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" t="s">
+        <v>416</v>
+      </c>
+      <c r="M224" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M225" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>412</v>
-      </c>
-      <c r="B226" t="s">
-        <v>412</v>
-      </c>
-      <c r="M226" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" t="s">
-        <v>414</v>
-      </c>
-      <c r="B227" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M227" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M228" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" t="s">
-        <v>419</v>
-      </c>
-      <c r="B229" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M229" t="s">
-        <v>421</v>
-      </c>
-      <c r="N229" s="1"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
-        <v>422</v>
-      </c>
-      <c r="M230" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
-        <v>424</v>
-      </c>
-      <c r="M231" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:14">
       <c r="A232" t="s">
         <v>426</v>
       </c>
@@ -4616,276 +4736,239 @@
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:14">
       <c r="A233" t="s">
         <v>428</v>
       </c>
+      <c r="B233" t="s">
+        <v>428</v>
+      </c>
       <c r="M233" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:14">
+      <c r="A234" t="s">
+        <v>430</v>
+      </c>
+      <c r="B234" t="s">
+        <v>431</v>
+      </c>
+      <c r="M234" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M235" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" t="s">
-        <v>432</v>
+        <v>435</v>
+      </c>
+      <c r="B236" t="s">
+        <v>436</v>
       </c>
       <c r="M236" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+      <c r="N236" s="1"/>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M237" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
-        <v>436</v>
-      </c>
-      <c r="B238" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M238" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M239" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M240" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
-        <v>443</v>
-      </c>
-      <c r="B241" t="s">
-        <v>443</v>
-      </c>
-      <c r="M241" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A242" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" t="s">
+        <v>446</v>
+      </c>
+      <c r="M242" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" t="s">
+        <v>448</v>
+      </c>
+      <c r="M243" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M244" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" t="s">
-        <v>447</v>
+        <v>452</v>
+      </c>
+      <c r="B245" t="s">
+        <v>453</v>
       </c>
       <c r="M245" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M246" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M247" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" t="s">
-        <v>453</v>
+        <v>459</v>
+      </c>
+      <c r="B248" t="s">
+        <v>459</v>
       </c>
       <c r="M248" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
-        <v>455</v>
-      </c>
-      <c r="M250" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M251" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A252" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
-      <c r="M252" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A253" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
-      <c r="M253" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A254" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A255" s="2" t="s">
+    <row r="252" spans="1:13">
+      <c r="A252" t="s">
         <v>465</v>
       </c>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2" t="s">
+      <c r="M252" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
+    <row r="253" spans="1:13">
+      <c r="A253" t="s">
         <v>467</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M253" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A258" s="2" t="s">
+    <row r="254" spans="1:13">
+      <c r="A254" t="s">
         <v>469</v>
       </c>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2" t="s">
+      <c r="M254" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A259" s="2" t="s">
+    <row r="255" spans="1:13">
+      <c r="A255" t="s">
         <v>471</v>
       </c>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="2" t="s">
+      <c r="M255" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A260" s="2" t="s">
+    <row r="257" spans="1:13">
+      <c r="A257" t="s">
         <v>473</v>
+      </c>
+      <c r="M257" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258" t="s">
+        <v>475</v>
+      </c>
+      <c r="M258" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
+      <c r="A259" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4898,13 +4981,13 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
-      <c r="M260" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A261" s="2" t="s">
-        <v>475</v>
+      <c r="M260" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="A261" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4917,13 +5000,13 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
-      <c r="M261" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M261" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4937,50 +5020,20 @@
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A263" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A264" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
+      <c r="A263" t="s">
+        <v>485</v>
+      </c>
+      <c r="M263" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -4994,36 +5047,69 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A266" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="M266" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A267" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="M267" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A268" s="5" t="s">
+    <row r="266" spans="1:13">
+      <c r="A266" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="M268" s="5" t="s">
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A269" s="4" t="s">
+    <row r="267" spans="1:13">
+      <c r="A267" s="2" t="s">
         <v>491</v>
+      </c>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
+      <c r="A268" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
+      <c r="A269" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -5036,590 +5122,545 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
-      <c r="M269" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A270" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="M270" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A271" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="M271" s="5" t="s">
+      <c r="M269" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A272" s="5" t="s">
+    <row r="270" spans="1:13">
+      <c r="A270" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="M272" s="5" t="s">
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A273" s="1" t="s">
+    <row r="271" spans="1:13">
+      <c r="A271" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
-      <c r="I273" s="1"/>
-      <c r="J273" s="1"/>
-      <c r="K273" s="1"/>
-      <c r="L273" s="1"/>
-      <c r="M273" s="1" t="s">
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A274" s="1" t="s">
+    <row r="272" spans="1:13">
+      <c r="A272" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
-      <c r="I274" s="1"/>
-      <c r="J274" s="1"/>
-      <c r="K274" s="1"/>
-      <c r="L274" s="1"/>
-      <c r="M274" s="1" t="s">
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A286" t="s">
+    <row r="273" spans="1:13">
+      <c r="A273" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="M286" s="5" t="s">
+      <c r="M273" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A287" t="s">
+    <row r="274" spans="1:13">
+      <c r="A274" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="M287" s="5" t="s">
+      <c r="M274" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A288" t="s">
+    <row r="275" spans="1:13">
+      <c r="A275" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="M288" s="5" t="s">
+      <c r="M275" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A289" t="s">
+    <row r="276" spans="1:13">
+      <c r="A276" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="M289" s="5" t="s">
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
+      <c r="M276" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A291" t="s">
+    <row r="277" spans="1:13">
+      <c r="A277" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="M291" s="5" t="s">
+      <c r="M277" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A292" t="s">
+    <row r="278" spans="1:13">
+      <c r="A278" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="M292" s="5" t="s">
+      <c r="M278" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13">
+      <c r="A279" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="M279" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13">
+      <c r="A280" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="M280" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13">
+      <c r="A281" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="M293" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="M294" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" t="s">
+        <v>525</v>
+      </c>
+      <c r="M295" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="M296" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
-        <v>521</v>
-      </c>
-      <c r="M297" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M298" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
       <c r="A299" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M299" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
       <c r="A300" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M300" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
       <c r="A301" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M301" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A302" t="s">
-        <v>531</v>
-      </c>
-      <c r="M302" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
       <c r="A303" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M303" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M304" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
       <c r="A305" t="s">
+        <v>541</v>
+      </c>
+      <c r="M305" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
+      <c r="A306" t="s">
+        <v>543</v>
+      </c>
+      <c r="M306" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="A307" t="s">
+        <v>545</v>
+      </c>
+      <c r="M307" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
+      <c r="A308" t="s">
+        <v>547</v>
+      </c>
+      <c r="M308" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
+      <c r="A309" t="s">
+        <v>549</v>
+      </c>
+      <c r="M309" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" t="s">
+        <v>551</v>
+      </c>
+      <c r="M310" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="A311" t="s">
+        <v>553</v>
+      </c>
+      <c r="M311" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="A312" t="s">
+        <v>555</v>
+      </c>
+      <c r="M312" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="A313" t="s">
+        <v>557</v>
+      </c>
+      <c r="M313" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="M305" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
-        <v>539</v>
-      </c>
-      <c r="M306" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
-        <v>540</v>
-      </c>
-      <c r="M307" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
-        <v>542</v>
-      </c>
-      <c r="M308" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
-        <v>544</v>
-      </c>
-      <c r="M310" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
-        <v>546</v>
-      </c>
-      <c r="M311" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
-        <v>548</v>
-      </c>
-      <c r="M312" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
-        <v>550</v>
-      </c>
-      <c r="M313" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="314" spans="1:13">
       <c r="A314" t="s">
-        <v>552</v>
-      </c>
-      <c r="M314" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+        <v>558</v>
+      </c>
+      <c r="M314" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
       <c r="A315" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="M315" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A316" t="s">
-        <v>556</v>
-      </c>
-      <c r="M316" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
       <c r="A317" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M317" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
       <c r="A318" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M318" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
       <c r="A319" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M319" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M320" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
       <c r="A321" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="M321" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13">
       <c r="A322" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M322" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
       <c r="A323" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M323" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
       <c r="A324" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M324" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
       <c r="A325" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M325" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
       <c r="A326" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="M326" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
       <c r="A327" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M327" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
       <c r="A328" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M328" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
       <c r="A329" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M329" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13">
       <c r="A330" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="M330" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13">
       <c r="A331" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M331" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M332" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13">
       <c r="A333" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="M333" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13">
       <c r="A334" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M334" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A337" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
-      <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
-      <c r="M337" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A338" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-      <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
-      <c r="M338" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A339" s="1" t="s">
+    <row r="335" spans="1:13">
+      <c r="A335" t="s">
         <v>598</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
-      <c r="M339" s="1" t="s">
+      <c r="M335" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A340" s="1" t="s">
+    <row r="336" spans="1:13">
+      <c r="A336" t="s">
         <v>600</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
-      <c r="H340" s="1"/>
-      <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
-      <c r="M340" s="1" t="s">
+      <c r="M336" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A341" s="1" t="s">
+    <row r="337" spans="1:13">
+      <c r="A337" t="s">
         <v>602</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
-      <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
-      <c r="K341" s="1"/>
-      <c r="L341" s="1"/>
-      <c r="M341" s="1" t="s">
+      <c r="M337" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A342" s="1" t="s">
+    <row r="338" spans="1:13">
+      <c r="A338" t="s">
         <v>604</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
-      <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
-      <c r="J342" s="1"/>
-      <c r="K342" s="1"/>
-      <c r="L342" s="1"/>
-      <c r="M342" s="1" t="s">
+      <c r="M338" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A343" s="1" t="s">
+    <row r="339" spans="1:13">
+      <c r="A339" t="s">
         <v>606</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
-      <c r="G343" s="1"/>
-      <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
-      <c r="J343" s="1"/>
-      <c r="K343" s="1"/>
-      <c r="L343" s="1"/>
-      <c r="M343" s="1" t="s">
+      <c r="M339" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:13">
+      <c r="A340" t="s">
+        <v>608</v>
+      </c>
+      <c r="M340" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13">
+      <c r="A341" t="s">
+        <v>610</v>
+      </c>
+      <c r="M341" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13">
       <c r="A344" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>608</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -5631,16 +5672,14 @@
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
       <c r="M344" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13">
       <c r="A345" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>610</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -5652,15 +5691,15 @@
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
       <c r="M345" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13">
       <c r="A346" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -5673,15 +5712,15 @@
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
       <c r="M346" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13">
       <c r="A347" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -5694,510 +5733,543 @@
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
       <c r="M347" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13">
       <c r="A348" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+      <c r="K348" s="1"/>
+      <c r="L348" s="1"/>
+      <c r="M348" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13">
+      <c r="A349" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13">
+      <c r="A350" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="M350" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13">
+      <c r="A351" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="M351" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13">
+      <c r="A352" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+      <c r="K352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="M352" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13">
+      <c r="A353" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13">
+      <c r="A354" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13">
+      <c r="A355" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13">
+      <c r="A356" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="M356" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="M348" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A349" s="1" t="s">
+    </row>
+    <row r="357" spans="1:13">
+      <c r="A357" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="M349" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A350" s="1" t="s">
+      <c r="M357" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="M350" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A351" s="1" t="s">
+    </row>
+    <row r="358" spans="1:13">
+      <c r="A358" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="M351" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A352" s="1" t="s">
+      <c r="M358" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="M352" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A353" s="1" t="s">
+    </row>
+    <row r="359" spans="1:13">
+      <c r="A359" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="M353" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A354" s="1" t="s">
+      <c r="M359" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="M354" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A355" s="1" t="s">
+    </row>
+    <row r="360" spans="1:13">
+      <c r="A360" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="M355" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A356" s="1" t="s">
+      <c r="M360" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="M356" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A357" s="1" t="s">
+    </row>
+    <row r="361" spans="1:13">
+      <c r="A361" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="M357" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A358" s="1" t="s">
+      <c r="M361" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="M358" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A359" s="1" t="s">
+    </row>
+    <row r="362" spans="1:13">
+      <c r="A362" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="M359" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A360" s="1" t="s">
+      <c r="M362" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="M360" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A361" s="1" t="s">
+    </row>
+    <row r="363" spans="1:13">
+      <c r="A363" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="M361" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A362" s="1" t="s">
+      <c r="M363" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="M362" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A363" s="1" t="s">
+    </row>
+    <row r="364" spans="1:13">
+      <c r="A364" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="M363" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A364" s="1" t="s">
+      <c r="M364" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="M364" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="365" spans="1:13">
       <c r="A365" s="1" t="s">
         <v>654</v>
       </c>
       <c r="M365" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13">
+      <c r="A366" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="M366" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13">
+      <c r="A367" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M367" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13">
+      <c r="A368" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M368" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13">
+      <c r="A369" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="M369" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13">
+      <c r="A370" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="M370" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13">
+      <c r="A371" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="M371" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13">
+      <c r="A372" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="M372" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13">
+      <c r="A373" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="M373" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13">
+      <c r="A374" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="M374" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13">
+      <c r="A375" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="M375" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13">
+      <c r="A376" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="M376" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13">
+      <c r="A377" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="M377" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13">
+      <c r="A378" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="M378" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13">
+      <c r="A379" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A366" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="M366" s="1" t="s">
+      <c r="M379" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A367" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="M367" s="1" t="s">
+    <row r="380" spans="1:13">
+      <c r="A380" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A368" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="M368" s="1" t="s">
+      <c r="M380" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A369" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="M369" s="1" t="s">
+    <row r="381" spans="1:13">
+      <c r="A381" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A370" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="M370" s="1" t="s">
+      <c r="M381" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A371" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="M371" s="1" t="s">
+    <row r="382" spans="1:13">
+      <c r="A382" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A372" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M372" s="1" t="s">
+      <c r="M382" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A373" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="M373" s="1" t="s">
+    <row r="383" spans="1:13">
+      <c r="A383" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A374" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="M374" s="1" t="s">
+      <c r="M383" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A375" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="M375" s="1" t="s">
+    <row r="384" spans="1:13">
+      <c r="A384" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A376" s="1" t="s">
+      <c r="M384" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13">
+      <c r="A385" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="M385" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="M376" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A377" s="1" t="s">
+    </row>
+    <row r="386" spans="1:13">
+      <c r="A386" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="M377" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A378" s="1" t="s">
+      <c r="M386" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="M378" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A379" s="1" t="s">
+    </row>
+    <row r="387" spans="1:13">
+      <c r="A387" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="M379" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A380" s="1" t="s">
+      <c r="M387" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="M380" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A381" s="1" t="s">
+    </row>
+    <row r="388" spans="1:13">
+      <c r="A388" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="M381" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A382" s="1" t="s">
+      <c r="M388" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="M382" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A383" s="1" t="s">
+    </row>
+    <row r="389" spans="1:13">
+      <c r="A389" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="M383" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A384" s="1" t="s">
+      <c r="M389" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="M384" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A385" s="1" t="s">
+    </row>
+    <row r="390" spans="1:13">
+      <c r="A390" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="M385" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A386" s="1" t="s">
+      <c r="M390" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="M386" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A387" s="1" t="s">
+    </row>
+    <row r="391" spans="1:13">
+      <c r="A391" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="M387" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A388" s="1" t="s">
+      <c r="M391" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="M388" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A389" s="1" t="s">
+    </row>
+    <row r="392" spans="1:13">
+      <c r="A392" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="M389" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A390" s="1" t="s">
+      <c r="M392" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="M390" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A391" s="1" t="s">
+    </row>
+    <row r="393" spans="1:13">
+      <c r="A393" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="M391" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A392" s="1" t="s">
+      <c r="M393" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="M392" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A393" s="1" t="s">
+    </row>
+    <row r="394" spans="1:13">
+      <c r="A394" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="M393" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A394" s="1" t="s">
+      <c r="M394" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="M394" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="395" spans="1:13">
       <c r="A395" s="1" t="s">
         <v>714</v>
       </c>
       <c r="M395" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13">
+      <c r="A396" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="M396" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13">
+      <c r="A397" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="M397" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13">
+      <c r="A398" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="M398" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13">
+      <c r="A399" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="M399" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13">
       <c r="A400" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
-      <c r="D400" s="1"/>
-      <c r="E400" s="1"/>
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-      <c r="H400" s="1"/>
-      <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
-      <c r="K400" s="1"/>
-      <c r="L400" s="1"/>
+        <v>724</v>
+      </c>
       <c r="M400" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13">
       <c r="A401" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
-      <c r="E401" s="1"/>
-      <c r="F401" s="1"/>
-      <c r="G401" s="1"/>
-      <c r="H401" s="1"/>
-      <c r="I401" s="1"/>
-      <c r="J401" s="1"/>
-      <c r="K401" s="1"/>
-      <c r="L401" s="1"/>
+        <v>726</v>
+      </c>
       <c r="M401" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13">
       <c r="A402" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
-      <c r="D402" s="1"/>
-      <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
-      <c r="G402" s="1"/>
-      <c r="H402" s="1"/>
-      <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="1"/>
+        <v>728</v>
+      </c>
       <c r="M402" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A403" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-      <c r="D403" s="1"/>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
-      <c r="H403" s="1"/>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
-      <c r="M403" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A405" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
-      <c r="M405" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A406" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
-      <c r="D406" s="1"/>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-      <c r="H406" s="1"/>
-      <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1"/>
-      <c r="M406" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13">
       <c r="A407" s="1" t="s">
-        <v>628</v>
+        <v>730</v>
       </c>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -6211,12 +6283,12 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
       <c r="M407" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13">
       <c r="A408" s="1" t="s">
-        <v>630</v>
+        <v>732</v>
       </c>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -6230,12 +6302,12 @@
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
       <c r="M408" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13">
       <c r="A409" s="1" t="s">
-        <v>632</v>
+        <v>734</v>
       </c>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6249,12 +6321,12 @@
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
       <c r="M409" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13">
       <c r="A410" s="1" t="s">
-        <v>633</v>
+        <v>736</v>
       </c>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -6268,7 +6340,121 @@
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
       <c r="M410" s="1" t="s">
-        <v>634</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13">
+      <c r="A412" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+      <c r="H412" s="1"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+      <c r="K412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="M412" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13">
+      <c r="A413" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1"/>
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+      <c r="H413" s="1"/>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+      <c r="K413" s="1"/>
+      <c r="L413" s="1"/>
+      <c r="M413" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13">
+      <c r="A414" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+      <c r="K414" s="1"/>
+      <c r="L414" s="1"/>
+      <c r="M414" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13">
+      <c r="A415" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="1"/>
+      <c r="F415" s="1"/>
+      <c r="G415" s="1"/>
+      <c r="H415" s="1"/>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+      <c r="K415" s="1"/>
+      <c r="L415" s="1"/>
+      <c r="M415" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13">
+      <c r="A416" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13">
+      <c r="A417" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1"/>
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+      <c r="H417" s="1"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+      <c r="K417" s="1"/>
+      <c r="L417" s="1"/>
+      <c r="M417" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEDDA32-3358-4D89-814B-3134C8ED3712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A36F00F-52CF-4D89-82BB-E517850830B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="760">
   <si>
     <t>English</t>
   </si>
@@ -2335,12 +2340,18 @@
   <si>
     <t>魔女</t>
   </si>
+  <si>
+    <t>king of the world</t>
+  </si>
+  <si>
+    <t>世界の王</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2381,6 +2392,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2418,7 +2435,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2434,7 +2451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2722,7 +2739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2730,13 +2747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q420"/>
+  <dimension ref="A1:Q421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -2745,7 +2762,7 @@
     <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2795,7 +2812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2806,7 +2823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2814,7 +2831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2822,7 +2839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2838,7 +2855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2846,7 +2863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2854,7 +2871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2862,7 +2879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2870,7 +2887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2878,7 +2895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2886,7 +2903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2894,7 +2911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2902,7 +2919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2910,7 +2927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2918,7 +2935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2926,7 +2943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2934,7 +2951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2942,7 +2959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2950,7 +2967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2958,7 +2975,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2966,7 +2983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2974,7 +2991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2982,7 +2999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2990,7 +3007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2998,10 +3015,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3009,7 +3026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3017,10 +3034,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,7 +3045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -3036,7 +3053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -3044,7 +3061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -3052,7 +3069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -3060,7 +3077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -3068,7 +3085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -3076,7 +3093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -3084,7 +3101,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -3092,7 +3109,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3100,7 +3117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3108,7 +3125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -3116,7 +3133,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -3124,7 +3141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -3132,7 +3149,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -3140,7 +3157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -3148,7 +3165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -3156,7 +3173,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -3164,7 +3181,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -3172,7 +3189,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -3180,7 +3197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -3188,7 +3205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -3196,7 +3213,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -3204,7 +3221,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -3212,7 +3229,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -3220,7 +3237,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -3228,7 +3245,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -3236,7 +3253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -3244,7 +3261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -3252,7 +3269,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -3260,7 +3277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -3268,7 +3285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -3276,7 +3293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -3284,7 +3301,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -3292,7 +3309,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -3300,7 +3317,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -3308,7 +3325,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>141</v>
       </c>
@@ -3316,7 +3333,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>143</v>
       </c>
@@ -3324,7 +3341,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -3332,7 +3349,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>147</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -3348,7 +3365,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>150</v>
       </c>
@@ -3356,7 +3373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -3364,7 +3381,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -3372,7 +3389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -3380,7 +3397,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -3388,7 +3405,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>162</v>
       </c>
@@ -3404,7 +3421,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -3412,7 +3429,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -3420,7 +3437,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>168</v>
       </c>
@@ -3428,7 +3445,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -3436,7 +3453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -3444,7 +3461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -3452,7 +3469,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -3460,7 +3477,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -3468,7 +3485,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -3476,7 +3493,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -3484,7 +3501,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -3492,7 +3509,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>186</v>
       </c>
@@ -3500,7 +3517,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -3508,7 +3525,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -3516,7 +3533,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -3524,7 +3541,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>193</v>
       </c>
@@ -3532,7 +3549,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>195</v>
       </c>
@@ -3540,7 +3557,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -3548,7 +3565,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>199</v>
       </c>
@@ -3556,7 +3573,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>200</v>
       </c>
@@ -3564,7 +3581,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>202</v>
       </c>
@@ -3572,7 +3589,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>204</v>
       </c>
@@ -3580,7 +3597,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -3588,7 +3605,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>208</v>
       </c>
@@ -3596,7 +3613,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>210</v>
       </c>
@@ -3604,7 +3621,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>212</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>214</v>
       </c>
@@ -3620,7 +3637,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>216</v>
       </c>
@@ -3628,7 +3645,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>218</v>
       </c>
@@ -3636,7 +3653,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>220</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -3652,7 +3669,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>224</v>
       </c>
@@ -3660,7 +3677,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>226</v>
       </c>
@@ -3668,7 +3685,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>228</v>
       </c>
@@ -3676,7 +3693,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>230</v>
       </c>
@@ -3684,7 +3701,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>232</v>
       </c>
@@ -3692,7 +3709,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>234</v>
       </c>
@@ -3700,7 +3717,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>236</v>
       </c>
@@ -3708,7 +3725,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>238</v>
       </c>
@@ -3716,7 +3733,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>240</v>
       </c>
@@ -3724,7 +3741,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>242</v>
       </c>
@@ -3732,7 +3749,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>244</v>
       </c>
@@ -3740,7 +3757,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>246</v>
       </c>
@@ -3748,7 +3765,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>248</v>
       </c>
@@ -3756,7 +3773,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>250</v>
       </c>
@@ -3764,7 +3781,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>252</v>
       </c>
@@ -3772,7 +3789,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>254</v>
       </c>
@@ -3791,7 +3808,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>256</v>
       </c>
@@ -3810,7 +3827,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>258</v>
       </c>
@@ -3829,7 +3846,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>260</v>
       </c>
@@ -3848,7 +3865,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>262</v>
       </c>
@@ -3867,7 +3884,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>264</v>
       </c>
@@ -3886,7 +3903,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>266</v>
       </c>
@@ -3905,7 +3922,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>268</v>
       </c>
@@ -3924,7 +3941,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>270</v>
       </c>
@@ -3943,7 +3960,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>272</v>
       </c>
@@ -3962,7 +3979,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>274</v>
       </c>
@@ -3981,7 +3998,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>276</v>
       </c>
@@ -4000,7 +4017,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>278</v>
       </c>
@@ -4019,7 +4036,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>280</v>
       </c>
@@ -4038,7 +4055,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>282</v>
       </c>
@@ -4057,7 +4074,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>284</v>
       </c>
@@ -4076,7 +4093,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>286</v>
       </c>
@@ -4084,7 +4101,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>288</v>
       </c>
@@ -4092,7 +4109,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>290</v>
       </c>
@@ -4100,7 +4117,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>292</v>
       </c>
@@ -4108,7 +4125,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>294</v>
       </c>
@@ -4116,7 +4133,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>296</v>
       </c>
@@ -4124,7 +4141,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>298</v>
       </c>
@@ -4132,7 +4149,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -4140,7 +4157,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>302</v>
       </c>
@@ -4148,7 +4165,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>304</v>
       </c>
@@ -4156,7 +4173,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>306</v>
       </c>
@@ -4164,7 +4181,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>308</v>
       </c>
@@ -4172,7 +4189,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>310</v>
       </c>
@@ -4180,7 +4197,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>312</v>
       </c>
@@ -4188,7 +4205,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>314</v>
       </c>
@@ -4196,7 +4213,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>316</v>
       </c>
@@ -4204,7 +4221,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>318</v>
       </c>
@@ -4212,7 +4229,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>320</v>
       </c>
@@ -4220,7 +4237,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>322</v>
       </c>
@@ -4228,7 +4245,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>324</v>
       </c>
@@ -4236,7 +4253,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>326</v>
       </c>
@@ -4244,7 +4261,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>328</v>
       </c>
@@ -4252,7 +4269,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>330</v>
       </c>
@@ -4260,7 +4277,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>332</v>
       </c>
@@ -4268,7 +4285,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>334</v>
       </c>
@@ -4276,7 +4293,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>336</v>
       </c>
@@ -4284,7 +4301,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>338</v>
       </c>
@@ -4292,7 +4309,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>340</v>
       </c>
@@ -4300,7 +4317,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>342</v>
       </c>
@@ -4308,7 +4325,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>344</v>
       </c>
@@ -4316,7 +4333,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>346</v>
       </c>
@@ -4324,7 +4341,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>348</v>
       </c>
@@ -4332,7 +4349,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>350</v>
       </c>
@@ -4340,7 +4357,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>352</v>
       </c>
@@ -4348,7 +4365,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>354</v>
       </c>
@@ -4356,7 +4373,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>356</v>
       </c>
@@ -4364,7 +4381,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>358</v>
       </c>
@@ -4372,7 +4389,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>360</v>
       </c>
@@ -4380,7 +4397,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>362</v>
       </c>
@@ -4388,7 +4405,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>364</v>
       </c>
@@ -4396,7 +4413,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>366</v>
       </c>
@@ -4404,7 +4421,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>368</v>
       </c>
@@ -4412,7 +4429,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>370</v>
       </c>
@@ -4420,7 +4437,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>372</v>
       </c>
@@ -4428,7 +4445,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>374</v>
       </c>
@@ -4436,7 +4453,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>376</v>
       </c>
@@ -4444,7 +4461,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>378</v>
       </c>
@@ -4452,7 +4469,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>380</v>
       </c>
@@ -4460,7 +4477,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>382</v>
       </c>
@@ -4468,7 +4485,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>384</v>
       </c>
@@ -4476,7 +4493,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>386</v>
       </c>
@@ -4495,7 +4512,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>388</v>
       </c>
@@ -4514,7 +4531,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>390</v>
       </c>
@@ -4533,7 +4550,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>392</v>
       </c>
@@ -4552,7 +4569,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>394</v>
       </c>
@@ -4571,7 +4588,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>396</v>
       </c>
@@ -4590,7 +4607,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>398</v>
       </c>
@@ -4609,7 +4626,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>400</v>
       </c>
@@ -4628,7 +4645,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>402</v>
       </c>
@@ -4647,7 +4664,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>404</v>
       </c>
@@ -4666,7 +4683,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>406</v>
       </c>
@@ -4685,7 +4702,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>408</v>
       </c>
@@ -4704,7 +4721,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>410</v>
       </c>
@@ -4723,7 +4740,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>412</v>
       </c>
@@ -4731,7 +4748,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>414</v>
       </c>
@@ -4739,7 +4756,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>416</v>
       </c>
@@ -4747,7 +4764,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>418</v>
       </c>
@@ -4755,7 +4772,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>420</v>
       </c>
@@ -4763,7 +4780,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>422</v>
       </c>
@@ -4771,7 +4788,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>424</v>
       </c>
@@ -4779,7 +4796,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>426</v>
       </c>
@@ -4787,7 +4804,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>428</v>
       </c>
@@ -4798,7 +4815,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>430</v>
       </c>
@@ -4809,7 +4826,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>433</v>
       </c>
@@ -4817,7 +4834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>435</v>
       </c>
@@ -4829,7 +4846,7 @@
       </c>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>438</v>
       </c>
@@ -4837,7 +4854,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>440</v>
       </c>
@@ -4845,7 +4862,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>442</v>
       </c>
@@ -4853,7 +4870,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>444</v>
       </c>
@@ -4861,7 +4878,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>446</v>
       </c>
@@ -4869,7 +4886,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>448</v>
       </c>
@@ -4877,7 +4894,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>450</v>
       </c>
@@ -4885,7 +4902,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>452</v>
       </c>
@@ -4896,7 +4913,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>455</v>
       </c>
@@ -4904,7 +4921,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>457</v>
       </c>
@@ -4912,7 +4929,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>459</v>
       </c>
@@ -4923,7 +4940,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>461</v>
       </c>
@@ -4942,7 +4959,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>463</v>
       </c>
@@ -4950,7 +4967,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>465</v>
       </c>
@@ -4958,7 +4975,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>467</v>
       </c>
@@ -4966,7 +4983,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>469</v>
       </c>
@@ -4974,7 +4991,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>471</v>
       </c>
@@ -4982,63 +4999,63 @@
         <v>472</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
-      <c r="A257" t="s">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A256" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
         <v>473</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M258" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
-      <c r="A258" t="s">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
         <v>475</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M259" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A260" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-      <c r="I259" s="1"/>
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
-      <c r="M259" s="1" t="s">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
-      <c r="A260" s="1" t="s">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A261" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13">
-      <c r="A261" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -5052,12 +5069,12 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
       <c r="M261" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13">
-      <c r="A262" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A262" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -5070,40 +5087,40 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A263" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
-      <c r="A263" t="s">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
         <v>485</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M264" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
-      <c r="A265" s="2" t="s">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A266" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13">
-      <c r="A266" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -5117,12 +5134,12 @@
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -5136,12 +5153,12 @@
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -5155,12 +5172,12 @@
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -5174,12 +5191,12 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -5193,12 +5210,12 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -5212,12 +5229,12 @@
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -5231,98 +5248,98 @@
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A273" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
-      <c r="A273" s="3" t="s">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A274" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M274" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
-      <c r="A274" s="4" t="s">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A275" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="M274" s="4" t="s">
+      <c r="M275" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
-      <c r="A275" s="5" t="s">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A276" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="M275" s="5" t="s">
+      <c r="M276" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
-      <c r="A276" s="4" t="s">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A277" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="4" t="s">
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="2"/>
+      <c r="M277" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
-      <c r="A277" s="5" t="s">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A278" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="M277" s="5" t="s">
+      <c r="M278" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
-      <c r="A278" s="6" t="s">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A279" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="M278" s="5" t="s">
+      <c r="M279" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
-      <c r="A279" s="5" t="s">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A280" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="M279" s="5" t="s">
+      <c r="M280" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
-      <c r="A280" s="1" t="s">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A281" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
-      <c r="I280" s="1"/>
-      <c r="J280" s="1"/>
-      <c r="K280" s="1"/>
-      <c r="L280" s="1"/>
-      <c r="M280" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13">
-      <c r="A281" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -5336,434 +5353,434 @@
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
       <c r="M281" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A282" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
-      <c r="A293" t="s">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
         <v>521</v>
       </c>
-      <c r="M293" s="5" t="s">
+      <c r="M294" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
-      <c r="A294" t="s">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A295" t="s">
         <v>523</v>
       </c>
-      <c r="M294" s="5" t="s">
+      <c r="M295" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
-      <c r="A295" t="s">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
         <v>525</v>
       </c>
-      <c r="M295" s="5" t="s">
+      <c r="M296" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
-      <c r="A296" t="s">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
         <v>527</v>
       </c>
-      <c r="M296" s="5" t="s">
+      <c r="M297" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
-      <c r="A298" t="s">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
         <v>529</v>
       </c>
-      <c r="M298" s="5" t="s">
+      <c r="M299" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
-      <c r="A299" t="s">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
         <v>531</v>
       </c>
-      <c r="M299" s="5" t="s">
+      <c r="M300" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
-      <c r="A300" t="s">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
         <v>533</v>
       </c>
-      <c r="M300" s="5" t="s">
+      <c r="M301" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
-      <c r="A301" t="s">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
         <v>535</v>
       </c>
-      <c r="M301" s="5" t="s">
+      <c r="M302" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
-      <c r="A303" t="s">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
         <v>537</v>
       </c>
-      <c r="M303" s="5" t="s">
+      <c r="M304" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
-      <c r="A304" t="s">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
         <v>539</v>
       </c>
-      <c r="M304" s="5" t="s">
+      <c r="M305" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
-      <c r="A305" t="s">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
         <v>541</v>
       </c>
-      <c r="M305" s="5" t="s">
+      <c r="M306" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
-      <c r="A306" t="s">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
         <v>543</v>
       </c>
-      <c r="M306" s="5" t="s">
+      <c r="M307" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
-      <c r="A307" t="s">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
         <v>545</v>
       </c>
-      <c r="M307" s="5" t="s">
+      <c r="M308" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
-      <c r="A308" t="s">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
         <v>547</v>
       </c>
-      <c r="M308" s="5" t="s">
+      <c r="M309" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
-      <c r="A309" t="s">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
         <v>549</v>
       </c>
-      <c r="M309" s="5" t="s">
+      <c r="M310" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
-      <c r="A310" t="s">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
         <v>551</v>
       </c>
-      <c r="M310" s="5" t="s">
+      <c r="M311" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
-      <c r="A311" t="s">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
         <v>553</v>
       </c>
-      <c r="M311" s="5" t="s">
+      <c r="M312" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
-      <c r="A312" t="s">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
         <v>555</v>
       </c>
-      <c r="M312" s="5" t="s">
+      <c r="M313" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
-      <c r="A313" t="s">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
         <v>557</v>
       </c>
-      <c r="M313" s="5" t="s">
+      <c r="M314" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
-      <c r="A314" t="s">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
         <v>558</v>
       </c>
-      <c r="M314" s="5" t="s">
+      <c r="M315" s="5" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
-      <c r="A315" t="s">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
         <v>560</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M316" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
-      <c r="A317" t="s">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
         <v>562</v>
       </c>
-      <c r="M317" t="s">
+      <c r="M318" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
-      <c r="A318" t="s">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
         <v>564</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M319" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
-      <c r="A319" t="s">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
         <v>566</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M320" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
-      <c r="A320" t="s">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
         <v>568</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M321" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
-      <c r="A321" t="s">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
         <v>570</v>
       </c>
-      <c r="M321" t="s">
+      <c r="M322" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
-      <c r="A322" t="s">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
         <v>572</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M323" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
-      <c r="A323" t="s">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
         <v>574</v>
       </c>
-      <c r="M323" t="s">
+      <c r="M324" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
-      <c r="A324" t="s">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
         <v>576</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M325" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
-      <c r="A325" t="s">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
         <v>578</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M326" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
-      <c r="A326" t="s">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
         <v>580</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M327" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
-      <c r="A327" t="s">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
         <v>582</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M328" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
-      <c r="A328" t="s">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
         <v>584</v>
       </c>
-      <c r="M328" t="s">
+      <c r="M329" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
-      <c r="A329" t="s">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
         <v>586</v>
       </c>
-      <c r="M329" t="s">
+      <c r="M330" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="13.9">
-      <c r="A330" t="s">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
         <v>588</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>589</v>
       </c>
-      <c r="M330" t="s">
+      <c r="M331" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
-      <c r="A331" t="s">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
         <v>591</v>
       </c>
-      <c r="M331" t="s">
+      <c r="M332" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
-      <c r="A332" t="s">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
         <v>593</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M333" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
-      <c r="A333" t="s">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
         <v>595</v>
       </c>
-      <c r="M333" t="s">
+      <c r="M334" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
-      <c r="A334" t="s">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
         <v>597</v>
       </c>
-      <c r="M334" t="s">
+      <c r="M335" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
-      <c r="A335" t="s">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
         <v>599</v>
       </c>
-      <c r="M335" t="s">
+      <c r="M336" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
-      <c r="A336" t="s">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
         <v>601</v>
       </c>
-      <c r="M336" t="s">
+      <c r="M337" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
-      <c r="A337" t="s">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
         <v>603</v>
       </c>
-      <c r="M337" t="s">
+      <c r="M338" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
-      <c r="A338" t="s">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
         <v>605</v>
       </c>
-      <c r="M338" t="s">
+      <c r="M339" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
-      <c r="A339" t="s">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
         <v>607</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M340" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
-      <c r="A340" t="s">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
         <v>609</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M341" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
-      <c r="A341" t="s">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
         <v>611</v>
       </c>
-      <c r="M341" t="s">
+      <c r="M342" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="13.9">
-      <c r="A342" t="s">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
         <v>613</v>
       </c>
-      <c r="M342" t="s">
+      <c r="M343" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="13.9">
-      <c r="A343" t="s">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
         <v>615</v>
       </c>
-      <c r="M343" t="s">
+      <c r="M344" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="13.9">
-      <c r="A344" t="s">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
         <v>617</v>
       </c>
-      <c r="M344" t="s">
+      <c r="M345" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="13.9">
-      <c r="A345" t="s">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
         <v>619</v>
       </c>
-      <c r="M345" t="s">
+      <c r="M346" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
-      <c r="A347" s="1" t="s">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A348" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
-      <c r="F347" s="1"/>
-      <c r="G347" s="1"/>
-      <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
-      <c r="M347" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13">
-      <c r="A348" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -5777,16 +5794,14 @@
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
       <c r="M348" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>625</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -5798,15 +5813,15 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
       <c r="M349" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -5819,15 +5834,15 @@
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
       <c r="M350" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -5840,15 +5855,15 @@
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
       <c r="M351" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -5861,15 +5876,15 @@
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
       <c r="M352" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -5882,15 +5897,15 @@
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
       <c r="M353" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -5903,15 +5918,15 @@
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
       <c r="M354" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -5924,15 +5939,15 @@
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
       <c r="M355" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -5945,15 +5960,15 @@
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
       <c r="M356" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -5966,415 +5981,417 @@
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
       <c r="M357" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A358" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
-      <c r="A358" s="1" t="s">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A359" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="M358" s="1" t="s">
+      <c r="M359" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
-      <c r="A359" s="1" t="s">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A360" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="M359" s="1" t="s">
+      <c r="M360" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
-      <c r="A360" s="1" t="s">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A361" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="M360" s="1" t="s">
+      <c r="M361" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
-      <c r="A361" s="1" t="s">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A362" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="M361" s="1" t="s">
+      <c r="M362" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="362" spans="1:13">
-      <c r="A362" s="1" t="s">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A363" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="M362" s="1" t="s">
+      <c r="M363" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
-      <c r="A363" s="1" t="s">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A364" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="M363" s="1" t="s">
+      <c r="M364" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
-      <c r="A364" s="1" t="s">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A365" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="M364" s="1" t="s">
+      <c r="M365" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="365" spans="1:13">
-      <c r="A365" s="1" t="s">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A366" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="M365" s="1" t="s">
+      <c r="M366" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
-      <c r="A366" s="1" t="s">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A367" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="M366" s="1" t="s">
+      <c r="M367" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
-      <c r="A367" s="1" t="s">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A368" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="M367" s="1" t="s">
+      <c r="M368" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="368" spans="1:13">
-      <c r="A368" s="1" t="s">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A369" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="M368" s="1" t="s">
+      <c r="M369" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
-      <c r="A369" s="1" t="s">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A370" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="M369" s="1" t="s">
+      <c r="M370" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
-      <c r="A370" s="1" t="s">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A371" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="M370" s="1" t="s">
+      <c r="M371" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="371" spans="1:13">
-      <c r="A371" s="1" t="s">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A372" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="M371" s="1" t="s">
+      <c r="M372" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
-      <c r="A372" s="1" t="s">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A373" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="M372" s="1" t="s">
+      <c r="M373" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="373" spans="1:13">
-      <c r="A373" s="1" t="s">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A374" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="M373" s="1" t="s">
+      <c r="M374" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
-      <c r="A374" s="1" t="s">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A375" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="M374" s="1" t="s">
+      <c r="M375" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="375" spans="1:13">
-      <c r="A375" s="1" t="s">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A376" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="M375" s="1" t="s">
+      <c r="M376" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="376" spans="1:13">
-      <c r="A376" s="1" t="s">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A377" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="M376" s="1" t="s">
+      <c r="M377" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
-      <c r="A377" s="1" t="s">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A378" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="M377" s="1" t="s">
+      <c r="M378" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
-      <c r="A378" s="1" t="s">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A379" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="M378" s="1" t="s">
+      <c r="M379" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="379" spans="1:13">
-      <c r="A379" s="1" t="s">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A380" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="M379" s="1" t="s">
+      <c r="M380" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="380" spans="1:13">
-      <c r="A380" s="1" t="s">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A381" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="M380" s="1" t="s">
+      <c r="M381" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
-      <c r="A381" s="1" t="s">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A382" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="M381" s="1" t="s">
+      <c r="M382" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
-      <c r="A382" s="1" t="s">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A383" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="M382" s="1" t="s">
+      <c r="M383" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
-      <c r="A383" s="1" t="s">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A384" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="M383" s="1" t="s">
+      <c r="M384" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
-      <c r="A384" s="1" t="s">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A385" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="M384" s="1" t="s">
+      <c r="M385" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
-      <c r="A385" s="1" t="s">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A386" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="M385" s="1" t="s">
+      <c r="M386" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
-      <c r="A386" s="1" t="s">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A387" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="M386" s="1" t="s">
+      <c r="M387" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
-      <c r="A387" s="1" t="s">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A388" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="M387" s="1" t="s">
+      <c r="M388" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
-      <c r="A388" s="1" t="s">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A389" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="M388" s="1" t="s">
+      <c r="M389" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
-      <c r="A389" s="1" t="s">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A390" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="M389" s="1" t="s">
+      <c r="M390" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
-      <c r="A390" s="1" t="s">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A391" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="M390" s="1" t="s">
+      <c r="M391" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
-      <c r="A391" s="1" t="s">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A392" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="M391" s="1" t="s">
+      <c r="M392" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
-      <c r="A392" s="1" t="s">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A393" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="M392" s="1" t="s">
+      <c r="M393" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
-      <c r="A393" s="1" t="s">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A394" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="M393" s="1" t="s">
+      <c r="M394" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="394" spans="1:13">
-      <c r="A394" s="1" t="s">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A395" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="M394" s="1" t="s">
+      <c r="M395" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="395" spans="1:13">
-      <c r="A395" s="1" t="s">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A396" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="M395" s="1" t="s">
+      <c r="M396" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
-      <c r="A396" s="1" t="s">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A397" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="M396" s="1" t="s">
+      <c r="M397" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="397" spans="1:13">
-      <c r="A397" s="1" t="s">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A398" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="M397" s="1" t="s">
+      <c r="M398" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="398" spans="1:13">
-      <c r="A398" s="1" t="s">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A399" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="M398" s="1" t="s">
+      <c r="M399" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
-      <c r="A399" s="1" t="s">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A400" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="M399" s="1" t="s">
+      <c r="M400" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="400" spans="1:13">
-      <c r="A400" s="1" t="s">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A401" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="M400" s="1" t="s">
+      <c r="M401" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="401" spans="1:13">
-      <c r="A401" s="1" t="s">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A402" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="M401" s="1" t="s">
+      <c r="M402" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
-      <c r="A402" s="1" t="s">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A403" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="M402" s="1" t="s">
+      <c r="M403" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="403" spans="1:13">
-      <c r="A403" s="1" t="s">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A404" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="M403" s="1" t="s">
+      <c r="M404" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="404" spans="1:13">
-      <c r="A404" s="1" t="s">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A405" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="M404" s="1" t="s">
+      <c r="M405" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
-      <c r="A405" s="1" t="s">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A406" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="M405" s="1" t="s">
+      <c r="M406" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="410" spans="1:13">
-      <c r="A410" s="1" t="s">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A411" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
-      <c r="H410" s="1"/>
-      <c r="I410" s="1"/>
-      <c r="J410" s="1"/>
-      <c r="K410" s="1"/>
-      <c r="L410" s="1"/>
-      <c r="M410" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="411" spans="1:13">
-      <c r="A411" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -6388,12 +6405,12 @@
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
       <c r="M411" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="412" spans="1:13">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -6407,12 +6424,12 @@
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
       <c r="M412" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="413" spans="1:13">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -6426,31 +6443,31 @@
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
       <c r="M413" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A414" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+      <c r="K414" s="1"/>
+      <c r="L414" s="1"/>
+      <c r="M414" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="415" spans="1:13">
-      <c r="A415" s="1" t="s">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A416" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-      <c r="H415" s="1"/>
-      <c r="I415" s="1"/>
-      <c r="J415" s="1"/>
-      <c r="K415" s="1"/>
-      <c r="L415" s="1"/>
-      <c r="M415" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13">
-      <c r="A416" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -6464,12 +6481,12 @@
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
       <c r="M416" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A417" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -6483,12 +6500,12 @@
       <c r="K417" s="1"/>
       <c r="L417" s="1"/>
       <c r="M417" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A418" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -6502,12 +6519,12 @@
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
       <c r="M418" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A419" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -6521,12 +6538,12 @@
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
       <c r="M419" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A420" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -6540,11 +6557,31 @@
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
       <c r="M420" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A421" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="1"/>
+      <c r="F421" s="1"/>
+      <c r="G421" s="1"/>
+      <c r="H421" s="1"/>
+      <c r="I421" s="1"/>
+      <c r="J421" s="1"/>
+      <c r="K421" s="1"/>
+      <c r="L421" s="1"/>
+      <c r="M421" s="1" t="s">
         <v>757</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A36F00F-52CF-4D89-82BB-E517850830B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84352001-B2D4-455E-819C-170834EC7813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="801">
   <si>
     <t>English</t>
   </si>
@@ -2345,6 +2345,129 @@
   </si>
   <si>
     <t>世界の王</t>
+  </si>
+  <si>
+    <t>Seono</t>
+  </si>
+  <si>
+    <t>セオノ作</t>
+  </si>
+  <si>
+    <t>SONDragon</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>ドラゴン</t>
+  </si>
+  <si>
+    <t>SONDragonColor</t>
+  </si>
+  <si>
+    <t>ドラゴンColor</t>
+  </si>
+  <si>
+    <t>SONFuwanekoCape</t>
+  </si>
+  <si>
+    <t>ふわねこケープ</t>
+  </si>
+  <si>
+    <t>SONFuwanekoCapeColor</t>
+  </si>
+  <si>
+    <t>ふわねこケープColor</t>
+  </si>
+  <si>
+    <t>SONGosurori</t>
+  </si>
+  <si>
+    <t>ゴスロリ</t>
+  </si>
+  <si>
+    <t>SONHeppokoAngle</t>
+  </si>
+  <si>
+    <t>へっぽこ天使</t>
+  </si>
+  <si>
+    <t>SONHighAngle</t>
+  </si>
+  <si>
+    <t>大天使</t>
+  </si>
+  <si>
+    <t>SONKitsune</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>狐</t>
+  </si>
+  <si>
+    <t>SONKyubi</t>
+  </si>
+  <si>
+    <t>九尾の狐</t>
+  </si>
+  <si>
+    <t>SONMaidMini</t>
+  </si>
+  <si>
+    <t>メイドミニ</t>
+  </si>
+  <si>
+    <t>SONManekiNeko</t>
+  </si>
+  <si>
+    <t>招き猫</t>
+  </si>
+  <si>
+    <t>SONRobeTypeA</t>
+  </si>
+  <si>
+    <t>ローブTypeA</t>
+  </si>
+  <si>
+    <t>SONRobeTypeB</t>
+  </si>
+  <si>
+    <t>ローブTypeB</t>
+  </si>
+  <si>
+    <t>SONShibainu</t>
+  </si>
+  <si>
+    <t>柴犬</t>
+  </si>
+  <si>
+    <t>SONVtuberStyle</t>
+  </si>
+  <si>
+    <t>VtuberStyle</t>
+  </si>
+  <si>
+    <t>SONWitch</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>SONWolf</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>SONXmasCape</t>
+  </si>
+  <si>
+    <t>クリスマスケープ</t>
   </si>
 </sst>
 </file>
@@ -2420,7 +2543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2431,6 +2554,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2747,10 +2874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q421"/>
+  <dimension ref="A1:Q442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G259" sqref="G259"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6579,6 +6706,186 @@
         <v>757</v>
       </c>
     </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A424" t="s">
+        <v>760</v>
+      </c>
+      <c r="M424" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A425" t="s">
+        <v>762</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="M425" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A426" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="B426" s="7"/>
+      <c r="M426" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A427" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B427" s="7"/>
+      <c r="M427" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A428" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B428" s="7"/>
+      <c r="M428" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A429" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="B429" s="7"/>
+      <c r="M429" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A430" t="s">
+        <v>773</v>
+      </c>
+      <c r="B430" s="7"/>
+      <c r="M430" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A431" t="s">
+        <v>775</v>
+      </c>
+      <c r="B431" s="7"/>
+      <c r="M431" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A432" t="s">
+        <v>777</v>
+      </c>
+      <c r="B432" t="s">
+        <v>778</v>
+      </c>
+      <c r="M432" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A433" t="s">
+        <v>780</v>
+      </c>
+      <c r="B433" s="7"/>
+      <c r="M433" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A434" t="s">
+        <v>782</v>
+      </c>
+      <c r="B434" s="7"/>
+      <c r="M434" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A435" t="s">
+        <v>784</v>
+      </c>
+      <c r="B435" s="7"/>
+      <c r="M435" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A436" t="s">
+        <v>786</v>
+      </c>
+      <c r="B436" s="7"/>
+      <c r="M436" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A437" t="s">
+        <v>788</v>
+      </c>
+      <c r="B437" s="7"/>
+      <c r="M437" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
+        <v>790</v>
+      </c>
+      <c r="B438" s="7"/>
+      <c r="M438" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A439" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="M439" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A440" t="s">
+        <v>794</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="M440" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A441" t="s">
+        <v>796</v>
+      </c>
+      <c r="B441" t="s">
+        <v>797</v>
+      </c>
+      <c r="M441" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A442" t="s">
+        <v>799</v>
+      </c>
+      <c r="B442" s="7"/>
+      <c r="M442" t="s">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84352001-B2D4-455E-819C-170834EC7813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385D688-7FF2-4F01-8C90-EB88F3E2CC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="805">
   <si>
     <t>English</t>
   </si>
@@ -2468,6 +2468,23 @@
   </si>
   <si>
     <t>クリスマスケープ</t>
+  </si>
+  <si>
+    <t>sukoremon</t>
+  </si>
+  <si>
+    <t>すこれもん作</t>
+    <rPh sb="5" eb="6">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>6Dice</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>６面ダイス</t>
   </si>
 </sst>
 </file>
@@ -2874,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q442"/>
+  <dimension ref="A1:Q445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B439" sqref="B439"/>
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M445" sqref="M445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6886,6 +6903,33 @@
         <v>800</v>
       </c>
     </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A444" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="1"/>
+      <c r="F444" s="1"/>
+      <c r="G444" s="1"/>
+      <c r="H444" s="1"/>
+      <c r="I444" s="1"/>
+      <c r="J444" s="1"/>
+      <c r="K444" s="1"/>
+      <c r="L444" s="1"/>
+      <c r="M444" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A445" t="s">
+        <v>803</v>
+      </c>
+      <c r="M445" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,42 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385D688-7FF2-4F01-8C90-EB88F3E2CC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Hat" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hat" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjiEzO0kgBcV5Pv4twY3RTevOEu0w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="815">
   <si>
     <t>English</t>
   </si>
@@ -1274,6 +1254,36 @@
     <t>えび</t>
   </si>
   <si>
+    <t>ikura</t>
+  </si>
+  <si>
+    <t>いくら</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>うに</t>
+  </si>
+  <si>
+    <t>bomuTou</t>
+  </si>
+  <si>
+    <t>ボム頭</t>
+  </si>
+  <si>
+    <t>hatsutanoboushi</t>
+  </si>
+  <si>
+    <t>ハッターのぼうし</t>
+  </si>
+  <si>
+    <t>hatsutanoshinboru</t>
+  </si>
+  <si>
+    <t>ハッターのシンボル</t>
+  </si>
+  <si>
     <t>itow</t>
   </si>
   <si>
@@ -1455,6 +1465,12 @@
   </si>
   <si>
     <t>iVa</t>
+  </si>
+  <si>
+    <t>king of the world</t>
+  </si>
+  <si>
+    <t>世界の王</t>
   </si>
   <si>
     <t>oyakimon</t>
@@ -1900,31 +1916,25 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="游ゴシック"/>
         <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>7の帽子 (</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="游ゴシック"/>
         <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <sz val="11.0"/>
       </rPr>
       <t>髪付き</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="游ゴシック"/>
         <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2341,12 +2351,6 @@
     <t>魔女</t>
   </si>
   <si>
-    <t>king of the world</t>
-  </si>
-  <si>
-    <t>世界の王</t>
-  </si>
-  <si>
     <t>Seono</t>
   </si>
   <si>
@@ -2474,14 +2478,9 @@
   </si>
   <si>
     <t>すこれもん作</t>
-    <rPh sb="5" eb="6">
-      <t>サク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>6Dice</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>６面ダイス</t>
@@ -2490,53 +2489,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2544,71 +2523,59 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -2632,113 +2599,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2879,2327 +2752,2330 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q445"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M445" sqref="M445"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="12" width="3.75" customWidth="1"/>
-    <col min="13" max="13" width="38.875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="28.86"/>
+    <col customWidth="1" min="2" max="2" width="16.14"/>
+    <col customWidth="1" min="3" max="3" width="3.43"/>
+    <col customWidth="1" min="4" max="12" width="3.71"/>
+    <col customWidth="1" min="13" max="13" width="38.86"/>
+    <col customWidth="1" min="14" max="26" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="3" ht="18.75" customHeight="1"/>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="28" ht="18.75" customHeight="1"/>
+    <row r="29" ht="18.75" customHeight="1"/>
+    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+    <row r="34" ht="18.75" customHeight="1"/>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="54" ht="18.75" customHeight="1"/>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="59" ht="18.75" customHeight="1"/>
+    <row r="60" ht="18.75" customHeight="1"/>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="69" ht="18.75" customHeight="1"/>
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="71" ht="18.75" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="72" ht="18.75" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="73" ht="18.75" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="74" ht="18.75" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+    <row r="75" ht="18.75" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="76" ht="18.75" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="77" ht="18.75" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="78" ht="18.75" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="79" ht="18.75" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+    <row r="80" ht="18.75" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="81" ht="18.75" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    <row r="82" ht="18.75" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="83" ht="18.75" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+    <row r="84" ht="18.75" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+    <row r="85" ht="18.75" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+    <row r="86" ht="18.75" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+    <row r="87" ht="18.75" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    <row r="88" ht="18.75" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+    <row r="89" ht="18.75" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+    <row r="90" ht="18.75" customHeight="1">
+      <c r="A90" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="91" ht="18.75" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+    <row r="92" ht="18.75" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+    <row r="93" ht="18.75" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+    <row r="94" ht="18.75" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+    <row r="95" ht="18.75" customHeight="1">
+      <c r="A95" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
+    <row r="96" ht="18.75" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
+    <row r="97" ht="18.75" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
+    <row r="98" ht="18.75" customHeight="1">
+      <c r="A98" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
+    <row r="99" ht="18.75" customHeight="1">
+      <c r="A99" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
+    <row r="100" ht="18.75" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+    <row r="101" ht="18.75" customHeight="1">
+      <c r="A101" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
+    <row r="102" ht="18.75" customHeight="1">
+      <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
+    <row r="103" ht="18.75" customHeight="1">
+      <c r="A103" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
+    <row r="104" ht="18.75" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
+    <row r="105" ht="18.75" customHeight="1">
+      <c r="A105" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
+    <row r="106" ht="18.75" customHeight="1">
+      <c r="A106" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
+    <row r="107" ht="18.75" customHeight="1">
+      <c r="A107" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
+    <row r="108" ht="18.75" customHeight="1">
+      <c r="A108" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
+    <row r="109" ht="18.75" customHeight="1">
+      <c r="A109" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
+    <row r="110" ht="18.75" customHeight="1">
+      <c r="A110" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
+    <row r="111" ht="18.75" customHeight="1">
+      <c r="A111" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
+    <row r="112" ht="18.75" customHeight="1">
+      <c r="A112" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
+    <row r="113" ht="18.75" customHeight="1">
+      <c r="A113" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
+    <row r="114" ht="18.75" customHeight="1">
+      <c r="A114" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
+    <row r="115" ht="18.75" customHeight="1">
+      <c r="A115" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+    <row r="116" ht="18.75" customHeight="1">
+      <c r="A116" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
+    <row r="117" ht="18.75" customHeight="1">
+      <c r="A117" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
+    <row r="118" ht="18.75" customHeight="1">
+      <c r="A118" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
+    <row r="119" ht="18.75" customHeight="1">
+      <c r="A119" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
+    <row r="120" ht="18.75" customHeight="1">
+      <c r="A120" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
+    <row r="121" ht="18.75" customHeight="1">
+      <c r="A121" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
+    <row r="122" ht="18.75" customHeight="1">
+      <c r="A122" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
+    <row r="123" ht="18.75" customHeight="1">
+      <c r="A123" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
+    <row r="124" ht="18.75" customHeight="1">
+      <c r="A124" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+    <row r="125" ht="18.75" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+    <row r="126" ht="18.75" customHeight="1">
+      <c r="A126" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+    <row r="127" ht="18.75" customHeight="1">
+      <c r="A127" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
+    <row r="128" ht="18.75" customHeight="1">
+      <c r="A128" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
+    <row r="129" ht="18.75" customHeight="1">
+      <c r="A129" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
+    <row r="130" ht="18.75" customHeight="1">
+      <c r="A130" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
+    <row r="131" ht="18.75" customHeight="1">
+      <c r="A131" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
+    <row r="132" ht="18.75" customHeight="1">
+      <c r="A132" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
+    <row r="133" ht="18.75" customHeight="1">
+      <c r="A133" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
+    <row r="134" ht="18.75" customHeight="1">
+      <c r="A134" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
+    <row r="135" ht="18.75" customHeight="1">
+      <c r="A135" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+    <row r="136" ht="18.75" customHeight="1">
+      <c r="A136" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A137" s="1" t="s">
+    <row r="137" ht="18.75" customHeight="1">
+      <c r="A137" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1" t="s">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A138" s="1" t="s">
+    <row r="138" ht="18.75" customHeight="1">
+      <c r="A138" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1" t="s">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A139" s="1" t="s">
+    <row r="139" ht="18.75" customHeight="1">
+      <c r="A139" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1" t="s">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A140" s="1" t="s">
+    <row r="140" ht="18.75" customHeight="1">
+      <c r="A140" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1" t="s">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A141" s="1" t="s">
+    <row r="141" ht="18.75" customHeight="1">
+      <c r="A141" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1" t="s">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A142" s="1" t="s">
+    <row r="142" ht="18.75" customHeight="1">
+      <c r="A142" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1" t="s">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A143" s="1" t="s">
+    <row r="143" ht="18.75" customHeight="1">
+      <c r="A143" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1" t="s">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A144" s="1" t="s">
+    <row r="144" ht="18.75" customHeight="1">
+      <c r="A144" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1" t="s">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A145" s="1" t="s">
+    <row r="145" ht="18.75" customHeight="1">
+      <c r="A145" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1" t="s">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" s="1" t="s">
+    <row r="146" ht="18.75" customHeight="1">
+      <c r="A146" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1" t="s">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A147" s="1" t="s">
+    <row r="147" ht="18.75" customHeight="1">
+      <c r="A147" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1" t="s">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A148" s="1" t="s">
+    <row r="148" ht="18.75" customHeight="1">
+      <c r="A148" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1" t="s">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A149" s="1" t="s">
+    <row r="149" ht="18.75" customHeight="1">
+      <c r="A149" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1" t="s">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A150" s="1" t="s">
+    <row r="150" ht="18.75" customHeight="1">
+      <c r="A150" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1" t="s">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A151" s="1" t="s">
+    <row r="151" ht="18.75" customHeight="1">
+      <c r="A151" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1" t="s">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A152" s="1" t="s">
+    <row r="152" ht="18.75" customHeight="1">
+      <c r="A152" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1" t="s">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
+    <row r="153" ht="18.75" customHeight="1"/>
+    <row r="154" ht="18.75" customHeight="1"/>
+    <row r="155" ht="18.75" customHeight="1"/>
+    <row r="156" ht="18.75" customHeight="1"/>
+    <row r="157" ht="18.75" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
+    <row r="158" ht="18.75" customHeight="1">
+      <c r="A158" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
+    <row r="159" ht="18.75" customHeight="1">
+      <c r="A159" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
+    <row r="160" ht="18.75" customHeight="1">
+      <c r="A160" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
+    <row r="161" ht="18.75" customHeight="1">
+      <c r="A161" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
+    <row r="162" ht="18.75" customHeight="1">
+      <c r="A162" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
+    <row r="163" ht="18.75" customHeight="1">
+      <c r="A163" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
+    <row r="164" ht="18.75" customHeight="1">
+      <c r="A164" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
+    <row r="165" ht="18.75" customHeight="1">
+      <c r="A165" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
+    <row r="166" ht="18.75" customHeight="1">
+      <c r="A166" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
+    <row r="167" ht="18.75" customHeight="1">
+      <c r="A167" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
+    <row r="168" ht="18.75" customHeight="1">
+      <c r="A168" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
+    <row r="169" ht="18.75" customHeight="1">
+      <c r="A169" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
+    <row r="170" ht="18.75" customHeight="1">
+      <c r="A170" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
+    <row r="171" ht="18.75" customHeight="1">
+      <c r="A171" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
+    <row r="172" ht="18.75" customHeight="1">
+      <c r="A172" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
+    <row r="173" ht="18.75" customHeight="1">
+      <c r="A173" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
+    <row r="174" ht="18.75" customHeight="1">
+      <c r="A174" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
+    <row r="175" ht="18.75" customHeight="1">
+      <c r="A175" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
+    <row r="176" ht="18.75" customHeight="1">
+      <c r="A176" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
+    <row r="177" ht="18.75" customHeight="1">
+      <c r="A177" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
+    <row r="178" ht="18.75" customHeight="1">
+      <c r="A178" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
+    <row r="179" ht="18.75" customHeight="1">
+      <c r="A179" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
+    <row r="180" ht="18.75" customHeight="1">
+      <c r="A180" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
+    <row r="181" ht="18.75" customHeight="1">
+      <c r="A181" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
+    <row r="182" ht="18.75" customHeight="1">
+      <c r="A182" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
+    <row r="183" ht="18.75" customHeight="1">
+      <c r="A183" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
+    <row r="184" ht="18.75" customHeight="1">
+      <c r="A184" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
+    <row r="185" ht="18.75" customHeight="1">
+      <c r="A185" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
+    <row r="186" ht="18.75" customHeight="1">
+      <c r="A186" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
+    <row r="187" ht="18.75" customHeight="1">
+      <c r="A187" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
+    <row r="188" ht="18.75" customHeight="1">
+      <c r="A188" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
+    <row r="189" ht="18.75" customHeight="1">
+      <c r="A189" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
+    <row r="190" ht="18.75" customHeight="1">
+      <c r="A190" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
+    <row r="191" ht="18.75" customHeight="1">
+      <c r="A191" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
+    <row r="192" ht="18.75" customHeight="1">
+      <c r="A192" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
+    <row r="193" ht="18.75" customHeight="1">
+      <c r="A193" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
+    <row r="194" ht="18.75" customHeight="1">
+      <c r="A194" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
+    <row r="195" ht="18.75" customHeight="1">
+      <c r="A195" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
+    <row r="196" ht="18.75" customHeight="1">
+      <c r="A196" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
+    <row r="197" ht="18.75" customHeight="1">
+      <c r="A197" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
+    <row r="198" ht="18.75" customHeight="1">
+      <c r="A198" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
+    <row r="199" ht="18.75" customHeight="1">
+      <c r="A199" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
+    <row r="200" ht="18.75" customHeight="1">
+      <c r="A200" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
+    <row r="201" ht="18.75" customHeight="1">
+      <c r="A201" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
+    <row r="202" ht="18.75" customHeight="1">
+      <c r="A202" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
+    <row r="203" ht="18.75" customHeight="1">
+      <c r="A203" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
+    <row r="204" ht="18.75" customHeight="1">
+      <c r="A204" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
+    <row r="205" ht="18.75" customHeight="1">
+      <c r="A205" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
+    <row r="206" ht="18.75" customHeight="1">
+      <c r="A206" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A207" s="1" t="s">
+    <row r="207" ht="18.75" customHeight="1">
+      <c r="A207" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1" t="s">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A208" s="1" t="s">
+    <row r="208" ht="18.75" customHeight="1">
+      <c r="A208" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1" t="s">
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A209" s="1" t="s">
+    <row r="209" ht="18.75" customHeight="1">
+      <c r="A209" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1" t="s">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A210" s="1" t="s">
+    <row r="210" ht="18.75" customHeight="1">
+      <c r="A210" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1" t="s">
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A211" s="1" t="s">
+    <row r="211" ht="18.75" customHeight="1">
+      <c r="A211" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1" t="s">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A212" s="1" t="s">
+    <row r="212" ht="18.75" customHeight="1">
+      <c r="A212" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1" t="s">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A213" s="1" t="s">
+    <row r="213" ht="18.75" customHeight="1">
+      <c r="A213" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1" t="s">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A214" s="1" t="s">
+    <row r="214" ht="18.75" customHeight="1">
+      <c r="A214" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1" t="s">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A215" s="1" t="s">
+    <row r="215" ht="18.75" customHeight="1">
+      <c r="A215" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1" t="s">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216" s="1" t="s">
+    <row r="216" ht="18.75" customHeight="1">
+      <c r="A216" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1" t="s">
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A217" s="1" t="s">
+    <row r="217" ht="18.75" customHeight="1">
+      <c r="A217" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1" t="s">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A218" s="1" t="s">
+    <row r="218" ht="18.75" customHeight="1">
+      <c r="A218" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1" t="s">
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A219" s="1" t="s">
+    <row r="219" ht="18.75" customHeight="1">
+      <c r="A219" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1" t="s">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
+    <row r="220" ht="18.75" customHeight="1">
+      <c r="A220" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M220" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
+    <row r="221" ht="18.75" customHeight="1">
+      <c r="A221" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M221" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
+    <row r="222" ht="18.75" customHeight="1">
+      <c r="A222" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M222" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
+    <row r="223" ht="18.75" customHeight="1">
+      <c r="A223" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M223" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
+    <row r="224" ht="18.75" customHeight="1">
+      <c r="A224" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M224" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
+    <row r="225" ht="18.75" customHeight="1"/>
+    <row r="226" ht="18.75" customHeight="1"/>
+    <row r="227" ht="18.75" customHeight="1">
+      <c r="A227" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M227" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
+    <row r="228" ht="18.75" customHeight="1">
+      <c r="A228" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M228" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
+    <row r="229" ht="18.75" customHeight="1">
+      <c r="A229" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M229" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
+    <row r="230" ht="18.75" customHeight="1">
+      <c r="A230" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B233" t="s">
-        <v>428</v>
-      </c>
-      <c r="M233" t="s">
+      <c r="M230" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
+    <row r="231" ht="18.75" customHeight="1"/>
+    <row r="232" ht="18.75" customHeight="1">
+      <c r="A232" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B234" t="s">
+      <c r="M232" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="M234" t="s">
+    </row>
+    <row r="233" ht="18.75" customHeight="1">
+      <c r="A233" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
+      <c r="M233" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="M235" t="s">
+    </row>
+    <row r="234" ht="18.75" customHeight="1">
+      <c r="A234" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
+      <c r="M234" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B236" t="s">
+    </row>
+    <row r="235" ht="18.75" customHeight="1"/>
+    <row r="236" ht="18.75" customHeight="1"/>
+    <row r="237" ht="18.75" customHeight="1">
+      <c r="A237" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M237" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="N236" s="1"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
+    </row>
+    <row r="238" ht="18.75" customHeight="1">
+      <c r="A238" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="M237" t="s">
+      <c r="B238" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M238" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
+    <row r="239" ht="18.75" customHeight="1">
+      <c r="A239" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="M238" t="s">
+      <c r="B239" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
+      <c r="M239" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="M239" t="s">
+    </row>
+    <row r="240" ht="18.75" customHeight="1">
+      <c r="A240" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
+      <c r="M240" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="M240" t="s">
+    </row>
+    <row r="241" ht="18.75" customHeight="1">
+      <c r="A241" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
+      <c r="B241" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M241" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
+      <c r="N241" s="2"/>
+    </row>
+    <row r="242" ht="18.75" customHeight="1">
+      <c r="A242" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M242" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
+    <row r="243" ht="18.75" customHeight="1">
+      <c r="A243" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M243" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
+    <row r="244" ht="18.75" customHeight="1">
+      <c r="A244" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B245" t="s">
+      <c r="M244" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M245" t="s">
+    </row>
+    <row r="245" ht="18.75" customHeight="1">
+      <c r="A245" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
+      <c r="M245" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="M246" t="s">
+    </row>
+    <row r="246" ht="18.75" customHeight="1"/>
+    <row r="247" ht="18.75" customHeight="1">
+      <c r="A247" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
+      <c r="M247" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="M247" t="s">
+    </row>
+    <row r="248" ht="18.75" customHeight="1">
+      <c r="A248" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
+      <c r="M248" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B248" t="s">
-        <v>459</v>
-      </c>
-      <c r="M248" t="s">
+    </row>
+    <row r="249" ht="18.75" customHeight="1">
+      <c r="A249" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A249" s="1" t="s">
+      <c r="M249" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="M249" s="1" t="s">
+    </row>
+    <row r="250" ht="18.75" customHeight="1">
+      <c r="A250" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
+      <c r="B250" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M250" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
+    <row r="251" ht="18.75" customHeight="1">
+      <c r="A251" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M251" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
+    <row r="252" ht="18.75" customHeight="1">
+      <c r="A252" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M252" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
+    <row r="253" ht="18.75" customHeight="1">
+      <c r="A253" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="M254" t="s">
+      <c r="B253" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M253" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
+    <row r="254" ht="18.75" customHeight="1">
+      <c r="A254" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="M255" t="s">
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" ht="18.75" customHeight="1"/>
+    <row r="256" ht="18.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
-      <c r="I256" s="1"/>
-      <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
-      <c r="L256" s="1"/>
+        <v>473</v>
+      </c>
       <c r="M256" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A258" t="s">
-        <v>473</v>
-      </c>
-      <c r="M258" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
+    <row r="257" ht="18.75" customHeight="1">
+      <c r="A257" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M257" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="258" ht="18.75" customHeight="1">
+      <c r="A258" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="259" ht="18.75" customHeight="1">
+      <c r="A259" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="M259" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="260" ht="18.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
-      <c r="L260" s="1"/>
+        <v>481</v>
+      </c>
       <c r="M260" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A261" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="261" ht="18.75" customHeight="1">
+      <c r="A261" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -5212,1727 +5088,2362 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
-      <c r="M261" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A262" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A263" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2" t="s">
+      <c r="M261" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A264" t="s">
+    <row r="262" ht="18.75" customHeight="1"/>
+    <row r="263" ht="18.75" customHeight="1">
+      <c r="A263" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M263" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="264" ht="18.75" customHeight="1">
+      <c r="A264" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="265" ht="18.75" customHeight="1">
+      <c r="A265" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="266" ht="18.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
+      <c r="H266" s="4"/>
+      <c r="I266" s="4"/>
+      <c r="J266" s="4"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="4"/>
       <c r="M266" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="267" ht="18.75" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
       <c r="M267" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A268" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A269" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A270" s="2" t="s">
+    <row r="268" ht="18.75" customHeight="1">
+      <c r="A268" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2" t="s">
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+      <c r="G268" s="4"/>
+      <c r="H268" s="4"/>
+      <c r="I268" s="4"/>
+      <c r="J268" s="4"/>
+      <c r="K268" s="4"/>
+      <c r="L268" s="4"/>
+      <c r="M268" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A271" s="2" t="s">
+    <row r="269" ht="18.75" customHeight="1">
+      <c r="A269" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2" t="s">
+      <c r="M269" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A272" s="2" t="s">
+    <row r="270" ht="18.75" customHeight="1"/>
+    <row r="271" ht="18.75" customHeight="1">
+      <c r="A271" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2" t="s">
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
+      <c r="G271" s="4"/>
+      <c r="H271" s="4"/>
+      <c r="I271" s="4"/>
+      <c r="J271" s="4"/>
+      <c r="K271" s="4"/>
+      <c r="L271" s="4"/>
+      <c r="M271" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A273" s="2" t="s">
+    <row r="272" ht="18.75" customHeight="1">
+      <c r="A272" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2" t="s">
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="4"/>
+      <c r="M272" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A274" s="3" t="s">
+    <row r="273" ht="18.75" customHeight="1">
+      <c r="A273" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="M274" t="s">
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
+      <c r="H273" s="4"/>
+      <c r="I273" s="4"/>
+      <c r="J273" s="4"/>
+      <c r="K273" s="4"/>
+      <c r="L273" s="4"/>
+      <c r="M273" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="274" ht="18.75" customHeight="1">
+      <c r="A274" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
+      <c r="H274" s="4"/>
+      <c r="I274" s="4"/>
+      <c r="J274" s="4"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="4"/>
+      <c r="M274" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="275" ht="18.75" customHeight="1">
       <c r="A275" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
+      <c r="H275" s="4"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="4"/>
       <c r="M275" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A276" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="M276" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="276" ht="18.75" customHeight="1">
+      <c r="A276" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="277" ht="18.75" customHeight="1">
       <c r="A277" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
+      <c r="G277" s="4"/>
+      <c r="H277" s="4"/>
+      <c r="I277" s="4"/>
+      <c r="J277" s="4"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="4"/>
       <c r="M277" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A278" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="M278" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A279" s="6" t="s">
+    <row r="278" ht="18.75" customHeight="1">
+      <c r="A278" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="M279" s="5" t="s">
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4"/>
+      <c r="G278" s="4"/>
+      <c r="H278" s="4"/>
+      <c r="I278" s="4"/>
+      <c r="J278" s="4"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="4"/>
+      <c r="M278" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A280" s="5" t="s">
+    <row r="279" ht="18.75" customHeight="1">
+      <c r="A279" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="M280" s="5" t="s">
+      <c r="M279" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A281" s="1" t="s">
+    <row r="280" ht="18.75" customHeight="1">
+      <c r="A280" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
-      <c r="I281" s="1"/>
-      <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
-      <c r="L281" s="1"/>
-      <c r="M281" s="1" t="s">
+      <c r="M280" s="6" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A282" s="1" t="s">
+    <row r="281" ht="18.75" customHeight="1">
+      <c r="A281" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
-      <c r="H282" s="1"/>
-      <c r="I282" s="1"/>
-      <c r="J282" s="1"/>
-      <c r="K282" s="1"/>
-      <c r="L282" s="1"/>
-      <c r="M282" s="1" t="s">
+      <c r="M281" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
+    <row r="282" ht="18.75" customHeight="1">
+      <c r="A282" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="M294" s="5" t="s">
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="4"/>
+      <c r="L282" s="4"/>
+      <c r="M282" s="6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
+    <row r="283" ht="18.75" customHeight="1">
+      <c r="A283" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="M295" s="5" t="s">
+      <c r="M283" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A296" t="s">
+    <row r="284" ht="18.75" customHeight="1">
+      <c r="A284" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="M296" s="5" t="s">
+      <c r="M284" s="4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
+    <row r="285" ht="18.75" customHeight="1">
+      <c r="A285" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="M297" s="5" t="s">
+      <c r="M285" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A299" t="s">
+    <row r="286" ht="18.75" customHeight="1">
+      <c r="A286" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="M299" s="5" t="s">
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="2"/>
+      <c r="L286" s="2"/>
+      <c r="M286" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A300" t="s">
+    <row r="287" ht="18.75" customHeight="1">
+      <c r="A287" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="M300" s="5" t="s">
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+      <c r="L287" s="2"/>
+      <c r="M287" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A301" t="s">
+    <row r="288" ht="18.75" customHeight="1"/>
+    <row r="289" ht="18.75" customHeight="1"/>
+    <row r="290" ht="18.75" customHeight="1"/>
+    <row r="291" ht="18.75" customHeight="1"/>
+    <row r="292" ht="18.75" customHeight="1"/>
+    <row r="293" ht="18.75" customHeight="1"/>
+    <row r="294" ht="18.75" customHeight="1"/>
+    <row r="295" ht="18.75" customHeight="1"/>
+    <row r="296" ht="18.75" customHeight="1"/>
+    <row r="297" ht="18.75" customHeight="1"/>
+    <row r="298" ht="18.75" customHeight="1"/>
+    <row r="299" ht="18.75" customHeight="1">
+      <c r="A299" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="M301" s="5" t="s">
+      <c r="M299" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A302" t="s">
+    <row r="300" ht="18.75" customHeight="1">
+      <c r="A300" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="M302" s="5" t="s">
+      <c r="M300" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A304" t="s">
+    <row r="301" ht="18.75" customHeight="1">
+      <c r="A301" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="M304" s="5" t="s">
+      <c r="M301" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A305" t="s">
+    <row r="302" ht="18.75" customHeight="1">
+      <c r="A302" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="M305" s="5" t="s">
+      <c r="M302" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
+    <row r="303" ht="18.75" customHeight="1"/>
+    <row r="304" ht="18.75" customHeight="1">
+      <c r="A304" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="M306" s="5" t="s">
+      <c r="M304" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
+    <row r="305" ht="18.75" customHeight="1">
+      <c r="A305" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="M307" s="5" t="s">
+      <c r="M305" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
+    <row r="306" ht="18.75" customHeight="1">
+      <c r="A306" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="M308" s="5" t="s">
+      <c r="M306" s="4" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
+    <row r="307" ht="18.75" customHeight="1">
+      <c r="A307" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="M309" s="5" t="s">
+      <c r="M307" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
+    <row r="308" ht="18.75" customHeight="1"/>
+    <row r="309" ht="18.75" customHeight="1">
+      <c r="A309" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="M310" s="5" t="s">
+      <c r="M309" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
+    <row r="310" ht="18.75" customHeight="1">
+      <c r="A310" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="M311" s="5" t="s">
+      <c r="M310" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
+    <row r="311" ht="18.75" customHeight="1">
+      <c r="A311" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M312" s="5" t="s">
+      <c r="M311" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
+    <row r="312" ht="18.75" customHeight="1">
+      <c r="A312" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="M313" s="5" t="s">
+      <c r="M312" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A314" t="s">
+    <row r="313" ht="18.75" customHeight="1">
+      <c r="A313" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M314" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A315" t="s">
+      <c r="M313" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="M315" s="5" t="s">
+    </row>
+    <row r="314" ht="18.75" customHeight="1">
+      <c r="A314" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A316" t="s">
+      <c r="M314" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="M316" t="s">
+    </row>
+    <row r="315" ht="18.75" customHeight="1">
+      <c r="A315" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A318" t="s">
+      <c r="M315" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="M318" t="s">
+    </row>
+    <row r="316" ht="18.75" customHeight="1">
+      <c r="A316" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A319" t="s">
+      <c r="M316" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="M319" t="s">
+    </row>
+    <row r="317" ht="18.75" customHeight="1">
+      <c r="A317" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A320" t="s">
+      <c r="M317" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="M320" t="s">
+    </row>
+    <row r="318" ht="18.75" customHeight="1">
+      <c r="A318" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A321" t="s">
+      <c r="M318" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="M321" t="s">
+    </row>
+    <row r="319" ht="18.75" customHeight="1">
+      <c r="A319" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A322" t="s">
+      <c r="M319" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="320" ht="18.75" customHeight="1">
+      <c r="A320" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M320" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A323" t="s">
+    <row r="321" ht="18.75" customHeight="1">
+      <c r="A321" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M323" t="s">
+      <c r="M321" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A324" t="s">
+    <row r="322" ht="18.75" customHeight="1"/>
+    <row r="323" ht="18.75" customHeight="1">
+      <c r="A323" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M323" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A325" t="s">
+    <row r="324" ht="18.75" customHeight="1">
+      <c r="A324" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M324" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A326" t="s">
+    <row r="325" ht="18.75" customHeight="1">
+      <c r="A325" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M325" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A327" t="s">
+    <row r="326" ht="18.75" customHeight="1">
+      <c r="A326" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M326" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A328" t="s">
+    <row r="327" ht="18.75" customHeight="1">
+      <c r="A327" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="M328" t="s">
+      <c r="M327" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A329" t="s">
+    <row r="328" ht="18.75" customHeight="1">
+      <c r="A328" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="M329" t="s">
+      <c r="M328" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A330" t="s">
+    <row r="329" ht="18.75" customHeight="1">
+      <c r="A329" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="M330" t="s">
+      <c r="M329" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A331" t="s">
+    <row r="330" ht="18.75" customHeight="1">
+      <c r="A330" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B331" t="s">
+      <c r="M330" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="M331" t="s">
+    </row>
+    <row r="331" ht="18.75" customHeight="1">
+      <c r="A331" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A332" t="s">
+      <c r="M331" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="M332" t="s">
+    </row>
+    <row r="332" ht="18.75" customHeight="1">
+      <c r="A332" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A333" t="s">
+      <c r="M332" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="M333" t="s">
+    </row>
+    <row r="333" ht="18.75" customHeight="1">
+      <c r="A333" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A334" t="s">
+      <c r="M333" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="M334" t="s">
+    </row>
+    <row r="334" ht="18.75" customHeight="1">
+      <c r="A334" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A335" t="s">
+      <c r="M334" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="M335" t="s">
+    </row>
+    <row r="335" ht="18.75" customHeight="1">
+      <c r="A335" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A336" t="s">
+      <c r="M335" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="M336" t="s">
+    </row>
+    <row r="336" ht="18.75" customHeight="1">
+      <c r="A336" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A337" t="s">
+      <c r="B336" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="M337" t="s">
+      <c r="M336" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A338" t="s">
+    <row r="337" ht="18.75" customHeight="1">
+      <c r="A337" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="M338" t="s">
+      <c r="M337" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A339" t="s">
+    <row r="338" ht="18.75" customHeight="1">
+      <c r="A338" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M338" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A340" t="s">
+    <row r="339" ht="18.75" customHeight="1">
+      <c r="A339" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M339" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A341" t="s">
+    <row r="340" ht="18.75" customHeight="1">
+      <c r="A340" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="M341" t="s">
+      <c r="M340" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A342" t="s">
+    <row r="341" ht="18.75" customHeight="1">
+      <c r="A341" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="M342" t="s">
+      <c r="M341" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A343" t="s">
+    <row r="342" ht="18.75" customHeight="1">
+      <c r="A342" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="M343" t="s">
+      <c r="M342" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A344" t="s">
+    <row r="343" ht="18.75" customHeight="1">
+      <c r="A343" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="M344" t="s">
+      <c r="M343" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A345" t="s">
+    <row r="344" ht="18.75" customHeight="1">
+      <c r="A344" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="M345" t="s">
+      <c r="M344" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A346" t="s">
+    <row r="345" ht="18.75" customHeight="1">
+      <c r="A345" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="M346" t="s">
+      <c r="M345" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="346" ht="18.75" customHeight="1">
+      <c r="A346" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="347" ht="18.75" customHeight="1">
+      <c r="A347" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M347" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="348" ht="18.75" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-      <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
-      <c r="H348" s="1"/>
-      <c r="I348" s="1"/>
-      <c r="J348" s="1"/>
-      <c r="K348" s="1"/>
-      <c r="L348" s="1"/>
+        <v>625</v>
+      </c>
       <c r="M348" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="349" ht="18.75" customHeight="1">
       <c r="A349" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
-      <c r="H349" s="1"/>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
+        <v>627</v>
+      </c>
       <c r="M349" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="350" ht="18.75" customHeight="1">
       <c r="A350" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C350" s="1"/>
-      <c r="D350" s="1"/>
-      <c r="E350" s="1"/>
-      <c r="F350" s="1"/>
-      <c r="G350" s="1"/>
-      <c r="H350" s="1"/>
-      <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
-      <c r="K350" s="1"/>
-      <c r="L350" s="1"/>
+        <v>629</v>
+      </c>
       <c r="M350" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="351" ht="18.75" customHeight="1">
       <c r="A351" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
-      <c r="G351" s="1"/>
-      <c r="H351" s="1"/>
-      <c r="I351" s="1"/>
-      <c r="J351" s="1"/>
-      <c r="K351" s="1"/>
-      <c r="L351" s="1"/>
+        <v>631</v>
+      </c>
       <c r="M351" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A352" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
-      <c r="E352" s="1"/>
-      <c r="F352" s="1"/>
-      <c r="G352" s="1"/>
-      <c r="H352" s="1"/>
-      <c r="I352" s="1"/>
-      <c r="J352" s="1"/>
-      <c r="K352" s="1"/>
-      <c r="L352" s="1"/>
-      <c r="M352" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A353" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
-      <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
-      <c r="G353" s="1"/>
-      <c r="H353" s="1"/>
-      <c r="I353" s="1"/>
-      <c r="J353" s="1"/>
-      <c r="K353" s="1"/>
-      <c r="L353" s="1"/>
-      <c r="M353" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A354" s="1" t="s">
+    <row r="352" ht="18.75" customHeight="1"/>
+    <row r="353" ht="18.75" customHeight="1">
+      <c r="A353" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
-      <c r="H354" s="1"/>
-      <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
-      <c r="K354" s="1"/>
-      <c r="L354" s="1"/>
-      <c r="M354" s="1" t="s">
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
+      <c r="H353" s="2"/>
+      <c r="I353" s="2"/>
+      <c r="J353" s="2"/>
+      <c r="K353" s="2"/>
+      <c r="L353" s="2"/>
+      <c r="M353" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A355" s="1" t="s">
+    <row r="354" ht="18.75" customHeight="1">
+      <c r="A354" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
-      <c r="E355" s="1"/>
-      <c r="F355" s="1"/>
-      <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
-      <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
-      <c r="M355" s="1" t="s">
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2"/>
+      <c r="I354" s="2"/>
+      <c r="J354" s="2"/>
+      <c r="K354" s="2"/>
+      <c r="L354" s="2"/>
+      <c r="M354" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A356" s="1" t="s">
+    <row r="355" ht="18.75" customHeight="1">
+      <c r="A355" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B355" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C356" s="1"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-      <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
-      <c r="M356" s="1" t="s">
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
+      <c r="H355" s="2"/>
+      <c r="I355" s="2"/>
+      <c r="J355" s="2"/>
+      <c r="K355" s="2"/>
+      <c r="L355" s="2"/>
+      <c r="M355" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A357" s="1" t="s">
+    <row r="356" ht="18.75" customHeight="1">
+      <c r="A356" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B356" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
-      <c r="E357" s="1"/>
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
-      <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
-      <c r="M357" s="1" t="s">
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
+      <c r="H356" s="2"/>
+      <c r="I356" s="2"/>
+      <c r="J356" s="2"/>
+      <c r="K356" s="2"/>
+      <c r="L356" s="2"/>
+      <c r="M356" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A358" s="1" t="s">
+    <row r="357" ht="18.75" customHeight="1">
+      <c r="A357" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B357" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
-      <c r="M358" s="1" t="s">
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
+      <c r="H357" s="2"/>
+      <c r="I357" s="2"/>
+      <c r="J357" s="2"/>
+      <c r="K357" s="2"/>
+      <c r="L357" s="2"/>
+      <c r="M357" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A359" s="1" t="s">
+    <row r="358" ht="18.75" customHeight="1">
+      <c r="A358" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="M359" s="1" t="s">
+      <c r="B358" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+      <c r="H358" s="2"/>
+      <c r="I358" s="2"/>
+      <c r="J358" s="2"/>
+      <c r="K358" s="2"/>
+      <c r="L358" s="2"/>
+      <c r="M358" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A360" s="1" t="s">
+    <row r="359" ht="18.75" customHeight="1">
+      <c r="A359" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="M360" s="1" t="s">
+      <c r="B359" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
+      <c r="H359" s="2"/>
+      <c r="I359" s="2"/>
+      <c r="J359" s="2"/>
+      <c r="K359" s="2"/>
+      <c r="L359" s="2"/>
+      <c r="M359" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A361" s="1" t="s">
+    <row r="360" ht="18.75" customHeight="1">
+      <c r="A360" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="M361" s="1" t="s">
+      <c r="B360" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
+      <c r="H360" s="2"/>
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
+      <c r="K360" s="2"/>
+      <c r="L360" s="2"/>
+      <c r="M360" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A362" s="1" t="s">
+    <row r="361" ht="18.75" customHeight="1">
+      <c r="A361" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="M362" s="1" t="s">
+      <c r="B361" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
+      <c r="H361" s="2"/>
+      <c r="I361" s="2"/>
+      <c r="J361" s="2"/>
+      <c r="K361" s="2"/>
+      <c r="L361" s="2"/>
+      <c r="M361" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A363" s="1" t="s">
+    <row r="362" ht="18.75" customHeight="1">
+      <c r="A362" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="M363" s="1" t="s">
+      <c r="B362" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+      <c r="H362" s="2"/>
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
+      <c r="K362" s="2"/>
+      <c r="L362" s="2"/>
+      <c r="M362" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A364" s="1" t="s">
+    <row r="363" ht="18.75" customHeight="1">
+      <c r="A363" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="M364" s="1" t="s">
+      <c r="B363" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="2"/>
+      <c r="G363" s="2"/>
+      <c r="H363" s="2"/>
+      <c r="I363" s="2"/>
+      <c r="J363" s="2"/>
+      <c r="K363" s="2"/>
+      <c r="L363" s="2"/>
+      <c r="M363" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A365" s="1" t="s">
+    <row r="364" ht="18.75" customHeight="1">
+      <c r="A364" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="M365" s="1" t="s">
+      <c r="M364" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A366" s="1" t="s">
+    <row r="365" ht="18.75" customHeight="1">
+      <c r="A365" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="M366" s="1" t="s">
+      <c r="M365" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A367" s="1" t="s">
+    <row r="366" ht="18.75" customHeight="1">
+      <c r="A366" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="M367" s="1" t="s">
+      <c r="M366" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A368" s="1" t="s">
+    <row r="367" ht="18.75" customHeight="1">
+      <c r="A367" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="M368" s="1" t="s">
+      <c r="M367" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A369" s="1" t="s">
+    <row r="368" ht="18.75" customHeight="1">
+      <c r="A368" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="M369" s="1" t="s">
+      <c r="M368" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A370" s="1" t="s">
+    <row r="369" ht="18.75" customHeight="1">
+      <c r="A369" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="M370" s="1" t="s">
+      <c r="M369" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A371" s="1" t="s">
+    <row r="370" ht="18.75" customHeight="1">
+      <c r="A370" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="M371" s="1" t="s">
+      <c r="M370" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A372" s="1" t="s">
+    <row r="371" ht="18.75" customHeight="1">
+      <c r="A371" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="M372" s="1" t="s">
+      <c r="M371" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A373" s="1" t="s">
+    <row r="372" ht="18.75" customHeight="1">
+      <c r="A372" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="M373" s="1" t="s">
+      <c r="M372" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A374" s="1" t="s">
+    <row r="373" ht="18.75" customHeight="1">
+      <c r="A373" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="M374" s="1" t="s">
+      <c r="M373" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A375" s="1" t="s">
+    <row r="374" ht="18.75" customHeight="1">
+      <c r="A374" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="M375" s="1" t="s">
+      <c r="M374" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A376" s="1" t="s">
+    <row r="375" ht="18.75" customHeight="1">
+      <c r="A375" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="M376" s="1" t="s">
+      <c r="M375" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A377" s="1" t="s">
+    <row r="376" ht="18.75" customHeight="1">
+      <c r="A376" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="M377" s="1" t="s">
+      <c r="M376" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A378" s="1" t="s">
+    <row r="377" ht="18.75" customHeight="1">
+      <c r="A377" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="M378" s="1" t="s">
+      <c r="M377" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A379" s="1" t="s">
+    <row r="378" ht="18.75" customHeight="1">
+      <c r="A378" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="M379" s="1" t="s">
+      <c r="M378" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A380" s="1" t="s">
+    <row r="379" ht="18.75" customHeight="1">
+      <c r="A379" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="M380" s="1" t="s">
+      <c r="M379" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A381" s="1" t="s">
+    <row r="380" ht="18.75" customHeight="1">
+      <c r="A380" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="M381" s="1" t="s">
+      <c r="M380" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A382" s="1" t="s">
+    <row r="381" ht="18.75" customHeight="1">
+      <c r="A381" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="M382" s="1" t="s">
+      <c r="M381" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A383" s="1" t="s">
+    <row r="382" ht="18.75" customHeight="1">
+      <c r="A382" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="M383" s="1" t="s">
+      <c r="M382" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A384" s="1" t="s">
+    <row r="383" ht="18.75" customHeight="1">
+      <c r="A383" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="M384" s="1" t="s">
+      <c r="M383" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A385" s="1" t="s">
+    <row r="384" ht="18.75" customHeight="1">
+      <c r="A384" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="M385" s="1" t="s">
+      <c r="M384" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A386" s="1" t="s">
+    <row r="385" ht="18.75" customHeight="1">
+      <c r="A385" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="M386" s="1" t="s">
+      <c r="M385" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A387" s="1" t="s">
+    <row r="386" ht="18.75" customHeight="1">
+      <c r="A386" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="M387" s="1" t="s">
+      <c r="M386" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A388" s="1" t="s">
+    <row r="387" ht="18.75" customHeight="1">
+      <c r="A387" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="M388" s="1" t="s">
+      <c r="M387" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A389" s="1" t="s">
+    <row r="388" ht="18.75" customHeight="1">
+      <c r="A388" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="M389" s="1" t="s">
+      <c r="M388" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A390" s="1" t="s">
+    <row r="389" ht="18.75" customHeight="1">
+      <c r="A389" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="M390" s="1" t="s">
+      <c r="M389" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A391" s="1" t="s">
+    <row r="390" ht="18.75" customHeight="1">
+      <c r="A390" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="M391" s="1" t="s">
+      <c r="M390" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A392" s="1" t="s">
+    <row r="391" ht="18.75" customHeight="1">
+      <c r="A391" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="M392" s="1" t="s">
+      <c r="M391" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A393" s="1" t="s">
+    <row r="392" ht="18.75" customHeight="1">
+      <c r="A392" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="M393" s="1" t="s">
+      <c r="M392" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A394" s="1" t="s">
+    <row r="393" ht="18.75" customHeight="1">
+      <c r="A393" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="M394" s="1" t="s">
+      <c r="M393" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A395" s="1" t="s">
+    <row r="394" ht="18.75" customHeight="1">
+      <c r="A394" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="M395" s="1" t="s">
+      <c r="M394" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A396" s="1" t="s">
+    <row r="395" ht="18.75" customHeight="1">
+      <c r="A395" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="M396" s="1" t="s">
+      <c r="M395" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A397" s="1" t="s">
+    <row r="396" ht="18.75" customHeight="1">
+      <c r="A396" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="M397" s="1" t="s">
+      <c r="M396" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A398" s="1" t="s">
+    <row r="397" ht="18.75" customHeight="1">
+      <c r="A397" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="M398" s="1" t="s">
+      <c r="M397" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A399" s="1" t="s">
+    <row r="398" ht="18.75" customHeight="1">
+      <c r="A398" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="M399" s="1" t="s">
+      <c r="M398" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A400" s="1" t="s">
+    <row r="399" ht="18.75" customHeight="1">
+      <c r="A399" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="M400" s="1" t="s">
+      <c r="M399" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A401" s="1" t="s">
+    <row r="400" ht="18.75" customHeight="1">
+      <c r="A400" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="M401" s="1" t="s">
+      <c r="M400" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A402" s="1" t="s">
+    <row r="401" ht="18.75" customHeight="1">
+      <c r="A401" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="M402" s="1" t="s">
+      <c r="M401" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A403" s="1" t="s">
+    <row r="402" ht="18.75" customHeight="1">
+      <c r="A402" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="M403" s="1" t="s">
+      <c r="M402" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A404" s="1" t="s">
+    <row r="403" ht="18.75" customHeight="1">
+      <c r="A403" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="M404" s="1" t="s">
+      <c r="M403" s="2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A405" s="1" t="s">
+    <row r="404" ht="18.75" customHeight="1">
+      <c r="A404" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="M405" s="1" t="s">
+      <c r="M404" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A406" s="1" t="s">
+    <row r="405" ht="18.75" customHeight="1">
+      <c r="A405" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="M406" s="1" t="s">
+      <c r="M405" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A411" s="1" t="s">
+    <row r="406" ht="18.75" customHeight="1">
+      <c r="A406" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-      <c r="H411" s="1"/>
-      <c r="I411" s="1"/>
-      <c r="J411" s="1"/>
-      <c r="K411" s="1"/>
-      <c r="L411" s="1"/>
-      <c r="M411" s="1" t="s">
+      <c r="M406" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A412" s="1" t="s">
+    <row r="407" ht="18.75" customHeight="1">
+      <c r="A407" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-      <c r="D412" s="1"/>
-      <c r="E412" s="1"/>
-      <c r="F412" s="1"/>
-      <c r="G412" s="1"/>
-      <c r="H412" s="1"/>
-      <c r="I412" s="1"/>
-      <c r="J412" s="1"/>
-      <c r="K412" s="1"/>
-      <c r="L412" s="1"/>
-      <c r="M412" s="1" t="s">
+      <c r="M407" s="2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A413" s="1" t="s">
+    <row r="408" ht="18.75" customHeight="1">
+      <c r="A408" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="1"/>
-      <c r="M413" s="1" t="s">
+      <c r="M408" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A414" s="1" t="s">
+    <row r="409" ht="18.75" customHeight="1">
+      <c r="A409" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-      <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
-      <c r="K414" s="1"/>
-      <c r="L414" s="1"/>
-      <c r="M414" s="1" t="s">
+      <c r="M409" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A416" s="1" t="s">
+    <row r="410" ht="18.75" customHeight="1">
+      <c r="A410" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
-      <c r="H416" s="1"/>
-      <c r="I416" s="1"/>
-      <c r="J416" s="1"/>
-      <c r="K416" s="1"/>
-      <c r="L416" s="1"/>
-      <c r="M416" s="1" t="s">
+      <c r="M410" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A417" s="1" t="s">
+    <row r="411" ht="18.75" customHeight="1">
+      <c r="A411" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-      <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
-      <c r="K417" s="1"/>
-      <c r="L417" s="1"/>
-      <c r="M417" s="1" t="s">
+      <c r="M411" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A418" s="1" t="s">
+    <row r="412" ht="18.75" customHeight="1"/>
+    <row r="413" ht="18.75" customHeight="1"/>
+    <row r="414" ht="18.75" customHeight="1"/>
+    <row r="415" ht="18.75" customHeight="1"/>
+    <row r="416" ht="18.75" customHeight="1">
+      <c r="A416" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
-      <c r="I418" s="1"/>
-      <c r="J418" s="1"/>
-      <c r="K418" s="1"/>
-      <c r="L418" s="1"/>
-      <c r="M418" s="1" t="s">
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="2"/>
+      <c r="H416" s="2"/>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2"/>
+      <c r="K416" s="2"/>
+      <c r="L416" s="2"/>
+      <c r="M416" s="2" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A419" s="1" t="s">
+    <row r="417" ht="18.75" customHeight="1">
+      <c r="A417" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
-      <c r="D419" s="1"/>
-      <c r="E419" s="1"/>
-      <c r="F419" s="1"/>
-      <c r="G419" s="1"/>
-      <c r="H419" s="1"/>
-      <c r="I419" s="1"/>
-      <c r="J419" s="1"/>
-      <c r="K419" s="1"/>
-      <c r="L419" s="1"/>
-      <c r="M419" s="1" t="s">
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
+      <c r="H417" s="2"/>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
+      <c r="K417" s="2"/>
+      <c r="L417" s="2"/>
+      <c r="M417" s="2" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A420" s="1" t="s">
+    <row r="418" ht="18.75" customHeight="1">
+      <c r="A418" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
-      <c r="D420" s="1"/>
-      <c r="E420" s="1"/>
-      <c r="F420" s="1"/>
-      <c r="G420" s="1"/>
-      <c r="H420" s="1"/>
-      <c r="I420" s="1"/>
-      <c r="J420" s="1"/>
-      <c r="K420" s="1"/>
-      <c r="L420" s="1"/>
-      <c r="M420" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A421" s="1" t="s">
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
+      <c r="H418" s="2"/>
+      <c r="I418" s="2"/>
+      <c r="J418" s="2"/>
+      <c r="K418" s="2"/>
+      <c r="L418" s="2"/>
+      <c r="M418" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
-      <c r="D421" s="1"/>
-      <c r="E421" s="1"/>
-      <c r="F421" s="1"/>
-      <c r="G421" s="1"/>
-      <c r="H421" s="1"/>
-      <c r="I421" s="1"/>
-      <c r="J421" s="1"/>
-      <c r="K421" s="1"/>
-      <c r="L421" s="1"/>
-      <c r="M421" s="1" t="s">
+    </row>
+    <row r="419" ht="18.75" customHeight="1">
+      <c r="A419" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A424" t="s">
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
+      <c r="H419" s="2"/>
+      <c r="I419" s="2"/>
+      <c r="J419" s="2"/>
+      <c r="K419" s="2"/>
+      <c r="L419" s="2"/>
+      <c r="M419" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="420" ht="18.75" customHeight="1"/>
+    <row r="421" ht="18.75" customHeight="1">
+      <c r="A421" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="2"/>
+      <c r="G421" s="2"/>
+      <c r="H421" s="2"/>
+      <c r="I421" s="2"/>
+      <c r="J421" s="2"/>
+      <c r="K421" s="2"/>
+      <c r="L421" s="2"/>
+      <c r="M421" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="M424" t="s">
+    </row>
+    <row r="422" ht="18.75" customHeight="1">
+      <c r="A422" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A425" t="s">
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="2"/>
+      <c r="G422" s="2"/>
+      <c r="H422" s="2"/>
+      <c r="I422" s="2"/>
+      <c r="J422" s="2"/>
+      <c r="K422" s="2"/>
+      <c r="L422" s="2"/>
+      <c r="M422" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B425" s="7" t="s">
+    </row>
+    <row r="423" ht="18.75" customHeight="1">
+      <c r="A423" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="M425" t="s">
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
+      <c r="J423" s="2"/>
+      <c r="K423" s="2"/>
+      <c r="L423" s="2"/>
+      <c r="M423" s="2" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A426" s="8" t="s">
+    <row r="424" ht="18.75" customHeight="1">
+      <c r="A424" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B426" s="7"/>
-      <c r="M426" t="s">
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="2"/>
+      <c r="F424" s="2"/>
+      <c r="G424" s="2"/>
+      <c r="H424" s="2"/>
+      <c r="I424" s="2"/>
+      <c r="J424" s="2"/>
+      <c r="K424" s="2"/>
+      <c r="L424" s="2"/>
+      <c r="M424" s="2" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A427" s="8" t="s">
+    <row r="425" ht="18.75" customHeight="1">
+      <c r="A425" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="B427" s="7"/>
-      <c r="M427" t="s">
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="2"/>
+      <c r="H425" s="2"/>
+      <c r="I425" s="2"/>
+      <c r="J425" s="2"/>
+      <c r="K425" s="2"/>
+      <c r="L425" s="2"/>
+      <c r="M425" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="426" ht="18.75" customHeight="1">
+      <c r="A426" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A428" s="8" t="s">
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
+      <c r="H426" s="2"/>
+      <c r="I426" s="2"/>
+      <c r="J426" s="2"/>
+      <c r="K426" s="2"/>
+      <c r="L426" s="2"/>
+      <c r="M426" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="B428" s="7"/>
-      <c r="M428" t="s">
+    </row>
+    <row r="427" ht="18.75" customHeight="1"/>
+    <row r="428" ht="18.75" customHeight="1"/>
+    <row r="429" ht="18.75" customHeight="1">
+      <c r="A429" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A429" s="8" t="s">
+      <c r="M429" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B429" s="7"/>
-      <c r="M429" t="s">
+    </row>
+    <row r="430" ht="18.75" customHeight="1">
+      <c r="A430" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A430" t="s">
+      <c r="B430" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B430" s="7"/>
-      <c r="M430" t="s">
+      <c r="M430" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A431" t="s">
+    <row r="431" ht="18.75" customHeight="1">
+      <c r="A431" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="B431" s="7"/>
-      <c r="M431" t="s">
+      <c r="B431" s="4"/>
+      <c r="M431" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A432" t="s">
+    <row r="432" ht="18.75" customHeight="1">
+      <c r="A432" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="4"/>
+      <c r="M432" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="M432" t="s">
+    </row>
+    <row r="433" ht="18.75" customHeight="1">
+      <c r="A433" s="7" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A433" t="s">
+      <c r="B433" s="4"/>
+      <c r="M433" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B433" s="7"/>
-      <c r="M433" t="s">
+    </row>
+    <row r="434" ht="18.75" customHeight="1">
+      <c r="A434" s="7" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A434" t="s">
+      <c r="B434" s="4"/>
+      <c r="M434" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B434" s="7"/>
-      <c r="M434" t="s">
+    </row>
+    <row r="435" ht="18.75" customHeight="1">
+      <c r="A435" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A435" t="s">
+      <c r="B435" s="4"/>
+      <c r="M435" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B435" s="7"/>
-      <c r="M435" t="s">
+    </row>
+    <row r="436" ht="18.75" customHeight="1">
+      <c r="A436" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A436" t="s">
+      <c r="B436" s="4"/>
+      <c r="M436" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B436" s="7"/>
-      <c r="M436" t="s">
+    </row>
+    <row r="437" ht="18.75" customHeight="1">
+      <c r="A437" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A437" t="s">
+      <c r="B437" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B437" s="7"/>
-      <c r="M437" t="s">
+      <c r="M437" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A438" t="s">
+    <row r="438" ht="18.75" customHeight="1">
+      <c r="A438" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B438" s="7"/>
-      <c r="M438" t="s">
+      <c r="B438" s="4"/>
+      <c r="M438" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="439" ht="18.75" customHeight="1">
       <c r="A439" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="4"/>
+      <c r="M439" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="M439" s="7" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A440" t="s">
+    </row>
+    <row r="440" ht="18.75" customHeight="1">
+      <c r="A440" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="4"/>
+      <c r="M440" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="M440" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A441" t="s">
+    </row>
+    <row r="441" ht="18.75" customHeight="1">
+      <c r="A441" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="4"/>
+      <c r="M441" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="M441" t="s">
+    </row>
+    <row r="442" ht="18.75" customHeight="1">
+      <c r="A442" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A442" t="s">
+      <c r="B442" s="4"/>
+      <c r="M442" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B442" s="7"/>
-      <c r="M442" t="s">
+    </row>
+    <row r="443" ht="18.75" customHeight="1">
+      <c r="A443" s="1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A444" s="1" t="s">
+      <c r="B443" s="4"/>
+      <c r="M443" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B444" s="1"/>
-      <c r="C444" s="1"/>
-      <c r="D444" s="1"/>
-      <c r="E444" s="1"/>
-      <c r="F444" s="1"/>
-      <c r="G444" s="1"/>
-      <c r="H444" s="1"/>
-      <c r="I444" s="1"/>
-      <c r="J444" s="1"/>
-      <c r="K444" s="1"/>
-      <c r="L444" s="1"/>
-      <c r="M444" s="1" t="s">
+    </row>
+    <row r="444" ht="18.75" customHeight="1">
+      <c r="A444" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A445" t="s">
+      <c r="B444" s="4" t="s">
         <v>803</v>
       </c>
+      <c r="M444" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="445" ht="18.75" customHeight="1">
+      <c r="A445" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>805</v>
+      </c>
       <c r="M445" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="446" ht="18.75" customHeight="1">
+      <c r="A446" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="M446" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="447" ht="18.75" customHeight="1">
+      <c r="A447" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B447" s="4"/>
+      <c r="M447" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="448" ht="18.75" customHeight="1"/>
+    <row r="449" ht="18.75" customHeight="1">
+      <c r="A449" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B449" s="2"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
+      <c r="H449" s="2"/>
+      <c r="I449" s="2"/>
+      <c r="J449" s="2"/>
+      <c r="K449" s="2"/>
+      <c r="L449" s="2"/>
+      <c r="M449" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="450" ht="18.75" customHeight="1">
+      <c r="A450" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="M450" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="451" ht="18.75" customHeight="1"/>
+    <row r="452" ht="18.75" customHeight="1"/>
+    <row r="453" ht="18.75" customHeight="1"/>
+    <row r="454" ht="18.75" customHeight="1"/>
+    <row r="455" ht="18.75" customHeight="1"/>
+    <row r="456" ht="18.75" customHeight="1"/>
+    <row r="457" ht="18.75" customHeight="1"/>
+    <row r="458" ht="18.75" customHeight="1"/>
+    <row r="459" ht="18.75" customHeight="1"/>
+    <row r="460" ht="18.75" customHeight="1"/>
+    <row r="461" ht="18.75" customHeight="1"/>
+    <row r="462" ht="18.75" customHeight="1"/>
+    <row r="463" ht="18.75" customHeight="1"/>
+    <row r="464" ht="18.75" customHeight="1"/>
+    <row r="465" ht="18.75" customHeight="1"/>
+    <row r="466" ht="18.75" customHeight="1"/>
+    <row r="467" ht="18.75" customHeight="1"/>
+    <row r="468" ht="18.75" customHeight="1"/>
+    <row r="469" ht="18.75" customHeight="1"/>
+    <row r="470" ht="18.75" customHeight="1"/>
+    <row r="471" ht="18.75" customHeight="1"/>
+    <row r="472" ht="18.75" customHeight="1"/>
+    <row r="473" ht="18.75" customHeight="1"/>
+    <row r="474" ht="18.75" customHeight="1"/>
+    <row r="475" ht="18.75" customHeight="1"/>
+    <row r="476" ht="18.75" customHeight="1"/>
+    <row r="477" ht="18.75" customHeight="1"/>
+    <row r="478" ht="18.75" customHeight="1"/>
+    <row r="479" ht="18.75" customHeight="1"/>
+    <row r="480" ht="18.75" customHeight="1"/>
+    <row r="481" ht="18.75" customHeight="1"/>
+    <row r="482" ht="18.75" customHeight="1"/>
+    <row r="483" ht="18.75" customHeight="1"/>
+    <row r="484" ht="18.75" customHeight="1"/>
+    <row r="485" ht="18.75" customHeight="1"/>
+    <row r="486" ht="18.75" customHeight="1"/>
+    <row r="487" ht="18.75" customHeight="1"/>
+    <row r="488" ht="18.75" customHeight="1"/>
+    <row r="489" ht="18.75" customHeight="1"/>
+    <row r="490" ht="18.75" customHeight="1"/>
+    <row r="491" ht="18.75" customHeight="1"/>
+    <row r="492" ht="18.75" customHeight="1"/>
+    <row r="493" ht="18.75" customHeight="1"/>
+    <row r="494" ht="18.75" customHeight="1"/>
+    <row r="495" ht="18.75" customHeight="1"/>
+    <row r="496" ht="18.75" customHeight="1"/>
+    <row r="497" ht="18.75" customHeight="1"/>
+    <row r="498" ht="18.75" customHeight="1"/>
+    <row r="499" ht="18.75" customHeight="1"/>
+    <row r="500" ht="18.75" customHeight="1"/>
+    <row r="501" ht="18.75" customHeight="1"/>
+    <row r="502" ht="18.75" customHeight="1"/>
+    <row r="503" ht="18.75" customHeight="1"/>
+    <row r="504" ht="18.75" customHeight="1"/>
+    <row r="505" ht="18.75" customHeight="1"/>
+    <row r="506" ht="18.75" customHeight="1"/>
+    <row r="507" ht="18.75" customHeight="1"/>
+    <row r="508" ht="18.75" customHeight="1"/>
+    <row r="509" ht="18.75" customHeight="1"/>
+    <row r="510" ht="18.75" customHeight="1"/>
+    <row r="511" ht="18.75" customHeight="1"/>
+    <row r="512" ht="18.75" customHeight="1"/>
+    <row r="513" ht="18.75" customHeight="1"/>
+    <row r="514" ht="18.75" customHeight="1"/>
+    <row r="515" ht="18.75" customHeight="1"/>
+    <row r="516" ht="18.75" customHeight="1"/>
+    <row r="517" ht="18.75" customHeight="1"/>
+    <row r="518" ht="18.75" customHeight="1"/>
+    <row r="519" ht="18.75" customHeight="1"/>
+    <row r="520" ht="18.75" customHeight="1"/>
+    <row r="521" ht="18.75" customHeight="1"/>
+    <row r="522" ht="18.75" customHeight="1"/>
+    <row r="523" ht="18.75" customHeight="1"/>
+    <row r="524" ht="18.75" customHeight="1"/>
+    <row r="525" ht="18.75" customHeight="1"/>
+    <row r="526" ht="18.75" customHeight="1"/>
+    <row r="527" ht="18.75" customHeight="1"/>
+    <row r="528" ht="18.75" customHeight="1"/>
+    <row r="529" ht="18.75" customHeight="1"/>
+    <row r="530" ht="18.75" customHeight="1"/>
+    <row r="531" ht="18.75" customHeight="1"/>
+    <row r="532" ht="18.75" customHeight="1"/>
+    <row r="533" ht="18.75" customHeight="1"/>
+    <row r="534" ht="18.75" customHeight="1"/>
+    <row r="535" ht="18.75" customHeight="1"/>
+    <row r="536" ht="18.75" customHeight="1"/>
+    <row r="537" ht="18.75" customHeight="1"/>
+    <row r="538" ht="18.75" customHeight="1"/>
+    <row r="539" ht="18.75" customHeight="1"/>
+    <row r="540" ht="18.75" customHeight="1"/>
+    <row r="541" ht="18.75" customHeight="1"/>
+    <row r="542" ht="18.75" customHeight="1"/>
+    <row r="543" ht="18.75" customHeight="1"/>
+    <row r="544" ht="18.75" customHeight="1"/>
+    <row r="545" ht="18.75" customHeight="1"/>
+    <row r="546" ht="18.75" customHeight="1"/>
+    <row r="547" ht="18.75" customHeight="1"/>
+    <row r="548" ht="18.75" customHeight="1"/>
+    <row r="549" ht="18.75" customHeight="1"/>
+    <row r="550" ht="18.75" customHeight="1"/>
+    <row r="551" ht="18.75" customHeight="1"/>
+    <row r="552" ht="18.75" customHeight="1"/>
+    <row r="553" ht="18.75" customHeight="1"/>
+    <row r="554" ht="18.75" customHeight="1"/>
+    <row r="555" ht="18.75" customHeight="1"/>
+    <row r="556" ht="18.75" customHeight="1"/>
+    <row r="557" ht="18.75" customHeight="1"/>
+    <row r="558" ht="18.75" customHeight="1"/>
+    <row r="559" ht="18.75" customHeight="1"/>
+    <row r="560" ht="18.75" customHeight="1"/>
+    <row r="561" ht="18.75" customHeight="1"/>
+    <row r="562" ht="18.75" customHeight="1"/>
+    <row r="563" ht="18.75" customHeight="1"/>
+    <row r="564" ht="18.75" customHeight="1"/>
+    <row r="565" ht="18.75" customHeight="1"/>
+    <row r="566" ht="18.75" customHeight="1"/>
+    <row r="567" ht="18.75" customHeight="1"/>
+    <row r="568" ht="18.75" customHeight="1"/>
+    <row r="569" ht="18.75" customHeight="1"/>
+    <row r="570" ht="18.75" customHeight="1"/>
+    <row r="571" ht="18.75" customHeight="1"/>
+    <row r="572" ht="18.75" customHeight="1"/>
+    <row r="573" ht="18.75" customHeight="1"/>
+    <row r="574" ht="18.75" customHeight="1"/>
+    <row r="575" ht="18.75" customHeight="1"/>
+    <row r="576" ht="18.75" customHeight="1"/>
+    <row r="577" ht="18.75" customHeight="1"/>
+    <row r="578" ht="18.75" customHeight="1"/>
+    <row r="579" ht="18.75" customHeight="1"/>
+    <row r="580" ht="18.75" customHeight="1"/>
+    <row r="581" ht="18.75" customHeight="1"/>
+    <row r="582" ht="18.75" customHeight="1"/>
+    <row r="583" ht="18.75" customHeight="1"/>
+    <row r="584" ht="18.75" customHeight="1"/>
+    <row r="585" ht="18.75" customHeight="1"/>
+    <row r="586" ht="18.75" customHeight="1"/>
+    <row r="587" ht="18.75" customHeight="1"/>
+    <row r="588" ht="18.75" customHeight="1"/>
+    <row r="589" ht="18.75" customHeight="1"/>
+    <row r="590" ht="18.75" customHeight="1"/>
+    <row r="591" ht="18.75" customHeight="1"/>
+    <row r="592" ht="18.75" customHeight="1"/>
+    <row r="593" ht="18.75" customHeight="1"/>
+    <row r="594" ht="18.75" customHeight="1"/>
+    <row r="595" ht="18.75" customHeight="1"/>
+    <row r="596" ht="18.75" customHeight="1"/>
+    <row r="597" ht="18.75" customHeight="1"/>
+    <row r="598" ht="18.75" customHeight="1"/>
+    <row r="599" ht="18.75" customHeight="1"/>
+    <row r="600" ht="18.75" customHeight="1"/>
+    <row r="601" ht="18.75" customHeight="1"/>
+    <row r="602" ht="18.75" customHeight="1"/>
+    <row r="603" ht="18.75" customHeight="1"/>
+    <row r="604" ht="18.75" customHeight="1"/>
+    <row r="605" ht="18.75" customHeight="1"/>
+    <row r="606" ht="18.75" customHeight="1"/>
+    <row r="607" ht="18.75" customHeight="1"/>
+    <row r="608" ht="18.75" customHeight="1"/>
+    <row r="609" ht="18.75" customHeight="1"/>
+    <row r="610" ht="18.75" customHeight="1"/>
+    <row r="611" ht="18.75" customHeight="1"/>
+    <row r="612" ht="18.75" customHeight="1"/>
+    <row r="613" ht="18.75" customHeight="1"/>
+    <row r="614" ht="18.75" customHeight="1"/>
+    <row r="615" ht="18.75" customHeight="1"/>
+    <row r="616" ht="18.75" customHeight="1"/>
+    <row r="617" ht="18.75" customHeight="1"/>
+    <row r="618" ht="18.75" customHeight="1"/>
+    <row r="619" ht="18.75" customHeight="1"/>
+    <row r="620" ht="18.75" customHeight="1"/>
+    <row r="621" ht="18.75" customHeight="1"/>
+    <row r="622" ht="18.75" customHeight="1"/>
+    <row r="623" ht="18.75" customHeight="1"/>
+    <row r="624" ht="18.75" customHeight="1"/>
+    <row r="625" ht="18.75" customHeight="1"/>
+    <row r="626" ht="18.75" customHeight="1"/>
+    <row r="627" ht="18.75" customHeight="1"/>
+    <row r="628" ht="18.75" customHeight="1"/>
+    <row r="629" ht="18.75" customHeight="1"/>
+    <row r="630" ht="18.75" customHeight="1"/>
+    <row r="631" ht="18.75" customHeight="1"/>
+    <row r="632" ht="18.75" customHeight="1"/>
+    <row r="633" ht="18.75" customHeight="1"/>
+    <row r="634" ht="18.75" customHeight="1"/>
+    <row r="635" ht="18.75" customHeight="1"/>
+    <row r="636" ht="18.75" customHeight="1"/>
+    <row r="637" ht="18.75" customHeight="1"/>
+    <row r="638" ht="18.75" customHeight="1"/>
+    <row r="639" ht="18.75" customHeight="1"/>
+    <row r="640" ht="18.75" customHeight="1"/>
+    <row r="641" ht="18.75" customHeight="1"/>
+    <row r="642" ht="18.75" customHeight="1"/>
+    <row r="643" ht="18.75" customHeight="1"/>
+    <row r="644" ht="18.75" customHeight="1"/>
+    <row r="645" ht="18.75" customHeight="1"/>
+    <row r="646" ht="18.75" customHeight="1"/>
+    <row r="647" ht="18.75" customHeight="1"/>
+    <row r="648" ht="18.75" customHeight="1"/>
+    <row r="649" ht="18.75" customHeight="1"/>
+    <row r="650" ht="18.75" customHeight="1"/>
+    <row r="651" ht="18.75" customHeight="1"/>
+    <row r="652" ht="18.75" customHeight="1"/>
+    <row r="653" ht="18.75" customHeight="1"/>
+    <row r="654" ht="18.75" customHeight="1"/>
+    <row r="655" ht="18.75" customHeight="1"/>
+    <row r="656" ht="18.75" customHeight="1"/>
+    <row r="657" ht="18.75" customHeight="1"/>
+    <row r="658" ht="18.75" customHeight="1"/>
+    <row r="659" ht="18.75" customHeight="1"/>
+    <row r="660" ht="18.75" customHeight="1"/>
+    <row r="661" ht="18.75" customHeight="1"/>
+    <row r="662" ht="18.75" customHeight="1"/>
+    <row r="663" ht="18.75" customHeight="1"/>
+    <row r="664" ht="18.75" customHeight="1"/>
+    <row r="665" ht="18.75" customHeight="1"/>
+    <row r="666" ht="18.75" customHeight="1"/>
+    <row r="667" ht="18.75" customHeight="1"/>
+    <row r="668" ht="18.75" customHeight="1"/>
+    <row r="669" ht="18.75" customHeight="1"/>
+    <row r="670" ht="18.75" customHeight="1"/>
+    <row r="671" ht="18.75" customHeight="1"/>
+    <row r="672" ht="18.75" customHeight="1"/>
+    <row r="673" ht="18.75" customHeight="1"/>
+    <row r="674" ht="18.75" customHeight="1"/>
+    <row r="675" ht="18.75" customHeight="1"/>
+    <row r="676" ht="18.75" customHeight="1"/>
+    <row r="677" ht="18.75" customHeight="1"/>
+    <row r="678" ht="18.75" customHeight="1"/>
+    <row r="679" ht="18.75" customHeight="1"/>
+    <row r="680" ht="18.75" customHeight="1"/>
+    <row r="681" ht="18.75" customHeight="1"/>
+    <row r="682" ht="18.75" customHeight="1"/>
+    <row r="683" ht="18.75" customHeight="1"/>
+    <row r="684" ht="18.75" customHeight="1"/>
+    <row r="685" ht="18.75" customHeight="1"/>
+    <row r="686" ht="18.75" customHeight="1"/>
+    <row r="687" ht="18.75" customHeight="1"/>
+    <row r="688" ht="18.75" customHeight="1"/>
+    <row r="689" ht="18.75" customHeight="1"/>
+    <row r="690" ht="18.75" customHeight="1"/>
+    <row r="691" ht="18.75" customHeight="1"/>
+    <row r="692" ht="18.75" customHeight="1"/>
+    <row r="693" ht="18.75" customHeight="1"/>
+    <row r="694" ht="18.75" customHeight="1"/>
+    <row r="695" ht="18.75" customHeight="1"/>
+    <row r="696" ht="18.75" customHeight="1"/>
+    <row r="697" ht="18.75" customHeight="1"/>
+    <row r="698" ht="18.75" customHeight="1"/>
+    <row r="699" ht="18.75" customHeight="1"/>
+    <row r="700" ht="18.75" customHeight="1"/>
+    <row r="701" ht="18.75" customHeight="1"/>
+    <row r="702" ht="18.75" customHeight="1"/>
+    <row r="703" ht="18.75" customHeight="1"/>
+    <row r="704" ht="18.75" customHeight="1"/>
+    <row r="705" ht="18.75" customHeight="1"/>
+    <row r="706" ht="18.75" customHeight="1"/>
+    <row r="707" ht="18.75" customHeight="1"/>
+    <row r="708" ht="18.75" customHeight="1"/>
+    <row r="709" ht="18.75" customHeight="1"/>
+    <row r="710" ht="18.75" customHeight="1"/>
+    <row r="711" ht="18.75" customHeight="1"/>
+    <row r="712" ht="18.75" customHeight="1"/>
+    <row r="713" ht="18.75" customHeight="1"/>
+    <row r="714" ht="18.75" customHeight="1"/>
+    <row r="715" ht="18.75" customHeight="1"/>
+    <row r="716" ht="18.75" customHeight="1"/>
+    <row r="717" ht="18.75" customHeight="1"/>
+    <row r="718" ht="18.75" customHeight="1"/>
+    <row r="719" ht="18.75" customHeight="1"/>
+    <row r="720" ht="18.75" customHeight="1"/>
+    <row r="721" ht="18.75" customHeight="1"/>
+    <row r="722" ht="18.75" customHeight="1"/>
+    <row r="723" ht="18.75" customHeight="1"/>
+    <row r="724" ht="18.75" customHeight="1"/>
+    <row r="725" ht="18.75" customHeight="1"/>
+    <row r="726" ht="18.75" customHeight="1"/>
+    <row r="727" ht="18.75" customHeight="1"/>
+    <row r="728" ht="18.75" customHeight="1"/>
+    <row r="729" ht="18.75" customHeight="1"/>
+    <row r="730" ht="18.75" customHeight="1"/>
+    <row r="731" ht="18.75" customHeight="1"/>
+    <row r="732" ht="18.75" customHeight="1"/>
+    <row r="733" ht="18.75" customHeight="1"/>
+    <row r="734" ht="18.75" customHeight="1"/>
+    <row r="735" ht="18.75" customHeight="1"/>
+    <row r="736" ht="18.75" customHeight="1"/>
+    <row r="737" ht="18.75" customHeight="1"/>
+    <row r="738" ht="18.75" customHeight="1"/>
+    <row r="739" ht="18.75" customHeight="1"/>
+    <row r="740" ht="18.75" customHeight="1"/>
+    <row r="741" ht="18.75" customHeight="1"/>
+    <row r="742" ht="18.75" customHeight="1"/>
+    <row r="743" ht="18.75" customHeight="1"/>
+    <row r="744" ht="18.75" customHeight="1"/>
+    <row r="745" ht="18.75" customHeight="1"/>
+    <row r="746" ht="18.75" customHeight="1"/>
+    <row r="747" ht="18.75" customHeight="1"/>
+    <row r="748" ht="18.75" customHeight="1"/>
+    <row r="749" ht="18.75" customHeight="1"/>
+    <row r="750" ht="18.75" customHeight="1"/>
+    <row r="751" ht="18.75" customHeight="1"/>
+    <row r="752" ht="18.75" customHeight="1"/>
+    <row r="753" ht="18.75" customHeight="1"/>
+    <row r="754" ht="18.75" customHeight="1"/>
+    <row r="755" ht="18.75" customHeight="1"/>
+    <row r="756" ht="18.75" customHeight="1"/>
+    <row r="757" ht="18.75" customHeight="1"/>
+    <row r="758" ht="18.75" customHeight="1"/>
+    <row r="759" ht="18.75" customHeight="1"/>
+    <row r="760" ht="18.75" customHeight="1"/>
+    <row r="761" ht="18.75" customHeight="1"/>
+    <row r="762" ht="18.75" customHeight="1"/>
+    <row r="763" ht="18.75" customHeight="1"/>
+    <row r="764" ht="18.75" customHeight="1"/>
+    <row r="765" ht="18.75" customHeight="1"/>
+    <row r="766" ht="18.75" customHeight="1"/>
+    <row r="767" ht="18.75" customHeight="1"/>
+    <row r="768" ht="18.75" customHeight="1"/>
+    <row r="769" ht="18.75" customHeight="1"/>
+    <row r="770" ht="18.75" customHeight="1"/>
+    <row r="771" ht="18.75" customHeight="1"/>
+    <row r="772" ht="18.75" customHeight="1"/>
+    <row r="773" ht="18.75" customHeight="1"/>
+    <row r="774" ht="18.75" customHeight="1"/>
+    <row r="775" ht="18.75" customHeight="1"/>
+    <row r="776" ht="18.75" customHeight="1"/>
+    <row r="777" ht="18.75" customHeight="1"/>
+    <row r="778" ht="18.75" customHeight="1"/>
+    <row r="779" ht="18.75" customHeight="1"/>
+    <row r="780" ht="18.75" customHeight="1"/>
+    <row r="781" ht="18.75" customHeight="1"/>
+    <row r="782" ht="18.75" customHeight="1"/>
+    <row r="783" ht="18.75" customHeight="1"/>
+    <row r="784" ht="18.75" customHeight="1"/>
+    <row r="785" ht="18.75" customHeight="1"/>
+    <row r="786" ht="18.75" customHeight="1"/>
+    <row r="787" ht="18.75" customHeight="1"/>
+    <row r="788" ht="18.75" customHeight="1"/>
+    <row r="789" ht="18.75" customHeight="1"/>
+    <row r="790" ht="18.75" customHeight="1"/>
+    <row r="791" ht="18.75" customHeight="1"/>
+    <row r="792" ht="18.75" customHeight="1"/>
+    <row r="793" ht="18.75" customHeight="1"/>
+    <row r="794" ht="18.75" customHeight="1"/>
+    <row r="795" ht="18.75" customHeight="1"/>
+    <row r="796" ht="18.75" customHeight="1"/>
+    <row r="797" ht="18.75" customHeight="1"/>
+    <row r="798" ht="18.75" customHeight="1"/>
+    <row r="799" ht="18.75" customHeight="1"/>
+    <row r="800" ht="18.75" customHeight="1"/>
+    <row r="801" ht="18.75" customHeight="1"/>
+    <row r="802" ht="18.75" customHeight="1"/>
+    <row r="803" ht="18.75" customHeight="1"/>
+    <row r="804" ht="18.75" customHeight="1"/>
+    <row r="805" ht="18.75" customHeight="1"/>
+    <row r="806" ht="18.75" customHeight="1"/>
+    <row r="807" ht="18.75" customHeight="1"/>
+    <row r="808" ht="18.75" customHeight="1"/>
+    <row r="809" ht="18.75" customHeight="1"/>
+    <row r="810" ht="18.75" customHeight="1"/>
+    <row r="811" ht="18.75" customHeight="1"/>
+    <row r="812" ht="18.75" customHeight="1"/>
+    <row r="813" ht="18.75" customHeight="1"/>
+    <row r="814" ht="18.75" customHeight="1"/>
+    <row r="815" ht="18.75" customHeight="1"/>
+    <row r="816" ht="18.75" customHeight="1"/>
+    <row r="817" ht="18.75" customHeight="1"/>
+    <row r="818" ht="18.75" customHeight="1"/>
+    <row r="819" ht="18.75" customHeight="1"/>
+    <row r="820" ht="18.75" customHeight="1"/>
+    <row r="821" ht="18.75" customHeight="1"/>
+    <row r="822" ht="18.75" customHeight="1"/>
+    <row r="823" ht="18.75" customHeight="1"/>
+    <row r="824" ht="18.75" customHeight="1"/>
+    <row r="825" ht="18.75" customHeight="1"/>
+    <row r="826" ht="18.75" customHeight="1"/>
+    <row r="827" ht="18.75" customHeight="1"/>
+    <row r="828" ht="18.75" customHeight="1"/>
+    <row r="829" ht="18.75" customHeight="1"/>
+    <row r="830" ht="18.75" customHeight="1"/>
+    <row r="831" ht="18.75" customHeight="1"/>
+    <row r="832" ht="18.75" customHeight="1"/>
+    <row r="833" ht="18.75" customHeight="1"/>
+    <row r="834" ht="18.75" customHeight="1"/>
+    <row r="835" ht="18.75" customHeight="1"/>
+    <row r="836" ht="18.75" customHeight="1"/>
+    <row r="837" ht="18.75" customHeight="1"/>
+    <row r="838" ht="18.75" customHeight="1"/>
+    <row r="839" ht="18.75" customHeight="1"/>
+    <row r="840" ht="18.75" customHeight="1"/>
+    <row r="841" ht="18.75" customHeight="1"/>
+    <row r="842" ht="18.75" customHeight="1"/>
+    <row r="843" ht="18.75" customHeight="1"/>
+    <row r="844" ht="18.75" customHeight="1"/>
+    <row r="845" ht="18.75" customHeight="1"/>
+    <row r="846" ht="18.75" customHeight="1"/>
+    <row r="847" ht="18.75" customHeight="1"/>
+    <row r="848" ht="18.75" customHeight="1"/>
+    <row r="849" ht="18.75" customHeight="1"/>
+    <row r="850" ht="18.75" customHeight="1"/>
+    <row r="851" ht="18.75" customHeight="1"/>
+    <row r="852" ht="18.75" customHeight="1"/>
+    <row r="853" ht="18.75" customHeight="1"/>
+    <row r="854" ht="18.75" customHeight="1"/>
+    <row r="855" ht="18.75" customHeight="1"/>
+    <row r="856" ht="18.75" customHeight="1"/>
+    <row r="857" ht="18.75" customHeight="1"/>
+    <row r="858" ht="18.75" customHeight="1"/>
+    <row r="859" ht="18.75" customHeight="1"/>
+    <row r="860" ht="18.75" customHeight="1"/>
+    <row r="861" ht="18.75" customHeight="1"/>
+    <row r="862" ht="18.75" customHeight="1"/>
+    <row r="863" ht="18.75" customHeight="1"/>
+    <row r="864" ht="18.75" customHeight="1"/>
+    <row r="865" ht="18.75" customHeight="1"/>
+    <row r="866" ht="18.75" customHeight="1"/>
+    <row r="867" ht="18.75" customHeight="1"/>
+    <row r="868" ht="18.75" customHeight="1"/>
+    <row r="869" ht="18.75" customHeight="1"/>
+    <row r="870" ht="18.75" customHeight="1"/>
+    <row r="871" ht="18.75" customHeight="1"/>
+    <row r="872" ht="18.75" customHeight="1"/>
+    <row r="873" ht="18.75" customHeight="1"/>
+    <row r="874" ht="18.75" customHeight="1"/>
+    <row r="875" ht="18.75" customHeight="1"/>
+    <row r="876" ht="18.75" customHeight="1"/>
+    <row r="877" ht="18.75" customHeight="1"/>
+    <row r="878" ht="18.75" customHeight="1"/>
+    <row r="879" ht="18.75" customHeight="1"/>
+    <row r="880" ht="18.75" customHeight="1"/>
+    <row r="881" ht="18.75" customHeight="1"/>
+    <row r="882" ht="18.75" customHeight="1"/>
+    <row r="883" ht="18.75" customHeight="1"/>
+    <row r="884" ht="18.75" customHeight="1"/>
+    <row r="885" ht="18.75" customHeight="1"/>
+    <row r="886" ht="18.75" customHeight="1"/>
+    <row r="887" ht="18.75" customHeight="1"/>
+    <row r="888" ht="18.75" customHeight="1"/>
+    <row r="889" ht="18.75" customHeight="1"/>
+    <row r="890" ht="18.75" customHeight="1"/>
+    <row r="891" ht="18.75" customHeight="1"/>
+    <row r="892" ht="18.75" customHeight="1"/>
+    <row r="893" ht="18.75" customHeight="1"/>
+    <row r="894" ht="18.75" customHeight="1"/>
+    <row r="895" ht="18.75" customHeight="1"/>
+    <row r="896" ht="18.75" customHeight="1"/>
+    <row r="897" ht="18.75" customHeight="1"/>
+    <row r="898" ht="18.75" customHeight="1"/>
+    <row r="899" ht="18.75" customHeight="1"/>
+    <row r="900" ht="18.75" customHeight="1"/>
+    <row r="901" ht="18.75" customHeight="1"/>
+    <row r="902" ht="18.75" customHeight="1"/>
+    <row r="903" ht="18.75" customHeight="1"/>
+    <row r="904" ht="18.75" customHeight="1"/>
+    <row r="905" ht="18.75" customHeight="1"/>
+    <row r="906" ht="18.75" customHeight="1"/>
+    <row r="907" ht="18.75" customHeight="1"/>
+    <row r="908" ht="18.75" customHeight="1"/>
+    <row r="909" ht="18.75" customHeight="1"/>
+    <row r="910" ht="18.75" customHeight="1"/>
+    <row r="911" ht="18.75" customHeight="1"/>
+    <row r="912" ht="18.75" customHeight="1"/>
+    <row r="913" ht="18.75" customHeight="1"/>
+    <row r="914" ht="18.75" customHeight="1"/>
+    <row r="915" ht="18.75" customHeight="1"/>
+    <row r="916" ht="18.75" customHeight="1"/>
+    <row r="917" ht="18.75" customHeight="1"/>
+    <row r="918" ht="18.75" customHeight="1"/>
+    <row r="919" ht="18.75" customHeight="1"/>
+    <row r="920" ht="18.75" customHeight="1"/>
+    <row r="921" ht="18.75" customHeight="1"/>
+    <row r="922" ht="18.75" customHeight="1"/>
+    <row r="923" ht="18.75" customHeight="1"/>
+    <row r="924" ht="18.75" customHeight="1"/>
+    <row r="925" ht="18.75" customHeight="1"/>
+    <row r="926" ht="18.75" customHeight="1"/>
+    <row r="927" ht="18.75" customHeight="1"/>
+    <row r="928" ht="18.75" customHeight="1"/>
+    <row r="929" ht="18.75" customHeight="1"/>
+    <row r="930" ht="18.75" customHeight="1"/>
+    <row r="931" ht="18.75" customHeight="1"/>
+    <row r="932" ht="18.75" customHeight="1"/>
+    <row r="933" ht="18.75" customHeight="1"/>
+    <row r="934" ht="18.75" customHeight="1"/>
+    <row r="935" ht="18.75" customHeight="1"/>
+    <row r="936" ht="18.75" customHeight="1"/>
+    <row r="937" ht="18.75" customHeight="1"/>
+    <row r="938" ht="18.75" customHeight="1"/>
+    <row r="939" ht="18.75" customHeight="1"/>
+    <row r="940" ht="18.75" customHeight="1"/>
+    <row r="941" ht="18.75" customHeight="1"/>
+    <row r="942" ht="18.75" customHeight="1"/>
+    <row r="943" ht="18.75" customHeight="1"/>
+    <row r="944" ht="18.75" customHeight="1"/>
+    <row r="945" ht="18.75" customHeight="1"/>
+    <row r="946" ht="18.75" customHeight="1"/>
+    <row r="947" ht="18.75" customHeight="1"/>
+    <row r="948" ht="18.75" customHeight="1"/>
+    <row r="949" ht="18.75" customHeight="1"/>
+    <row r="950" ht="18.75" customHeight="1"/>
+    <row r="951" ht="18.75" customHeight="1"/>
+    <row r="952" ht="18.75" customHeight="1"/>
+    <row r="953" ht="18.75" customHeight="1"/>
+    <row r="954" ht="18.75" customHeight="1"/>
+    <row r="955" ht="18.75" customHeight="1"/>
+    <row r="956" ht="18.75" customHeight="1"/>
+    <row r="957" ht="18.75" customHeight="1"/>
+    <row r="958" ht="18.75" customHeight="1"/>
+    <row r="959" ht="18.75" customHeight="1"/>
+    <row r="960" ht="18.75" customHeight="1"/>
+    <row r="961" ht="18.75" customHeight="1"/>
+    <row r="962" ht="18.75" customHeight="1"/>
+    <row r="963" ht="18.75" customHeight="1"/>
+    <row r="964" ht="18.75" customHeight="1"/>
+    <row r="965" ht="18.75" customHeight="1"/>
+    <row r="966" ht="18.75" customHeight="1"/>
+    <row r="967" ht="18.75" customHeight="1"/>
+    <row r="968" ht="18.75" customHeight="1"/>
+    <row r="969" ht="18.75" customHeight="1"/>
+    <row r="970" ht="18.75" customHeight="1"/>
+    <row r="971" ht="18.75" customHeight="1"/>
+    <row r="972" ht="18.75" customHeight="1"/>
+    <row r="973" ht="18.75" customHeight="1"/>
+    <row r="974" ht="18.75" customHeight="1"/>
+    <row r="975" ht="18.75" customHeight="1"/>
+    <row r="976" ht="18.75" customHeight="1"/>
+    <row r="977" ht="18.75" customHeight="1"/>
+    <row r="978" ht="18.75" customHeight="1"/>
+    <row r="979" ht="18.75" customHeight="1"/>
+    <row r="980" ht="18.75" customHeight="1"/>
+    <row r="981" ht="18.75" customHeight="1"/>
+    <row r="982" ht="18.75" customHeight="1"/>
+    <row r="983" ht="18.75" customHeight="1"/>
+    <row r="984" ht="18.75" customHeight="1"/>
+    <row r="985" ht="18.75" customHeight="1"/>
+    <row r="986" ht="18.75" customHeight="1"/>
+    <row r="987" ht="18.75" customHeight="1"/>
+    <row r="988" ht="18.75" customHeight="1"/>
+    <row r="989" ht="18.75" customHeight="1"/>
+    <row r="990" ht="18.75" customHeight="1"/>
+    <row r="991" ht="18.75" customHeight="1"/>
+    <row r="992" ht="18.75" customHeight="1"/>
+    <row r="993" ht="18.75" customHeight="1"/>
+    <row r="994" ht="18.75" customHeight="1"/>
+    <row r="995" ht="18.75" customHeight="1"/>
+    <row r="996" ht="18.75" customHeight="1"/>
+    <row r="997" ht="18.75" customHeight="1"/>
+    <row r="998" ht="18.75" customHeight="1"/>
+    <row r="999" ht="18.75" customHeight="1"/>
+    <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="1001" ht="18.75" customHeight="1"/>
+    <row r="1002" ht="18.75" customHeight="1"/>
+    <row r="1003" ht="18.75" customHeight="1"/>
+    <row r="1004" ht="18.75" customHeight="1"/>
+    <row r="1005" ht="18.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeHat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385D688-7FF2-4F01-8C90-EB88F3E2CC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hat" sheetId="1" r:id="rId4"/>
+    <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjiEzO0kgBcV5Pv4twY3RTevOEu0w=="/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="805">
   <si>
     <t>English</t>
   </si>
@@ -1254,36 +1274,6 @@
     <t>えび</t>
   </si>
   <si>
-    <t>ikura</t>
-  </si>
-  <si>
-    <t>いくら</t>
-  </si>
-  <si>
-    <t>uni</t>
-  </si>
-  <si>
-    <t>うに</t>
-  </si>
-  <si>
-    <t>bomuTou</t>
-  </si>
-  <si>
-    <t>ボム頭</t>
-  </si>
-  <si>
-    <t>hatsutanoboushi</t>
-  </si>
-  <si>
-    <t>ハッターのぼうし</t>
-  </si>
-  <si>
-    <t>hatsutanoshinboru</t>
-  </si>
-  <si>
-    <t>ハッターのシンボル</t>
-  </si>
-  <si>
     <t>itow</t>
   </si>
   <si>
@@ -1465,12 +1455,6 @@
   </si>
   <si>
     <t>iVa</t>
-  </si>
-  <si>
-    <t>king of the world</t>
-  </si>
-  <si>
-    <t>世界の王</t>
   </si>
   <si>
     <t>oyakimon</t>
@@ -1916,25 +1900,31 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>7の帽子 (</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>髪付き</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2351,6 +2341,12 @@
     <t>魔女</t>
   </si>
   <si>
+    <t>king of the world</t>
+  </si>
+  <si>
+    <t>世界の王</t>
+  </si>
+  <si>
     <t>Seono</t>
   </si>
   <si>
@@ -2478,9 +2474,14 @@
   </si>
   <si>
     <t>すこれもん作</t>
+    <rPh sb="5" eb="6">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>6Dice</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>６面ダイス</t>
@@ -2489,33 +2490,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2523,59 +2544,71 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -2599,19 +2632,113 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2752,2330 +2879,2327 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q445"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M445" sqref="M445"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.86"/>
-    <col customWidth="1" min="2" max="2" width="16.14"/>
-    <col customWidth="1" min="3" max="3" width="3.43"/>
-    <col customWidth="1" min="4" max="12" width="3.71"/>
-    <col customWidth="1" min="13" max="13" width="38.86"/>
-    <col customWidth="1" min="14" max="26" width="8.57"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="12" width="3.75" customWidth="1"/>
+    <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1"/>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>63</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1"/>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>83</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>85</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>87</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>93</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>95</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>97</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>99</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>101</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>103</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" ht="18.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>105</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" ht="18.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>107</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>109</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>111</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" ht="18.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>113</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" ht="18.75" customHeight="1">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>115</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" ht="18.75" customHeight="1">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>117</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" ht="18.75" customHeight="1">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>119</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" ht="18.75" customHeight="1">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>121</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" ht="18.75" customHeight="1">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>122</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" ht="18.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>124</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" ht="18.75" customHeight="1">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>126</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" ht="18.75" customHeight="1">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>128</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" ht="18.75" customHeight="1">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>130</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" ht="18.75" customHeight="1">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>132</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" ht="18.75" customHeight="1">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
         <v>134</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" ht="18.75" customHeight="1">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
         <v>136</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" ht="18.75" customHeight="1">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>137</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78" ht="18.75" customHeight="1">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>139</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" ht="18.75" customHeight="1">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>141</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M79" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" ht="18.75" customHeight="1">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>143</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M80" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" ht="18.75" customHeight="1">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>145</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M81" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" ht="18.75" customHeight="1">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>147</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="M82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" ht="18.75" customHeight="1">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
         <v>148</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M83" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84" ht="18.75" customHeight="1">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>150</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M84" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" ht="18.75" customHeight="1">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>152</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M85" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" ht="18.75" customHeight="1">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>154</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="87" ht="18.75" customHeight="1">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
         <v>156</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M87" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" ht="18.75" customHeight="1">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>158</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="M88" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="89" ht="18.75" customHeight="1">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
         <v>160</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="M89" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="90" ht="18.75" customHeight="1">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>162</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="M90" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="91" ht="18.75" customHeight="1">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
         <v>164</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="M91" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="92" ht="18.75" customHeight="1">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
         <v>166</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="M92" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="93" ht="18.75" customHeight="1">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
         <v>168</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="M93" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="94" ht="18.75" customHeight="1">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
         <v>170</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M94" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="95" ht="18.75" customHeight="1">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
         <v>172</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="M95" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" ht="18.75" customHeight="1">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>174</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M96" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="97" ht="18.75" customHeight="1">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
         <v>176</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M97" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="98" ht="18.75" customHeight="1">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
         <v>178</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M98" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" ht="18.75" customHeight="1">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>180</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="M99" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="100" ht="18.75" customHeight="1">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>182</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="M100" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="101" ht="18.75" customHeight="1">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
         <v>184</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="M101" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="102" ht="18.75" customHeight="1">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
         <v>186</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="M102" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="103" ht="18.75" customHeight="1">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
         <v>188</v>
       </c>
-      <c r="M103" s="1" t="s">
+      <c r="M103" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="104" ht="18.75" customHeight="1">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
         <v>189</v>
       </c>
-      <c r="M104" s="1" t="s">
+      <c r="M104" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="105" ht="18.75" customHeight="1">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
         <v>191</v>
       </c>
-      <c r="M105" s="1" t="s">
+      <c r="M105" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="106" ht="18.75" customHeight="1">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
         <v>193</v>
       </c>
-      <c r="M106" s="1" t="s">
+      <c r="M106" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" ht="18.75" customHeight="1">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
         <v>195</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="M107" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="108" ht="18.75" customHeight="1">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
         <v>197</v>
       </c>
-      <c r="M108" s="1" t="s">
+      <c r="M108" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="109" ht="18.75" customHeight="1">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
         <v>199</v>
       </c>
-      <c r="M109" s="1" t="s">
+      <c r="M109" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="110" ht="18.75" customHeight="1">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
         <v>200</v>
       </c>
-      <c r="M110" s="1" t="s">
+      <c r="M110" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="111" ht="18.75" customHeight="1">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
         <v>202</v>
       </c>
-      <c r="M111" s="1" t="s">
+      <c r="M111" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112" ht="18.75" customHeight="1">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
         <v>204</v>
       </c>
-      <c r="M112" s="1" t="s">
+      <c r="M112" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="113" ht="18.75" customHeight="1">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
         <v>206</v>
       </c>
-      <c r="M113" s="1" t="s">
+      <c r="M113" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="114" ht="18.75" customHeight="1">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
         <v>208</v>
       </c>
-      <c r="M114" s="1" t="s">
+      <c r="M114" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="115" ht="18.75" customHeight="1">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
         <v>210</v>
       </c>
-      <c r="M115" s="1" t="s">
+      <c r="M115" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="116" ht="18.75" customHeight="1">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
         <v>212</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="M116" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="117" ht="18.75" customHeight="1">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
         <v>214</v>
       </c>
-      <c r="M117" s="1" t="s">
+      <c r="M117" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="118" ht="18.75" customHeight="1">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
         <v>216</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="M118" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="119" ht="18.75" customHeight="1">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
         <v>218</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="M119" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="120" ht="18.75" customHeight="1">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
         <v>220</v>
       </c>
-      <c r="M120" s="1" t="s">
+      <c r="M120" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="121" ht="18.75" customHeight="1">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
         <v>222</v>
       </c>
-      <c r="M121" s="1" t="s">
+      <c r="M121" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="122" ht="18.75" customHeight="1">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
         <v>224</v>
       </c>
-      <c r="M122" s="1" t="s">
+      <c r="M122" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="123" ht="18.75" customHeight="1">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
         <v>226</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="M123" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="124" ht="18.75" customHeight="1">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
         <v>228</v>
       </c>
-      <c r="M124" s="1" t="s">
+      <c r="M124" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="125" ht="18.75" customHeight="1">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
         <v>230</v>
       </c>
-      <c r="M125" s="1" t="s">
+      <c r="M125" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="126" ht="18.75" customHeight="1">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
         <v>232</v>
       </c>
-      <c r="M126" s="1" t="s">
+      <c r="M126" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="127" ht="18.75" customHeight="1">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
         <v>234</v>
       </c>
-      <c r="M127" s="1" t="s">
+      <c r="M127" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="128" ht="18.75" customHeight="1">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
         <v>236</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="M128" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="129" ht="18.75" customHeight="1">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
         <v>238</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="M129" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="130" ht="18.75" customHeight="1">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
         <v>240</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="M130" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="131" ht="18.75" customHeight="1">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
         <v>242</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="M131" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="132" ht="18.75" customHeight="1">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
         <v>244</v>
       </c>
-      <c r="M132" s="1" t="s">
+      <c r="M132" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="133" ht="18.75" customHeight="1">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
         <v>246</v>
       </c>
-      <c r="M133" s="1" t="s">
+      <c r="M133" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="134" ht="18.75" customHeight="1">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
         <v>248</v>
       </c>
-      <c r="M134" s="1" t="s">
+      <c r="M134" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="135" ht="18.75" customHeight="1">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
         <v>250</v>
       </c>
-      <c r="M135" s="1" t="s">
+      <c r="M135" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="136" ht="18.75" customHeight="1">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
         <v>252</v>
       </c>
-      <c r="M136" s="1" t="s">
+      <c r="M136" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="137" ht="18.75" customHeight="1">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2" t="s">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="138" ht="18.75" customHeight="1">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2" t="s">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="139" ht="18.75" customHeight="1">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2" t="s">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="140" ht="18.75" customHeight="1">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2" t="s">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="141" ht="18.75" customHeight="1">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2" t="s">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="142" ht="18.75" customHeight="1">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="143" ht="18.75" customHeight="1">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2" t="s">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="144" ht="18.75" customHeight="1">
-      <c r="A144" s="2" t="s">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2" t="s">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="145" ht="18.75" customHeight="1">
-      <c r="A145" s="2" t="s">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2" t="s">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="146" ht="18.75" customHeight="1">
-      <c r="A146" s="2" t="s">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2" t="s">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="147" ht="18.75" customHeight="1">
-      <c r="A147" s="2" t="s">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2" t="s">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="148" ht="18.75" customHeight="1">
-      <c r="A148" s="2" t="s">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2" t="s">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="149" ht="18.75" customHeight="1">
-      <c r="A149" s="2" t="s">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2" t="s">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="150" ht="18.75" customHeight="1">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2" t="s">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="151" ht="18.75" customHeight="1">
-      <c r="A151" s="2" t="s">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2" t="s">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="152" ht="18.75" customHeight="1">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2" t="s">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="153" ht="18.75" customHeight="1"/>
-    <row r="154" ht="18.75" customHeight="1"/>
-    <row r="155" ht="18.75" customHeight="1"/>
-    <row r="156" ht="18.75" customHeight="1"/>
-    <row r="157" ht="18.75" customHeight="1">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
         <v>286</v>
       </c>
-      <c r="M157" s="1" t="s">
+      <c r="M157" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="158" ht="18.75" customHeight="1">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
         <v>288</v>
       </c>
-      <c r="M158" s="1" t="s">
+      <c r="M158" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="159" ht="18.75" customHeight="1">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
         <v>290</v>
       </c>
-      <c r="M159" s="1" t="s">
+      <c r="M159" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="160" ht="18.75" customHeight="1">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
         <v>292</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="M160" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="161" ht="18.75" customHeight="1">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
         <v>294</v>
       </c>
-      <c r="M161" s="1" t="s">
+      <c r="M161" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="162" ht="18.75" customHeight="1">
-      <c r="A162" s="1" t="s">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
         <v>296</v>
       </c>
-      <c r="M162" s="1" t="s">
+      <c r="M162" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="163" ht="18.75" customHeight="1">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
         <v>298</v>
       </c>
-      <c r="M163" s="1" t="s">
+      <c r="M163" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="164" ht="18.75" customHeight="1">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
         <v>300</v>
       </c>
-      <c r="M164" s="1" t="s">
+      <c r="M164" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="165" ht="18.75" customHeight="1">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
         <v>302</v>
       </c>
-      <c r="M165" s="1" t="s">
+      <c r="M165" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="166" ht="18.75" customHeight="1">
-      <c r="A166" s="1" t="s">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
         <v>304</v>
       </c>
-      <c r="M166" s="1" t="s">
+      <c r="M166" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="167" ht="18.75" customHeight="1">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
         <v>306</v>
       </c>
-      <c r="M167" s="1" t="s">
+      <c r="M167" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="168" ht="18.75" customHeight="1">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
         <v>308</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="M168" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="169" ht="18.75" customHeight="1">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
         <v>310</v>
       </c>
-      <c r="M169" s="1" t="s">
+      <c r="M169" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="170" ht="18.75" customHeight="1">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
         <v>312</v>
       </c>
-      <c r="M170" s="1" t="s">
+      <c r="M170" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="171" ht="18.75" customHeight="1">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
         <v>314</v>
       </c>
-      <c r="M171" s="1" t="s">
+      <c r="M171" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" ht="18.75" customHeight="1">
-      <c r="A172" s="1" t="s">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
         <v>316</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="M172" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="173" ht="18.75" customHeight="1">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
         <v>318</v>
       </c>
-      <c r="M173" s="1" t="s">
+      <c r="M173" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="174" ht="18.75" customHeight="1">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
         <v>320</v>
       </c>
-      <c r="M174" s="1" t="s">
+      <c r="M174" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="175" ht="18.75" customHeight="1">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
         <v>322</v>
       </c>
-      <c r="M175" s="1" t="s">
+      <c r="M175" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="176" ht="18.75" customHeight="1">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
         <v>324</v>
       </c>
-      <c r="M176" s="1" t="s">
+      <c r="M176" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="177" ht="18.75" customHeight="1">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
         <v>326</v>
       </c>
-      <c r="M177" s="1" t="s">
+      <c r="M177" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="178" ht="18.75" customHeight="1">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
         <v>328</v>
       </c>
-      <c r="M178" s="1" t="s">
+      <c r="M178" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="179" ht="18.75" customHeight="1">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
         <v>330</v>
       </c>
-      <c r="M179" s="1" t="s">
+      <c r="M179" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="180" ht="18.75" customHeight="1">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
         <v>332</v>
       </c>
-      <c r="M180" s="1" t="s">
+      <c r="M180" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="181" ht="18.75" customHeight="1">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
         <v>334</v>
       </c>
-      <c r="M181" s="1" t="s">
+      <c r="M181" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="182" ht="18.75" customHeight="1">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
         <v>336</v>
       </c>
-      <c r="M182" s="1" t="s">
+      <c r="M182" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="183" ht="18.75" customHeight="1">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
         <v>338</v>
       </c>
-      <c r="M183" s="1" t="s">
+      <c r="M183" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="184" ht="18.75" customHeight="1">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
         <v>340</v>
       </c>
-      <c r="M184" s="1" t="s">
+      <c r="M184" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="185" ht="18.75" customHeight="1">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
         <v>342</v>
       </c>
-      <c r="M185" s="1" t="s">
+      <c r="M185" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="186" ht="18.75" customHeight="1">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
         <v>344</v>
       </c>
-      <c r="M186" s="1" t="s">
+      <c r="M186" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="187" ht="18.75" customHeight="1">
-      <c r="A187" s="1" t="s">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
         <v>346</v>
       </c>
-      <c r="M187" s="1" t="s">
+      <c r="M187" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="188" ht="18.75" customHeight="1">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
         <v>348</v>
       </c>
-      <c r="M188" s="1" t="s">
+      <c r="M188" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="189" ht="18.75" customHeight="1">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
         <v>350</v>
       </c>
-      <c r="M189" s="1" t="s">
+      <c r="M189" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="190" ht="18.75" customHeight="1">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
         <v>352</v>
       </c>
-      <c r="M190" s="1" t="s">
+      <c r="M190" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="191" ht="18.75" customHeight="1">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
         <v>354</v>
       </c>
-      <c r="M191" s="1" t="s">
+      <c r="M191" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="192" ht="18.75" customHeight="1">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
         <v>356</v>
       </c>
-      <c r="M192" s="1" t="s">
+      <c r="M192" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="193" ht="18.75" customHeight="1">
-      <c r="A193" s="1" t="s">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
         <v>358</v>
       </c>
-      <c r="M193" s="1" t="s">
+      <c r="M193" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="194" ht="18.75" customHeight="1">
-      <c r="A194" s="1" t="s">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
         <v>360</v>
       </c>
-      <c r="M194" s="1" t="s">
+      <c r="M194" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="195" ht="18.75" customHeight="1">
-      <c r="A195" s="1" t="s">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
         <v>362</v>
       </c>
-      <c r="M195" s="1" t="s">
+      <c r="M195" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="196" ht="18.75" customHeight="1">
-      <c r="A196" s="1" t="s">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
         <v>364</v>
       </c>
-      <c r="M196" s="1" t="s">
+      <c r="M196" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="197" ht="18.75" customHeight="1">
-      <c r="A197" s="1" t="s">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
         <v>366</v>
       </c>
-      <c r="M197" s="1" t="s">
+      <c r="M197" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="198" ht="18.75" customHeight="1">
-      <c r="A198" s="1" t="s">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
         <v>368</v>
       </c>
-      <c r="M198" s="1" t="s">
+      <c r="M198" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="199" ht="18.75" customHeight="1">
-      <c r="A199" s="1" t="s">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
         <v>370</v>
       </c>
-      <c r="M199" s="1" t="s">
+      <c r="M199" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="200" ht="18.75" customHeight="1">
-      <c r="A200" s="1" t="s">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
         <v>372</v>
       </c>
-      <c r="M200" s="1" t="s">
+      <c r="M200" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="201" ht="18.75" customHeight="1">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
         <v>374</v>
       </c>
-      <c r="M201" s="1" t="s">
+      <c r="M201" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="202" ht="18.75" customHeight="1">
-      <c r="A202" s="1" t="s">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
         <v>376</v>
       </c>
-      <c r="M202" s="1" t="s">
+      <c r="M202" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="203" ht="18.75" customHeight="1">
-      <c r="A203" s="1" t="s">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
         <v>378</v>
       </c>
-      <c r="M203" s="1" t="s">
+      <c r="M203" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="204" ht="18.75" customHeight="1">
-      <c r="A204" s="1" t="s">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
         <v>380</v>
       </c>
-      <c r="M204" s="1" t="s">
+      <c r="M204" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="205" ht="18.75" customHeight="1">
-      <c r="A205" s="1" t="s">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
         <v>382</v>
       </c>
-      <c r="M205" s="1" t="s">
+      <c r="M205" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="206" ht="18.75" customHeight="1">
-      <c r="A206" s="1" t="s">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
         <v>384</v>
       </c>
-      <c r="M206" s="1" t="s">
+      <c r="M206" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="207" ht="18.75" customHeight="1">
-      <c r="A207" s="2" t="s">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2" t="s">
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="208" ht="18.75" customHeight="1">
-      <c r="A208" s="2" t="s">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2" t="s">
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="209" ht="18.75" customHeight="1">
-      <c r="A209" s="2" t="s">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2" t="s">
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="210" ht="18.75" customHeight="1">
-      <c r="A210" s="2" t="s">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2" t="s">
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="211" ht="18.75" customHeight="1">
-      <c r="A211" s="2" t="s">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2" t="s">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="212" ht="18.75" customHeight="1">
-      <c r="A212" s="2" t="s">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2" t="s">
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="213" ht="18.75" customHeight="1">
-      <c r="A213" s="2" t="s">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2" t="s">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="214" ht="18.75" customHeight="1">
-      <c r="A214" s="2" t="s">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2" t="s">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="215" ht="18.75" customHeight="1">
-      <c r="A215" s="2" t="s">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2" t="s">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="216" ht="18.75" customHeight="1">
-      <c r="A216" s="2" t="s">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2" t="s">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="217" ht="18.75" customHeight="1">
-      <c r="A217" s="2" t="s">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2" t="s">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="218" ht="18.75" customHeight="1">
-      <c r="A218" s="2" t="s">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2" t="s">
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="219" ht="18.75" customHeight="1">
-      <c r="A219" s="2" t="s">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2" t="s">
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="220" ht="18.75" customHeight="1">
-      <c r="A220" s="3" t="s">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
         <v>412</v>
       </c>
-      <c r="M220" s="3" t="s">
+      <c r="M222" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="221" ht="18.75" customHeight="1">
-      <c r="A221" s="3" t="s">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
         <v>414</v>
       </c>
-      <c r="M221" s="3" t="s">
+      <c r="M223" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="222" ht="18.75" customHeight="1">
-      <c r="A222" s="3" t="s">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
         <v>416</v>
       </c>
-      <c r="M222" s="3" t="s">
+      <c r="M224" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="223" ht="18.75" customHeight="1">
-      <c r="A223" s="3" t="s">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
         <v>418</v>
       </c>
-      <c r="M223" s="3" t="s">
+      <c r="M225" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="224" ht="18.75" customHeight="1">
-      <c r="A224" s="3" t="s">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
         <v>420</v>
       </c>
-      <c r="M224" s="3" t="s">
+      <c r="M227" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="225" ht="18.75" customHeight="1"/>
-    <row r="226" ht="18.75" customHeight="1"/>
-    <row r="227" ht="18.75" customHeight="1">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
         <v>422</v>
       </c>
-      <c r="M227" s="1" t="s">
+      <c r="M228" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="228" ht="18.75" customHeight="1">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
         <v>424</v>
       </c>
-      <c r="M228" s="1" t="s">
+      <c r="M229" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="229" ht="18.75" customHeight="1">
-      <c r="A229" s="1" t="s">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
         <v>426</v>
       </c>
-      <c r="M229" s="1" t="s">
+      <c r="M232" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="230" ht="18.75" customHeight="1">
-      <c r="A230" s="1" t="s">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
         <v>428</v>
       </c>
-      <c r="M230" s="1" t="s">
+      <c r="B233" t="s">
+        <v>428</v>
+      </c>
+      <c r="M233" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="231" ht="18.75" customHeight="1"/>
-    <row r="232" ht="18.75" customHeight="1">
-      <c r="A232" s="1" t="s">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
         <v>430</v>
       </c>
-      <c r="M232" s="1" t="s">
+      <c r="B234" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="233" ht="18.75" customHeight="1">
-      <c r="A233" s="1" t="s">
+      <c r="M234" t="s">
         <v>432</v>
       </c>
-      <c r="M233" s="1" t="s">
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="234" ht="18.75" customHeight="1">
-      <c r="A234" s="1" t="s">
+      <c r="M235" t="s">
         <v>434</v>
       </c>
-      <c r="M234" s="1" t="s">
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="235" ht="18.75" customHeight="1"/>
-    <row r="236" ht="18.75" customHeight="1"/>
-    <row r="237" ht="18.75" customHeight="1">
-      <c r="A237" s="1" t="s">
+      <c r="B236" t="s">
         <v>436</v>
       </c>
-      <c r="M237" s="1" t="s">
+      <c r="M236" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="238" ht="18.75" customHeight="1">
-      <c r="A238" s="1" t="s">
+      <c r="N236" s="1"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
         <v>438</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M238" s="1" t="s">
+      <c r="M237" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="239" ht="18.75" customHeight="1">
-      <c r="A239" s="1" t="s">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
         <v>440</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="M238" t="s">
         <v>441</v>
       </c>
-      <c r="M239" s="1" t="s">
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="240" ht="18.75" customHeight="1">
-      <c r="A240" s="1" t="s">
+      <c r="M239" t="s">
         <v>443</v>
       </c>
-      <c r="M240" s="1" t="s">
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="241" ht="18.75" customHeight="1">
-      <c r="A241" s="1" t="s">
+      <c r="M240" t="s">
         <v>445</v>
       </c>
-      <c r="B241" s="1" t="s">
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
         <v>446</v>
       </c>
-      <c r="M241" s="1" t="s">
+      <c r="M242" t="s">
         <v>447</v>
       </c>
-      <c r="N241" s="2"/>
-    </row>
-    <row r="242" ht="18.75" customHeight="1">
-      <c r="A242" s="1" t="s">
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
         <v>448</v>
       </c>
-      <c r="M242" s="1" t="s">
+      <c r="M243" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="243" ht="18.75" customHeight="1">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
         <v>450</v>
       </c>
-      <c r="M243" s="1" t="s">
+      <c r="M244" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="244" ht="18.75" customHeight="1">
-      <c r="A244" s="1" t="s">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
         <v>452</v>
       </c>
-      <c r="M244" s="1" t="s">
+      <c r="B245" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="245" ht="18.75" customHeight="1">
-      <c r="A245" s="1" t="s">
+      <c r="M245" t="s">
         <v>454</v>
       </c>
-      <c r="M245" s="1" t="s">
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="246" ht="18.75" customHeight="1"/>
-    <row r="247" ht="18.75" customHeight="1">
-      <c r="A247" s="1" t="s">
+      <c r="M246" t="s">
         <v>456</v>
       </c>
-      <c r="M247" s="1" t="s">
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="248" ht="18.75" customHeight="1">
-      <c r="A248" s="1" t="s">
+      <c r="M247" t="s">
         <v>458</v>
       </c>
-      <c r="M248" s="1" t="s">
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="249" ht="18.75" customHeight="1">
+      <c r="B248" t="s">
+        <v>459</v>
+      </c>
+      <c r="M248" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
-        <v>460</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
       <c r="M249" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="250" ht="18.75" customHeight="1">
-      <c r="A250" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B250" s="1" t="s">
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
         <v>463</v>
       </c>
-      <c r="M250" s="1" t="s">
+      <c r="M251" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="251" ht="18.75" customHeight="1">
-      <c r="A251" s="1" t="s">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
         <v>465</v>
       </c>
-      <c r="M251" s="1" t="s">
+      <c r="M252" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="252" ht="18.75" customHeight="1">
-      <c r="A252" s="1" t="s">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
         <v>467</v>
       </c>
-      <c r="M252" s="1" t="s">
+      <c r="M253" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="253" ht="18.75" customHeight="1">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
         <v>469</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M253" s="1" t="s">
+      <c r="M254" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="254" ht="18.75" customHeight="1">
-      <c r="A254" s="2" t="s">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
         <v>471</v>
       </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2" t="s">
+      <c r="M255" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="255" ht="18.75" customHeight="1"/>
-    <row r="256" ht="18.75" customHeight="1">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
         <v>473</v>
       </c>
-      <c r="M256" s="1" t="s">
+      <c r="M258" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="257" ht="18.75" customHeight="1">
-      <c r="A257" s="1" t="s">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
         <v>475</v>
       </c>
-      <c r="M257" s="1" t="s">
+      <c r="M259" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="258" ht="18.75" customHeight="1">
-      <c r="A258" s="1" t="s">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A260" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M258" s="1" t="s">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="259" ht="18.75" customHeight="1">
-      <c r="A259" s="1" t="s">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A261" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="260" ht="18.75" customHeight="1">
-      <c r="A260" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="261" ht="18.75" customHeight="1">
-      <c r="A261" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -5088,2362 +5212,1727 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A262" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A263" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="262" ht="18.75" customHeight="1"/>
-    <row r="263" ht="18.75" customHeight="1">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
         <v>485</v>
       </c>
-      <c r="M263" s="1" t="s">
+      <c r="M264" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="264" ht="18.75" customHeight="1">
-      <c r="A264" s="1" t="s">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A266" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="M264" s="1" t="s">
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="265" ht="18.75" customHeight="1">
-      <c r="A265" s="2" t="s">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A267" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2" t="s">
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="266" ht="18.75" customHeight="1">
-      <c r="A266" s="2" t="s">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A268" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-      <c r="G266" s="4"/>
-      <c r="H266" s="4"/>
-      <c r="I266" s="4"/>
-      <c r="J266" s="4"/>
-      <c r="K266" s="4"/>
-      <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="267" ht="18.75" customHeight="1">
-      <c r="A267" s="2" t="s">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A269" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
-      <c r="I267" s="4"/>
-      <c r="J267" s="4"/>
-      <c r="K267" s="4"/>
-      <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+      <c r="L269" s="2"/>
+      <c r="M269" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="268" ht="18.75" customHeight="1">
-      <c r="A268" s="4" t="s">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A270" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
-      <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
-      <c r="I268" s="4"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="4"/>
-      <c r="L268" s="4"/>
-      <c r="M268" s="4" t="s">
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="269" ht="18.75" customHeight="1">
-      <c r="A269" s="1" t="s">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A271" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="M269" s="1" t="s">
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="270" ht="18.75" customHeight="1"/>
-    <row r="271" ht="18.75" customHeight="1">
-      <c r="A271" s="4" t="s">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A272" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="4"/>
-      <c r="L271" s="4"/>
-      <c r="M271" s="4" t="s">
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="272" ht="18.75" customHeight="1">
-      <c r="A272" s="4" t="s">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A273" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="4"/>
-      <c r="J272" s="4"/>
-      <c r="K272" s="4"/>
-      <c r="L272" s="4"/>
-      <c r="M272" s="4" t="s">
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="273" ht="18.75" customHeight="1">
-      <c r="A273" s="4" t="s">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A274" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-      <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
-      <c r="I273" s="4"/>
-      <c r="J273" s="4"/>
-      <c r="K273" s="4"/>
-      <c r="L273" s="4"/>
-      <c r="M273" s="4" t="s">
+      <c r="M274" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="274" ht="18.75" customHeight="1">
-      <c r="A274" s="4" t="s">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A275" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
-      <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
-      <c r="I274" s="4"/>
-      <c r="J274" s="4"/>
-      <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
-      <c r="M274" s="4" t="s">
+      <c r="M275" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="275" ht="18.75" customHeight="1">
-      <c r="A275" s="4" t="s">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A276" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
-      <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
-      <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
-      <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
-      <c r="M275" s="4" t="s">
+      <c r="M276" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="276" ht="18.75" customHeight="1">
-      <c r="A276" s="4" t="s">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A277" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
-      <c r="I276" s="4"/>
-      <c r="J276" s="4"/>
-      <c r="K276" s="4"/>
-      <c r="L276" s="4"/>
-      <c r="M276" s="4" t="s">
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="2"/>
+      <c r="M277" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="277" ht="18.75" customHeight="1">
-      <c r="A277" s="4" t="s">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A278" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
-      <c r="I277" s="4"/>
-      <c r="J277" s="4"/>
-      <c r="K277" s="4"/>
-      <c r="L277" s="4"/>
-      <c r="M277" s="4" t="s">
+      <c r="M278" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="278" ht="18.75" customHeight="1">
-      <c r="A278" s="4" t="s">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A279" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
-      <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
-      <c r="I278" s="4"/>
-      <c r="J278" s="4"/>
-      <c r="K278" s="4"/>
-      <c r="L278" s="4"/>
-      <c r="M278" s="4" t="s">
+      <c r="M279" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="279" ht="18.75" customHeight="1">
-      <c r="A279" s="5" t="s">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A280" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="M279" s="1" t="s">
+      <c r="M280" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="280" ht="18.75" customHeight="1">
-      <c r="A280" s="6" t="s">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A281" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="M280" s="6" t="s">
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="281" ht="18.75" customHeight="1">
-      <c r="A281" s="4" t="s">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A282" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="M281" s="4" t="s">
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="282" ht="18.75" customHeight="1">
-      <c r="A282" s="6" t="s">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
         <v>521</v>
       </c>
-      <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
-      <c r="E282" s="4"/>
-      <c r="F282" s="4"/>
-      <c r="G282" s="4"/>
-      <c r="H282" s="4"/>
-      <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
-      <c r="K282" s="4"/>
-      <c r="L282" s="4"/>
-      <c r="M282" s="6" t="s">
+      <c r="M294" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="283" ht="18.75" customHeight="1">
-      <c r="A283" s="4" t="s">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A295" t="s">
         <v>523</v>
       </c>
-      <c r="M283" s="4" t="s">
+      <c r="M295" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="284" ht="18.75" customHeight="1">
-      <c r="A284" s="2" t="s">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
         <v>525</v>
       </c>
-      <c r="M284" s="4" t="s">
+      <c r="M296" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="285" ht="18.75" customHeight="1">
-      <c r="A285" s="4" t="s">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
         <v>527</v>
       </c>
-      <c r="M285" s="4" t="s">
+      <c r="M297" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="286" ht="18.75" customHeight="1">
-      <c r="A286" s="2" t="s">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
         <v>529</v>
       </c>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
-      <c r="I286" s="2"/>
-      <c r="J286" s="2"/>
-      <c r="K286" s="2"/>
-      <c r="L286" s="2"/>
-      <c r="M286" s="2" t="s">
+      <c r="M299" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="287" ht="18.75" customHeight="1">
-      <c r="A287" s="2" t="s">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
         <v>531</v>
       </c>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2"/>
-      <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
-      <c r="M287" s="2" t="s">
+      <c r="M300" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="288" ht="18.75" customHeight="1"/>
-    <row r="289" ht="18.75" customHeight="1"/>
-    <row r="290" ht="18.75" customHeight="1"/>
-    <row r="291" ht="18.75" customHeight="1"/>
-    <row r="292" ht="18.75" customHeight="1"/>
-    <row r="293" ht="18.75" customHeight="1"/>
-    <row r="294" ht="18.75" customHeight="1"/>
-    <row r="295" ht="18.75" customHeight="1"/>
-    <row r="296" ht="18.75" customHeight="1"/>
-    <row r="297" ht="18.75" customHeight="1"/>
-    <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1">
-      <c r="A299" s="1" t="s">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
         <v>533</v>
       </c>
-      <c r="M299" s="4" t="s">
+      <c r="M301" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="300" ht="18.75" customHeight="1">
-      <c r="A300" s="1" t="s">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
         <v>535</v>
       </c>
-      <c r="M300" s="4" t="s">
+      <c r="M302" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="301" ht="18.75" customHeight="1">
-      <c r="A301" s="1" t="s">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
         <v>537</v>
       </c>
-      <c r="M301" s="4" t="s">
+      <c r="M304" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="302" ht="18.75" customHeight="1">
-      <c r="A302" s="1" t="s">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
         <v>539</v>
       </c>
-      <c r="M302" s="4" t="s">
+      <c r="M305" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1">
-      <c r="A304" s="1" t="s">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
         <v>541</v>
       </c>
-      <c r="M304" s="4" t="s">
+      <c r="M306" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="305" ht="18.75" customHeight="1">
-      <c r="A305" s="1" t="s">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
         <v>543</v>
       </c>
-      <c r="M305" s="4" t="s">
+      <c r="M307" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="306" ht="18.75" customHeight="1">
-      <c r="A306" s="1" t="s">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
         <v>545</v>
       </c>
-      <c r="M306" s="4" t="s">
+      <c r="M308" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="307" ht="18.75" customHeight="1">
-      <c r="A307" s="1" t="s">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
         <v>547</v>
       </c>
-      <c r="M307" s="4" t="s">
+      <c r="M309" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1">
-      <c r="A309" s="1" t="s">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
         <v>549</v>
       </c>
-      <c r="M309" s="4" t="s">
+      <c r="M310" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="310" ht="18.75" customHeight="1">
-      <c r="A310" s="1" t="s">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
         <v>551</v>
       </c>
-      <c r="M310" s="4" t="s">
+      <c r="M311" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="311" ht="18.75" customHeight="1">
-      <c r="A311" s="1" t="s">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
         <v>553</v>
       </c>
-      <c r="M311" s="4" t="s">
+      <c r="M312" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="312" ht="18.75" customHeight="1">
-      <c r="A312" s="1" t="s">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
         <v>555</v>
       </c>
-      <c r="M312" s="4" t="s">
+      <c r="M313" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="313" ht="18.75" customHeight="1">
-      <c r="A313" s="1" t="s">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
         <v>557</v>
       </c>
-      <c r="M313" s="4" t="s">
+      <c r="M314" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="314" ht="18.75" customHeight="1">
-      <c r="A314" s="1" t="s">
+      <c r="M315" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="M314" s="4" t="s">
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="315" ht="18.75" customHeight="1">
-      <c r="A315" s="1" t="s">
+      <c r="M316" t="s">
         <v>561</v>
       </c>
-      <c r="M315" s="4" t="s">
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="316" ht="18.75" customHeight="1">
-      <c r="A316" s="1" t="s">
+      <c r="M318" t="s">
         <v>563</v>
       </c>
-      <c r="M316" s="4" t="s">
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="317" ht="18.75" customHeight="1">
-      <c r="A317" s="1" t="s">
+      <c r="M319" t="s">
         <v>565</v>
       </c>
-      <c r="M317" s="4" t="s">
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="318" ht="18.75" customHeight="1">
-      <c r="A318" s="1" t="s">
+      <c r="M320" t="s">
         <v>567</v>
       </c>
-      <c r="M318" s="4" t="s">
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="319" ht="18.75" customHeight="1">
-      <c r="A319" s="1" t="s">
+      <c r="M321" t="s">
         <v>569</v>
       </c>
-      <c r="M319" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="320" ht="18.75" customHeight="1">
-      <c r="A320" s="1" t="s">
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
         <v>570</v>
       </c>
-      <c r="M320" s="4" t="s">
+      <c r="M322" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="321" ht="18.75" customHeight="1">
-      <c r="A321" s="1" t="s">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
         <v>572</v>
       </c>
-      <c r="M321" s="1" t="s">
+      <c r="M323" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="322" ht="18.75" customHeight="1"/>
-    <row r="323" ht="18.75" customHeight="1">
-      <c r="A323" s="1" t="s">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
         <v>574</v>
       </c>
-      <c r="M323" s="1" t="s">
+      <c r="M324" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="324" ht="18.75" customHeight="1">
-      <c r="A324" s="1" t="s">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
         <v>576</v>
       </c>
-      <c r="M324" s="1" t="s">
+      <c r="M325" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="325" ht="18.75" customHeight="1">
-      <c r="A325" s="1" t="s">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
         <v>578</v>
       </c>
-      <c r="M325" s="1" t="s">
+      <c r="M326" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="326" ht="18.75" customHeight="1">
-      <c r="A326" s="1" t="s">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
         <v>580</v>
       </c>
-      <c r="M326" s="1" t="s">
+      <c r="M327" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="327" ht="18.75" customHeight="1">
-      <c r="A327" s="1" t="s">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
         <v>582</v>
       </c>
-      <c r="M327" s="1" t="s">
+      <c r="M328" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="328" ht="18.75" customHeight="1">
-      <c r="A328" s="1" t="s">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
         <v>584</v>
       </c>
-      <c r="M328" s="1" t="s">
+      <c r="M329" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="329" ht="18.75" customHeight="1">
-      <c r="A329" s="1" t="s">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
         <v>586</v>
       </c>
-      <c r="M329" s="1" t="s">
+      <c r="M330" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="330" ht="18.75" customHeight="1">
-      <c r="A330" s="1" t="s">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
         <v>588</v>
       </c>
-      <c r="M330" s="1" t="s">
+      <c r="B331" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="331" ht="18.75" customHeight="1">
-      <c r="A331" s="1" t="s">
+      <c r="M331" t="s">
         <v>590</v>
       </c>
-      <c r="M331" s="1" t="s">
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="332" ht="18.75" customHeight="1">
-      <c r="A332" s="1" t="s">
+      <c r="M332" t="s">
         <v>592</v>
       </c>
-      <c r="M332" s="1" t="s">
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="333" ht="18.75" customHeight="1">
-      <c r="A333" s="1" t="s">
+      <c r="M333" t="s">
         <v>594</v>
       </c>
-      <c r="M333" s="1" t="s">
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="334" ht="18.75" customHeight="1">
-      <c r="A334" s="1" t="s">
+      <c r="M334" t="s">
         <v>596</v>
       </c>
-      <c r="M334" s="1" t="s">
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="335" ht="18.75" customHeight="1">
-      <c r="A335" s="1" t="s">
+      <c r="M335" t="s">
         <v>598</v>
       </c>
-      <c r="M335" s="1" t="s">
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="336" ht="18.75" customHeight="1">
-      <c r="A336" s="1" t="s">
+      <c r="M336" t="s">
         <v>600</v>
       </c>
-      <c r="B336" s="1" t="s">
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
         <v>601</v>
       </c>
-      <c r="M336" s="1" t="s">
+      <c r="M337" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="337" ht="18.75" customHeight="1">
-      <c r="A337" s="1" t="s">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
         <v>603</v>
       </c>
-      <c r="M337" s="1" t="s">
+      <c r="M338" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="338" ht="18.75" customHeight="1">
-      <c r="A338" s="1" t="s">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
         <v>605</v>
       </c>
-      <c r="M338" s="1" t="s">
+      <c r="M339" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="339" ht="18.75" customHeight="1">
-      <c r="A339" s="1" t="s">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
         <v>607</v>
       </c>
-      <c r="M339" s="1" t="s">
+      <c r="M340" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="340" ht="18.75" customHeight="1">
-      <c r="A340" s="1" t="s">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
         <v>609</v>
       </c>
-      <c r="M340" s="1" t="s">
+      <c r="M341" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="341" ht="18.75" customHeight="1">
-      <c r="A341" s="1" t="s">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
         <v>611</v>
       </c>
-      <c r="M341" s="1" t="s">
+      <c r="M342" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="342" ht="18.75" customHeight="1">
-      <c r="A342" s="1" t="s">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
         <v>613</v>
       </c>
-      <c r="M342" s="1" t="s">
+      <c r="M343" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="343" ht="18.75" customHeight="1">
-      <c r="A343" s="1" t="s">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
         <v>615</v>
       </c>
-      <c r="M343" s="1" t="s">
+      <c r="M344" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="344" ht="18.75" customHeight="1">
-      <c r="A344" s="1" t="s">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
         <v>617</v>
       </c>
-      <c r="M344" s="1" t="s">
+      <c r="M345" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="345" ht="18.75" customHeight="1">
-      <c r="A345" s="1" t="s">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
         <v>619</v>
       </c>
-      <c r="M345" s="1" t="s">
+      <c r="M346" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="346" ht="18.75" customHeight="1">
-      <c r="A346" s="1" t="s">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A348" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="M346" s="1" t="s">
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+      <c r="K348" s="1"/>
+      <c r="L348" s="1"/>
+      <c r="M348" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="347" ht="18.75" customHeight="1">
-      <c r="A347" s="1" t="s">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A349" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="M347" s="1" t="s">
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="348" ht="18.75" customHeight="1">
-      <c r="A348" s="1" t="s">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A350" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="M348" s="1" t="s">
+      <c r="B350" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="M350" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="349" ht="18.75" customHeight="1">
-      <c r="A349" s="1" t="s">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A351" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="M349" s="1" t="s">
+      <c r="B351" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="M351" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="350" ht="18.75" customHeight="1">
-      <c r="A350" s="1" t="s">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A352" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="M350" s="1" t="s">
+      <c r="B352" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+      <c r="K352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="M352" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="351" ht="18.75" customHeight="1">
-      <c r="A351" s="1" t="s">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A353" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="M351" s="1" t="s">
+      <c r="B353" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="352" ht="18.75" customHeight="1"/>
-    <row r="353" ht="18.75" customHeight="1">
-      <c r="A353" s="2" t="s">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A354" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
-      <c r="G353" s="2"/>
-      <c r="H353" s="2"/>
-      <c r="I353" s="2"/>
-      <c r="J353" s="2"/>
-      <c r="K353" s="2"/>
-      <c r="L353" s="2"/>
-      <c r="M353" s="2" t="s">
+      <c r="B354" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="354" ht="18.75" customHeight="1">
-      <c r="A354" s="2" t="s">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A355" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2"/>
-      <c r="K354" s="2"/>
-      <c r="L354" s="2"/>
-      <c r="M354" s="2" t="s">
+      <c r="B355" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+      <c r="H355" s="1"/>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+      <c r="K355" s="1"/>
+      <c r="L355" s="1"/>
+      <c r="M355" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="355" ht="18.75" customHeight="1">
-      <c r="A355" s="2" t="s">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A356" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B356" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
-      <c r="J355" s="2"/>
-      <c r="K355" s="2"/>
-      <c r="L355" s="2"/>
-      <c r="M355" s="2" t="s">
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="1"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+      <c r="K356" s="1"/>
+      <c r="L356" s="1"/>
+      <c r="M356" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="356" ht="18.75" customHeight="1">
-      <c r="A356" s="2" t="s">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A357" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B357" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="2"/>
-      <c r="K356" s="2"/>
-      <c r="L356" s="2"/>
-      <c r="M356" s="2" t="s">
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="357" ht="18.75" customHeight="1">
-      <c r="A357" s="2" t="s">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A358" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B358" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-      <c r="E357" s="2"/>
-      <c r="F357" s="2"/>
-      <c r="G357" s="2"/>
-      <c r="H357" s="2"/>
-      <c r="I357" s="2"/>
-      <c r="J357" s="2"/>
-      <c r="K357" s="2"/>
-      <c r="L357" s="2"/>
-      <c r="M357" s="2" t="s">
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="358" ht="18.75" customHeight="1">
-      <c r="A358" s="2" t="s">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A359" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
-      <c r="F358" s="2"/>
-      <c r="G358" s="2"/>
-      <c r="H358" s="2"/>
-      <c r="I358" s="2"/>
-      <c r="J358" s="2"/>
-      <c r="K358" s="2"/>
-      <c r="L358" s="2"/>
-      <c r="M358" s="2" t="s">
+      <c r="M359" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="359" ht="18.75" customHeight="1">
-      <c r="A359" s="2" t="s">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A360" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-      <c r="I359" s="2"/>
-      <c r="J359" s="2"/>
-      <c r="K359" s="2"/>
-      <c r="L359" s="2"/>
-      <c r="M359" s="2" t="s">
+      <c r="M360" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="360" ht="18.75" customHeight="1">
-      <c r="A360" s="2" t="s">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A361" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
-      <c r="H360" s="2"/>
-      <c r="I360" s="2"/>
-      <c r="J360" s="2"/>
-      <c r="K360" s="2"/>
-      <c r="L360" s="2"/>
-      <c r="M360" s="2" t="s">
+      <c r="M361" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="361" ht="18.75" customHeight="1">
-      <c r="A361" s="2" t="s">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A362" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-      <c r="G361" s="2"/>
-      <c r="H361" s="2"/>
-      <c r="I361" s="2"/>
-      <c r="J361" s="2"/>
-      <c r="K361" s="2"/>
-      <c r="L361" s="2"/>
-      <c r="M361" s="2" t="s">
+      <c r="M362" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="362" ht="18.75" customHeight="1">
-      <c r="A362" s="2" t="s">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A363" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2"/>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2"/>
-      <c r="K362" s="2"/>
-      <c r="L362" s="2"/>
-      <c r="M362" s="2" t="s">
+      <c r="M363" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="363" ht="18.75" customHeight="1">
-      <c r="A363" s="2" t="s">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A364" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
-      <c r="G363" s="2"/>
-      <c r="H363" s="2"/>
-      <c r="I363" s="2"/>
-      <c r="J363" s="2"/>
-      <c r="K363" s="2"/>
-      <c r="L363" s="2"/>
-      <c r="M363" s="2" t="s">
+      <c r="M364" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="364" ht="18.75" customHeight="1">
-      <c r="A364" s="2" t="s">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A365" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="M364" s="2" t="s">
+      <c r="M365" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="365" ht="18.75" customHeight="1">
-      <c r="A365" s="2" t="s">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A366" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="M365" s="2" t="s">
+      <c r="M366" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="366" ht="18.75" customHeight="1">
-      <c r="A366" s="2" t="s">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A367" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="M366" s="2" t="s">
+      <c r="M367" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="367" ht="18.75" customHeight="1">
-      <c r="A367" s="2" t="s">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A368" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="M367" s="2" t="s">
+      <c r="M368" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="368" ht="18.75" customHeight="1">
-      <c r="A368" s="2" t="s">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A369" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="M368" s="2" t="s">
+      <c r="M369" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="369" ht="18.75" customHeight="1">
-      <c r="A369" s="2" t="s">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A370" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="M369" s="2" t="s">
+      <c r="M370" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="370" ht="18.75" customHeight="1">
-      <c r="A370" s="2" t="s">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A371" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="M370" s="2" t="s">
+      <c r="M371" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="371" ht="18.75" customHeight="1">
-      <c r="A371" s="2" t="s">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A372" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="M371" s="2" t="s">
+      <c r="M372" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="372" ht="18.75" customHeight="1">
-      <c r="A372" s="2" t="s">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A373" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="M372" s="2" t="s">
+      <c r="M373" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="373" ht="18.75" customHeight="1">
-      <c r="A373" s="2" t="s">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A374" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="M373" s="2" t="s">
+      <c r="M374" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="374" ht="18.75" customHeight="1">
-      <c r="A374" s="2" t="s">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A375" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="M374" s="2" t="s">
+      <c r="M375" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="375" ht="18.75" customHeight="1">
-      <c r="A375" s="2" t="s">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A376" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="M375" s="2" t="s">
+      <c r="M376" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="376" ht="18.75" customHeight="1">
-      <c r="A376" s="2" t="s">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A377" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="M376" s="2" t="s">
+      <c r="M377" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="377" ht="18.75" customHeight="1">
-      <c r="A377" s="2" t="s">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A378" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="M377" s="2" t="s">
+      <c r="M378" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="378" ht="18.75" customHeight="1">
-      <c r="A378" s="2" t="s">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A379" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="M378" s="2" t="s">
+      <c r="M379" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="379" ht="18.75" customHeight="1">
-      <c r="A379" s="2" t="s">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A380" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="M379" s="2" t="s">
+      <c r="M380" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="380" ht="18.75" customHeight="1">
-      <c r="A380" s="2" t="s">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A381" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="M380" s="2" t="s">
+      <c r="M381" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="381" ht="18.75" customHeight="1">
-      <c r="A381" s="2" t="s">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A382" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="M381" s="2" t="s">
+      <c r="M382" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="382" ht="18.75" customHeight="1">
-      <c r="A382" s="2" t="s">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A383" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="M382" s="2" t="s">
+      <c r="M383" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="383" ht="18.75" customHeight="1">
-      <c r="A383" s="2" t="s">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A384" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="M383" s="2" t="s">
+      <c r="M384" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="384" ht="18.75" customHeight="1">
-      <c r="A384" s="2" t="s">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A385" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="M384" s="2" t="s">
+      <c r="M385" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="385" ht="18.75" customHeight="1">
-      <c r="A385" s="2" t="s">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A386" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="M385" s="2" t="s">
+      <c r="M386" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="386" ht="18.75" customHeight="1">
-      <c r="A386" s="2" t="s">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A387" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="M386" s="2" t="s">
+      <c r="M387" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="387" ht="18.75" customHeight="1">
-      <c r="A387" s="2" t="s">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A388" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="M387" s="2" t="s">
+      <c r="M388" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="388" ht="18.75" customHeight="1">
-      <c r="A388" s="2" t="s">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A389" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="M388" s="2" t="s">
+      <c r="M389" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="389" ht="18.75" customHeight="1">
-      <c r="A389" s="2" t="s">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A390" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="M389" s="2" t="s">
+      <c r="M390" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="390" ht="18.75" customHeight="1">
-      <c r="A390" s="2" t="s">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A391" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="M390" s="2" t="s">
+      <c r="M391" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="391" ht="18.75" customHeight="1">
-      <c r="A391" s="2" t="s">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A392" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="M391" s="2" t="s">
+      <c r="M392" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="392" ht="18.75" customHeight="1">
-      <c r="A392" s="2" t="s">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A393" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="M392" s="2" t="s">
+      <c r="M393" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="393" ht="18.75" customHeight="1">
-      <c r="A393" s="2" t="s">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A394" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="M393" s="2" t="s">
+      <c r="M394" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="394" ht="18.75" customHeight="1">
-      <c r="A394" s="2" t="s">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A395" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="M394" s="2" t="s">
+      <c r="M395" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="395" ht="18.75" customHeight="1">
-      <c r="A395" s="2" t="s">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A396" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="M395" s="2" t="s">
+      <c r="M396" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="396" ht="18.75" customHeight="1">
-      <c r="A396" s="2" t="s">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A397" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="M396" s="2" t="s">
+      <c r="M397" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="397" ht="18.75" customHeight="1">
-      <c r="A397" s="2" t="s">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A398" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="M397" s="2" t="s">
+      <c r="M398" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="398" ht="18.75" customHeight="1">
-      <c r="A398" s="2" t="s">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A399" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="M398" s="2" t="s">
+      <c r="M399" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="399" ht="18.75" customHeight="1">
-      <c r="A399" s="2" t="s">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A400" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="M399" s="2" t="s">
+      <c r="M400" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="400" ht="18.75" customHeight="1">
-      <c r="A400" s="2" t="s">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A401" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="M400" s="2" t="s">
+      <c r="M401" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="401" ht="18.75" customHeight="1">
-      <c r="A401" s="2" t="s">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A402" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="M401" s="2" t="s">
+      <c r="M402" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="402" ht="18.75" customHeight="1">
-      <c r="A402" s="2" t="s">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A403" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="M402" s="2" t="s">
+      <c r="M403" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="403" ht="18.75" customHeight="1">
-      <c r="A403" s="2" t="s">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A404" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="M403" s="2" t="s">
+      <c r="M404" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="404" ht="18.75" customHeight="1">
-      <c r="A404" s="2" t="s">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A405" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="M404" s="2" t="s">
+      <c r="M405" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="405" ht="18.75" customHeight="1">
-      <c r="A405" s="2" t="s">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A406" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="M405" s="2" t="s">
+      <c r="M406" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="406" ht="18.75" customHeight="1">
-      <c r="A406" s="2" t="s">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A411" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="M406" s="2" t="s">
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
+      <c r="H411" s="1"/>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+      <c r="K411" s="1"/>
+      <c r="L411" s="1"/>
+      <c r="M411" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="407" ht="18.75" customHeight="1">
-      <c r="A407" s="2" t="s">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A412" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="M407" s="2" t="s">
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+      <c r="H412" s="1"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+      <c r="K412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="M412" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="408" ht="18.75" customHeight="1">
-      <c r="A408" s="2" t="s">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A413" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="M408" s="2" t="s">
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1"/>
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+      <c r="H413" s="1"/>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+      <c r="K413" s="1"/>
+      <c r="L413" s="1"/>
+      <c r="M413" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="409" ht="18.75" customHeight="1">
-      <c r="A409" s="2" t="s">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A414" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="M409" s="2" t="s">
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+      <c r="K414" s="1"/>
+      <c r="L414" s="1"/>
+      <c r="M414" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="410" ht="18.75" customHeight="1">
-      <c r="A410" s="2" t="s">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A416" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="M410" s="2" t="s">
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="411" ht="18.75" customHeight="1">
-      <c r="A411" s="2" t="s">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A417" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="M411" s="2" t="s">
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1"/>
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+      <c r="H417" s="1"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+      <c r="K417" s="1"/>
+      <c r="L417" s="1"/>
+      <c r="M417" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
-    <row r="416" ht="18.75" customHeight="1">
-      <c r="A416" s="2" t="s">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A418" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-      <c r="J416" s="2"/>
-      <c r="K416" s="2"/>
-      <c r="L416" s="2"/>
-      <c r="M416" s="2" t="s">
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+      <c r="F418" s="1"/>
+      <c r="G418" s="1"/>
+      <c r="H418" s="1"/>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+      <c r="K418" s="1"/>
+      <c r="L418" s="1"/>
+      <c r="M418" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="417" ht="18.75" customHeight="1">
-      <c r="A417" s="2" t="s">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A419" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="2"/>
-      <c r="I417" s="2"/>
-      <c r="J417" s="2"/>
-      <c r="K417" s="2"/>
-      <c r="L417" s="2"/>
-      <c r="M417" s="2" t="s">
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="1"/>
+      <c r="F419" s="1"/>
+      <c r="G419" s="1"/>
+      <c r="H419" s="1"/>
+      <c r="I419" s="1"/>
+      <c r="J419" s="1"/>
+      <c r="K419" s="1"/>
+      <c r="L419" s="1"/>
+      <c r="M419" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="418" ht="18.75" customHeight="1">
-      <c r="A418" s="2" t="s">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A420" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2"/>
-      <c r="K418" s="2"/>
-      <c r="L418" s="2"/>
-      <c r="M418" s="2" t="s">
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+      <c r="F420" s="1"/>
+      <c r="G420" s="1"/>
+      <c r="H420" s="1"/>
+      <c r="I420" s="1"/>
+      <c r="J420" s="1"/>
+      <c r="K420" s="1"/>
+      <c r="L420" s="1"/>
+      <c r="M420" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A421" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="419" ht="18.75" customHeight="1">
-      <c r="A419" s="2" t="s">
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="1"/>
+      <c r="F421" s="1"/>
+      <c r="G421" s="1"/>
+      <c r="H421" s="1"/>
+      <c r="I421" s="1"/>
+      <c r="J421" s="1"/>
+      <c r="K421" s="1"/>
+      <c r="L421" s="1"/>
+      <c r="M421" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="J419" s="2"/>
-      <c r="K419" s="2"/>
-      <c r="L419" s="2"/>
-      <c r="M419" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="420" ht="18.75" customHeight="1"/>
-    <row r="421" ht="18.75" customHeight="1">
-      <c r="A421" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
-      <c r="H421" s="2"/>
-      <c r="I421" s="2"/>
-      <c r="J421" s="2"/>
-      <c r="K421" s="2"/>
-      <c r="L421" s="2"/>
-      <c r="M421" s="2" t="s">
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A424" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="422" ht="18.75" customHeight="1">
-      <c r="A422" s="2" t="s">
+      <c r="M424" t="s">
         <v>761</v>
       </c>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="2"/>
-      <c r="J422" s="2"/>
-      <c r="K422" s="2"/>
-      <c r="L422" s="2"/>
-      <c r="M422" s="2" t="s">
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A425" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="423" ht="18.75" customHeight="1">
-      <c r="A423" s="2" t="s">
+      <c r="B425" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="2"/>
-      <c r="J423" s="2"/>
-      <c r="K423" s="2"/>
-      <c r="L423" s="2"/>
-      <c r="M423" s="2" t="s">
+      <c r="M425" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="424" ht="18.75" customHeight="1">
-      <c r="A424" s="2" t="s">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A426" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2"/>
-      <c r="K424" s="2"/>
-      <c r="L424" s="2"/>
-      <c r="M424" s="2" t="s">
+      <c r="B426" s="7"/>
+      <c r="M426" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="425" ht="18.75" customHeight="1">
-      <c r="A425" s="2" t="s">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A427" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2"/>
-      <c r="K425" s="2"/>
-      <c r="L425" s="2"/>
-      <c r="M425" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="426" ht="18.75" customHeight="1">
-      <c r="A426" s="2" t="s">
+      <c r="B427" s="7"/>
+      <c r="M427" t="s">
         <v>768</v>
       </c>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-      <c r="H426" s="2"/>
-      <c r="I426" s="2"/>
-      <c r="J426" s="2"/>
-      <c r="K426" s="2"/>
-      <c r="L426" s="2"/>
-      <c r="M426" s="2" t="s">
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A428" s="8" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1">
-      <c r="A429" s="1" t="s">
+      <c r="B428" s="7"/>
+      <c r="M428" t="s">
         <v>770</v>
       </c>
-      <c r="M429" s="1" t="s">
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A429" s="8" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="430" ht="18.75" customHeight="1">
-      <c r="A430" s="1" t="s">
+      <c r="B429" s="7"/>
+      <c r="M429" t="s">
         <v>772</v>
       </c>
-      <c r="B430" s="4" t="s">
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A430" t="s">
         <v>773</v>
       </c>
-      <c r="M430" s="1" t="s">
+      <c r="B430" s="7"/>
+      <c r="M430" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="431" ht="18.75" customHeight="1">
-      <c r="A431" s="7" t="s">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A431" t="s">
         <v>775</v>
       </c>
-      <c r="B431" s="4"/>
-      <c r="M431" s="1" t="s">
+      <c r="B431" s="7"/>
+      <c r="M431" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="432" ht="18.75" customHeight="1">
-      <c r="A432" s="7" t="s">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A432" t="s">
         <v>777</v>
       </c>
-      <c r="B432" s="4"/>
-      <c r="M432" s="1" t="s">
+      <c r="B432" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="433" ht="18.75" customHeight="1">
-      <c r="A433" s="7" t="s">
+      <c r="M432" t="s">
         <v>779</v>
       </c>
-      <c r="B433" s="4"/>
-      <c r="M433" s="1" t="s">
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A433" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="434" ht="18.75" customHeight="1">
-      <c r="A434" s="7" t="s">
+      <c r="B433" s="7"/>
+      <c r="M433" t="s">
         <v>781</v>
       </c>
-      <c r="B434" s="4"/>
-      <c r="M434" s="1" t="s">
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A434" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="435" ht="18.75" customHeight="1">
-      <c r="A435" s="1" t="s">
+      <c r="B434" s="7"/>
+      <c r="M434" t="s">
         <v>783</v>
       </c>
-      <c r="B435" s="4"/>
-      <c r="M435" s="1" t="s">
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A435" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="436" ht="18.75" customHeight="1">
-      <c r="A436" s="1" t="s">
+      <c r="B435" s="7"/>
+      <c r="M435" t="s">
         <v>785</v>
       </c>
-      <c r="B436" s="4"/>
-      <c r="M436" s="1" t="s">
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A436" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="437" ht="18.75" customHeight="1">
-      <c r="A437" s="1" t="s">
+      <c r="B436" s="7"/>
+      <c r="M436" t="s">
         <v>787</v>
       </c>
-      <c r="B437" s="1" t="s">
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A437" t="s">
         <v>788</v>
       </c>
-      <c r="M437" s="1" t="s">
+      <c r="B437" s="7"/>
+      <c r="M437" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="438" ht="18.75" customHeight="1">
-      <c r="A438" s="1" t="s">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
         <v>790</v>
       </c>
-      <c r="B438" s="4"/>
-      <c r="M438" s="1" t="s">
+      <c r="B438" s="7"/>
+      <c r="M438" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="439" ht="18.75" customHeight="1">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A439" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B439" s="4"/>
-      <c r="M439" s="1" t="s">
+      <c r="B439" s="7" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="440" ht="18.75" customHeight="1">
-      <c r="A440" s="1" t="s">
+      <c r="M439" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A440" t="s">
         <v>794</v>
       </c>
-      <c r="B440" s="4"/>
-      <c r="M440" s="1" t="s">
+      <c r="B440" s="7" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="441" ht="18.75" customHeight="1">
-      <c r="A441" s="1" t="s">
+      <c r="M440" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A441" t="s">
         <v>796</v>
       </c>
-      <c r="B441" s="4"/>
-      <c r="M441" s="1" t="s">
+      <c r="B441" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="442" ht="18.75" customHeight="1">
-      <c r="A442" s="1" t="s">
+      <c r="M441" t="s">
         <v>798</v>
       </c>
-      <c r="B442" s="4"/>
-      <c r="M442" s="1" t="s">
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A442" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="443" ht="18.75" customHeight="1">
-      <c r="A443" s="1" t="s">
+      <c r="B442" s="7"/>
+      <c r="M442" t="s">
         <v>800</v>
       </c>
-      <c r="B443" s="4"/>
-      <c r="M443" s="1" t="s">
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A444" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="444" ht="18.75" customHeight="1">
-      <c r="A444" s="2" t="s">
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="1"/>
+      <c r="F444" s="1"/>
+      <c r="G444" s="1"/>
+      <c r="H444" s="1"/>
+      <c r="I444" s="1"/>
+      <c r="J444" s="1"/>
+      <c r="K444" s="1"/>
+      <c r="L444" s="1"/>
+      <c r="M444" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B444" s="4" t="s">
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A445" t="s">
         <v>803</v>
       </c>
-      <c r="M444" s="4" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="445" ht="18.75" customHeight="1">
-      <c r="A445" s="1" t="s">
+      <c r="M445" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B445" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="M445" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="446" ht="18.75" customHeight="1">
-      <c r="A446" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="M446" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="447" ht="18.75" customHeight="1">
-      <c r="A447" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B447" s="4"/>
-      <c r="M447" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1">
-      <c r="A449" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="2"/>
-      <c r="F449" s="2"/>
-      <c r="G449" s="2"/>
-      <c r="H449" s="2"/>
-      <c r="I449" s="2"/>
-      <c r="J449" s="2"/>
-      <c r="K449" s="2"/>
-      <c r="L449" s="2"/>
-      <c r="M449" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="450" ht="18.75" customHeight="1">
-      <c r="A450" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="M450" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
-    <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
-    <row r="513" ht="18.75" customHeight="1"/>
-    <row r="514" ht="18.75" customHeight="1"/>
-    <row r="515" ht="18.75" customHeight="1"/>
-    <row r="516" ht="18.75" customHeight="1"/>
-    <row r="517" ht="18.75" customHeight="1"/>
-    <row r="518" ht="18.75" customHeight="1"/>
-    <row r="519" ht="18.75" customHeight="1"/>
-    <row r="520" ht="18.75" customHeight="1"/>
-    <row r="521" ht="18.75" customHeight="1"/>
-    <row r="522" ht="18.75" customHeight="1"/>
-    <row r="523" ht="18.75" customHeight="1"/>
-    <row r="524" ht="18.75" customHeight="1"/>
-    <row r="525" ht="18.75" customHeight="1"/>
-    <row r="526" ht="18.75" customHeight="1"/>
-    <row r="527" ht="18.75" customHeight="1"/>
-    <row r="528" ht="18.75" customHeight="1"/>
-    <row r="529" ht="18.75" customHeight="1"/>
-    <row r="530" ht="18.75" customHeight="1"/>
-    <row r="531" ht="18.75" customHeight="1"/>
-    <row r="532" ht="18.75" customHeight="1"/>
-    <row r="533" ht="18.75" customHeight="1"/>
-    <row r="534" ht="18.75" customHeight="1"/>
-    <row r="535" ht="18.75" customHeight="1"/>
-    <row r="536" ht="18.75" customHeight="1"/>
-    <row r="537" ht="18.75" customHeight="1"/>
-    <row r="538" ht="18.75" customHeight="1"/>
-    <row r="539" ht="18.75" customHeight="1"/>
-    <row r="540" ht="18.75" customHeight="1"/>
-    <row r="541" ht="18.75" customHeight="1"/>
-    <row r="542" ht="18.75" customHeight="1"/>
-    <row r="543" ht="18.75" customHeight="1"/>
-    <row r="544" ht="18.75" customHeight="1"/>
-    <row r="545" ht="18.75" customHeight="1"/>
-    <row r="546" ht="18.75" customHeight="1"/>
-    <row r="547" ht="18.75" customHeight="1"/>
-    <row r="548" ht="18.75" customHeight="1"/>
-    <row r="549" ht="18.75" customHeight="1"/>
-    <row r="550" ht="18.75" customHeight="1"/>
-    <row r="551" ht="18.75" customHeight="1"/>
-    <row r="552" ht="18.75" customHeight="1"/>
-    <row r="553" ht="18.75" customHeight="1"/>
-    <row r="554" ht="18.75" customHeight="1"/>
-    <row r="555" ht="18.75" customHeight="1"/>
-    <row r="556" ht="18.75" customHeight="1"/>
-    <row r="557" ht="18.75" customHeight="1"/>
-    <row r="558" ht="18.75" customHeight="1"/>
-    <row r="559" ht="18.75" customHeight="1"/>
-    <row r="560" ht="18.75" customHeight="1"/>
-    <row r="561" ht="18.75" customHeight="1"/>
-    <row r="562" ht="18.75" customHeight="1"/>
-    <row r="563" ht="18.75" customHeight="1"/>
-    <row r="564" ht="18.75" customHeight="1"/>
-    <row r="565" ht="18.75" customHeight="1"/>
-    <row r="566" ht="18.75" customHeight="1"/>
-    <row r="567" ht="18.75" customHeight="1"/>
-    <row r="568" ht="18.75" customHeight="1"/>
-    <row r="569" ht="18.75" customHeight="1"/>
-    <row r="570" ht="18.75" customHeight="1"/>
-    <row r="571" ht="18.75" customHeight="1"/>
-    <row r="572" ht="18.75" customHeight="1"/>
-    <row r="573" ht="18.75" customHeight="1"/>
-    <row r="574" ht="18.75" customHeight="1"/>
-    <row r="575" ht="18.75" customHeight="1"/>
-    <row r="576" ht="18.75" customHeight="1"/>
-    <row r="577" ht="18.75" customHeight="1"/>
-    <row r="578" ht="18.75" customHeight="1"/>
-    <row r="579" ht="18.75" customHeight="1"/>
-    <row r="580" ht="18.75" customHeight="1"/>
-    <row r="581" ht="18.75" customHeight="1"/>
-    <row r="582" ht="18.75" customHeight="1"/>
-    <row r="583" ht="18.75" customHeight="1"/>
-    <row r="584" ht="18.75" customHeight="1"/>
-    <row r="585" ht="18.75" customHeight="1"/>
-    <row r="586" ht="18.75" customHeight="1"/>
-    <row r="587" ht="18.75" customHeight="1"/>
-    <row r="588" ht="18.75" customHeight="1"/>
-    <row r="589" ht="18.75" customHeight="1"/>
-    <row r="590" ht="18.75" customHeight="1"/>
-    <row r="591" ht="18.75" customHeight="1"/>
-    <row r="592" ht="18.75" customHeight="1"/>
-    <row r="593" ht="18.75" customHeight="1"/>
-    <row r="594" ht="18.75" customHeight="1"/>
-    <row r="595" ht="18.75" customHeight="1"/>
-    <row r="596" ht="18.75" customHeight="1"/>
-    <row r="597" ht="18.75" customHeight="1"/>
-    <row r="598" ht="18.75" customHeight="1"/>
-    <row r="599" ht="18.75" customHeight="1"/>
-    <row r="600" ht="18.75" customHeight="1"/>
-    <row r="601" ht="18.75" customHeight="1"/>
-    <row r="602" ht="18.75" customHeight="1"/>
-    <row r="603" ht="18.75" customHeight="1"/>
-    <row r="604" ht="18.75" customHeight="1"/>
-    <row r="605" ht="18.75" customHeight="1"/>
-    <row r="606" ht="18.75" customHeight="1"/>
-    <row r="607" ht="18.75" customHeight="1"/>
-    <row r="608" ht="18.75" customHeight="1"/>
-    <row r="609" ht="18.75" customHeight="1"/>
-    <row r="610" ht="18.75" customHeight="1"/>
-    <row r="611" ht="18.75" customHeight="1"/>
-    <row r="612" ht="18.75" customHeight="1"/>
-    <row r="613" ht="18.75" customHeight="1"/>
-    <row r="614" ht="18.75" customHeight="1"/>
-    <row r="615" ht="18.75" customHeight="1"/>
-    <row r="616" ht="18.75" customHeight="1"/>
-    <row r="617" ht="18.75" customHeight="1"/>
-    <row r="618" ht="18.75" customHeight="1"/>
-    <row r="619" ht="18.75" customHeight="1"/>
-    <row r="620" ht="18.75" customHeight="1"/>
-    <row r="621" ht="18.75" customHeight="1"/>
-    <row r="622" ht="18.75" customHeight="1"/>
-    <row r="623" ht="18.75" customHeight="1"/>
-    <row r="624" ht="18.75" customHeight="1"/>
-    <row r="625" ht="18.75" customHeight="1"/>
-    <row r="626" ht="18.75" customHeight="1"/>
-    <row r="627" ht="18.75" customHeight="1"/>
-    <row r="628" ht="18.75" customHeight="1"/>
-    <row r="629" ht="18.75" customHeight="1"/>
-    <row r="630" ht="18.75" customHeight="1"/>
-    <row r="631" ht="18.75" customHeight="1"/>
-    <row r="632" ht="18.75" customHeight="1"/>
-    <row r="633" ht="18.75" customHeight="1"/>
-    <row r="634" ht="18.75" customHeight="1"/>
-    <row r="635" ht="18.75" customHeight="1"/>
-    <row r="636" ht="18.75" customHeight="1"/>
-    <row r="637" ht="18.75" customHeight="1"/>
-    <row r="638" ht="18.75" customHeight="1"/>
-    <row r="639" ht="18.75" customHeight="1"/>
-    <row r="640" ht="18.75" customHeight="1"/>
-    <row r="641" ht="18.75" customHeight="1"/>
-    <row r="642" ht="18.75" customHeight="1"/>
-    <row r="643" ht="18.75" customHeight="1"/>
-    <row r="644" ht="18.75" customHeight="1"/>
-    <row r="645" ht="18.75" customHeight="1"/>
-    <row r="646" ht="18.75" customHeight="1"/>
-    <row r="647" ht="18.75" customHeight="1"/>
-    <row r="648" ht="18.75" customHeight="1"/>
-    <row r="649" ht="18.75" customHeight="1"/>
-    <row r="650" ht="18.75" customHeight="1"/>
-    <row r="651" ht="18.75" customHeight="1"/>
-    <row r="652" ht="18.75" customHeight="1"/>
-    <row r="653" ht="18.75" customHeight="1"/>
-    <row r="654" ht="18.75" customHeight="1"/>
-    <row r="655" ht="18.75" customHeight="1"/>
-    <row r="656" ht="18.75" customHeight="1"/>
-    <row r="657" ht="18.75" customHeight="1"/>
-    <row r="658" ht="18.75" customHeight="1"/>
-    <row r="659" ht="18.75" customHeight="1"/>
-    <row r="660" ht="18.75" customHeight="1"/>
-    <row r="661" ht="18.75" customHeight="1"/>
-    <row r="662" ht="18.75" customHeight="1"/>
-    <row r="663" ht="18.75" customHeight="1"/>
-    <row r="664" ht="18.75" customHeight="1"/>
-    <row r="665" ht="18.75" customHeight="1"/>
-    <row r="666" ht="18.75" customHeight="1"/>
-    <row r="667" ht="18.75" customHeight="1"/>
-    <row r="668" ht="18.75" customHeight="1"/>
-    <row r="669" ht="18.75" customHeight="1"/>
-    <row r="670" ht="18.75" customHeight="1"/>
-    <row r="671" ht="18.75" customHeight="1"/>
-    <row r="672" ht="18.75" customHeight="1"/>
-    <row r="673" ht="18.75" customHeight="1"/>
-    <row r="674" ht="18.75" customHeight="1"/>
-    <row r="675" ht="18.75" customHeight="1"/>
-    <row r="676" ht="18.75" customHeight="1"/>
-    <row r="677" ht="18.75" customHeight="1"/>
-    <row r="678" ht="18.75" customHeight="1"/>
-    <row r="679" ht="18.75" customHeight="1"/>
-    <row r="680" ht="18.75" customHeight="1"/>
-    <row r="681" ht="18.75" customHeight="1"/>
-    <row r="682" ht="18.75" customHeight="1"/>
-    <row r="683" ht="18.75" customHeight="1"/>
-    <row r="684" ht="18.75" customHeight="1"/>
-    <row r="685" ht="18.75" customHeight="1"/>
-    <row r="686" ht="18.75" customHeight="1"/>
-    <row r="687" ht="18.75" customHeight="1"/>
-    <row r="688" ht="18.75" customHeight="1"/>
-    <row r="689" ht="18.75" customHeight="1"/>
-    <row r="690" ht="18.75" customHeight="1"/>
-    <row r="691" ht="18.75" customHeight="1"/>
-    <row r="692" ht="18.75" customHeight="1"/>
-    <row r="693" ht="18.75" customHeight="1"/>
-    <row r="694" ht="18.75" customHeight="1"/>
-    <row r="695" ht="18.75" customHeight="1"/>
-    <row r="696" ht="18.75" customHeight="1"/>
-    <row r="697" ht="18.75" customHeight="1"/>
-    <row r="698" ht="18.75" customHeight="1"/>
-    <row r="699" ht="18.75" customHeight="1"/>
-    <row r="700" ht="18.75" customHeight="1"/>
-    <row r="701" ht="18.75" customHeight="1"/>
-    <row r="702" ht="18.75" customHeight="1"/>
-    <row r="703" ht="18.75" customHeight="1"/>
-    <row r="704" ht="18.75" customHeight="1"/>
-    <row r="705" ht="18.75" customHeight="1"/>
-    <row r="706" ht="18.75" customHeight="1"/>
-    <row r="707" ht="18.75" customHeight="1"/>
-    <row r="708" ht="18.75" customHeight="1"/>
-    <row r="709" ht="18.75" customHeight="1"/>
-    <row r="710" ht="18.75" customHeight="1"/>
-    <row r="711" ht="18.75" customHeight="1"/>
-    <row r="712" ht="18.75" customHeight="1"/>
-    <row r="713" ht="18.75" customHeight="1"/>
-    <row r="714" ht="18.75" customHeight="1"/>
-    <row r="715" ht="18.75" customHeight="1"/>
-    <row r="716" ht="18.75" customHeight="1"/>
-    <row r="717" ht="18.75" customHeight="1"/>
-    <row r="718" ht="18.75" customHeight="1"/>
-    <row r="719" ht="18.75" customHeight="1"/>
-    <row r="720" ht="18.75" customHeight="1"/>
-    <row r="721" ht="18.75" customHeight="1"/>
-    <row r="722" ht="18.75" customHeight="1"/>
-    <row r="723" ht="18.75" customHeight="1"/>
-    <row r="724" ht="18.75" customHeight="1"/>
-    <row r="725" ht="18.75" customHeight="1"/>
-    <row r="726" ht="18.75" customHeight="1"/>
-    <row r="727" ht="18.75" customHeight="1"/>
-    <row r="728" ht="18.75" customHeight="1"/>
-    <row r="729" ht="18.75" customHeight="1"/>
-    <row r="730" ht="18.75" customHeight="1"/>
-    <row r="731" ht="18.75" customHeight="1"/>
-    <row r="732" ht="18.75" customHeight="1"/>
-    <row r="733" ht="18.75" customHeight="1"/>
-    <row r="734" ht="18.75" customHeight="1"/>
-    <row r="735" ht="18.75" customHeight="1"/>
-    <row r="736" ht="18.75" customHeight="1"/>
-    <row r="737" ht="18.75" customHeight="1"/>
-    <row r="738" ht="18.75" customHeight="1"/>
-    <row r="739" ht="18.75" customHeight="1"/>
-    <row r="740" ht="18.75" customHeight="1"/>
-    <row r="741" ht="18.75" customHeight="1"/>
-    <row r="742" ht="18.75" customHeight="1"/>
-    <row r="743" ht="18.75" customHeight="1"/>
-    <row r="744" ht="18.75" customHeight="1"/>
-    <row r="745" ht="18.75" customHeight="1"/>
-    <row r="746" ht="18.75" customHeight="1"/>
-    <row r="747" ht="18.75" customHeight="1"/>
-    <row r="748" ht="18.75" customHeight="1"/>
-    <row r="749" ht="18.75" customHeight="1"/>
-    <row r="750" ht="18.75" customHeight="1"/>
-    <row r="751" ht="18.75" customHeight="1"/>
-    <row r="752" ht="18.75" customHeight="1"/>
-    <row r="753" ht="18.75" customHeight="1"/>
-    <row r="754" ht="18.75" customHeight="1"/>
-    <row r="755" ht="18.75" customHeight="1"/>
-    <row r="756" ht="18.75" customHeight="1"/>
-    <row r="757" ht="18.75" customHeight="1"/>
-    <row r="758" ht="18.75" customHeight="1"/>
-    <row r="759" ht="18.75" customHeight="1"/>
-    <row r="760" ht="18.75" customHeight="1"/>
-    <row r="761" ht="18.75" customHeight="1"/>
-    <row r="762" ht="18.75" customHeight="1"/>
-    <row r="763" ht="18.75" customHeight="1"/>
-    <row r="764" ht="18.75" customHeight="1"/>
-    <row r="765" ht="18.75" customHeight="1"/>
-    <row r="766" ht="18.75" customHeight="1"/>
-    <row r="767" ht="18.75" customHeight="1"/>
-    <row r="768" ht="18.75" customHeight="1"/>
-    <row r="769" ht="18.75" customHeight="1"/>
-    <row r="770" ht="18.75" customHeight="1"/>
-    <row r="771" ht="18.75" customHeight="1"/>
-    <row r="772" ht="18.75" customHeight="1"/>
-    <row r="773" ht="18.75" customHeight="1"/>
-    <row r="774" ht="18.75" customHeight="1"/>
-    <row r="775" ht="18.75" customHeight="1"/>
-    <row r="776" ht="18.75" customHeight="1"/>
-    <row r="777" ht="18.75" customHeight="1"/>
-    <row r="778" ht="18.75" customHeight="1"/>
-    <row r="779" ht="18.75" customHeight="1"/>
-    <row r="780" ht="18.75" customHeight="1"/>
-    <row r="781" ht="18.75" customHeight="1"/>
-    <row r="782" ht="18.75" customHeight="1"/>
-    <row r="783" ht="18.75" customHeight="1"/>
-    <row r="784" ht="18.75" customHeight="1"/>
-    <row r="785" ht="18.75" customHeight="1"/>
-    <row r="786" ht="18.75" customHeight="1"/>
-    <row r="787" ht="18.75" customHeight="1"/>
-    <row r="788" ht="18.75" customHeight="1"/>
-    <row r="789" ht="18.75" customHeight="1"/>
-    <row r="790" ht="18.75" customHeight="1"/>
-    <row r="791" ht="18.75" customHeight="1"/>
-    <row r="792" ht="18.75" customHeight="1"/>
-    <row r="793" ht="18.75" customHeight="1"/>
-    <row r="794" ht="18.75" customHeight="1"/>
-    <row r="795" ht="18.75" customHeight="1"/>
-    <row r="796" ht="18.75" customHeight="1"/>
-    <row r="797" ht="18.75" customHeight="1"/>
-    <row r="798" ht="18.75" customHeight="1"/>
-    <row r="799" ht="18.75" customHeight="1"/>
-    <row r="800" ht="18.75" customHeight="1"/>
-    <row r="801" ht="18.75" customHeight="1"/>
-    <row r="802" ht="18.75" customHeight="1"/>
-    <row r="803" ht="18.75" customHeight="1"/>
-    <row r="804" ht="18.75" customHeight="1"/>
-    <row r="805" ht="18.75" customHeight="1"/>
-    <row r="806" ht="18.75" customHeight="1"/>
-    <row r="807" ht="18.75" customHeight="1"/>
-    <row r="808" ht="18.75" customHeight="1"/>
-    <row r="809" ht="18.75" customHeight="1"/>
-    <row r="810" ht="18.75" customHeight="1"/>
-    <row r="811" ht="18.75" customHeight="1"/>
-    <row r="812" ht="18.75" customHeight="1"/>
-    <row r="813" ht="18.75" customHeight="1"/>
-    <row r="814" ht="18.75" customHeight="1"/>
-    <row r="815" ht="18.75" customHeight="1"/>
-    <row r="816" ht="18.75" customHeight="1"/>
-    <row r="817" ht="18.75" customHeight="1"/>
-    <row r="818" ht="18.75" customHeight="1"/>
-    <row r="819" ht="18.75" customHeight="1"/>
-    <row r="820" ht="18.75" customHeight="1"/>
-    <row r="821" ht="18.75" customHeight="1"/>
-    <row r="822" ht="18.75" customHeight="1"/>
-    <row r="823" ht="18.75" customHeight="1"/>
-    <row r="824" ht="18.75" customHeight="1"/>
-    <row r="825" ht="18.75" customHeight="1"/>
-    <row r="826" ht="18.75" customHeight="1"/>
-    <row r="827" ht="18.75" customHeight="1"/>
-    <row r="828" ht="18.75" customHeight="1"/>
-    <row r="829" ht="18.75" customHeight="1"/>
-    <row r="830" ht="18.75" customHeight="1"/>
-    <row r="831" ht="18.75" customHeight="1"/>
-    <row r="832" ht="18.75" customHeight="1"/>
-    <row r="833" ht="18.75" customHeight="1"/>
-    <row r="834" ht="18.75" customHeight="1"/>
-    <row r="835" ht="18.75" customHeight="1"/>
-    <row r="836" ht="18.75" customHeight="1"/>
-    <row r="837" ht="18.75" customHeight="1"/>
-    <row r="838" ht="18.75" customHeight="1"/>
-    <row r="839" ht="18.75" customHeight="1"/>
-    <row r="840" ht="18.75" customHeight="1"/>
-    <row r="841" ht="18.75" customHeight="1"/>
-    <row r="842" ht="18.75" customHeight="1"/>
-    <row r="843" ht="18.75" customHeight="1"/>
-    <row r="844" ht="18.75" customHeight="1"/>
-    <row r="845" ht="18.75" customHeight="1"/>
-    <row r="846" ht="18.75" customHeight="1"/>
-    <row r="847" ht="18.75" customHeight="1"/>
-    <row r="848" ht="18.75" customHeight="1"/>
-    <row r="849" ht="18.75" customHeight="1"/>
-    <row r="850" ht="18.75" customHeight="1"/>
-    <row r="851" ht="18.75" customHeight="1"/>
-    <row r="852" ht="18.75" customHeight="1"/>
-    <row r="853" ht="18.75" customHeight="1"/>
-    <row r="854" ht="18.75" customHeight="1"/>
-    <row r="855" ht="18.75" customHeight="1"/>
-    <row r="856" ht="18.75" customHeight="1"/>
-    <row r="857" ht="18.75" customHeight="1"/>
-    <row r="858" ht="18.75" customHeight="1"/>
-    <row r="859" ht="18.75" customHeight="1"/>
-    <row r="860" ht="18.75" customHeight="1"/>
-    <row r="861" ht="18.75" customHeight="1"/>
-    <row r="862" ht="18.75" customHeight="1"/>
-    <row r="863" ht="18.75" customHeight="1"/>
-    <row r="864" ht="18.75" customHeight="1"/>
-    <row r="865" ht="18.75" customHeight="1"/>
-    <row r="866" ht="18.75" customHeight="1"/>
-    <row r="867" ht="18.75" customHeight="1"/>
-    <row r="868" ht="18.75" customHeight="1"/>
-    <row r="869" ht="18.75" customHeight="1"/>
-    <row r="870" ht="18.75" customHeight="1"/>
-    <row r="871" ht="18.75" customHeight="1"/>
-    <row r="872" ht="18.75" customHeight="1"/>
-    <row r="873" ht="18.75" customHeight="1"/>
-    <row r="874" ht="18.75" customHeight="1"/>
-    <row r="875" ht="18.75" customHeight="1"/>
-    <row r="876" ht="18.75" customHeight="1"/>
-    <row r="877" ht="18.75" customHeight="1"/>
-    <row r="878" ht="18.75" customHeight="1"/>
-    <row r="879" ht="18.75" customHeight="1"/>
-    <row r="880" ht="18.75" customHeight="1"/>
-    <row r="881" ht="18.75" customHeight="1"/>
-    <row r="882" ht="18.75" customHeight="1"/>
-    <row r="883" ht="18.75" customHeight="1"/>
-    <row r="884" ht="18.75" customHeight="1"/>
-    <row r="885" ht="18.75" customHeight="1"/>
-    <row r="886" ht="18.75" customHeight="1"/>
-    <row r="887" ht="18.75" customHeight="1"/>
-    <row r="888" ht="18.75" customHeight="1"/>
-    <row r="889" ht="18.75" customHeight="1"/>
-    <row r="890" ht="18.75" customHeight="1"/>
-    <row r="891" ht="18.75" customHeight="1"/>
-    <row r="892" ht="18.75" customHeight="1"/>
-    <row r="893" ht="18.75" customHeight="1"/>
-    <row r="894" ht="18.75" customHeight="1"/>
-    <row r="895" ht="18.75" customHeight="1"/>
-    <row r="896" ht="18.75" customHeight="1"/>
-    <row r="897" ht="18.75" customHeight="1"/>
-    <row r="898" ht="18.75" customHeight="1"/>
-    <row r="899" ht="18.75" customHeight="1"/>
-    <row r="900" ht="18.75" customHeight="1"/>
-    <row r="901" ht="18.75" customHeight="1"/>
-    <row r="902" ht="18.75" customHeight="1"/>
-    <row r="903" ht="18.75" customHeight="1"/>
-    <row r="904" ht="18.75" customHeight="1"/>
-    <row r="905" ht="18.75" customHeight="1"/>
-    <row r="906" ht="18.75" customHeight="1"/>
-    <row r="907" ht="18.75" customHeight="1"/>
-    <row r="908" ht="18.75" customHeight="1"/>
-    <row r="909" ht="18.75" customHeight="1"/>
-    <row r="910" ht="18.75" customHeight="1"/>
-    <row r="911" ht="18.75" customHeight="1"/>
-    <row r="912" ht="18.75" customHeight="1"/>
-    <row r="913" ht="18.75" customHeight="1"/>
-    <row r="914" ht="18.75" customHeight="1"/>
-    <row r="915" ht="18.75" customHeight="1"/>
-    <row r="916" ht="18.75" customHeight="1"/>
-    <row r="917" ht="18.75" customHeight="1"/>
-    <row r="918" ht="18.75" customHeight="1"/>
-    <row r="919" ht="18.75" customHeight="1"/>
-    <row r="920" ht="18.75" customHeight="1"/>
-    <row r="921" ht="18.75" customHeight="1"/>
-    <row r="922" ht="18.75" customHeight="1"/>
-    <row r="923" ht="18.75" customHeight="1"/>
-    <row r="924" ht="18.75" customHeight="1"/>
-    <row r="925" ht="18.75" customHeight="1"/>
-    <row r="926" ht="18.75" customHeight="1"/>
-    <row r="927" ht="18.75" customHeight="1"/>
-    <row r="928" ht="18.75" customHeight="1"/>
-    <row r="929" ht="18.75" customHeight="1"/>
-    <row r="930" ht="18.75" customHeight="1"/>
-    <row r="931" ht="18.75" customHeight="1"/>
-    <row r="932" ht="18.75" customHeight="1"/>
-    <row r="933" ht="18.75" customHeight="1"/>
-    <row r="934" ht="18.75" customHeight="1"/>
-    <row r="935" ht="18.75" customHeight="1"/>
-    <row r="936" ht="18.75" customHeight="1"/>
-    <row r="937" ht="18.75" customHeight="1"/>
-    <row r="938" ht="18.75" customHeight="1"/>
-    <row r="939" ht="18.75" customHeight="1"/>
-    <row r="940" ht="18.75" customHeight="1"/>
-    <row r="941" ht="18.75" customHeight="1"/>
-    <row r="942" ht="18.75" customHeight="1"/>
-    <row r="943" ht="18.75" customHeight="1"/>
-    <row r="944" ht="18.75" customHeight="1"/>
-    <row r="945" ht="18.75" customHeight="1"/>
-    <row r="946" ht="18.75" customHeight="1"/>
-    <row r="947" ht="18.75" customHeight="1"/>
-    <row r="948" ht="18.75" customHeight="1"/>
-    <row r="949" ht="18.75" customHeight="1"/>
-    <row r="950" ht="18.75" customHeight="1"/>
-    <row r="951" ht="18.75" customHeight="1"/>
-    <row r="952" ht="18.75" customHeight="1"/>
-    <row r="953" ht="18.75" customHeight="1"/>
-    <row r="954" ht="18.75" customHeight="1"/>
-    <row r="955" ht="18.75" customHeight="1"/>
-    <row r="956" ht="18.75" customHeight="1"/>
-    <row r="957" ht="18.75" customHeight="1"/>
-    <row r="958" ht="18.75" customHeight="1"/>
-    <row r="959" ht="18.75" customHeight="1"/>
-    <row r="960" ht="18.75" customHeight="1"/>
-    <row r="961" ht="18.75" customHeight="1"/>
-    <row r="962" ht="18.75" customHeight="1"/>
-    <row r="963" ht="18.75" customHeight="1"/>
-    <row r="964" ht="18.75" customHeight="1"/>
-    <row r="965" ht="18.75" customHeight="1"/>
-    <row r="966" ht="18.75" customHeight="1"/>
-    <row r="967" ht="18.75" customHeight="1"/>
-    <row r="968" ht="18.75" customHeight="1"/>
-    <row r="969" ht="18.75" customHeight="1"/>
-    <row r="970" ht="18.75" customHeight="1"/>
-    <row r="971" ht="18.75" customHeight="1"/>
-    <row r="972" ht="18.75" customHeight="1"/>
-    <row r="973" ht="18.75" customHeight="1"/>
-    <row r="974" ht="18.75" customHeight="1"/>
-    <row r="975" ht="18.75" customHeight="1"/>
-    <row r="976" ht="18.75" customHeight="1"/>
-    <row r="977" ht="18.75" customHeight="1"/>
-    <row r="978" ht="18.75" customHeight="1"/>
-    <row r="979" ht="18.75" customHeight="1"/>
-    <row r="980" ht="18.75" customHeight="1"/>
-    <row r="981" ht="18.75" customHeight="1"/>
-    <row r="982" ht="18.75" customHeight="1"/>
-    <row r="983" ht="18.75" customHeight="1"/>
-    <row r="984" ht="18.75" customHeight="1"/>
-    <row r="985" ht="18.75" customHeight="1"/>
-    <row r="986" ht="18.75" customHeight="1"/>
-    <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
-    <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
-    <row r="1001" ht="18.75" customHeight="1"/>
-    <row r="1002" ht="18.75" customHeight="1"/>
-    <row r="1003" ht="18.75" customHeight="1"/>
-    <row r="1004" ht="18.75" customHeight="1"/>
-    <row r="1005" ht="18.75" customHeight="1"/>
+    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjiEzO0kgBcV5Pv4twY3RTevOEu0w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgJC343I79bfJtiPQYNhr/i3RNM2Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="833">
   <si>
     <t>English</t>
   </si>
@@ -1282,6 +1282,60 @@
   </si>
   <si>
     <t>ハッターのシンボル</t>
+  </si>
+  <si>
+    <t>hachihachi</t>
+  </si>
+  <si>
+    <t>はちはち</t>
+  </si>
+  <si>
+    <t>saberu</t>
+  </si>
+  <si>
+    <t>サーベル</t>
+  </si>
+  <si>
+    <t>ribasukado</t>
+  </si>
+  <si>
+    <t>リバースカード</t>
+  </si>
+  <si>
+    <t>sukitsupukado</t>
+  </si>
+  <si>
+    <t>スキップカード</t>
+  </si>
+  <si>
+    <t>BoDongnopawa</t>
+  </si>
+  <si>
+    <t>波動のパワー</t>
+  </si>
+  <si>
+    <t>HuiMiaoki</t>
+  </si>
+  <si>
+    <t>絵描き</t>
+  </si>
+  <si>
+    <t>kokoGuess</t>
+  </si>
+  <si>
+    <t>ここGuess</t>
+  </si>
+  <si>
+    <t>JinnoWangZhe</t>
+  </si>
+  <si>
+    <t>金の亡者</t>
+  </si>
+  <si>
+    <t>koinYunbiWu</t>
+  </si>
+  <si>
+    <t>コイン運び屋</t>
   </si>
   <si>
     <t>itow</t>
@@ -2490,7 +2544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -2500,12 +2554,21 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -2532,7 +2595,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2540,12 +2603,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -4768,156 +4834,153 @@
       </c>
     </row>
     <row r="220" ht="18.75" customHeight="1">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="M220" s="3" t="s">
+      <c r="M220" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="221" ht="18.75" customHeight="1">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="M221" s="3" t="s">
+      <c r="M221" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="222" ht="18.75" customHeight="1">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="M222" s="3" t="s">
+      <c r="M222" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="223" ht="18.75" customHeight="1">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="M223" s="3" t="s">
+      <c r="M223" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="224" ht="18.75" customHeight="1">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M224" s="3" t="s">
+      <c r="M224" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="225" ht="18.75" customHeight="1"/>
-    <row r="226" ht="18.75" customHeight="1"/>
+    <row r="225" ht="18.75" customHeight="1">
+      <c r="A225" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" ht="18.75" customHeight="1">
+      <c r="A226" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
     <row r="227" ht="18.75" customHeight="1">
-      <c r="A227" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M227" s="1" t="s">
-        <v>423</v>
+      <c r="A227" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="228" ht="18.75" customHeight="1">
-      <c r="A228" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M228" s="1" t="s">
-        <v>425</v>
+      <c r="A228" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="229" ht="18.75" customHeight="1">
-      <c r="A229" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M229" s="1" t="s">
-        <v>427</v>
+      <c r="A229" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="230" ht="18.75" customHeight="1">
-      <c r="A230" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="M230" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="231" ht="18.75" customHeight="1"/>
+      <c r="A230" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="231" ht="18.75" customHeight="1">
+      <c r="A231" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
     <row r="232" ht="18.75" customHeight="1">
-      <c r="A232" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="M232" s="1" t="s">
-        <v>431</v>
+      <c r="A232" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="233" ht="18.75" customHeight="1">
-      <c r="A233" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="M233" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="234" ht="18.75" customHeight="1">
-      <c r="A234" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="M234" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
+      <c r="A233" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="234" ht="18.75" customHeight="1"/>
     <row r="235" ht="18.75" customHeight="1"/>
     <row r="236" ht="18.75" customHeight="1"/>
     <row r="237" ht="18.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="238" ht="18.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="239" ht="18.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="240" ht="18.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="241" ht="18.75" customHeight="1">
-      <c r="A241" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="M241" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="N241" s="2"/>
-    </row>
+    </row>
+    <row r="241" ht="18.75" customHeight="1"/>
     <row r="242" ht="18.75" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>448</v>
@@ -4942,131 +5005,120 @@
         <v>453</v>
       </c>
     </row>
-    <row r="245" ht="18.75" customHeight="1">
-      <c r="A245" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="M245" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
+    <row r="245" ht="18.75" customHeight="1"/>
     <row r="246" ht="18.75" customHeight="1"/>
     <row r="247" ht="18.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="248" ht="18.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="249" ht="18.75" customHeight="1">
       <c r="A249" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="M249" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="250" ht="18.75" customHeight="1">
       <c r="A250" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="M250" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="251" ht="18.75" customHeight="1">
       <c r="A251" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M251" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="M251" s="1" t="s">
-        <v>466</v>
-      </c>
+      <c r="N251" s="2"/>
     </row>
     <row r="252" ht="18.75" customHeight="1">
       <c r="A252" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="M252" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="M252" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="253" ht="18.75" customHeight="1">
       <c r="A253" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="M253" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M253" s="1" t="s">
+    </row>
+    <row r="254" ht="18.75" customHeight="1">
+      <c r="A254" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="254" ht="18.75" customHeight="1">
-      <c r="A254" s="2" t="s">
+      <c r="M254" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2" t="s">
+    </row>
+    <row r="255" ht="18.75" customHeight="1">
+      <c r="A255" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="255" ht="18.75" customHeight="1"/>
-    <row r="256" ht="18.75" customHeight="1">
-      <c r="A256" s="1" t="s">
+      <c r="M255" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M256" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
+    </row>
+    <row r="256" ht="18.75" customHeight="1"/>
     <row r="257" ht="18.75" customHeight="1">
       <c r="A257" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M257" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="258" ht="18.75" customHeight="1">
       <c r="A258" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="M258" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="259" ht="18.75" customHeight="1">
       <c r="A259" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M259" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="260" ht="18.75" customHeight="1">
       <c r="A260" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>481</v>
       </c>
       <c r="M260" s="1" t="s">
@@ -5074,114 +5126,73 @@
       </c>
     </row>
     <row r="261" ht="18.75" customHeight="1">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="262" ht="18.75" customHeight="1"/>
+    <row r="262" ht="18.75" customHeight="1">
+      <c r="A262" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
     <row r="263" ht="18.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="264" ht="18.75" customHeight="1">
-      <c r="A264" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="265" ht="18.75" customHeight="1">
-      <c r="A265" s="2" t="s">
+      <c r="A264" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2" t="s">
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+      <c r="J264" s="2"/>
+      <c r="K264" s="2"/>
+      <c r="L264" s="2"/>
+      <c r="M264" s="2" t="s">
         <v>490</v>
       </c>
     </row>
+    <row r="265" ht="18.75" customHeight="1"/>
     <row r="266" ht="18.75" customHeight="1">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-      <c r="G266" s="4"/>
-      <c r="H266" s="4"/>
-      <c r="I266" s="4"/>
-      <c r="J266" s="4"/>
-      <c r="K266" s="4"/>
-      <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="1" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="267" ht="18.75" customHeight="1">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
-      <c r="I267" s="4"/>
-      <c r="J267" s="4"/>
-      <c r="K267" s="4"/>
-      <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="1" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="268" ht="18.75" customHeight="1">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
-      <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
-      <c r="I268" s="4"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="4"/>
-      <c r="L268" s="4"/>
-      <c r="M268" s="4" t="s">
+      <c r="M268" s="1" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5193,386 +5204,441 @@
         <v>498</v>
       </c>
     </row>
-    <row r="270" ht="18.75" customHeight="1"/>
+    <row r="270" ht="18.75" customHeight="1">
+      <c r="A270" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
     <row r="271" ht="18.75" customHeight="1">
-      <c r="A271" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="4"/>
-      <c r="L271" s="4"/>
-      <c r="M271" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="272" ht="18.75" customHeight="1">
-      <c r="A272" s="4" t="s">
+      <c r="A271" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="4"/>
-      <c r="J272" s="4"/>
-      <c r="K272" s="4"/>
-      <c r="L272" s="4"/>
-      <c r="M272" s="4" t="s">
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2" t="s">
         <v>502</v>
       </c>
     </row>
+    <row r="272" ht="18.75" customHeight="1"/>
     <row r="273" ht="18.75" customHeight="1">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-      <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
-      <c r="I273" s="4"/>
-      <c r="J273" s="4"/>
-      <c r="K273" s="4"/>
-      <c r="L273" s="4"/>
-      <c r="M273" s="4" t="s">
+      <c r="M273" s="1" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="274" ht="18.75" customHeight="1">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
-      <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
-      <c r="I274" s="4"/>
-      <c r="J274" s="4"/>
-      <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
-      <c r="M274" s="4" t="s">
+      <c r="M274" s="1" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="275" ht="18.75" customHeight="1">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
-      <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
-      <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
-      <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
-      <c r="M275" s="4" t="s">
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+      <c r="M275" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="276" ht="18.75" customHeight="1">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
-      <c r="I276" s="4"/>
-      <c r="J276" s="4"/>
-      <c r="K276" s="4"/>
-      <c r="L276" s="4"/>
-      <c r="M276" s="4" t="s">
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="5"/>
+      <c r="M276" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="277" ht="18.75" customHeight="1">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
-      <c r="I277" s="4"/>
-      <c r="J277" s="4"/>
-      <c r="K277" s="4"/>
-      <c r="L277" s="4"/>
-      <c r="M277" s="4" t="s">
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="2" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="278" ht="18.75" customHeight="1">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
-      <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
-      <c r="I278" s="4"/>
-      <c r="J278" s="4"/>
-      <c r="K278" s="4"/>
-      <c r="L278" s="4"/>
-      <c r="M278" s="4" t="s">
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="279" ht="18.75" customHeight="1">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="1" t="s">
         <v>515</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="280" ht="18.75" customHeight="1">
-      <c r="A280" s="6" t="s">
+    <row r="280" ht="18.75" customHeight="1"/>
+    <row r="281" ht="18.75" customHeight="1">
+      <c r="A281" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="M280" s="6" t="s">
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="5"/>
+      <c r="M281" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="281" ht="18.75" customHeight="1">
-      <c r="A281" s="4" t="s">
+    <row r="282" ht="18.75" customHeight="1">
+      <c r="A282" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="M281" s="4" t="s">
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="5"/>
+      <c r="L282" s="5"/>
+      <c r="M282" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="282" ht="18.75" customHeight="1">
-      <c r="A282" s="6" t="s">
+    <row r="283" ht="18.75" customHeight="1">
+      <c r="A283" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
-      <c r="E282" s="4"/>
-      <c r="F282" s="4"/>
-      <c r="G282" s="4"/>
-      <c r="H282" s="4"/>
-      <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
-      <c r="K282" s="4"/>
-      <c r="L282" s="4"/>
-      <c r="M282" s="6" t="s">
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="5"/>
+      <c r="M283" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="283" ht="18.75" customHeight="1">
-      <c r="A283" s="4" t="s">
+    <row r="284" ht="18.75" customHeight="1">
+      <c r="A284" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="M283" s="4" t="s">
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="5"/>
+      <c r="K284" s="5"/>
+      <c r="L284" s="5"/>
+      <c r="M284" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="284" ht="18.75" customHeight="1">
-      <c r="A284" s="2" t="s">
+    <row r="285" ht="18.75" customHeight="1">
+      <c r="A285" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="M284" s="4" t="s">
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+      <c r="M285" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="285" ht="18.75" customHeight="1">
-      <c r="A285" s="4" t="s">
+    <row r="286" ht="18.75" customHeight="1">
+      <c r="A286" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="M285" s="4" t="s">
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="5"/>
+      <c r="M286" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="286" ht="18.75" customHeight="1">
-      <c r="A286" s="2" t="s">
+    <row r="287" ht="18.75" customHeight="1">
+      <c r="A287" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
-      <c r="I286" s="2"/>
-      <c r="J286" s="2"/>
-      <c r="K286" s="2"/>
-      <c r="L286" s="2"/>
-      <c r="M286" s="2" t="s">
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="5"/>
+      <c r="L287" s="5"/>
+      <c r="M287" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="287" ht="18.75" customHeight="1">
-      <c r="A287" s="2" t="s">
+    <row r="288" ht="18.75" customHeight="1">
+      <c r="A288" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2"/>
-      <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
-      <c r="M287" s="2" t="s">
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+      <c r="K288" s="5"/>
+      <c r="L288" s="5"/>
+      <c r="M288" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="288" ht="18.75" customHeight="1"/>
-    <row r="289" ht="18.75" customHeight="1"/>
-    <row r="290" ht="18.75" customHeight="1"/>
-    <row r="291" ht="18.75" customHeight="1"/>
-    <row r="292" ht="18.75" customHeight="1"/>
-    <row r="293" ht="18.75" customHeight="1"/>
-    <row r="294" ht="18.75" customHeight="1"/>
-    <row r="295" ht="18.75" customHeight="1"/>
-    <row r="296" ht="18.75" customHeight="1"/>
-    <row r="297" ht="18.75" customHeight="1"/>
+    <row r="289" ht="18.75" customHeight="1">
+      <c r="A289" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="290" ht="18.75" customHeight="1">
+      <c r="A290" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M290" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="291" ht="18.75" customHeight="1">
+      <c r="A291" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="M291" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="292" ht="18.75" customHeight="1">
+      <c r="A292" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="5"/>
+      <c r="M292" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="293" ht="18.75" customHeight="1">
+      <c r="A293" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="M293" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="294" ht="18.75" customHeight="1">
+      <c r="A294" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="M294" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="295" ht="18.75" customHeight="1">
+      <c r="A295" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="M295" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="296" ht="18.75" customHeight="1">
+      <c r="A296" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
+      <c r="J296" s="2"/>
+      <c r="K296" s="2"/>
+      <c r="L296" s="2"/>
+      <c r="M296" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="297" ht="18.75" customHeight="1">
+      <c r="A297" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+      <c r="L297" s="2"/>
+      <c r="M297" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
     <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1">
-      <c r="A299" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="M299" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="300" ht="18.75" customHeight="1">
-      <c r="A300" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="M300" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="301" ht="18.75" customHeight="1">
-      <c r="A301" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M301" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="302" ht="18.75" customHeight="1">
-      <c r="A302" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M302" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
+    <row r="299" ht="18.75" customHeight="1"/>
+    <row r="300" ht="18.75" customHeight="1"/>
+    <row r="301" ht="18.75" customHeight="1"/>
+    <row r="302" ht="18.75" customHeight="1"/>
     <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1">
-      <c r="A304" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M304" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="305" ht="18.75" customHeight="1">
-      <c r="A305" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="M305" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="306" ht="18.75" customHeight="1">
-      <c r="A306" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="M306" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="307" ht="18.75" customHeight="1">
-      <c r="A307" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="M307" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
+    <row r="304" ht="18.75" customHeight="1"/>
+    <row r="305" ht="18.75" customHeight="1"/>
+    <row r="306" ht="18.75" customHeight="1"/>
+    <row r="307" ht="18.75" customHeight="1"/>
     <row r="308" ht="18.75" customHeight="1"/>
     <row r="309" ht="18.75" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="M309" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="M309" s="5" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="310" ht="18.75" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="M310" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="M310" s="5" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="311" ht="18.75" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="M311" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
+      </c>
+      <c r="M311" s="5" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="312" ht="18.75" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M312" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="313" ht="18.75" customHeight="1">
-      <c r="A313" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M313" s="4" t="s">
+      <c r="M312" s="5" t="s">
         <v>558</v>
       </c>
     </row>
+    <row r="313" ht="18.75" customHeight="1"/>
     <row r="314" ht="18.75" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M314" s="4" t="s">
+      <c r="M314" s="5" t="s">
         <v>560</v>
       </c>
     </row>
@@ -5580,7 +5646,7 @@
       <c r="A315" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="M315" s="4" t="s">
+      <c r="M315" s="5" t="s">
         <v>562</v>
       </c>
     </row>
@@ -5588,7 +5654,7 @@
       <c r="A316" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="M316" s="4" t="s">
+      <c r="M316" s="5" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5596,104 +5662,104 @@
       <c r="A317" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="M317" s="4" t="s">
+      <c r="M317" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="318" ht="18.75" customHeight="1">
-      <c r="A318" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="M318" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
+    <row r="318" ht="18.75" customHeight="1"/>
     <row r="319" ht="18.75" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="M319" s="4" t="s">
-        <v>549</v>
+        <v>567</v>
+      </c>
+      <c r="M319" s="5" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="320" ht="18.75" customHeight="1">
       <c r="A320" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="M320" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="M320" s="4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="321" ht="18.75" customHeight="1">
       <c r="A321" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M321" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="M321" s="1" t="s">
+    </row>
+    <row r="322" ht="18.75" customHeight="1">
+      <c r="A322" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="322" ht="18.75" customHeight="1"/>
+      <c r="M322" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
     <row r="323" ht="18.75" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M323" s="1" t="s">
         <v>575</v>
+      </c>
+      <c r="M323" s="5" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="324" ht="18.75" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="M324" s="1" t="s">
         <v>577</v>
+      </c>
+      <c r="M324" s="5" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="325" ht="18.75" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="M325" s="1" t="s">
         <v>579</v>
+      </c>
+      <c r="M325" s="5" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="326" ht="18.75" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="M326" s="1" t="s">
         <v>581</v>
+      </c>
+      <c r="M326" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="327" ht="18.75" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="M327" s="1" t="s">
         <v>583</v>
+      </c>
+      <c r="M327" s="5" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="328" ht="18.75" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="M328" s="1" t="s">
         <v>585</v>
+      </c>
+      <c r="M328" s="5" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="329" ht="18.75" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="M329" s="1" t="s">
         <v>587</v>
+      </c>
+      <c r="M329" s="5" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="330" ht="18.75" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="M330" s="1" t="s">
+      <c r="M330" s="5" t="s">
         <v>589</v>
       </c>
     </row>
@@ -5705,383 +5771,248 @@
         <v>591</v>
       </c>
     </row>
-    <row r="332" ht="18.75" customHeight="1">
-      <c r="A332" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="M332" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
+    <row r="332" ht="18.75" customHeight="1"/>
     <row r="333" ht="18.75" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M333" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="334" ht="18.75" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M334" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="335" ht="18.75" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="336" ht="18.75" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="M336" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="337" ht="18.75" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M337" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="338" ht="18.75" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M338" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="339" ht="18.75" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M339" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="340" ht="18.75" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M340" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="341" ht="18.75" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M341" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="342" ht="18.75" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M342" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="343" ht="18.75" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="344" ht="18.75" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="M344" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="345" ht="18.75" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="346" ht="18.75" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="347" ht="18.75" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M347" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="348" ht="18.75" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="349" ht="18.75" customHeight="1">
       <c r="A349" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="350" ht="18.75" customHeight="1">
       <c r="A350" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="M350" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="351" ht="18.75" customHeight="1">
       <c r="A351" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="352" ht="18.75" customHeight="1">
+      <c r="A352" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="M351" s="1" t="s">
+      <c r="M352" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="352" ht="18.75" customHeight="1"/>
     <row r="353" ht="18.75" customHeight="1">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
-      <c r="G353" s="2"/>
-      <c r="H353" s="2"/>
-      <c r="I353" s="2"/>
-      <c r="J353" s="2"/>
-      <c r="K353" s="2"/>
-      <c r="L353" s="2"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="1" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="354" ht="18.75" customHeight="1">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2"/>
-      <c r="K354" s="2"/>
-      <c r="L354" s="2"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="1" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="355" ht="18.75" customHeight="1">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
-      <c r="J355" s="2"/>
-      <c r="K355" s="2"/>
-      <c r="L355" s="2"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="1" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="356" ht="18.75" customHeight="1">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="2"/>
-      <c r="K356" s="2"/>
-      <c r="L356" s="2"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="1" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="357" ht="18.75" customHeight="1">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-      <c r="E357" s="2"/>
-      <c r="F357" s="2"/>
-      <c r="G357" s="2"/>
-      <c r="H357" s="2"/>
-      <c r="I357" s="2"/>
-      <c r="J357" s="2"/>
-      <c r="K357" s="2"/>
-      <c r="L357" s="2"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="1" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="358" ht="18.75" customHeight="1">
-      <c r="A358" s="2" t="s">
+      <c r="A358" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
-      <c r="F358" s="2"/>
-      <c r="G358" s="2"/>
-      <c r="H358" s="2"/>
-      <c r="I358" s="2"/>
-      <c r="J358" s="2"/>
-      <c r="K358" s="2"/>
-      <c r="L358" s="2"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="1" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="359" ht="18.75" customHeight="1">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-      <c r="I359" s="2"/>
-      <c r="J359" s="2"/>
-      <c r="K359" s="2"/>
-      <c r="L359" s="2"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="1" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="360" ht="18.75" customHeight="1">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
-      <c r="H360" s="2"/>
-      <c r="I360" s="2"/>
-      <c r="J360" s="2"/>
-      <c r="K360" s="2"/>
-      <c r="L360" s="2"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="1" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="361" ht="18.75" customHeight="1">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-      <c r="G361" s="2"/>
-      <c r="H361" s="2"/>
-      <c r="I361" s="2"/>
-      <c r="J361" s="2"/>
-      <c r="K361" s="2"/>
-      <c r="L361" s="2"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="362" ht="18.75" customHeight="1">
-      <c r="A362" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2"/>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2"/>
-      <c r="K362" s="2"/>
-      <c r="L362" s="2"/>
-      <c r="M362" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
+    <row r="362" ht="18.75" customHeight="1"/>
     <row r="363" ht="18.75" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>653</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -6093,572 +6024,608 @@
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
       <c r="M363" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="364" ht="18.75" customHeight="1">
       <c r="A364" s="2" t="s">
-        <v>655</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
+      <c r="H364" s="2"/>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+      <c r="K364" s="2"/>
+      <c r="L364" s="2"/>
       <c r="M364" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="365" ht="18.75" customHeight="1">
       <c r="A365" s="2" t="s">
-        <v>657</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
+      <c r="H365" s="2"/>
+      <c r="I365" s="2"/>
+      <c r="J365" s="2"/>
+      <c r="K365" s="2"/>
+      <c r="L365" s="2"/>
       <c r="M365" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="366" ht="18.75" customHeight="1">
       <c r="A366" s="2" t="s">
-        <v>659</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+      <c r="H366" s="2"/>
+      <c r="I366" s="2"/>
+      <c r="J366" s="2"/>
+      <c r="K366" s="2"/>
+      <c r="L366" s="2"/>
       <c r="M366" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="367" ht="18.75" customHeight="1">
       <c r="A367" s="2" t="s">
-        <v>661</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="2"/>
+      <c r="G367" s="2"/>
+      <c r="H367" s="2"/>
+      <c r="I367" s="2"/>
+      <c r="J367" s="2"/>
+      <c r="K367" s="2"/>
+      <c r="L367" s="2"/>
       <c r="M367" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="368" ht="18.75" customHeight="1">
       <c r="A368" s="2" t="s">
-        <v>663</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
+      <c r="H368" s="2"/>
+      <c r="I368" s="2"/>
+      <c r="J368" s="2"/>
+      <c r="K368" s="2"/>
+      <c r="L368" s="2"/>
       <c r="M368" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="369" ht="18.75" customHeight="1">
       <c r="A369" s="2" t="s">
-        <v>665</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
+      <c r="H369" s="2"/>
+      <c r="I369" s="2"/>
+      <c r="J369" s="2"/>
+      <c r="K369" s="2"/>
+      <c r="L369" s="2"/>
       <c r="M369" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="370" ht="18.75" customHeight="1">
       <c r="A370" s="2" t="s">
-        <v>667</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+      <c r="H370" s="2"/>
+      <c r="I370" s="2"/>
+      <c r="J370" s="2"/>
+      <c r="K370" s="2"/>
+      <c r="L370" s="2"/>
       <c r="M370" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="371" ht="18.75" customHeight="1">
       <c r="A371" s="2" t="s">
-        <v>669</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="2"/>
+      <c r="I371" s="2"/>
+      <c r="J371" s="2"/>
+      <c r="K371" s="2"/>
+      <c r="L371" s="2"/>
       <c r="M371" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="372" ht="18.75" customHeight="1">
       <c r="A372" s="2" t="s">
-        <v>671</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+      <c r="H372" s="2"/>
+      <c r="I372" s="2"/>
+      <c r="J372" s="2"/>
+      <c r="K372" s="2"/>
+      <c r="L372" s="2"/>
       <c r="M372" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="373" ht="18.75" customHeight="1">
       <c r="A373" s="2" t="s">
-        <v>673</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
+      <c r="H373" s="2"/>
+      <c r="I373" s="2"/>
+      <c r="J373" s="2"/>
+      <c r="K373" s="2"/>
+      <c r="L373" s="2"/>
       <c r="M373" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="374" ht="18.75" customHeight="1">
       <c r="A374" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M374" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="375" ht="18.75" customHeight="1">
       <c r="A375" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M375" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="376" ht="18.75" customHeight="1">
       <c r="A376" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M376" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="377" ht="18.75" customHeight="1">
       <c r="A377" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M377" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="378" ht="18.75" customHeight="1">
       <c r="A378" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M378" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="379" ht="18.75" customHeight="1">
       <c r="A379" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="380" ht="18.75" customHeight="1">
       <c r="A380" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="M380" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="381" ht="18.75" customHeight="1">
       <c r="A381" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M381" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="382" ht="18.75" customHeight="1">
       <c r="A382" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="383" ht="18.75" customHeight="1">
       <c r="A383" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="M383" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="384" ht="18.75" customHeight="1">
       <c r="A384" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M384" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="385" ht="18.75" customHeight="1">
       <c r="A385" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M385" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="386" ht="18.75" customHeight="1">
       <c r="A386" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M386" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="387" ht="18.75" customHeight="1">
       <c r="A387" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M387" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="388" ht="18.75" customHeight="1">
       <c r="A388" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M388" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="389" ht="18.75" customHeight="1">
       <c r="A389" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="390" ht="18.75" customHeight="1">
       <c r="A390" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="391" ht="18.75" customHeight="1">
       <c r="A391" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="392" ht="18.75" customHeight="1">
       <c r="A392" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="393" ht="18.75" customHeight="1">
       <c r="A393" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="394" ht="18.75" customHeight="1">
       <c r="A394" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="395" ht="18.75" customHeight="1">
       <c r="A395" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="396" ht="18.75" customHeight="1">
       <c r="A396" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="397" ht="18.75" customHeight="1">
       <c r="A397" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="398" ht="18.75" customHeight="1">
       <c r="A398" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="399" ht="18.75" customHeight="1">
       <c r="A399" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="M399" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="400" ht="18.75" customHeight="1">
       <c r="A400" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="401" ht="18.75" customHeight="1">
       <c r="A401" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="402" ht="18.75" customHeight="1">
       <c r="A402" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="403" ht="18.75" customHeight="1">
       <c r="A403" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="404" ht="18.75" customHeight="1">
       <c r="A404" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="405" ht="18.75" customHeight="1">
       <c r="A405" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="406" ht="18.75" customHeight="1">
       <c r="A406" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="407" ht="18.75" customHeight="1">
       <c r="A407" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M407" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="408" ht="18.75" customHeight="1">
       <c r="A408" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="M408" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="409" ht="18.75" customHeight="1">
       <c r="A409" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="410" ht="18.75" customHeight="1">
       <c r="A410" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M410" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="411" ht="18.75" customHeight="1">
       <c r="A411" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="M411" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="412" ht="18.75" customHeight="1">
+      <c r="A412" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="M411" s="2" t="s">
+      <c r="M412" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
+    <row r="413" ht="18.75" customHeight="1">
+      <c r="A413" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="M413" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="414" ht="18.75" customHeight="1">
+      <c r="A414" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="M414" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="415" ht="18.75" customHeight="1">
+      <c r="A415" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="M415" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
     <row r="416" ht="18.75" customHeight="1">
       <c r="A416" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-      <c r="J416" s="2"/>
-      <c r="K416" s="2"/>
-      <c r="L416" s="2"/>
+        <v>757</v>
+      </c>
       <c r="M416" s="2" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="417" ht="18.75" customHeight="1">
       <c r="A417" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="2"/>
-      <c r="I417" s="2"/>
-      <c r="J417" s="2"/>
-      <c r="K417" s="2"/>
-      <c r="L417" s="2"/>
+        <v>759</v>
+      </c>
       <c r="M417" s="2" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="418" ht="18.75" customHeight="1">
       <c r="A418" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2"/>
-      <c r="K418" s="2"/>
-      <c r="L418" s="2"/>
+        <v>761</v>
+      </c>
       <c r="M418" s="2" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="419" ht="18.75" customHeight="1">
       <c r="A419" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="J419" s="2"/>
-      <c r="K419" s="2"/>
-      <c r="L419" s="2"/>
+        <v>763</v>
+      </c>
       <c r="M419" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="420" ht="18.75" customHeight="1"/>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="420" ht="18.75" customHeight="1">
+      <c r="A420" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="M420" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
     <row r="421" ht="18.75" customHeight="1">
       <c r="A421" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
-      <c r="H421" s="2"/>
-      <c r="I421" s="2"/>
-      <c r="J421" s="2"/>
-      <c r="K421" s="2"/>
-      <c r="L421" s="2"/>
+        <v>767</v>
+      </c>
       <c r="M421" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="422" ht="18.75" customHeight="1">
-      <c r="A422" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="2"/>
-      <c r="J422" s="2"/>
-      <c r="K422" s="2"/>
-      <c r="L422" s="2"/>
-      <c r="M422" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="423" ht="18.75" customHeight="1">
-      <c r="A423" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="2"/>
-      <c r="J423" s="2"/>
-      <c r="K423" s="2"/>
-      <c r="L423" s="2"/>
-      <c r="M423" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="424" ht="18.75" customHeight="1">
-      <c r="A424" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2"/>
-      <c r="K424" s="2"/>
-      <c r="L424" s="2"/>
-      <c r="M424" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="425" ht="18.75" customHeight="1">
-      <c r="A425" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2"/>
-      <c r="K425" s="2"/>
-      <c r="L425" s="2"/>
-      <c r="M425" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="422" ht="18.75" customHeight="1"/>
+    <row r="423" ht="18.75" customHeight="1"/>
+    <row r="424" ht="18.75" customHeight="1"/>
+    <row r="425" ht="18.75" customHeight="1"/>
     <row r="426" ht="18.75" customHeight="1">
       <c r="A426" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -6672,229 +6639,391 @@
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
       <c r="M426" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="427" ht="18.75" customHeight="1">
+      <c r="A427" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="2"/>
+      <c r="G427" s="2"/>
+      <c r="H427" s="2"/>
+      <c r="I427" s="2"/>
+      <c r="J427" s="2"/>
+      <c r="K427" s="2"/>
+      <c r="L427" s="2"/>
+      <c r="M427" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="428" ht="18.75" customHeight="1">
+      <c r="A428" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="2"/>
+      <c r="G428" s="2"/>
+      <c r="H428" s="2"/>
+      <c r="I428" s="2"/>
+      <c r="J428" s="2"/>
+      <c r="K428" s="2"/>
+      <c r="L428" s="2"/>
+      <c r="M428" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
     <row r="429" ht="18.75" customHeight="1">
-      <c r="A429" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="M429" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="430" ht="18.75" customHeight="1">
-      <c r="A430" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B430" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="M430" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
+      <c r="A429" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="2"/>
+      <c r="G429" s="2"/>
+      <c r="H429" s="2"/>
+      <c r="I429" s="2"/>
+      <c r="J429" s="2"/>
+      <c r="K429" s="2"/>
+      <c r="L429" s="2"/>
+      <c r="M429" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="430" ht="18.75" customHeight="1"/>
     <row r="431" ht="18.75" customHeight="1">
-      <c r="A431" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="B431" s="4"/>
-      <c r="M431" s="1" t="s">
-        <v>776</v>
+      <c r="A431" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
+      <c r="G431" s="2"/>
+      <c r="H431" s="2"/>
+      <c r="I431" s="2"/>
+      <c r="J431" s="2"/>
+      <c r="K431" s="2"/>
+      <c r="L431" s="2"/>
+      <c r="M431" s="2" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="432" ht="18.75" customHeight="1">
-      <c r="A432" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="B432" s="4"/>
-      <c r="M432" s="1" t="s">
-        <v>778</v>
+      <c r="A432" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+      <c r="E432" s="2"/>
+      <c r="F432" s="2"/>
+      <c r="G432" s="2"/>
+      <c r="H432" s="2"/>
+      <c r="I432" s="2"/>
+      <c r="J432" s="2"/>
+      <c r="K432" s="2"/>
+      <c r="L432" s="2"/>
+      <c r="M432" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="433" ht="18.75" customHeight="1">
-      <c r="A433" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="B433" s="4"/>
-      <c r="M433" s="1" t="s">
-        <v>780</v>
+      <c r="A433" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="2"/>
+      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
+      <c r="H433" s="2"/>
+      <c r="I433" s="2"/>
+      <c r="J433" s="2"/>
+      <c r="K433" s="2"/>
+      <c r="L433" s="2"/>
+      <c r="M433" s="2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="434" ht="18.75" customHeight="1">
-      <c r="A434" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="B434" s="4"/>
-      <c r="M434" s="1" t="s">
-        <v>782</v>
+      <c r="A434" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
+      <c r="H434" s="2"/>
+      <c r="I434" s="2"/>
+      <c r="J434" s="2"/>
+      <c r="K434" s="2"/>
+      <c r="L434" s="2"/>
+      <c r="M434" s="2" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="435" ht="18.75" customHeight="1">
-      <c r="A435" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B435" s="4"/>
-      <c r="M435" s="1" t="s">
-        <v>784</v>
+      <c r="A435" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+      <c r="E435" s="2"/>
+      <c r="F435" s="2"/>
+      <c r="G435" s="2"/>
+      <c r="H435" s="2"/>
+      <c r="I435" s="2"/>
+      <c r="J435" s="2"/>
+      <c r="K435" s="2"/>
+      <c r="L435" s="2"/>
+      <c r="M435" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="436" ht="18.75" customHeight="1">
-      <c r="A436" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B436" s="4"/>
-      <c r="M436" s="1" t="s">
+      <c r="A436" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="437" ht="18.75" customHeight="1">
-      <c r="A437" s="1" t="s">
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+      <c r="E436" s="2"/>
+      <c r="F436" s="2"/>
+      <c r="G436" s="2"/>
+      <c r="H436" s="2"/>
+      <c r="I436" s="2"/>
+      <c r="J436" s="2"/>
+      <c r="K436" s="2"/>
+      <c r="L436" s="2"/>
+      <c r="M436" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B437" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="M437" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="438" ht="18.75" customHeight="1">
-      <c r="A438" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B438" s="4"/>
-      <c r="M438" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
+    </row>
+    <row r="437" ht="18.75" customHeight="1"/>
+    <row r="438" ht="18.75" customHeight="1"/>
     <row r="439" ht="18.75" customHeight="1">
       <c r="A439" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B439" s="4"/>
+        <v>788</v>
+      </c>
       <c r="M439" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="440" ht="18.75" customHeight="1">
       <c r="A440" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="M440" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="441" ht="18.75" customHeight="1">
+      <c r="A441" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B441" s="5"/>
+      <c r="M441" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B440" s="4"/>
-      <c r="M440" s="1" t="s">
+    </row>
+    <row r="442" ht="18.75" customHeight="1">
+      <c r="A442" s="8" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="441" ht="18.75" customHeight="1">
-      <c r="A441" s="1" t="s">
+      <c r="B442" s="5"/>
+      <c r="M442" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B441" s="4"/>
-      <c r="M441" s="1" t="s">
+    </row>
+    <row r="443" ht="18.75" customHeight="1">
+      <c r="A443" s="8" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="442" ht="18.75" customHeight="1">
-      <c r="A442" s="1" t="s">
+      <c r="B443" s="5"/>
+      <c r="M443" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B442" s="4"/>
-      <c r="M442" s="1" t="s">
+    </row>
+    <row r="444" ht="18.75" customHeight="1">
+      <c r="A444" s="8" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="443" ht="18.75" customHeight="1">
-      <c r="A443" s="1" t="s">
+      <c r="B444" s="5"/>
+      <c r="M444" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="B443" s="4"/>
-      <c r="M443" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="444" ht="18.75" customHeight="1">
-      <c r="A444" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="M444" s="4" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="445" ht="18.75" customHeight="1">
       <c r="A445" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="B445" s="4" t="s">
-        <v>805</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="B445" s="5"/>
       <c r="M445" s="1" t="s">
-        <v>769</v>
+        <v>802</v>
       </c>
     </row>
     <row r="446" ht="18.75" customHeight="1">
       <c r="A446" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>807</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="B446" s="5"/>
       <c r="M446" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="447" ht="18.75" customHeight="1">
       <c r="A447" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="M447" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="448" ht="18.75" customHeight="1">
+      <c r="A448" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B448" s="5"/>
+      <c r="M448" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B447" s="4"/>
-      <c r="M447" s="1" t="s">
+    </row>
+    <row r="449" ht="18.75" customHeight="1">
+      <c r="A449" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1">
-      <c r="A449" s="2" t="s">
+      <c r="B449" s="5"/>
+      <c r="M449" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="2"/>
-      <c r="F449" s="2"/>
-      <c r="G449" s="2"/>
-      <c r="H449" s="2"/>
-      <c r="I449" s="2"/>
-      <c r="J449" s="2"/>
-      <c r="K449" s="2"/>
-      <c r="L449" s="2"/>
-      <c r="M449" s="2" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="450" ht="18.75" customHeight="1">
       <c r="A450" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B450" s="5"/>
+      <c r="M450" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="M450" s="2" t="s">
+    </row>
+    <row r="451" ht="18.75" customHeight="1">
+      <c r="A451" s="1" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
+      <c r="B451" s="5"/>
+      <c r="M451" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="452" ht="18.75" customHeight="1">
+      <c r="A452" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B452" s="5"/>
+      <c r="M452" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="453" ht="18.75" customHeight="1">
+      <c r="A453" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B453" s="5"/>
+      <c r="M453" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="454" ht="18.75" customHeight="1">
+      <c r="A454" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="M454" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="455" ht="18.75" customHeight="1">
+      <c r="A455" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="M455" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="456" ht="18.75" customHeight="1">
+      <c r="A456" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="M456" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="457" ht="18.75" customHeight="1">
+      <c r="A457" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B457" s="5"/>
+      <c r="M457" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
     <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
+    <row r="459" ht="18.75" customHeight="1">
+      <c r="A459" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B459" s="2"/>
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
+      <c r="H459" s="2"/>
+      <c r="I459" s="2"/>
+      <c r="J459" s="2"/>
+      <c r="K459" s="2"/>
+      <c r="L459" s="2"/>
+      <c r="M459" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="460" ht="18.75" customHeight="1">
+      <c r="A460" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="M460" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
     <row r="461" ht="18.75" customHeight="1"/>
     <row r="462" ht="18.75" customHeight="1"/>
     <row r="463" ht="18.75" customHeight="1"/>
@@ -7440,6 +7569,16 @@
     <row r="1003" ht="18.75" customHeight="1"/>
     <row r="1004" ht="18.75" customHeight="1"/>
     <row r="1005" ht="18.75" customHeight="1"/>
+    <row r="1006" ht="18.75" customHeight="1"/>
+    <row r="1007" ht="18.75" customHeight="1"/>
+    <row r="1008" ht="18.75" customHeight="1"/>
+    <row r="1009" ht="18.75" customHeight="1"/>
+    <row r="1010" ht="18.75" customHeight="1"/>
+    <row r="1011" ht="18.75" customHeight="1"/>
+    <row r="1012" ht="18.75" customHeight="1"/>
+    <row r="1013" ht="18.75" customHeight="1"/>
+    <row r="1014" ht="18.75" customHeight="1"/>
+    <row r="1015" ht="18.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgJC343I79bfJtiPQYNhr/i3RNM2Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh+8B8JnRg9K+ZhNZAR5pR1MzTtng=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="843">
   <si>
     <t>English</t>
   </si>
@@ -1336,6 +1336,36 @@
   </si>
   <si>
     <t>コイン運び屋</t>
+  </si>
+  <si>
+    <t>kurusetsuto</t>
+  </si>
+  <si>
+    <t>クルーセット</t>
+  </si>
+  <si>
+    <t>ChongtoMi</t>
+  </si>
+  <si>
+    <t>銃と謎</t>
+  </si>
+  <si>
+    <t>inposutasetsuto</t>
+  </si>
+  <si>
+    <t>インポスターセット</t>
+  </si>
+  <si>
+    <t>minimeito</t>
+  </si>
+  <si>
+    <t>ミニセット</t>
+  </si>
+  <si>
+    <t>toransupota</t>
+  </si>
+  <si>
+    <t>トランスポーター</t>
   </si>
   <si>
     <t>itow</t>
@@ -2561,14 +2591,14 @@
       <name val="游ゴシック"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Liberation sans"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -2604,10 +2634,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4874,453 +4904,409 @@
       </c>
     </row>
     <row r="225" ht="18.75" customHeight="1">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M225" s="3" t="s">
+      <c r="M225" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="226" ht="18.75" customHeight="1">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M226" s="3" t="s">
+      <c r="M226" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="227" ht="18.75" customHeight="1">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M227" s="3" t="s">
+      <c r="M227" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="228" ht="18.75" customHeight="1">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="M228" s="3" t="s">
+      <c r="M228" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="229" ht="18.75" customHeight="1">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="M229" s="3" t="s">
+      <c r="M229" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="230" ht="18.75" customHeight="1">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="M230" s="3" t="s">
+      <c r="M230" s="1" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="231" ht="18.75" customHeight="1">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="M231" s="3" t="s">
+      <c r="M231" s="1" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="232" ht="18.75" customHeight="1">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M232" s="3" t="s">
+      <c r="M232" s="1" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="233" ht="18.75" customHeight="1">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="M233" s="3" t="s">
+      <c r="M233" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="234" ht="18.75" customHeight="1"/>
-    <row r="235" ht="18.75" customHeight="1"/>
-    <row r="236" ht="18.75" customHeight="1"/>
+    <row r="234" ht="18.75" customHeight="1">
+      <c r="A234" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="M234" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="235" ht="18.75" customHeight="1">
+      <c r="A235" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="M235" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="236" ht="18.75" customHeight="1">
+      <c r="A236" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="M236" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
     <row r="237" ht="18.75" customHeight="1">
-      <c r="A237" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M237" s="1" t="s">
-        <v>441</v>
+      <c r="A237" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="M237" s="4" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="238" ht="18.75" customHeight="1">
-      <c r="A238" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M238" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="239" ht="18.75" customHeight="1">
-      <c r="A239" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="M239" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="240" ht="18.75" customHeight="1">
-      <c r="A240" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="M240" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
+      <c r="A238" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M238" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="239" ht="18.75" customHeight="1"/>
+    <row r="240" ht="18.75" customHeight="1"/>
     <row r="241" ht="18.75" customHeight="1"/>
     <row r="242" ht="18.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" ht="18.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="244" ht="18.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="245" ht="18.75" customHeight="1"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="245" ht="18.75" customHeight="1">
+      <c r="A245" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
     <row r="246" ht="18.75" customHeight="1"/>
     <row r="247" ht="18.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="248" ht="18.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="249" ht="18.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="250" ht="18.75" customHeight="1">
-      <c r="A250" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="251" ht="18.75" customHeight="1">
-      <c r="A251" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M251" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N251" s="2"/>
-    </row>
+    </row>
+    <row r="250" ht="18.75" customHeight="1"/>
+    <row r="251" ht="18.75" customHeight="1"/>
     <row r="252" ht="18.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="253" ht="18.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="254" ht="18.75" customHeight="1">
       <c r="A254" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M254" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="M254" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="255" ht="18.75" customHeight="1">
       <c r="A255" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M255" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="M255" s="1" t="s">
+    </row>
+    <row r="256" ht="18.75" customHeight="1">
+      <c r="A256" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="256" ht="18.75" customHeight="1"/>
+      <c r="B256" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N256" s="2"/>
+    </row>
     <row r="257" ht="18.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="258" ht="18.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="259" ht="18.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="260" ht="18.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="261" ht="18.75" customHeight="1">
-      <c r="A261" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="M261" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
+    </row>
+    <row r="261" ht="18.75" customHeight="1"/>
     <row r="262" ht="18.75" customHeight="1">
       <c r="A262" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="M262" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="M262" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="263" ht="18.75" customHeight="1">
       <c r="A263" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M263" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="M263" s="1" t="s">
+    </row>
+    <row r="264" ht="18.75" customHeight="1">
+      <c r="A264" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="264" ht="18.75" customHeight="1">
-      <c r="A264" s="2" t="s">
+      <c r="M264" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2" t="s">
+    </row>
+    <row r="265" ht="18.75" customHeight="1">
+      <c r="A265" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="265" ht="18.75" customHeight="1"/>
+      <c r="B265" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
     <row r="266" ht="18.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="267" ht="18.75" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="268" ht="18.75" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="269" ht="18.75" customHeight="1">
-      <c r="A269" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="M269" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="270" ht="18.75" customHeight="1">
-      <c r="A270" s="1" t="s">
+      <c r="A269" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="M270" s="1" t="s">
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+      <c r="L269" s="2"/>
+      <c r="M269" s="2" t="s">
         <v>500</v>
       </c>
     </row>
+    <row r="270" ht="18.75" customHeight="1"/>
     <row r="271" ht="18.75" customHeight="1">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="272" ht="18.75" customHeight="1"/>
+    <row r="272" ht="18.75" customHeight="1">
+      <c r="A272" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
     <row r="273" ht="18.75" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="274" ht="18.75" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="275" ht="18.75" customHeight="1">
-      <c r="A275" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2" t="s">
-        <v>508</v>
+      <c r="A275" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="276" ht="18.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B276" s="5"/>
-      <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
-      <c r="F276" s="5"/>
-      <c r="G276" s="5"/>
-      <c r="H276" s="5"/>
-      <c r="I276" s="5"/>
-      <c r="J276" s="5"/>
-      <c r="K276" s="5"/>
-      <c r="L276" s="5"/>
+        <v>511</v>
+      </c>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
       <c r="M276" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="277" ht="18.75" customHeight="1">
-      <c r="A277" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B277" s="5"/>
-      <c r="C277" s="5"/>
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
-      <c r="F277" s="5"/>
-      <c r="G277" s="5"/>
-      <c r="H277" s="5"/>
-      <c r="I277" s="5"/>
-      <c r="J277" s="5"/>
-      <c r="K277" s="5"/>
-      <c r="L277" s="5"/>
-      <c r="M277" s="2" t="s">
         <v>512</v>
       </c>
     </row>
+    <row r="277" ht="18.75" customHeight="1"/>
     <row r="278" ht="18.75" customHeight="1">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B278" s="5"/>
-      <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
-      <c r="F278" s="5"/>
-      <c r="G278" s="5"/>
-      <c r="H278" s="5"/>
-      <c r="I278" s="5"/>
-      <c r="J278" s="5"/>
-      <c r="K278" s="5"/>
-      <c r="L278" s="5"/>
-      <c r="M278" s="5" t="s">
+      <c r="M278" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5332,10 +5318,28 @@
         <v>516</v>
       </c>
     </row>
-    <row r="280" ht="18.75" customHeight="1"/>
+    <row r="280" ht="18.75" customHeight="1">
+      <c r="A280" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="2"/>
+      <c r="M280" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
     <row r="281" ht="18.75" customHeight="1">
-      <c r="A281" s="5" t="s">
-        <v>517</v>
+      <c r="A281" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -5348,13 +5352,13 @@
       <c r="J281" s="5"/>
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
-      <c r="M281" s="5" t="s">
-        <v>518</v>
+      <c r="M281" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="282" ht="18.75" customHeight="1">
-      <c r="A282" s="5" t="s">
-        <v>519</v>
+      <c r="A282" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -5367,13 +5371,13 @@
       <c r="J282" s="5"/>
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
-      <c r="M282" s="5" t="s">
-        <v>520</v>
+      <c r="M282" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="283" ht="18.75" customHeight="1">
       <c r="A283" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -5387,47 +5391,18 @@
       <c r="K283" s="5"/>
       <c r="L283" s="5"/>
       <c r="M283" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="284" ht="18.75" customHeight="1">
-      <c r="A284" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B284" s="5"/>
-      <c r="C284" s="5"/>
-      <c r="D284" s="5"/>
-      <c r="E284" s="5"/>
-      <c r="F284" s="5"/>
-      <c r="G284" s="5"/>
-      <c r="H284" s="5"/>
-      <c r="I284" s="5"/>
-      <c r="J284" s="5"/>
-      <c r="K284" s="5"/>
-      <c r="L284" s="5"/>
-      <c r="M284" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="285" ht="18.75" customHeight="1">
-      <c r="A285" s="5" t="s">
+      <c r="A284" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B285" s="5"/>
-      <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
-      <c r="F285" s="5"/>
-      <c r="G285" s="5"/>
-      <c r="H285" s="5"/>
-      <c r="I285" s="5"/>
-      <c r="J285" s="5"/>
-      <c r="K285" s="5"/>
-      <c r="L285" s="5"/>
-      <c r="M285" s="5" t="s">
+      <c r="M284" s="1" t="s">
         <v>526</v>
       </c>
     </row>
+    <row r="285" ht="18.75" customHeight="1"/>
     <row r="286" ht="18.75" customHeight="1">
       <c r="A286" s="5" t="s">
         <v>527</v>
@@ -5486,18 +5461,40 @@
       </c>
     </row>
     <row r="289" ht="18.75" customHeight="1">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="M289" s="1" t="s">
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+      <c r="K289" s="5"/>
+      <c r="L289" s="5"/>
+      <c r="M289" s="5" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="290" ht="18.75" customHeight="1">
-      <c r="A290" s="7" t="s">
+      <c r="A290" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="M290" s="7" t="s">
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="5" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5505,12 +5502,23 @@
       <c r="A291" s="5" t="s">
         <v>537</v>
       </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="5"/>
+      <c r="L291" s="5"/>
       <c r="M291" s="5" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="292" ht="18.75" customHeight="1">
-      <c r="A292" s="7" t="s">
+      <c r="A292" s="5" t="s">
         <v>539</v>
       </c>
       <c r="B292" s="5"/>
@@ -5524,7 +5532,7 @@
       <c r="J292" s="5"/>
       <c r="K292" s="5"/>
       <c r="L292" s="5"/>
-      <c r="M292" s="7" t="s">
+      <c r="M292" s="5" t="s">
         <v>540</v>
       </c>
     </row>
@@ -5532,181 +5540,203 @@
       <c r="A293" s="5" t="s">
         <v>541</v>
       </c>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="5"/>
       <c r="M293" s="5" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="294" ht="18.75" customHeight="1">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="M294" s="5" t="s">
+      <c r="M294" s="1" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="295" ht="18.75" customHeight="1">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="M295" s="5" t="s">
+      <c r="M295" s="7" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="296" ht="18.75" customHeight="1">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="5" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="297" ht="18.75" customHeight="1">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2"/>
-      <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
-      <c r="M297" s="2" t="s">
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+      <c r="M297" s="7" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1"/>
-    <row r="300" ht="18.75" customHeight="1"/>
-    <row r="301" ht="18.75" customHeight="1"/>
-    <row r="302" ht="18.75" customHeight="1"/>
+    <row r="298" ht="18.75" customHeight="1">
+      <c r="A298" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="M298" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="299" ht="18.75" customHeight="1">
+      <c r="A299" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="M299" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="300" ht="18.75" customHeight="1">
+      <c r="A300" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M300" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="301" ht="18.75" customHeight="1">
+      <c r="A301" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+      <c r="M301" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="302" ht="18.75" customHeight="1">
+      <c r="A302" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+      <c r="M302" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
     <row r="303" ht="18.75" customHeight="1"/>
     <row r="304" ht="18.75" customHeight="1"/>
     <row r="305" ht="18.75" customHeight="1"/>
     <row r="306" ht="18.75" customHeight="1"/>
     <row r="307" ht="18.75" customHeight="1"/>
     <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1">
-      <c r="A309" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="M309" s="5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="310" ht="18.75" customHeight="1">
-      <c r="A310" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="M310" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="311" ht="18.75" customHeight="1">
-      <c r="A311" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M311" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="312" ht="18.75" customHeight="1">
-      <c r="A312" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="M312" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
+    <row r="309" ht="18.75" customHeight="1"/>
+    <row r="310" ht="18.75" customHeight="1"/>
+    <row r="311" ht="18.75" customHeight="1"/>
+    <row r="312" ht="18.75" customHeight="1"/>
     <row r="313" ht="18.75" customHeight="1"/>
     <row r="314" ht="18.75" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M314" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="315" ht="18.75" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M315" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="316" ht="18.75" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M316" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="317" ht="18.75" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M317" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="318" ht="18.75" customHeight="1"/>
     <row r="319" ht="18.75" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M319" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="320" ht="18.75" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M320" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="321" ht="18.75" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M321" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="322" ht="18.75" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="323" ht="18.75" customHeight="1">
-      <c r="A323" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="M323" s="5" t="s">
         <v>576</v>
       </c>
     </row>
+    <row r="323" ht="18.75" customHeight="1"/>
     <row r="324" ht="18.75" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>577</v>
@@ -5752,66 +5782,66 @@
         <v>587</v>
       </c>
       <c r="M329" s="5" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
     </row>
     <row r="330" ht="18.75" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M330" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="331" ht="18.75" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="M331" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="332" ht="18.75" customHeight="1"/>
+      <c r="M331" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="332" ht="18.75" customHeight="1">
+      <c r="A332" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="M332" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
     <row r="333" ht="18.75" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="M333" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
+      </c>
+      <c r="M333" s="5" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="334" ht="18.75" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="M334" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
+      </c>
+      <c r="M334" s="5" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="335" ht="18.75" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="M335" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
+      </c>
+      <c r="M335" s="5" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="336" ht="18.75" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M336" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="337" ht="18.75" customHeight="1">
-      <c r="A337" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="M337" s="1" t="s">
         <v>601</v>
       </c>
     </row>
+    <row r="337" ht="18.75" customHeight="1"/>
     <row r="338" ht="18.75" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>602</v>
@@ -5880,47 +5910,47 @@
       <c r="A346" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="M346" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="M346" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="347" ht="18.75" customHeight="1">
       <c r="A347" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M347" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="M347" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="348" ht="18.75" customHeight="1">
       <c r="A348" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="M348" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="M348" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="349" ht="18.75" customHeight="1">
       <c r="A349" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M349" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="M349" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="350" ht="18.75" customHeight="1">
       <c r="A350" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="M350" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="M350" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="351" ht="18.75" customHeight="1">
       <c r="A351" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>629</v>
       </c>
       <c r="M351" s="1" t="s">
@@ -6007,115 +6037,52 @@
         <v>650</v>
       </c>
     </row>
-    <row r="362" ht="18.75" customHeight="1"/>
+    <row r="362" ht="18.75" customHeight="1">
+      <c r="A362" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="M362" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
     <row r="363" ht="18.75" customHeight="1">
-      <c r="A363" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
-      <c r="G363" s="2"/>
-      <c r="H363" s="2"/>
-      <c r="I363" s="2"/>
-      <c r="J363" s="2"/>
-      <c r="K363" s="2"/>
-      <c r="L363" s="2"/>
-      <c r="M363" s="2" t="s">
-        <v>652</v>
+      <c r="A363" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="M363" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="364" ht="18.75" customHeight="1">
-      <c r="A364" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="2"/>
-      <c r="G364" s="2"/>
-      <c r="H364" s="2"/>
-      <c r="I364" s="2"/>
-      <c r="J364" s="2"/>
-      <c r="K364" s="2"/>
-      <c r="L364" s="2"/>
-      <c r="M364" s="2" t="s">
-        <v>654</v>
+      <c r="A364" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M364" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="365" ht="18.75" customHeight="1">
-      <c r="A365" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
-      <c r="H365" s="2"/>
-      <c r="I365" s="2"/>
-      <c r="J365" s="2"/>
-      <c r="K365" s="2"/>
-      <c r="L365" s="2"/>
-      <c r="M365" s="2" t="s">
-        <v>656</v>
+      <c r="A365" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M365" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="366" ht="18.75" customHeight="1">
-      <c r="A366" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
-      <c r="G366" s="2"/>
-      <c r="H366" s="2"/>
-      <c r="I366" s="2"/>
-      <c r="J366" s="2"/>
-      <c r="K366" s="2"/>
-      <c r="L366" s="2"/>
-      <c r="M366" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="367" ht="18.75" customHeight="1">
-      <c r="A367" s="2" t="s">
+      <c r="A366" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
-      <c r="G367" s="2"/>
-      <c r="H367" s="2"/>
-      <c r="I367" s="2"/>
-      <c r="J367" s="2"/>
-      <c r="K367" s="2"/>
-      <c r="L367" s="2"/>
-      <c r="M367" s="2" t="s">
+      <c r="M366" s="1" t="s">
         <v>660</v>
       </c>
     </row>
+    <row r="367" ht="18.75" customHeight="1"/>
     <row r="368" ht="18.75" customHeight="1">
       <c r="A368" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>661</v>
-      </c>
+      <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -6134,9 +6101,7 @@
       <c r="A369" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B369" s="2" t="s">
-        <v>663</v>
-      </c>
+      <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -6239,6 +6204,19 @@
       <c r="A374" s="2" t="s">
         <v>673</v>
       </c>
+      <c r="B374" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" s="2"/>
+      <c r="I374" s="2"/>
+      <c r="J374" s="2"/>
+      <c r="K374" s="2"/>
+      <c r="L374" s="2"/>
       <c r="M374" s="2" t="s">
         <v>674</v>
       </c>
@@ -6247,6 +6225,19 @@
       <c r="A375" s="2" t="s">
         <v>675</v>
       </c>
+      <c r="B375" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
+      <c r="H375" s="2"/>
+      <c r="I375" s="2"/>
+      <c r="J375" s="2"/>
+      <c r="K375" s="2"/>
+      <c r="L375" s="2"/>
       <c r="M375" s="2" t="s">
         <v>676</v>
       </c>
@@ -6255,6 +6246,19 @@
       <c r="A376" s="2" t="s">
         <v>677</v>
       </c>
+      <c r="B376" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+      <c r="H376" s="2"/>
+      <c r="I376" s="2"/>
+      <c r="J376" s="2"/>
+      <c r="K376" s="2"/>
+      <c r="L376" s="2"/>
       <c r="M376" s="2" t="s">
         <v>678</v>
       </c>
@@ -6263,6 +6267,19 @@
       <c r="A377" s="2" t="s">
         <v>679</v>
       </c>
+      <c r="B377" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
+      <c r="H377" s="2"/>
+      <c r="I377" s="2"/>
+      <c r="J377" s="2"/>
+      <c r="K377" s="2"/>
+      <c r="L377" s="2"/>
       <c r="M377" s="2" t="s">
         <v>680</v>
       </c>
@@ -6271,6 +6288,19 @@
       <c r="A378" s="2" t="s">
         <v>681</v>
       </c>
+      <c r="B378" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
+      <c r="H378" s="2"/>
+      <c r="I378" s="2"/>
+      <c r="J378" s="2"/>
+      <c r="K378" s="2"/>
+      <c r="L378" s="2"/>
       <c r="M378" s="2" t="s">
         <v>682</v>
       </c>
@@ -6619,90 +6649,53 @@
         <v>768</v>
       </c>
     </row>
-    <row r="422" ht="18.75" customHeight="1"/>
-    <row r="423" ht="18.75" customHeight="1"/>
-    <row r="424" ht="18.75" customHeight="1"/>
-    <row r="425" ht="18.75" customHeight="1"/>
+    <row r="422" ht="18.75" customHeight="1">
+      <c r="A422" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M422" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="423" ht="18.75" customHeight="1">
+      <c r="A423" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="M423" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="424" ht="18.75" customHeight="1">
+      <c r="A424" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="M424" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="425" ht="18.75" customHeight="1">
+      <c r="A425" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="M425" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
     <row r="426" ht="18.75" customHeight="1">
       <c r="A426" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-      <c r="H426" s="2"/>
-      <c r="I426" s="2"/>
-      <c r="J426" s="2"/>
-      <c r="K426" s="2"/>
-      <c r="L426" s="2"/>
+        <v>777</v>
+      </c>
       <c r="M426" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="427" ht="18.75" customHeight="1">
-      <c r="A427" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
-      <c r="I427" s="2"/>
-      <c r="J427" s="2"/>
-      <c r="K427" s="2"/>
-      <c r="L427" s="2"/>
-      <c r="M427" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="428" ht="18.75" customHeight="1">
-      <c r="A428" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-      <c r="I428" s="2"/>
-      <c r="J428" s="2"/>
-      <c r="K428" s="2"/>
-      <c r="L428" s="2"/>
-      <c r="M428" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="429" ht="18.75" customHeight="1">
-      <c r="A429" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="2"/>
-      <c r="J429" s="2"/>
-      <c r="K429" s="2"/>
-      <c r="L429" s="2"/>
-      <c r="M429" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="427" ht="18.75" customHeight="1"/>
+    <row r="428" ht="18.75" customHeight="1"/>
+    <row r="429" ht="18.75" customHeight="1"/>
     <row r="430" ht="18.75" customHeight="1"/>
     <row r="431" ht="18.75" customHeight="1">
       <c r="A431" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -6716,12 +6709,12 @@
       <c r="K431" s="2"/>
       <c r="L431" s="2"/>
       <c r="M431" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="432" ht="18.75" customHeight="1">
       <c r="A432" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -6735,12 +6728,12 @@
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
       <c r="M432" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="433" ht="18.75" customHeight="1">
       <c r="A433" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -6754,12 +6747,12 @@
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
       <c r="M433" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="434" ht="18.75" customHeight="1">
       <c r="A434" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -6773,31 +6766,13 @@
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
       <c r="M434" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="435" ht="18.75" customHeight="1">
-      <c r="A435" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
-      <c r="I435" s="2"/>
-      <c r="J435" s="2"/>
-      <c r="K435" s="2"/>
-      <c r="L435" s="2"/>
-      <c r="M435" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="435" ht="18.75" customHeight="1"/>
     <row r="436" ht="18.75" customHeight="1">
       <c r="A436" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -6811,77 +6786,127 @@
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
       <c r="M436" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="437" ht="18.75" customHeight="1"/>
-    <row r="438" ht="18.75" customHeight="1"/>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="437" ht="18.75" customHeight="1">
+      <c r="A437" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
+      <c r="H437" s="2"/>
+      <c r="I437" s="2"/>
+      <c r="J437" s="2"/>
+      <c r="K437" s="2"/>
+      <c r="L437" s="2"/>
+      <c r="M437" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="438" ht="18.75" customHeight="1">
+      <c r="A438" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B438" s="2"/>
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+      <c r="E438" s="2"/>
+      <c r="F438" s="2"/>
+      <c r="G438" s="2"/>
+      <c r="H438" s="2"/>
+      <c r="I438" s="2"/>
+      <c r="J438" s="2"/>
+      <c r="K438" s="2"/>
+      <c r="L438" s="2"/>
+      <c r="M438" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
     <row r="439" ht="18.75" customHeight="1">
-      <c r="A439" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="M439" s="1" t="s">
-        <v>789</v>
+      <c r="A439" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+      <c r="E439" s="2"/>
+      <c r="F439" s="2"/>
+      <c r="G439" s="2"/>
+      <c r="H439" s="2"/>
+      <c r="I439" s="2"/>
+      <c r="J439" s="2"/>
+      <c r="K439" s="2"/>
+      <c r="L439" s="2"/>
+      <c r="M439" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="440" ht="18.75" customHeight="1">
-      <c r="A440" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B440" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="M440" s="1" t="s">
-        <v>792</v>
+      <c r="A440" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
+      <c r="H440" s="2"/>
+      <c r="I440" s="2"/>
+      <c r="J440" s="2"/>
+      <c r="K440" s="2"/>
+      <c r="L440" s="2"/>
+      <c r="M440" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="441" ht="18.75" customHeight="1">
-      <c r="A441" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="B441" s="5"/>
-      <c r="M441" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="442" ht="18.75" customHeight="1">
-      <c r="A442" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="B442" s="5"/>
-      <c r="M442" s="1" t="s">
+      <c r="A441" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="443" ht="18.75" customHeight="1">
-      <c r="A443" s="8" t="s">
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
+      <c r="H441" s="2"/>
+      <c r="I441" s="2"/>
+      <c r="J441" s="2"/>
+      <c r="K441" s="2"/>
+      <c r="L441" s="2"/>
+      <c r="M441" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="B443" s="5"/>
-      <c r="M443" s="1" t="s">
+    </row>
+    <row r="442" ht="18.75" customHeight="1"/>
+    <row r="443" ht="18.75" customHeight="1"/>
+    <row r="444" ht="18.75" customHeight="1">
+      <c r="A444" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="444" ht="18.75" customHeight="1">
-      <c r="A444" s="8" t="s">
+      <c r="M444" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="B444" s="5"/>
-      <c r="M444" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="445" ht="18.75" customHeight="1">
       <c r="A445" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B445" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="B445" s="5"/>
       <c r="M445" s="1" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="446" ht="18.75" customHeight="1">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="8" t="s">
         <v>803</v>
       </c>
       <c r="B446" s="5"/>
@@ -6890,57 +6915,57 @@
       </c>
     </row>
     <row r="447" ht="18.75" customHeight="1">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B447" s="5"/>
+      <c r="M447" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="M447" s="1" t="s">
+    </row>
+    <row r="448" ht="18.75" customHeight="1">
+      <c r="A448" s="8" t="s">
         <v>807</v>
-      </c>
-    </row>
-    <row r="448" ht="18.75" customHeight="1">
-      <c r="A448" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="B448" s="5"/>
       <c r="M448" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="449" ht="18.75" customHeight="1">
+      <c r="A449" s="8" t="s">
         <v>809</v>
-      </c>
-    </row>
-    <row r="449" ht="18.75" customHeight="1">
-      <c r="A449" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="B449" s="5"/>
       <c r="M449" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="450" ht="18.75" customHeight="1">
       <c r="A450" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B450" s="5"/>
       <c r="M450" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="451" ht="18.75" customHeight="1">
       <c r="A451" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B451" s="5"/>
       <c r="M451" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="452" ht="18.75" customHeight="1">
       <c r="A452" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B452" s="5"/>
       <c r="M452" s="1" t="s">
         <v>817</v>
       </c>
@@ -6955,13 +6980,11 @@
       </c>
     </row>
     <row r="454" ht="18.75" customHeight="1">
-      <c r="A454" s="2" t="s">
+      <c r="A454" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B454" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="M454" s="5" t="s">
+      <c r="B454" s="5"/>
+      <c r="M454" s="1" t="s">
         <v>821</v>
       </c>
     </row>
@@ -6969,66 +6992,108 @@
       <c r="A455" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B455" s="5" t="s">
+      <c r="B455" s="5"/>
+      <c r="M455" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="M455" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="456" ht="18.75" customHeight="1">
       <c r="A456" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B456" s="5"/>
+      <c r="M456" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="M456" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="457" ht="18.75" customHeight="1">
       <c r="A457" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B457" s="5"/>
       <c r="M457" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="458" ht="18.75" customHeight="1">
+      <c r="A458" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="458" ht="18.75" customHeight="1"/>
+      <c r="B458" s="5"/>
+      <c r="M458" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
     <row r="459" ht="18.75" customHeight="1">
       <c r="A459" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-      <c r="I459" s="2"/>
-      <c r="J459" s="2"/>
-      <c r="K459" s="2"/>
-      <c r="L459" s="2"/>
-      <c r="M459" s="2" t="s">
         <v>830</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="M459" s="5" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="460" ht="18.75" customHeight="1">
       <c r="A460" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="M460" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
+      <c r="B460" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="M460" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="461" ht="18.75" customHeight="1">
+      <c r="A461" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="462" ht="18.75" customHeight="1">
+      <c r="A462" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B462" s="5"/>
+      <c r="M462" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
     <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
+    <row r="464" ht="18.75" customHeight="1">
+      <c r="A464" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B464" s="2"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
+      <c r="H464" s="2"/>
+      <c r="I464" s="2"/>
+      <c r="J464" s="2"/>
+      <c r="K464" s="2"/>
+      <c r="L464" s="2"/>
+      <c r="M464" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="465" ht="18.75" customHeight="1">
+      <c r="A465" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="M465" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
     <row r="466" ht="18.75" customHeight="1"/>
     <row r="467" ht="18.75" customHeight="1"/>
     <row r="468" ht="18.75" customHeight="1"/>
@@ -7579,6 +7644,11 @@
     <row r="1013" ht="18.75" customHeight="1"/>
     <row r="1014" ht="18.75" customHeight="1"/>
     <row r="1015" ht="18.75" customHeight="1"/>
+    <row r="1016" ht="18.75" customHeight="1"/>
+    <row r="1017" ht="18.75" customHeight="1"/>
+    <row r="1018" ht="18.75" customHeight="1"/>
+    <row r="1019" ht="18.75" customHeight="1"/>
+    <row r="1020" ht="18.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\VisualStudioProject\AmongUs\ExtremeHat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89ED1AF-425F-4FDC-B5EA-94E6D1F7DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hat" sheetId="1" r:id="rId4"/>
+    <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh+8B8JnRg9K+ZhNZAR5pR1MzTtng=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="891">
   <si>
     <t>English</t>
   </si>
@@ -2000,25 +2009,31 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>7の帽子 (</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>髪付き</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2568,47 +2583,206 @@
   </si>
   <si>
     <t>６面ダイス</t>
+  </si>
+  <si>
+    <t>nanoZu</t>
+  </si>
+  <si>
+    <t>なの族</t>
+  </si>
+  <si>
+    <t>nanoZu[na]</t>
+  </si>
+  <si>
+    <t>なの族「な」</t>
+  </si>
+  <si>
+    <t>nanoZu[ku]</t>
+  </si>
+  <si>
+    <t>なの族「く」</t>
+  </si>
+  <si>
+    <t>nanoZu[no]</t>
+  </si>
+  <si>
+    <t>なの族「の」</t>
+  </si>
+  <si>
+    <t>nanoZu[zo]</t>
+  </si>
+  <si>
+    <t>なの族「ぞ」</t>
+  </si>
+  <si>
+    <t>nanoZu[Ren]</t>
+  </si>
+  <si>
+    <t>なの族「認」</t>
+  </si>
+  <si>
+    <t>nanoZu[Zhi]</t>
+  </si>
+  <si>
+    <t>なの族「知」</t>
+  </si>
+  <si>
+    <t>nanoZu[shi]</t>
+  </si>
+  <si>
+    <t>なの族「し」</t>
+  </si>
+  <si>
+    <t>nanoZu[te]</t>
+  </si>
+  <si>
+    <t>なの族「て」</t>
+  </si>
+  <si>
+    <t>nanoZu[Jian]</t>
+  </si>
+  <si>
+    <t>なの族「建」</t>
+  </si>
+  <si>
+    <t>nanoZu[She]</t>
+  </si>
+  <si>
+    <t>なの族「設」</t>
+  </si>
+  <si>
+    <t>nanoZu[Fan]</t>
+  </si>
+  <si>
+    <t>なの族「反」</t>
+  </si>
+  <si>
+    <t>nanoZu[Dui]</t>
+  </si>
+  <si>
+    <t>なの族「対」</t>
+  </si>
+  <si>
+    <t>nanoZu[Chu]</t>
+  </si>
+  <si>
+    <t>なの族「出」</t>
+  </si>
+  <si>
+    <t>nanoZu[He]</t>
+  </si>
+  <si>
+    <t>なの族「荷」</t>
+  </si>
+  <si>
+    <t>nanoZu[yo]</t>
+  </si>
+  <si>
+    <t>なの族「よ」</t>
+  </si>
+  <si>
+    <t>nanoZu[BangYinki]</t>
+  </si>
+  <si>
+    <t>なの族「棒引き」</t>
+  </si>
+  <si>
+    <t>nanoZu[su]</t>
+  </si>
+  <si>
+    <t>なの族「す」</t>
+  </si>
+  <si>
+    <t>nanoZu[ru]</t>
+  </si>
+  <si>
+    <t>なの族「る」</t>
+  </si>
+  <si>
+    <t>nanoZu[JianSheFanDui]</t>
+  </si>
+  <si>
+    <t>なの族「建設反対」</t>
+  </si>
+  <si>
+    <t>nanoZu[ChuHeyo!]</t>
+  </si>
+  <si>
+    <t>なの族「出荷よー！」</t>
+  </si>
+  <si>
+    <t>nanoZu[susuruuuu]</t>
+  </si>
+  <si>
+    <t>なの族「すするううう」</t>
+  </si>
+  <si>
+    <t>WeiZhangnana(MaoZiari)</t>
+  </si>
+  <si>
+    <t>尾張なな（帽子あり）</t>
+  </si>
+  <si>
+    <t>WeiZhangnana(MaoZinashi)</t>
+  </si>
+  <si>
+    <t>尾張なな（帽子なし）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Liberation sans"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2616,49 +2790,59 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2848,28 +3032,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q1020"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="A489" sqref="A489:M489"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.86"/>
-    <col customWidth="1" min="2" max="2" width="16.14"/>
-    <col customWidth="1" min="3" max="3" width="3.43"/>
-    <col customWidth="1" min="4" max="12" width="3.71"/>
-    <col customWidth="1" min="13" max="13" width="38.86"/>
-    <col customWidth="1" min="14" max="26" width="8.57"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="14" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +3105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2930,8 +3116,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1"/>
-    <row r="4" ht="18.75" customHeight="1">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1"/>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2939,7 +3125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2947,7 +3133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2955,7 +3141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2963,7 +3149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2971,7 +3157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2979,7 +3165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2987,7 +3173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2995,7 +3181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3003,7 +3189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3011,7 +3197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3019,7 +3205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3027,7 +3213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -3035,7 +3221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3043,7 +3229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,7 +3237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -3059,7 +3245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="18.75" customHeight="1">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -3067,7 +3253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -3075,7 +3261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -3083,7 +3269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="1">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -3091,7 +3277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -3099,7 +3285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -3107,7 +3293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -3115,7 +3301,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -3123,13 +3309,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1"/>
-    <row r="31" ht="18.75" customHeight="1">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="29" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="30" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="31" spans="1:13" ht="18.75" customHeight="1">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" ht="18.75" customHeight="1">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -3137,7 +3323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -3145,11 +3331,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="35" spans="1:13" ht="18.75" customHeight="1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" ht="18.75" customHeight="1">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -3157,7 +3343,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -3165,7 +3351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" ht="18.75" customHeight="1">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3359,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="40" spans="1:13" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
@@ -3182,7 +3368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" ht="18.75" customHeight="1">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
@@ -3190,7 +3376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -3198,7 +3384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" ht="18.75" customHeight="1">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -3206,7 +3392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" ht="18.75" customHeight="1">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -3214,7 +3400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -3222,7 +3408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" ht="18.75" customHeight="1">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -3230,7 +3416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" ht="18.75" customHeight="1">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -3238,7 +3424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" ht="18.75" customHeight="1">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -3246,7 +3432,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" ht="18.75" customHeight="1">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
@@ -3254,8 +3440,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="51" spans="1:13" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
@@ -3263,7 +3449,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" ht="18.75" customHeight="1">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -3271,9 +3457,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="54" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="55" spans="1:13" ht="18.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>101</v>
       </c>
@@ -3281,7 +3467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" ht="18.75" customHeight="1">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>103</v>
       </c>
@@ -3289,7 +3475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" ht="18.75" customHeight="1">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>105</v>
       </c>
@@ -3297,7 +3483,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" ht="18.75" customHeight="1">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
@@ -3305,9 +3491,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="60" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="61" spans="1:13" ht="18.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>109</v>
       </c>
@@ -3315,7 +3501,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1">
+    <row r="62" spans="1:13" ht="18.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>111</v>
       </c>
@@ -3323,7 +3509,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" ht="18.75" customHeight="1">
+    <row r="63" spans="1:13" ht="18.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
@@ -3331,7 +3517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" ht="18.75" customHeight="1">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -3339,7 +3525,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" ht="18.75" customHeight="1">
+    <row r="65" spans="1:13" ht="18.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
@@ -3347,7 +3533,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" ht="18.75" customHeight="1">
+    <row r="66" spans="1:13" ht="18.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -3355,7 +3541,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" ht="18.75" customHeight="1">
+    <row r="67" spans="1:13" ht="18.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>121</v>
       </c>
@@ -3363,7 +3549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" ht="18.75" customHeight="1">
+    <row r="68" spans="1:13" ht="18.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
@@ -3371,8 +3557,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" ht="18.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1">
+    <row r="69" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="70" spans="1:13" ht="18.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>124</v>
       </c>
@@ -3380,7 +3566,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" ht="18.75" customHeight="1">
+    <row r="71" spans="1:13" ht="18.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -3388,7 +3574,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" ht="18.75" customHeight="1">
+    <row r="72" spans="1:13" ht="18.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>128</v>
       </c>
@@ -3396,7 +3582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" ht="18.75" customHeight="1">
+    <row r="73" spans="1:13" ht="18.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>130</v>
       </c>
@@ -3404,7 +3590,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" ht="18.75" customHeight="1">
+    <row r="74" spans="1:13" ht="18.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
@@ -3412,7 +3598,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" ht="18.75" customHeight="1">
+    <row r="75" spans="1:13" ht="18.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
@@ -3420,7 +3606,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" ht="18.75" customHeight="1">
+    <row r="76" spans="1:13" ht="18.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>136</v>
       </c>
@@ -3428,7 +3614,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" ht="18.75" customHeight="1">
+    <row r="77" spans="1:13" ht="18.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
@@ -3436,7 +3622,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" ht="18.75" customHeight="1">
+    <row r="78" spans="1:13" ht="18.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>139</v>
       </c>
@@ -3444,7 +3630,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" ht="18.75" customHeight="1">
+    <row r="79" spans="1:13" ht="18.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>141</v>
       </c>
@@ -3452,7 +3638,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" ht="18.75" customHeight="1">
+    <row r="80" spans="1:13" ht="18.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>143</v>
       </c>
@@ -3460,7 +3646,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" ht="18.75" customHeight="1">
+    <row r="81" spans="1:13" ht="18.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>145</v>
       </c>
@@ -3468,7 +3654,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" ht="18.75" customHeight="1">
+    <row r="82" spans="1:13" ht="18.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>147</v>
       </c>
@@ -3476,7 +3662,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" ht="18.75" customHeight="1">
+    <row r="83" spans="1:13" ht="18.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>148</v>
       </c>
@@ -3484,7 +3670,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" ht="18.75" customHeight="1">
+    <row r="84" spans="1:13" ht="18.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>150</v>
       </c>
@@ -3492,7 +3678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" ht="18.75" customHeight="1">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>152</v>
       </c>
@@ -3500,7 +3686,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" ht="18.75" customHeight="1">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>154</v>
       </c>
@@ -3508,7 +3694,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" ht="18.75" customHeight="1">
+    <row r="87" spans="1:13" ht="18.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>156</v>
       </c>
@@ -3516,7 +3702,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" ht="18.75" customHeight="1">
+    <row r="88" spans="1:13" ht="18.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>158</v>
       </c>
@@ -3524,7 +3710,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" ht="18.75" customHeight="1">
+    <row r="89" spans="1:13" ht="18.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>160</v>
       </c>
@@ -3532,7 +3718,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" ht="18.75" customHeight="1">
+    <row r="90" spans="1:13" ht="18.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>162</v>
       </c>
@@ -3540,7 +3726,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" ht="18.75" customHeight="1">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>164</v>
       </c>
@@ -3548,7 +3734,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" ht="18.75" customHeight="1">
+    <row r="92" spans="1:13" ht="18.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>166</v>
       </c>
@@ -3556,7 +3742,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="93" ht="18.75" customHeight="1">
+    <row r="93" spans="1:13" ht="18.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>168</v>
       </c>
@@ -3564,7 +3750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" ht="18.75" customHeight="1">
+    <row r="94" spans="1:13" ht="18.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>170</v>
       </c>
@@ -3572,7 +3758,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" ht="18.75" customHeight="1">
+    <row r="95" spans="1:13" ht="18.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>172</v>
       </c>
@@ -3580,7 +3766,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" ht="18.75" customHeight="1">
+    <row r="96" spans="1:13" ht="18.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>174</v>
       </c>
@@ -3588,7 +3774,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" ht="18.75" customHeight="1">
+    <row r="97" spans="1:13" ht="18.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>176</v>
       </c>
@@ -3596,7 +3782,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" ht="18.75" customHeight="1">
+    <row r="98" spans="1:13" ht="18.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>178</v>
       </c>
@@ -3604,7 +3790,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" ht="18.75" customHeight="1">
+    <row r="99" spans="1:13" ht="18.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>180</v>
       </c>
@@ -3612,7 +3798,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="100" ht="18.75" customHeight="1">
+    <row r="100" spans="1:13" ht="18.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>182</v>
       </c>
@@ -3620,7 +3806,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" ht="18.75" customHeight="1">
+    <row r="101" spans="1:13" ht="18.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>184</v>
       </c>
@@ -3628,7 +3814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" ht="18.75" customHeight="1">
+    <row r="102" spans="1:13" ht="18.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
@@ -3636,7 +3822,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" ht="18.75" customHeight="1">
+    <row r="103" spans="1:13" ht="18.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>188</v>
       </c>
@@ -3644,7 +3830,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" ht="18.75" customHeight="1">
+    <row r="104" spans="1:13" ht="18.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>189</v>
       </c>
@@ -3652,7 +3838,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="105" ht="18.75" customHeight="1">
+    <row r="105" spans="1:13" ht="18.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>191</v>
       </c>
@@ -3660,7 +3846,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="106" ht="18.75" customHeight="1">
+    <row r="106" spans="1:13" ht="18.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>193</v>
       </c>
@@ -3668,7 +3854,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" ht="18.75" customHeight="1">
+    <row r="107" spans="1:13" ht="18.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>195</v>
       </c>
@@ -3676,7 +3862,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="108" ht="18.75" customHeight="1">
+    <row r="108" spans="1:13" ht="18.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>197</v>
       </c>
@@ -3684,7 +3870,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" ht="18.75" customHeight="1">
+    <row r="109" spans="1:13" ht="18.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>199</v>
       </c>
@@ -3692,7 +3878,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" ht="18.75" customHeight="1">
+    <row r="110" spans="1:13" ht="18.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>200</v>
       </c>
@@ -3700,7 +3886,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" ht="18.75" customHeight="1">
+    <row r="111" spans="1:13" ht="18.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>202</v>
       </c>
@@ -3708,7 +3894,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" ht="18.75" customHeight="1">
+    <row r="112" spans="1:13" ht="18.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>204</v>
       </c>
@@ -3716,7 +3902,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" ht="18.75" customHeight="1">
+    <row r="113" spans="1:13" ht="18.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>206</v>
       </c>
@@ -3724,7 +3910,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" ht="18.75" customHeight="1">
+    <row r="114" spans="1:13" ht="18.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>208</v>
       </c>
@@ -3732,7 +3918,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" ht="18.75" customHeight="1">
+    <row r="115" spans="1:13" ht="18.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>210</v>
       </c>
@@ -3740,7 +3926,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" ht="18.75" customHeight="1">
+    <row r="116" spans="1:13" ht="18.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>212</v>
       </c>
@@ -3748,7 +3934,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" ht="18.75" customHeight="1">
+    <row r="117" spans="1:13" ht="18.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>214</v>
       </c>
@@ -3756,7 +3942,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" ht="18.75" customHeight="1">
+    <row r="118" spans="1:13" ht="18.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>216</v>
       </c>
@@ -3764,7 +3950,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" ht="18.75" customHeight="1">
+    <row r="119" spans="1:13" ht="18.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>218</v>
       </c>
@@ -3772,7 +3958,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" ht="18.75" customHeight="1">
+    <row r="120" spans="1:13" ht="18.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>220</v>
       </c>
@@ -3780,7 +3966,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" ht="18.75" customHeight="1">
+    <row r="121" spans="1:13" ht="18.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>222</v>
       </c>
@@ -3788,7 +3974,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="122" ht="18.75" customHeight="1">
+    <row r="122" spans="1:13" ht="18.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>224</v>
       </c>
@@ -3796,7 +3982,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" ht="18.75" customHeight="1">
+    <row r="123" spans="1:13" ht="18.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>226</v>
       </c>
@@ -3804,7 +3990,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" ht="18.75" customHeight="1">
+    <row r="124" spans="1:13" ht="18.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>228</v>
       </c>
@@ -3812,7 +3998,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" ht="18.75" customHeight="1">
+    <row r="125" spans="1:13" ht="18.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>230</v>
       </c>
@@ -3820,7 +4006,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" ht="18.75" customHeight="1">
+    <row r="126" spans="1:13" ht="18.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>232</v>
       </c>
@@ -3828,7 +4014,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="127" ht="18.75" customHeight="1">
+    <row r="127" spans="1:13" ht="18.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>234</v>
       </c>
@@ -3836,7 +4022,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" ht="18.75" customHeight="1">
+    <row r="128" spans="1:13" ht="18.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>236</v>
       </c>
@@ -3844,7 +4030,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="129" ht="18.75" customHeight="1">
+    <row r="129" spans="1:13" ht="18.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>238</v>
       </c>
@@ -3852,7 +4038,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="130" ht="18.75" customHeight="1">
+    <row r="130" spans="1:13" ht="18.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>240</v>
       </c>
@@ -3860,7 +4046,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" ht="18.75" customHeight="1">
+    <row r="131" spans="1:13" ht="18.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>242</v>
       </c>
@@ -3868,7 +4054,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" ht="18.75" customHeight="1">
+    <row r="132" spans="1:13" ht="18.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>244</v>
       </c>
@@ -3876,7 +4062,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="133" ht="18.75" customHeight="1">
+    <row r="133" spans="1:13" ht="18.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>246</v>
       </c>
@@ -3884,7 +4070,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" ht="18.75" customHeight="1">
+    <row r="134" spans="1:13" ht="18.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>248</v>
       </c>
@@ -3892,7 +4078,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="135" ht="18.75" customHeight="1">
+    <row r="135" spans="1:13" ht="18.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>250</v>
       </c>
@@ -3900,7 +4086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" ht="18.75" customHeight="1">
+    <row r="136" spans="1:13" ht="18.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>252</v>
       </c>
@@ -3908,7 +4094,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="137" ht="18.75" customHeight="1">
+    <row r="137" spans="1:13" ht="18.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>254</v>
       </c>
@@ -3927,7 +4113,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="138" ht="18.75" customHeight="1">
+    <row r="138" spans="1:13" ht="18.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>256</v>
       </c>
@@ -3946,7 +4132,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="139" ht="18.75" customHeight="1">
+    <row r="139" spans="1:13" ht="18.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>258</v>
       </c>
@@ -3965,7 +4151,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="140" ht="18.75" customHeight="1">
+    <row r="140" spans="1:13" ht="18.75" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>260</v>
       </c>
@@ -3984,7 +4170,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" ht="18.75" customHeight="1">
+    <row r="141" spans="1:13" ht="18.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>262</v>
       </c>
@@ -4003,7 +4189,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="142" ht="18.75" customHeight="1">
+    <row r="142" spans="1:13" ht="18.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>264</v>
       </c>
@@ -4022,7 +4208,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" ht="18.75" customHeight="1">
+    <row r="143" spans="1:13" ht="18.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>266</v>
       </c>
@@ -4041,7 +4227,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="144" ht="18.75" customHeight="1">
+    <row r="144" spans="1:13" ht="18.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>268</v>
       </c>
@@ -4060,7 +4246,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="145" ht="18.75" customHeight="1">
+    <row r="145" spans="1:13" ht="18.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>270</v>
       </c>
@@ -4079,7 +4265,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" ht="18.75" customHeight="1">
+    <row r="146" spans="1:13" ht="18.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>272</v>
       </c>
@@ -4098,7 +4284,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="147" ht="18.75" customHeight="1">
+    <row r="147" spans="1:13" ht="18.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>274</v>
       </c>
@@ -4117,7 +4303,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="148" ht="18.75" customHeight="1">
+    <row r="148" spans="1:13" ht="18.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>276</v>
       </c>
@@ -4136,7 +4322,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" ht="18.75" customHeight="1">
+    <row r="149" spans="1:13" ht="18.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>278</v>
       </c>
@@ -4155,7 +4341,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" ht="18.75" customHeight="1">
+    <row r="150" spans="1:13" ht="18.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>280</v>
       </c>
@@ -4174,7 +4360,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" ht="18.75" customHeight="1">
+    <row r="151" spans="1:13" ht="18.75" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>282</v>
       </c>
@@ -4193,7 +4379,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="152" ht="18.75" customHeight="1">
+    <row r="152" spans="1:13" ht="18.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>284</v>
       </c>
@@ -4212,11 +4398,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="153" ht="18.75" customHeight="1"/>
-    <row r="154" ht="18.75" customHeight="1"/>
-    <row r="155" ht="18.75" customHeight="1"/>
-    <row r="156" ht="18.75" customHeight="1"/>
-    <row r="157" ht="18.75" customHeight="1">
+    <row r="153" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="154" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="155" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="156" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="157" spans="1:13" ht="18.75" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>286</v>
       </c>
@@ -4224,7 +4410,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" ht="18.75" customHeight="1">
+    <row r="158" spans="1:13" ht="18.75" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>288</v>
       </c>
@@ -4232,7 +4418,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" ht="18.75" customHeight="1">
+    <row r="159" spans="1:13" ht="18.75" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>290</v>
       </c>
@@ -4240,7 +4426,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" ht="18.75" customHeight="1">
+    <row r="160" spans="1:13" ht="18.75" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>292</v>
       </c>
@@ -4248,7 +4434,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="161" ht="18.75" customHeight="1">
+    <row r="161" spans="1:13" ht="18.75" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>294</v>
       </c>
@@ -4256,7 +4442,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" ht="18.75" customHeight="1">
+    <row r="162" spans="1:13" ht="18.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>296</v>
       </c>
@@ -4264,7 +4450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" ht="18.75" customHeight="1">
+    <row r="163" spans="1:13" ht="18.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>298</v>
       </c>
@@ -4272,7 +4458,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="164" ht="18.75" customHeight="1">
+    <row r="164" spans="1:13" ht="18.75" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>300</v>
       </c>
@@ -4280,7 +4466,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="165" ht="18.75" customHeight="1">
+    <row r="165" spans="1:13" ht="18.75" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>302</v>
       </c>
@@ -4288,7 +4474,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="166" ht="18.75" customHeight="1">
+    <row r="166" spans="1:13" ht="18.75" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>304</v>
       </c>
@@ -4296,7 +4482,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="167" ht="18.75" customHeight="1">
+    <row r="167" spans="1:13" ht="18.75" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>306</v>
       </c>
@@ -4304,7 +4490,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" ht="18.75" customHeight="1">
+    <row r="168" spans="1:13" ht="18.75" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>308</v>
       </c>
@@ -4312,7 +4498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" ht="18.75" customHeight="1">
+    <row r="169" spans="1:13" ht="18.75" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>310</v>
       </c>
@@ -4320,7 +4506,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="170" ht="18.75" customHeight="1">
+    <row r="170" spans="1:13" ht="18.75" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>312</v>
       </c>
@@ -4328,7 +4514,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" ht="18.75" customHeight="1">
+    <row r="171" spans="1:13" ht="18.75" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>314</v>
       </c>
@@ -4336,7 +4522,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="172" ht="18.75" customHeight="1">
+    <row r="172" spans="1:13" ht="18.75" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>316</v>
       </c>
@@ -4344,7 +4530,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="173" ht="18.75" customHeight="1">
+    <row r="173" spans="1:13" ht="18.75" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>318</v>
       </c>
@@ -4352,7 +4538,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" ht="18.75" customHeight="1">
+    <row r="174" spans="1:13" ht="18.75" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>320</v>
       </c>
@@ -4360,7 +4546,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="175" ht="18.75" customHeight="1">
+    <row r="175" spans="1:13" ht="18.75" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>322</v>
       </c>
@@ -4368,7 +4554,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="176" ht="18.75" customHeight="1">
+    <row r="176" spans="1:13" ht="18.75" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>324</v>
       </c>
@@ -4376,7 +4562,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="177" ht="18.75" customHeight="1">
+    <row r="177" spans="1:13" ht="18.75" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>326</v>
       </c>
@@ -4384,7 +4570,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="178" ht="18.75" customHeight="1">
+    <row r="178" spans="1:13" ht="18.75" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>328</v>
       </c>
@@ -4392,7 +4578,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" ht="18.75" customHeight="1">
+    <row r="179" spans="1:13" ht="18.75" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>330</v>
       </c>
@@ -4400,7 +4586,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="180" ht="18.75" customHeight="1">
+    <row r="180" spans="1:13" ht="18.75" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>332</v>
       </c>
@@ -4408,7 +4594,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="181" ht="18.75" customHeight="1">
+    <row r="181" spans="1:13" ht="18.75" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>334</v>
       </c>
@@ -4416,7 +4602,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="182" ht="18.75" customHeight="1">
+    <row r="182" spans="1:13" ht="18.75" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>336</v>
       </c>
@@ -4424,7 +4610,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="183" ht="18.75" customHeight="1">
+    <row r="183" spans="1:13" ht="18.75" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>338</v>
       </c>
@@ -4432,7 +4618,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="184" ht="18.75" customHeight="1">
+    <row r="184" spans="1:13" ht="18.75" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>340</v>
       </c>
@@ -4440,7 +4626,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="185" ht="18.75" customHeight="1">
+    <row r="185" spans="1:13" ht="18.75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>342</v>
       </c>
@@ -4448,7 +4634,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="186" ht="18.75" customHeight="1">
+    <row r="186" spans="1:13" ht="18.75" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>344</v>
       </c>
@@ -4456,7 +4642,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" ht="18.75" customHeight="1">
+    <row r="187" spans="1:13" ht="18.75" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>346</v>
       </c>
@@ -4464,7 +4650,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" ht="18.75" customHeight="1">
+    <row r="188" spans="1:13" ht="18.75" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>348</v>
       </c>
@@ -4472,7 +4658,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="189" ht="18.75" customHeight="1">
+    <row r="189" spans="1:13" ht="18.75" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>350</v>
       </c>
@@ -4480,7 +4666,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="190" ht="18.75" customHeight="1">
+    <row r="190" spans="1:13" ht="18.75" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>352</v>
       </c>
@@ -4488,7 +4674,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="191" ht="18.75" customHeight="1">
+    <row r="191" spans="1:13" ht="18.75" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>354</v>
       </c>
@@ -4496,7 +4682,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" ht="18.75" customHeight="1">
+    <row r="192" spans="1:13" ht="18.75" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>356</v>
       </c>
@@ -4504,7 +4690,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="193" ht="18.75" customHeight="1">
+    <row r="193" spans="1:13" ht="18.75" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>358</v>
       </c>
@@ -4512,7 +4698,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="194" ht="18.75" customHeight="1">
+    <row r="194" spans="1:13" ht="18.75" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>360</v>
       </c>
@@ -4520,7 +4706,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="195" ht="18.75" customHeight="1">
+    <row r="195" spans="1:13" ht="18.75" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>362</v>
       </c>
@@ -4528,7 +4714,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="196" ht="18.75" customHeight="1">
+    <row r="196" spans="1:13" ht="18.75" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>364</v>
       </c>
@@ -4536,7 +4722,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="197" ht="18.75" customHeight="1">
+    <row r="197" spans="1:13" ht="18.75" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>366</v>
       </c>
@@ -4544,7 +4730,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="198" ht="18.75" customHeight="1">
+    <row r="198" spans="1:13" ht="18.75" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>368</v>
       </c>
@@ -4552,7 +4738,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="199" ht="18.75" customHeight="1">
+    <row r="199" spans="1:13" ht="18.75" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>370</v>
       </c>
@@ -4560,7 +4746,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="200" ht="18.75" customHeight="1">
+    <row r="200" spans="1:13" ht="18.75" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>372</v>
       </c>
@@ -4568,7 +4754,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="201" ht="18.75" customHeight="1">
+    <row r="201" spans="1:13" ht="18.75" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>374</v>
       </c>
@@ -4576,7 +4762,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="202" ht="18.75" customHeight="1">
+    <row r="202" spans="1:13" ht="18.75" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>376</v>
       </c>
@@ -4584,7 +4770,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="203" ht="18.75" customHeight="1">
+    <row r="203" spans="1:13" ht="18.75" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>378</v>
       </c>
@@ -4592,7 +4778,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="204" ht="18.75" customHeight="1">
+    <row r="204" spans="1:13" ht="18.75" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>380</v>
       </c>
@@ -4600,7 +4786,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="205" ht="18.75" customHeight="1">
+    <row r="205" spans="1:13" ht="18.75" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>382</v>
       </c>
@@ -4608,7 +4794,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="206" ht="18.75" customHeight="1">
+    <row r="206" spans="1:13" ht="18.75" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>384</v>
       </c>
@@ -4616,7 +4802,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="207" ht="18.75" customHeight="1">
+    <row r="207" spans="1:13" ht="18.75" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>386</v>
       </c>
@@ -4635,7 +4821,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="208" ht="18.75" customHeight="1">
+    <row r="208" spans="1:13" ht="18.75" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>388</v>
       </c>
@@ -4654,7 +4840,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="209" ht="18.75" customHeight="1">
+    <row r="209" spans="1:13" ht="18.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>390</v>
       </c>
@@ -4673,7 +4859,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" ht="18.75" customHeight="1">
+    <row r="210" spans="1:13" ht="18.75" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>392</v>
       </c>
@@ -4692,7 +4878,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="211" ht="18.75" customHeight="1">
+    <row r="211" spans="1:13" ht="18.75" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>394</v>
       </c>
@@ -4711,7 +4897,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" ht="18.75" customHeight="1">
+    <row r="212" spans="1:13" ht="18.75" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>396</v>
       </c>
@@ -4730,7 +4916,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="213" ht="18.75" customHeight="1">
+    <row r="213" spans="1:13" ht="18.75" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>398</v>
       </c>
@@ -4749,7 +4935,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="214" ht="18.75" customHeight="1">
+    <row r="214" spans="1:13" ht="18.75" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>400</v>
       </c>
@@ -4768,7 +4954,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="215" ht="18.75" customHeight="1">
+    <row r="215" spans="1:13" ht="18.75" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>402</v>
       </c>
@@ -4787,7 +4973,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="216" ht="18.75" customHeight="1">
+    <row r="216" spans="1:13" ht="18.75" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>404</v>
       </c>
@@ -4806,7 +4992,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="217" ht="18.75" customHeight="1">
+    <row r="217" spans="1:13" ht="18.75" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>406</v>
       </c>
@@ -4825,7 +5011,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="218" ht="18.75" customHeight="1">
+    <row r="218" spans="1:13" ht="18.75" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>408</v>
       </c>
@@ -4844,7 +5030,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="219" ht="18.75" customHeight="1">
+    <row r="219" spans="1:13" ht="18.75" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>410</v>
       </c>
@@ -4863,7 +5049,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="220" ht="18.75" customHeight="1">
+    <row r="220" spans="1:13" ht="18.75" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>412</v>
       </c>
@@ -4871,7 +5057,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="221" ht="18.75" customHeight="1">
+    <row r="221" spans="1:13" ht="18.75" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>414</v>
       </c>
@@ -4879,7 +5065,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="222" ht="18.75" customHeight="1">
+    <row r="222" spans="1:13" ht="18.75" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>416</v>
       </c>
@@ -4887,7 +5073,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="223" ht="18.75" customHeight="1">
+    <row r="223" spans="1:13" ht="18.75" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>418</v>
       </c>
@@ -4895,7 +5081,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="224" ht="18.75" customHeight="1">
+    <row r="224" spans="1:13" ht="18.75" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>420</v>
       </c>
@@ -4903,7 +5089,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="225" ht="18.75" customHeight="1">
+    <row r="225" spans="1:13" ht="18.75" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>422</v>
       </c>
@@ -4911,7 +5097,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="226" ht="18.75" customHeight="1">
+    <row r="226" spans="1:13" ht="18.75" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>424</v>
       </c>
@@ -4919,7 +5105,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="227" ht="18.75" customHeight="1">
+    <row r="227" spans="1:13" ht="18.75" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>426</v>
       </c>
@@ -4927,7 +5113,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="228" ht="18.75" customHeight="1">
+    <row r="228" spans="1:13" ht="18.75" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>428</v>
       </c>
@@ -4935,7 +5121,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="229" ht="18.75" customHeight="1">
+    <row r="229" spans="1:13" ht="18.75" customHeight="1">
       <c r="A229" s="3" t="s">
         <v>430</v>
       </c>
@@ -4943,7 +5129,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="230" ht="18.75" customHeight="1">
+    <row r="230" spans="1:13" ht="18.75" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>432</v>
       </c>
@@ -4951,7 +5137,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="231" ht="18.75" customHeight="1">
+    <row r="231" spans="1:13" ht="18.75" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>434</v>
       </c>
@@ -4959,7 +5145,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="232" ht="18.75" customHeight="1">
+    <row r="232" spans="1:13" ht="18.75" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>436</v>
       </c>
@@ -4967,7 +5153,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="233" ht="18.75" customHeight="1">
+    <row r="233" spans="1:13" ht="18.75" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>438</v>
       </c>
@@ -4975,7 +5161,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="234" ht="18.75" customHeight="1">
+    <row r="234" spans="1:13" ht="18.75" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>440</v>
       </c>
@@ -4983,7 +5169,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="235" ht="18.75" customHeight="1">
+    <row r="235" spans="1:13" ht="18.75" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>442</v>
       </c>
@@ -4991,7 +5177,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="236" ht="18.75" customHeight="1">
+    <row r="236" spans="1:13" ht="18.75" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>444</v>
       </c>
@@ -4999,7 +5185,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="237" ht="18.75" customHeight="1">
+    <row r="237" spans="1:13" ht="18.75" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>446</v>
       </c>
@@ -5007,7 +5193,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="238" ht="18.75" customHeight="1">
+    <row r="238" spans="1:13" ht="18.75" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>448</v>
       </c>
@@ -5015,10 +5201,10 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" ht="18.75" customHeight="1"/>
-    <row r="240" ht="18.75" customHeight="1"/>
-    <row r="241" ht="18.75" customHeight="1"/>
-    <row r="242" ht="18.75" customHeight="1">
+    <row r="239" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="240" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="241" spans="1:14" ht="18.75" customHeight="1"/>
+    <row r="242" spans="1:14" ht="18.75" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>450</v>
       </c>
@@ -5026,7 +5212,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="243" ht="18.75" customHeight="1">
+    <row r="243" spans="1:14" ht="18.75" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>452</v>
       </c>
@@ -5034,7 +5220,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="244" ht="18.75" customHeight="1">
+    <row r="244" spans="1:14" ht="18.75" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>454</v>
       </c>
@@ -5042,7 +5228,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="245" ht="18.75" customHeight="1">
+    <row r="245" spans="1:14" ht="18.75" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>456</v>
       </c>
@@ -5050,8 +5236,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="246" ht="18.75" customHeight="1"/>
-    <row r="247" ht="18.75" customHeight="1">
+    <row r="246" spans="1:14" ht="18.75" customHeight="1"/>
+    <row r="247" spans="1:14" ht="18.75" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>458</v>
       </c>
@@ -5059,7 +5245,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="248" ht="18.75" customHeight="1">
+    <row r="248" spans="1:14" ht="18.75" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>460</v>
       </c>
@@ -5067,7 +5253,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="249" ht="18.75" customHeight="1">
+    <row r="249" spans="1:14" ht="18.75" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>462</v>
       </c>
@@ -5075,9 +5261,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="250" ht="18.75" customHeight="1"/>
-    <row r="251" ht="18.75" customHeight="1"/>
-    <row r="252" ht="18.75" customHeight="1">
+    <row r="250" spans="1:14" ht="18.75" customHeight="1"/>
+    <row r="251" spans="1:14" ht="18.75" customHeight="1"/>
+    <row r="252" spans="1:14" ht="18.75" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>464</v>
       </c>
@@ -5085,7 +5271,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="253" ht="18.75" customHeight="1">
+    <row r="253" spans="1:14" ht="18.75" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>466</v>
       </c>
@@ -5096,7 +5282,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="254" ht="18.75" customHeight="1">
+    <row r="254" spans="1:14" ht="18.75" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>468</v>
       </c>
@@ -5107,7 +5293,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="255" ht="18.75" customHeight="1">
+    <row r="255" spans="1:14" ht="18.75" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>471</v>
       </c>
@@ -5115,7 +5301,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="256" ht="18.75" customHeight="1">
+    <row r="256" spans="1:14" ht="18.75" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>473</v>
       </c>
@@ -5127,7 +5313,7 @@
       </c>
       <c r="N256" s="2"/>
     </row>
-    <row r="257" ht="18.75" customHeight="1">
+    <row r="257" spans="1:13" ht="18.75" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>476</v>
       </c>
@@ -5135,7 +5321,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="258" ht="18.75" customHeight="1">
+    <row r="258" spans="1:13" ht="18.75" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>478</v>
       </c>
@@ -5143,7 +5329,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="259" ht="18.75" customHeight="1">
+    <row r="259" spans="1:13" ht="18.75" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>480</v>
       </c>
@@ -5151,7 +5337,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="260" ht="18.75" customHeight="1">
+    <row r="260" spans="1:13" ht="18.75" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>482</v>
       </c>
@@ -5159,8 +5345,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="261" ht="18.75" customHeight="1"/>
-    <row r="262" ht="18.75" customHeight="1">
+    <row r="261" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="262" spans="1:13" ht="18.75" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>484</v>
       </c>
@@ -5168,7 +5354,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="263" ht="18.75" customHeight="1">
+    <row r="263" spans="1:13" ht="18.75" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>486</v>
       </c>
@@ -5176,7 +5362,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="264" ht="18.75" customHeight="1">
+    <row r="264" spans="1:13" ht="18.75" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>488</v>
       </c>
@@ -5184,7 +5370,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="265" ht="18.75" customHeight="1">
+    <row r="265" spans="1:13" ht="18.75" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>490</v>
       </c>
@@ -5195,7 +5381,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" ht="18.75" customHeight="1">
+    <row r="266" spans="1:13" ht="18.75" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>493</v>
       </c>
@@ -5203,7 +5389,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="267" ht="18.75" customHeight="1">
+    <row r="267" spans="1:13" ht="18.75" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>495</v>
       </c>
@@ -5211,7 +5397,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="268" ht="18.75" customHeight="1">
+    <row r="268" spans="1:13" ht="18.75" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>497</v>
       </c>
@@ -5222,7 +5408,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="269" ht="18.75" customHeight="1">
+    <row r="269" spans="1:13" ht="18.75" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>499</v>
       </c>
@@ -5241,8 +5427,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="270" ht="18.75" customHeight="1"/>
-    <row r="271" ht="18.75" customHeight="1">
+    <row r="270" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="271" spans="1:13" ht="18.75" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>501</v>
       </c>
@@ -5250,7 +5436,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="272" ht="18.75" customHeight="1">
+    <row r="272" spans="1:13" ht="18.75" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>503</v>
       </c>
@@ -5258,7 +5444,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="273" ht="18.75" customHeight="1">
+    <row r="273" spans="1:13" ht="18.75" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>505</v>
       </c>
@@ -5266,7 +5452,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="274" ht="18.75" customHeight="1">
+    <row r="274" spans="1:13" ht="18.75" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>507</v>
       </c>
@@ -5274,7 +5460,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="275" ht="18.75" customHeight="1">
+    <row r="275" spans="1:13" ht="18.75" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>509</v>
       </c>
@@ -5282,7 +5468,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="276" ht="18.75" customHeight="1">
+    <row r="276" spans="1:13" ht="18.75" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>511</v>
       </c>
@@ -5301,8 +5487,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="277" ht="18.75" customHeight="1"/>
-    <row r="278" ht="18.75" customHeight="1">
+    <row r="277" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="278" spans="1:13" ht="18.75" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>513</v>
       </c>
@@ -5310,7 +5496,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="279" ht="18.75" customHeight="1">
+    <row r="279" spans="1:13" ht="18.75" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>515</v>
       </c>
@@ -5318,7 +5504,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="280" ht="18.75" customHeight="1">
+    <row r="280" spans="1:13" ht="18.75" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>517</v>
       </c>
@@ -5337,7 +5523,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="281" ht="18.75" customHeight="1">
+    <row r="281" spans="1:13" ht="18.75" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>519</v>
       </c>
@@ -5356,7 +5542,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="282" ht="18.75" customHeight="1">
+    <row r="282" spans="1:13" ht="18.75" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>521</v>
       </c>
@@ -5375,7 +5561,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="283" ht="18.75" customHeight="1">
+    <row r="283" spans="1:13" ht="18.75" customHeight="1">
       <c r="A283" s="5" t="s">
         <v>523</v>
       </c>
@@ -5394,7 +5580,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="284" ht="18.75" customHeight="1">
+    <row r="284" spans="1:13" ht="18.75" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>525</v>
       </c>
@@ -5402,8 +5588,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="285" ht="18.75" customHeight="1"/>
-    <row r="286" ht="18.75" customHeight="1">
+    <row r="285" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="286" spans="1:13" ht="18.75" customHeight="1">
       <c r="A286" s="5" t="s">
         <v>527</v>
       </c>
@@ -5422,7 +5608,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="287" ht="18.75" customHeight="1">
+    <row r="287" spans="1:13" ht="18.75" customHeight="1">
       <c r="A287" s="5" t="s">
         <v>529</v>
       </c>
@@ -5441,7 +5627,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="288" ht="18.75" customHeight="1">
+    <row r="288" spans="1:13" ht="18.75" customHeight="1">
       <c r="A288" s="5" t="s">
         <v>531</v>
       </c>
@@ -5460,7 +5646,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="289" ht="18.75" customHeight="1">
+    <row r="289" spans="1:13" ht="18.75" customHeight="1">
       <c r="A289" s="5" t="s">
         <v>533</v>
       </c>
@@ -5479,7 +5665,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="290" ht="18.75" customHeight="1">
+    <row r="290" spans="1:13" ht="18.75" customHeight="1">
       <c r="A290" s="5" t="s">
         <v>535</v>
       </c>
@@ -5498,7 +5684,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="291" ht="18.75" customHeight="1">
+    <row r="291" spans="1:13" ht="18.75" customHeight="1">
       <c r="A291" s="5" t="s">
         <v>537</v>
       </c>
@@ -5517,7 +5703,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="292" ht="18.75" customHeight="1">
+    <row r="292" spans="1:13" ht="18.75" customHeight="1">
       <c r="A292" s="5" t="s">
         <v>539</v>
       </c>
@@ -5536,7 +5722,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="293" ht="18.75" customHeight="1">
+    <row r="293" spans="1:13" ht="18.75" customHeight="1">
       <c r="A293" s="5" t="s">
         <v>541</v>
       </c>
@@ -5555,7 +5741,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="294" ht="18.75" customHeight="1">
+    <row r="294" spans="1:13" ht="18.75" customHeight="1">
       <c r="A294" s="6" t="s">
         <v>543</v>
       </c>
@@ -5563,7 +5749,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="295" ht="18.75" customHeight="1">
+    <row r="295" spans="1:13" ht="18.75" customHeight="1">
       <c r="A295" s="7" t="s">
         <v>545</v>
       </c>
@@ -5571,7 +5757,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="296" ht="18.75" customHeight="1">
+    <row r="296" spans="1:13" ht="18.75" customHeight="1">
       <c r="A296" s="5" t="s">
         <v>547</v>
       </c>
@@ -5579,7 +5765,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="297" ht="18.75" customHeight="1">
+    <row r="297" spans="1:13" ht="18.75" customHeight="1">
       <c r="A297" s="7" t="s">
         <v>549</v>
       </c>
@@ -5598,7 +5784,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="298" ht="18.75" customHeight="1">
+    <row r="298" spans="1:13" ht="18.75" customHeight="1">
       <c r="A298" s="5" t="s">
         <v>551</v>
       </c>
@@ -5606,7 +5792,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="299" ht="18.75" customHeight="1">
+    <row r="299" spans="1:13" ht="18.75" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>553</v>
       </c>
@@ -5614,7 +5800,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="300" ht="18.75" customHeight="1">
+    <row r="300" spans="1:13" ht="18.75" customHeight="1">
       <c r="A300" s="5" t="s">
         <v>555</v>
       </c>
@@ -5622,7 +5808,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="301" ht="18.75" customHeight="1">
+    <row r="301" spans="1:13" ht="18.75" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>557</v>
       </c>
@@ -5641,7 +5827,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="302" ht="18.75" customHeight="1">
+    <row r="302" spans="1:13" ht="18.75" customHeight="1">
       <c r="A302" s="2" t="s">
         <v>559</v>
       </c>
@@ -5660,18 +5846,18 @@
         <v>560</v>
       </c>
     </row>
-    <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1"/>
-    <row r="305" ht="18.75" customHeight="1"/>
-    <row r="306" ht="18.75" customHeight="1"/>
-    <row r="307" ht="18.75" customHeight="1"/>
-    <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1"/>
-    <row r="310" ht="18.75" customHeight="1"/>
-    <row r="311" ht="18.75" customHeight="1"/>
-    <row r="312" ht="18.75" customHeight="1"/>
-    <row r="313" ht="18.75" customHeight="1"/>
-    <row r="314" ht="18.75" customHeight="1">
+    <row r="303" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="304" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="305" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="306" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="307" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="308" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="309" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="310" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="311" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="312" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="313" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="314" spans="1:13" ht="18.75" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>561</v>
       </c>
@@ -5679,7 +5865,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="315" ht="18.75" customHeight="1">
+    <row r="315" spans="1:13" ht="18.75" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>563</v>
       </c>
@@ -5687,7 +5873,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="316" ht="18.75" customHeight="1">
+    <row r="316" spans="1:13" ht="18.75" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>565</v>
       </c>
@@ -5695,7 +5881,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="317" ht="18.75" customHeight="1">
+    <row r="317" spans="1:13" ht="18.75" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>567</v>
       </c>
@@ -5703,8 +5889,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="318" ht="18.75" customHeight="1"/>
-    <row r="319" ht="18.75" customHeight="1">
+    <row r="318" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="319" spans="1:13" ht="18.75" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>569</v>
       </c>
@@ -5712,7 +5898,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="320" ht="18.75" customHeight="1">
+    <row r="320" spans="1:13" ht="18.75" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>571</v>
       </c>
@@ -5720,7 +5906,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="321" ht="18.75" customHeight="1">
+    <row r="321" spans="1:13" ht="18.75" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>573</v>
       </c>
@@ -5728,7 +5914,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="322" ht="18.75" customHeight="1">
+    <row r="322" spans="1:13" ht="18.75" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>575</v>
       </c>
@@ -5736,8 +5922,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="323" ht="18.75" customHeight="1"/>
-    <row r="324" ht="18.75" customHeight="1">
+    <row r="323" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="324" spans="1:13" ht="18.75" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>577</v>
       </c>
@@ -5745,7 +5931,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="325" ht="18.75" customHeight="1">
+    <row r="325" spans="1:13" ht="18.75" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>579</v>
       </c>
@@ -5753,7 +5939,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="326" ht="18.75" customHeight="1">
+    <row r="326" spans="1:13" ht="18.75" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>581</v>
       </c>
@@ -5761,7 +5947,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="327" ht="18.75" customHeight="1">
+    <row r="327" spans="1:13" ht="18.75" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>583</v>
       </c>
@@ -5769,7 +5955,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="328" ht="18.75" customHeight="1">
+    <row r="328" spans="1:13" ht="18.75" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>585</v>
       </c>
@@ -5777,7 +5963,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="329" ht="18.75" customHeight="1">
+    <row r="329" spans="1:13" ht="18.75" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>587</v>
       </c>
@@ -5785,7 +5971,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="330" ht="18.75" customHeight="1">
+    <row r="330" spans="1:13" ht="18.75" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>589</v>
       </c>
@@ -5793,7 +5979,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="331" ht="18.75" customHeight="1">
+    <row r="331" spans="1:13" ht="18.75" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>591</v>
       </c>
@@ -5801,7 +5987,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="332" ht="18.75" customHeight="1">
+    <row r="332" spans="1:13" ht="18.75" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>593</v>
       </c>
@@ -5809,7 +5995,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="333" ht="18.75" customHeight="1">
+    <row r="333" spans="1:13" ht="18.75" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>595</v>
       </c>
@@ -5817,7 +6003,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="334" ht="18.75" customHeight="1">
+    <row r="334" spans="1:13" ht="18.75" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>597</v>
       </c>
@@ -5825,7 +6011,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="335" ht="18.75" customHeight="1">
+    <row r="335" spans="1:13" ht="18.75" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>598</v>
       </c>
@@ -5833,7 +6019,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="336" ht="18.75" customHeight="1">
+    <row r="336" spans="1:13" ht="18.75" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>600</v>
       </c>
@@ -5841,8 +6027,8 @@
         <v>601</v>
       </c>
     </row>
-    <row r="337" ht="18.75" customHeight="1"/>
-    <row r="338" ht="18.75" customHeight="1">
+    <row r="337" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="338" spans="1:13" ht="18.75" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>602</v>
       </c>
@@ -5850,7 +6036,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="339" ht="18.75" customHeight="1">
+    <row r="339" spans="1:13" ht="18.75" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>604</v>
       </c>
@@ -5858,7 +6044,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="340" ht="18.75" customHeight="1">
+    <row r="340" spans="1:13" ht="18.75" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>606</v>
       </c>
@@ -5866,7 +6052,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="341" ht="18.75" customHeight="1">
+    <row r="341" spans="1:13" ht="18.75" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>608</v>
       </c>
@@ -5874,7 +6060,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="342" ht="18.75" customHeight="1">
+    <row r="342" spans="1:13" ht="18.75" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>610</v>
       </c>
@@ -5882,7 +6068,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="343" ht="18.75" customHeight="1">
+    <row r="343" spans="1:13" ht="18.75" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>612</v>
       </c>
@@ -5890,7 +6076,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="344" ht="18.75" customHeight="1">
+    <row r="344" spans="1:13" ht="18.75" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>614</v>
       </c>
@@ -5898,7 +6084,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="345" ht="18.75" customHeight="1">
+    <row r="345" spans="1:13" ht="18.75" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>616</v>
       </c>
@@ -5906,7 +6092,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="346" ht="18.75" customHeight="1">
+    <row r="346" spans="1:13" ht="18.75" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>618</v>
       </c>
@@ -5914,7 +6100,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="347" ht="18.75" customHeight="1">
+    <row r="347" spans="1:13" ht="18.75" customHeight="1">
       <c r="A347" s="1" t="s">
         <v>620</v>
       </c>
@@ -5922,7 +6108,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="348" ht="18.75" customHeight="1">
+    <row r="348" spans="1:13" ht="18.75" customHeight="1">
       <c r="A348" s="1" t="s">
         <v>622</v>
       </c>
@@ -5930,7 +6116,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="349" ht="18.75" customHeight="1">
+    <row r="349" spans="1:13" ht="18.75" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>624</v>
       </c>
@@ -5938,7 +6124,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="350" ht="18.75" customHeight="1">
+    <row r="350" spans="1:13" ht="18.75" customHeight="1">
       <c r="A350" s="1" t="s">
         <v>626</v>
       </c>
@@ -5946,7 +6132,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="351" ht="18.75" customHeight="1">
+    <row r="351" spans="1:13" ht="18.75" customHeight="1">
       <c r="A351" s="1" t="s">
         <v>628</v>
       </c>
@@ -5957,7 +6143,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="352" ht="18.75" customHeight="1">
+    <row r="352" spans="1:13" ht="18.75" customHeight="1">
       <c r="A352" s="1" t="s">
         <v>631</v>
       </c>
@@ -5965,7 +6151,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="353" ht="18.75" customHeight="1">
+    <row r="353" spans="1:13" ht="18.75" customHeight="1">
       <c r="A353" s="1" t="s">
         <v>633</v>
       </c>
@@ -5973,7 +6159,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="354" ht="18.75" customHeight="1">
+    <row r="354" spans="1:13" ht="18.75" customHeight="1">
       <c r="A354" s="1" t="s">
         <v>635</v>
       </c>
@@ -5981,7 +6167,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="355" ht="18.75" customHeight="1">
+    <row r="355" spans="1:13" ht="18.75" customHeight="1">
       <c r="A355" s="1" t="s">
         <v>637</v>
       </c>
@@ -5989,7 +6175,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="356" ht="18.75" customHeight="1">
+    <row r="356" spans="1:13" ht="18.75" customHeight="1">
       <c r="A356" s="1" t="s">
         <v>639</v>
       </c>
@@ -5997,7 +6183,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="357" ht="18.75" customHeight="1">
+    <row r="357" spans="1:13" ht="18.75" customHeight="1">
       <c r="A357" s="1" t="s">
         <v>641</v>
       </c>
@@ -6005,7 +6191,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="358" ht="18.75" customHeight="1">
+    <row r="358" spans="1:13" ht="18.75" customHeight="1">
       <c r="A358" s="1" t="s">
         <v>643</v>
       </c>
@@ -6013,7 +6199,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="359" ht="18.75" customHeight="1">
+    <row r="359" spans="1:13" ht="18.75" customHeight="1">
       <c r="A359" s="1" t="s">
         <v>645</v>
       </c>
@@ -6021,7 +6207,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="360" ht="18.75" customHeight="1">
+    <row r="360" spans="1:13" ht="18.75" customHeight="1">
       <c r="A360" s="1" t="s">
         <v>647</v>
       </c>
@@ -6029,7 +6215,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="361" ht="18.75" customHeight="1">
+    <row r="361" spans="1:13" ht="18.75" customHeight="1">
       <c r="A361" s="1" t="s">
         <v>649</v>
       </c>
@@ -6037,7 +6223,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="362" ht="18.75" customHeight="1">
+    <row r="362" spans="1:13" ht="18.75" customHeight="1">
       <c r="A362" s="1" t="s">
         <v>651</v>
       </c>
@@ -6045,7 +6231,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="363" ht="18.75" customHeight="1">
+    <row r="363" spans="1:13" ht="18.75" customHeight="1">
       <c r="A363" s="1" t="s">
         <v>653</v>
       </c>
@@ -6053,7 +6239,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="364" ht="18.75" customHeight="1">
+    <row r="364" spans="1:13" ht="18.75" customHeight="1">
       <c r="A364" s="1" t="s">
         <v>655</v>
       </c>
@@ -6061,7 +6247,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="365" ht="18.75" customHeight="1">
+    <row r="365" spans="1:13" ht="18.75" customHeight="1">
       <c r="A365" s="1" t="s">
         <v>657</v>
       </c>
@@ -6069,7 +6255,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="366" ht="18.75" customHeight="1">
+    <row r="366" spans="1:13" ht="18.75" customHeight="1">
       <c r="A366" s="1" t="s">
         <v>659</v>
       </c>
@@ -6077,8 +6263,8 @@
         <v>660</v>
       </c>
     </row>
-    <row r="367" ht="18.75" customHeight="1"/>
-    <row r="368" ht="18.75" customHeight="1">
+    <row r="367" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="368" spans="1:13" ht="18.75" customHeight="1">
       <c r="A368" s="2" t="s">
         <v>661</v>
       </c>
@@ -6097,7 +6283,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="369" ht="18.75" customHeight="1">
+    <row r="369" spans="1:13" ht="18.75" customHeight="1">
       <c r="A369" s="2" t="s">
         <v>663</v>
       </c>
@@ -6116,7 +6302,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="370" ht="18.75" customHeight="1">
+    <row r="370" spans="1:13" ht="18.75" customHeight="1">
       <c r="A370" s="2" t="s">
         <v>665</v>
       </c>
@@ -6137,7 +6323,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="371" ht="18.75" customHeight="1">
+    <row r="371" spans="1:13" ht="18.75" customHeight="1">
       <c r="A371" s="2" t="s">
         <v>667</v>
       </c>
@@ -6158,7 +6344,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="372" ht="18.75" customHeight="1">
+    <row r="372" spans="1:13" ht="18.75" customHeight="1">
       <c r="A372" s="2" t="s">
         <v>669</v>
       </c>
@@ -6179,7 +6365,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="373" ht="18.75" customHeight="1">
+    <row r="373" spans="1:13" ht="18.75" customHeight="1">
       <c r="A373" s="2" t="s">
         <v>671</v>
       </c>
@@ -6200,7 +6386,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="374" ht="18.75" customHeight="1">
+    <row r="374" spans="1:13" ht="18.75" customHeight="1">
       <c r="A374" s="2" t="s">
         <v>673</v>
       </c>
@@ -6221,7 +6407,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="375" ht="18.75" customHeight="1">
+    <row r="375" spans="1:13" ht="18.75" customHeight="1">
       <c r="A375" s="2" t="s">
         <v>675</v>
       </c>
@@ -6242,7 +6428,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="376" ht="18.75" customHeight="1">
+    <row r="376" spans="1:13" ht="18.75" customHeight="1">
       <c r="A376" s="2" t="s">
         <v>677</v>
       </c>
@@ -6263,7 +6449,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="377" ht="18.75" customHeight="1">
+    <row r="377" spans="1:13" ht="18.75" customHeight="1">
       <c r="A377" s="2" t="s">
         <v>679</v>
       </c>
@@ -6284,7 +6470,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="378" ht="18.75" customHeight="1">
+    <row r="378" spans="1:13" ht="18.75" customHeight="1">
       <c r="A378" s="2" t="s">
         <v>681</v>
       </c>
@@ -6305,7 +6491,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="379" ht="18.75" customHeight="1">
+    <row r="379" spans="1:13" ht="18.75" customHeight="1">
       <c r="A379" s="2" t="s">
         <v>683</v>
       </c>
@@ -6313,7 +6499,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="380" ht="18.75" customHeight="1">
+    <row r="380" spans="1:13" ht="18.75" customHeight="1">
       <c r="A380" s="2" t="s">
         <v>685</v>
       </c>
@@ -6321,7 +6507,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="381" ht="18.75" customHeight="1">
+    <row r="381" spans="1:13" ht="18.75" customHeight="1">
       <c r="A381" s="2" t="s">
         <v>687</v>
       </c>
@@ -6329,7 +6515,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="382" ht="18.75" customHeight="1">
+    <row r="382" spans="1:13" ht="18.75" customHeight="1">
       <c r="A382" s="2" t="s">
         <v>689</v>
       </c>
@@ -6337,7 +6523,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="383" ht="18.75" customHeight="1">
+    <row r="383" spans="1:13" ht="18.75" customHeight="1">
       <c r="A383" s="2" t="s">
         <v>691</v>
       </c>
@@ -6345,7 +6531,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="384" ht="18.75" customHeight="1">
+    <row r="384" spans="1:13" ht="18.75" customHeight="1">
       <c r="A384" s="2" t="s">
         <v>693</v>
       </c>
@@ -6353,7 +6539,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="385" ht="18.75" customHeight="1">
+    <row r="385" spans="1:13" ht="18.75" customHeight="1">
       <c r="A385" s="2" t="s">
         <v>695</v>
       </c>
@@ -6361,7 +6547,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="386" ht="18.75" customHeight="1">
+    <row r="386" spans="1:13" ht="18.75" customHeight="1">
       <c r="A386" s="2" t="s">
         <v>697</v>
       </c>
@@ -6369,7 +6555,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="387" ht="18.75" customHeight="1">
+    <row r="387" spans="1:13" ht="18.75" customHeight="1">
       <c r="A387" s="2" t="s">
         <v>699</v>
       </c>
@@ -6377,7 +6563,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="388" ht="18.75" customHeight="1">
+    <row r="388" spans="1:13" ht="18.75" customHeight="1">
       <c r="A388" s="2" t="s">
         <v>701</v>
       </c>
@@ -6385,7 +6571,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="389" ht="18.75" customHeight="1">
+    <row r="389" spans="1:13" ht="18.75" customHeight="1">
       <c r="A389" s="2" t="s">
         <v>703</v>
       </c>
@@ -6393,7 +6579,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="390" ht="18.75" customHeight="1">
+    <row r="390" spans="1:13" ht="18.75" customHeight="1">
       <c r="A390" s="2" t="s">
         <v>705</v>
       </c>
@@ -6401,7 +6587,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="391" ht="18.75" customHeight="1">
+    <row r="391" spans="1:13" ht="18.75" customHeight="1">
       <c r="A391" s="2" t="s">
         <v>707</v>
       </c>
@@ -6409,7 +6595,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="392" ht="18.75" customHeight="1">
+    <row r="392" spans="1:13" ht="18.75" customHeight="1">
       <c r="A392" s="2" t="s">
         <v>709</v>
       </c>
@@ -6417,7 +6603,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="393" ht="18.75" customHeight="1">
+    <row r="393" spans="1:13" ht="18.75" customHeight="1">
       <c r="A393" s="2" t="s">
         <v>711</v>
       </c>
@@ -6425,7 +6611,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="394" ht="18.75" customHeight="1">
+    <row r="394" spans="1:13" ht="18.75" customHeight="1">
       <c r="A394" s="2" t="s">
         <v>713</v>
       </c>
@@ -6433,7 +6619,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="395" ht="18.75" customHeight="1">
+    <row r="395" spans="1:13" ht="18.75" customHeight="1">
       <c r="A395" s="2" t="s">
         <v>715</v>
       </c>
@@ -6441,7 +6627,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="396" ht="18.75" customHeight="1">
+    <row r="396" spans="1:13" ht="18.75" customHeight="1">
       <c r="A396" s="2" t="s">
         <v>717</v>
       </c>
@@ -6449,7 +6635,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="397" ht="18.75" customHeight="1">
+    <row r="397" spans="1:13" ht="18.75" customHeight="1">
       <c r="A397" s="2" t="s">
         <v>719</v>
       </c>
@@ -6457,7 +6643,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="398" ht="18.75" customHeight="1">
+    <row r="398" spans="1:13" ht="18.75" customHeight="1">
       <c r="A398" s="2" t="s">
         <v>721</v>
       </c>
@@ -6465,7 +6651,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="399" ht="18.75" customHeight="1">
+    <row r="399" spans="1:13" ht="18.75" customHeight="1">
       <c r="A399" s="2" t="s">
         <v>723</v>
       </c>
@@ -6473,7 +6659,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="400" ht="18.75" customHeight="1">
+    <row r="400" spans="1:13" ht="18.75" customHeight="1">
       <c r="A400" s="2" t="s">
         <v>725</v>
       </c>
@@ -6481,7 +6667,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="401" ht="18.75" customHeight="1">
+    <row r="401" spans="1:13" ht="18.75" customHeight="1">
       <c r="A401" s="2" t="s">
         <v>727</v>
       </c>
@@ -6489,7 +6675,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="402" ht="18.75" customHeight="1">
+    <row r="402" spans="1:13" ht="18.75" customHeight="1">
       <c r="A402" s="2" t="s">
         <v>729</v>
       </c>
@@ -6497,7 +6683,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="403" ht="18.75" customHeight="1">
+    <row r="403" spans="1:13" ht="18.75" customHeight="1">
       <c r="A403" s="2" t="s">
         <v>731</v>
       </c>
@@ -6505,7 +6691,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="404" ht="18.75" customHeight="1">
+    <row r="404" spans="1:13" ht="18.75" customHeight="1">
       <c r="A404" s="2" t="s">
         <v>733</v>
       </c>
@@ -6513,7 +6699,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="405" ht="18.75" customHeight="1">
+    <row r="405" spans="1:13" ht="18.75" customHeight="1">
       <c r="A405" s="2" t="s">
         <v>735</v>
       </c>
@@ -6521,7 +6707,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="406" ht="18.75" customHeight="1">
+    <row r="406" spans="1:13" ht="18.75" customHeight="1">
       <c r="A406" s="2" t="s">
         <v>737</v>
       </c>
@@ -6529,7 +6715,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="407" ht="18.75" customHeight="1">
+    <row r="407" spans="1:13" ht="18.75" customHeight="1">
       <c r="A407" s="2" t="s">
         <v>739</v>
       </c>
@@ -6537,7 +6723,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="408" ht="18.75" customHeight="1">
+    <row r="408" spans="1:13" ht="18.75" customHeight="1">
       <c r="A408" s="2" t="s">
         <v>741</v>
       </c>
@@ -6545,7 +6731,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="409" ht="18.75" customHeight="1">
+    <row r="409" spans="1:13" ht="18.75" customHeight="1">
       <c r="A409" s="2" t="s">
         <v>743</v>
       </c>
@@ -6553,7 +6739,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="410" ht="18.75" customHeight="1">
+    <row r="410" spans="1:13" ht="18.75" customHeight="1">
       <c r="A410" s="2" t="s">
         <v>745</v>
       </c>
@@ -6561,7 +6747,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="411" ht="18.75" customHeight="1">
+    <row r="411" spans="1:13" ht="18.75" customHeight="1">
       <c r="A411" s="2" t="s">
         <v>747</v>
       </c>
@@ -6569,7 +6755,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="412" ht="18.75" customHeight="1">
+    <row r="412" spans="1:13" ht="18.75" customHeight="1">
       <c r="A412" s="2" t="s">
         <v>749</v>
       </c>
@@ -6577,7 +6763,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="413" ht="18.75" customHeight="1">
+    <row r="413" spans="1:13" ht="18.75" customHeight="1">
       <c r="A413" s="2" t="s">
         <v>751</v>
       </c>
@@ -6585,7 +6771,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="414" ht="18.75" customHeight="1">
+    <row r="414" spans="1:13" ht="18.75" customHeight="1">
       <c r="A414" s="2" t="s">
         <v>753</v>
       </c>
@@ -6593,7 +6779,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="415" ht="18.75" customHeight="1">
+    <row r="415" spans="1:13" ht="18.75" customHeight="1">
       <c r="A415" s="2" t="s">
         <v>755</v>
       </c>
@@ -6601,7 +6787,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="416" ht="18.75" customHeight="1">
+    <row r="416" spans="1:13" ht="18.75" customHeight="1">
       <c r="A416" s="2" t="s">
         <v>757</v>
       </c>
@@ -6609,7 +6795,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="417" ht="18.75" customHeight="1">
+    <row r="417" spans="1:13" ht="18.75" customHeight="1">
       <c r="A417" s="2" t="s">
         <v>759</v>
       </c>
@@ -6617,7 +6803,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="418" ht="18.75" customHeight="1">
+    <row r="418" spans="1:13" ht="18.75" customHeight="1">
       <c r="A418" s="2" t="s">
         <v>761</v>
       </c>
@@ -6625,7 +6811,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="419" ht="18.75" customHeight="1">
+    <row r="419" spans="1:13" ht="18.75" customHeight="1">
       <c r="A419" s="2" t="s">
         <v>763</v>
       </c>
@@ -6633,7 +6819,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="420" ht="18.75" customHeight="1">
+    <row r="420" spans="1:13" ht="18.75" customHeight="1">
       <c r="A420" s="2" t="s">
         <v>765</v>
       </c>
@@ -6641,7 +6827,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="421" ht="18.75" customHeight="1">
+    <row r="421" spans="1:13" ht="18.75" customHeight="1">
       <c r="A421" s="2" t="s">
         <v>767</v>
       </c>
@@ -6649,7 +6835,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="422" ht="18.75" customHeight="1">
+    <row r="422" spans="1:13" ht="18.75" customHeight="1">
       <c r="A422" s="2" t="s">
         <v>769</v>
       </c>
@@ -6657,7 +6843,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="423" ht="18.75" customHeight="1">
+    <row r="423" spans="1:13" ht="18.75" customHeight="1">
       <c r="A423" s="2" t="s">
         <v>771</v>
       </c>
@@ -6665,7 +6851,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="424" ht="18.75" customHeight="1">
+    <row r="424" spans="1:13" ht="18.75" customHeight="1">
       <c r="A424" s="2" t="s">
         <v>773</v>
       </c>
@@ -6673,7 +6859,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="425" ht="18.75" customHeight="1">
+    <row r="425" spans="1:13" ht="18.75" customHeight="1">
       <c r="A425" s="2" t="s">
         <v>775</v>
       </c>
@@ -6681,7 +6867,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="426" ht="18.75" customHeight="1">
+    <row r="426" spans="1:13" ht="18.75" customHeight="1">
       <c r="A426" s="2" t="s">
         <v>777</v>
       </c>
@@ -6689,11 +6875,11 @@
         <v>778</v>
       </c>
     </row>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1"/>
-    <row r="430" ht="18.75" customHeight="1"/>
-    <row r="431" ht="18.75" customHeight="1">
+    <row r="427" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="428" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="429" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="430" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="431" spans="1:13" ht="18.75" customHeight="1">
       <c r="A431" s="2" t="s">
         <v>779</v>
       </c>
@@ -6712,7 +6898,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="432" ht="18.75" customHeight="1">
+    <row r="432" spans="1:13" ht="18.75" customHeight="1">
       <c r="A432" s="2" t="s">
         <v>781</v>
       </c>
@@ -6731,7 +6917,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="433" ht="18.75" customHeight="1">
+    <row r="433" spans="1:13" ht="18.75" customHeight="1">
       <c r="A433" s="2" t="s">
         <v>783</v>
       </c>
@@ -6750,7 +6936,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="434" ht="18.75" customHeight="1">
+    <row r="434" spans="1:13" ht="18.75" customHeight="1">
       <c r="A434" s="2" t="s">
         <v>785</v>
       </c>
@@ -6769,8 +6955,8 @@
         <v>786</v>
       </c>
     </row>
-    <row r="435" ht="18.75" customHeight="1"/>
-    <row r="436" ht="18.75" customHeight="1">
+    <row r="435" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="436" spans="1:13" ht="18.75" customHeight="1">
       <c r="A436" s="2" t="s">
         <v>787</v>
       </c>
@@ -6789,7 +6975,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="437" ht="18.75" customHeight="1">
+    <row r="437" spans="1:13" ht="18.75" customHeight="1">
       <c r="A437" s="2" t="s">
         <v>789</v>
       </c>
@@ -6808,7 +6994,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="438" ht="18.75" customHeight="1">
+    <row r="438" spans="1:13" ht="18.75" customHeight="1">
       <c r="A438" s="2" t="s">
         <v>791</v>
       </c>
@@ -6827,7 +7013,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="439" ht="18.75" customHeight="1">
+    <row r="439" spans="1:13" ht="18.75" customHeight="1">
       <c r="A439" s="2" t="s">
         <v>793</v>
       </c>
@@ -6846,7 +7032,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="440" ht="18.75" customHeight="1">
+    <row r="440" spans="1:13" ht="18.75" customHeight="1">
       <c r="A440" s="2" t="s">
         <v>795</v>
       </c>
@@ -6865,7 +7051,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="441" ht="18.75" customHeight="1">
+    <row r="441" spans="1:13" ht="18.75" customHeight="1">
       <c r="A441" s="2" t="s">
         <v>796</v>
       </c>
@@ -6884,9 +7070,9 @@
         <v>797</v>
       </c>
     </row>
-    <row r="442" ht="18.75" customHeight="1"/>
-    <row r="443" ht="18.75" customHeight="1"/>
-    <row r="444" ht="18.75" customHeight="1">
+    <row r="442" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="443" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="444" spans="1:13" ht="18.75" customHeight="1">
       <c r="A444" s="1" t="s">
         <v>798</v>
       </c>
@@ -6894,7 +7080,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="445" ht="18.75" customHeight="1">
+    <row r="445" spans="1:13" ht="18.75" customHeight="1">
       <c r="A445" s="1" t="s">
         <v>800</v>
       </c>
@@ -6905,7 +7091,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="446" ht="18.75" customHeight="1">
+    <row r="446" spans="1:13" ht="18.75" customHeight="1">
       <c r="A446" s="8" t="s">
         <v>803</v>
       </c>
@@ -6914,7 +7100,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="447" ht="18.75" customHeight="1">
+    <row r="447" spans="1:13" ht="18.75" customHeight="1">
       <c r="A447" s="8" t="s">
         <v>805</v>
       </c>
@@ -6923,7 +7109,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="448" ht="18.75" customHeight="1">
+    <row r="448" spans="1:13" ht="18.75" customHeight="1">
       <c r="A448" s="8" t="s">
         <v>807</v>
       </c>
@@ -6932,7 +7118,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="449" ht="18.75" customHeight="1">
+    <row r="449" spans="1:13" ht="18.75" customHeight="1">
       <c r="A449" s="8" t="s">
         <v>809</v>
       </c>
@@ -6941,7 +7127,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="450" ht="18.75" customHeight="1">
+    <row r="450" spans="1:13" ht="18.75" customHeight="1">
       <c r="A450" s="1" t="s">
         <v>811</v>
       </c>
@@ -6950,7 +7136,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="451" ht="18.75" customHeight="1">
+    <row r="451" spans="1:13" ht="18.75" customHeight="1">
       <c r="A451" s="1" t="s">
         <v>813</v>
       </c>
@@ -6959,7 +7145,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="452" ht="18.75" customHeight="1">
+    <row r="452" spans="1:13" ht="18.75" customHeight="1">
       <c r="A452" s="1" t="s">
         <v>815</v>
       </c>
@@ -6970,7 +7156,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="453" ht="18.75" customHeight="1">
+    <row r="453" spans="1:13" ht="18.75" customHeight="1">
       <c r="A453" s="1" t="s">
         <v>818</v>
       </c>
@@ -6979,7 +7165,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="454" ht="18.75" customHeight="1">
+    <row r="454" spans="1:13" ht="18.75" customHeight="1">
       <c r="A454" s="1" t="s">
         <v>820</v>
       </c>
@@ -6988,7 +7174,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="455" ht="18.75" customHeight="1">
+    <row r="455" spans="1:13" ht="18.75" customHeight="1">
       <c r="A455" s="1" t="s">
         <v>822</v>
       </c>
@@ -6997,7 +7183,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="456" ht="18.75" customHeight="1">
+    <row r="456" spans="1:13" ht="18.75" customHeight="1">
       <c r="A456" s="1" t="s">
         <v>824</v>
       </c>
@@ -7006,7 +7192,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="457" ht="18.75" customHeight="1">
+    <row r="457" spans="1:13" ht="18.75" customHeight="1">
       <c r="A457" s="1" t="s">
         <v>826</v>
       </c>
@@ -7015,7 +7201,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="458" ht="18.75" customHeight="1">
+    <row r="458" spans="1:13" ht="18.75" customHeight="1">
       <c r="A458" s="1" t="s">
         <v>828</v>
       </c>
@@ -7024,7 +7210,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="459" ht="18.75" customHeight="1">
+    <row r="459" spans="1:13" ht="18.75" customHeight="1">
       <c r="A459" s="2" t="s">
         <v>830</v>
       </c>
@@ -7035,7 +7221,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="460" ht="18.75" customHeight="1">
+    <row r="460" spans="1:13" ht="18.75" customHeight="1">
       <c r="A460" s="1" t="s">
         <v>832</v>
       </c>
@@ -7046,7 +7232,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="461" ht="18.75" customHeight="1">
+    <row r="461" spans="1:13" ht="18.75" customHeight="1">
       <c r="A461" s="1" t="s">
         <v>834</v>
       </c>
@@ -7057,7 +7243,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="462" ht="18.75" customHeight="1">
+    <row r="462" spans="1:13" ht="18.75" customHeight="1">
       <c r="A462" s="1" t="s">
         <v>837</v>
       </c>
@@ -7066,8 +7252,8 @@
         <v>838</v>
       </c>
     </row>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1">
+    <row r="463" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="464" spans="1:13" ht="18.75" customHeight="1">
       <c r="A464" s="2" t="s">
         <v>839</v>
       </c>
@@ -7086,7 +7272,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="465" ht="18.75" customHeight="1">
+    <row r="465" spans="1:13" ht="18.75" customHeight="1">
       <c r="A465" s="1" t="s">
         <v>841</v>
       </c>
@@ -7094,37 +7280,469 @@
         <v>842</v>
       </c>
     </row>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
+    <row r="466" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A466" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B466" s="9"/>
+      <c r="C466" s="9"/>
+      <c r="D466" s="9"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="9"/>
+      <c r="G466" s="9"/>
+      <c r="H466" s="9"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="9"/>
+      <c r="K466" s="9"/>
+      <c r="L466" s="9"/>
+      <c r="M466" s="9" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A467" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="B467" s="9"/>
+      <c r="C467" s="9"/>
+      <c r="D467" s="9"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="9"/>
+      <c r="G467" s="9"/>
+      <c r="H467" s="9"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="9"/>
+      <c r="K467" s="9"/>
+      <c r="L467" s="9"/>
+      <c r="M467" s="9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A468" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="B468" s="9"/>
+      <c r="C468" s="9"/>
+      <c r="D468" s="9"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="9"/>
+      <c r="G468" s="9"/>
+      <c r="H468" s="9"/>
+      <c r="I468" s="9"/>
+      <c r="J468" s="9"/>
+      <c r="K468" s="9"/>
+      <c r="L468" s="9"/>
+      <c r="M468" s="9" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A469" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="B469" s="9"/>
+      <c r="C469" s="9"/>
+      <c r="D469" s="9"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="9"/>
+      <c r="G469" s="9"/>
+      <c r="H469" s="9"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="9"/>
+      <c r="K469" s="9"/>
+      <c r="L469" s="9"/>
+      <c r="M469" s="9" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A470" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="B470" s="9"/>
+      <c r="C470" s="9"/>
+      <c r="D470" s="9"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="9"/>
+      <c r="G470" s="9"/>
+      <c r="H470" s="9"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="9"/>
+      <c r="K470" s="9"/>
+      <c r="L470" s="9"/>
+      <c r="M470" s="9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A471" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="B471" s="9"/>
+      <c r="C471" s="9"/>
+      <c r="D471" s="9"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="9"/>
+      <c r="G471" s="9"/>
+      <c r="H471" s="9"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="9"/>
+      <c r="K471" s="9"/>
+      <c r="L471" s="9"/>
+      <c r="M471" s="9" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A472" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="B472" s="9"/>
+      <c r="C472" s="9"/>
+      <c r="D472" s="9"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="9"/>
+      <c r="G472" s="9"/>
+      <c r="H472" s="9"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="9"/>
+      <c r="K472" s="9"/>
+      <c r="L472" s="9"/>
+      <c r="M472" s="9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A473" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="B473" s="9"/>
+      <c r="C473" s="9"/>
+      <c r="D473" s="9"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="9"/>
+      <c r="G473" s="9"/>
+      <c r="H473" s="9"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="9"/>
+      <c r="K473" s="9"/>
+      <c r="L473" s="9"/>
+      <c r="M473" s="9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A474" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="B474" s="9"/>
+      <c r="C474" s="9"/>
+      <c r="D474" s="9"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="9"/>
+      <c r="G474" s="9"/>
+      <c r="H474" s="9"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="9"/>
+      <c r="K474" s="9"/>
+      <c r="L474" s="9"/>
+      <c r="M474" s="9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A475" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B475" s="9"/>
+      <c r="C475" s="9"/>
+      <c r="D475" s="9"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="9"/>
+      <c r="G475" s="9"/>
+      <c r="H475" s="9"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="9"/>
+      <c r="K475" s="9"/>
+      <c r="L475" s="9"/>
+      <c r="M475" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A476" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B476" s="9"/>
+      <c r="C476" s="9"/>
+      <c r="D476" s="9"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="9"/>
+      <c r="G476" s="9"/>
+      <c r="H476" s="9"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="9"/>
+      <c r="K476" s="9"/>
+      <c r="L476" s="9"/>
+      <c r="M476" s="9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A477" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="B477" s="9"/>
+      <c r="C477" s="9"/>
+      <c r="D477" s="9"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="9"/>
+      <c r="G477" s="9"/>
+      <c r="H477" s="9"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="9"/>
+      <c r="K477" s="9"/>
+      <c r="L477" s="9"/>
+      <c r="M477" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A478" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="B478" s="9"/>
+      <c r="C478" s="9"/>
+      <c r="D478" s="9"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="9"/>
+      <c r="G478" s="9"/>
+      <c r="H478" s="9"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="9"/>
+      <c r="K478" s="9"/>
+      <c r="L478" s="9"/>
+      <c r="M478" s="9" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A479" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="B479" s="9"/>
+      <c r="C479" s="9"/>
+      <c r="D479" s="9"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="9"/>
+      <c r="G479" s="9"/>
+      <c r="H479" s="9"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="9"/>
+      <c r="K479" s="9"/>
+      <c r="L479" s="9"/>
+      <c r="M479" s="9" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A480" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="B480" s="9"/>
+      <c r="C480" s="9"/>
+      <c r="D480" s="9"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="9"/>
+      <c r="G480" s="9"/>
+      <c r="H480" s="9"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="9"/>
+      <c r="K480" s="9"/>
+      <c r="L480" s="9"/>
+      <c r="M480" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A481" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B481" s="9"/>
+      <c r="C481" s="9"/>
+      <c r="D481" s="9"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="9"/>
+      <c r="G481" s="9"/>
+      <c r="H481" s="9"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="9"/>
+      <c r="K481" s="9"/>
+      <c r="L481" s="9"/>
+      <c r="M481" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A482" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B482" s="9"/>
+      <c r="C482" s="9"/>
+      <c r="D482" s="9"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="9"/>
+      <c r="G482" s="9"/>
+      <c r="H482" s="9"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="9"/>
+      <c r="K482" s="9"/>
+      <c r="L482" s="9"/>
+      <c r="M482" s="9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A483" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B483" s="9"/>
+      <c r="C483" s="9"/>
+      <c r="D483" s="9"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="9"/>
+      <c r="G483" s="9"/>
+      <c r="H483" s="9"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="9"/>
+      <c r="K483" s="9"/>
+      <c r="L483" s="9"/>
+      <c r="M483" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A484" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="B484" s="9"/>
+      <c r="C484" s="9"/>
+      <c r="D484" s="9"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="9"/>
+      <c r="G484" s="9"/>
+      <c r="H484" s="9"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="9"/>
+      <c r="K484" s="9"/>
+      <c r="L484" s="9"/>
+      <c r="M484" s="9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A485" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="B485" s="9"/>
+      <c r="C485" s="9"/>
+      <c r="D485" s="9"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="9"/>
+      <c r="G485" s="9"/>
+      <c r="H485" s="9"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="9"/>
+      <c r="K485" s="9"/>
+      <c r="L485" s="9"/>
+      <c r="M485" s="9" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A486" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="B486" s="9"/>
+      <c r="C486" s="9"/>
+      <c r="D486" s="9"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="9"/>
+      <c r="G486" s="9"/>
+      <c r="H486" s="9"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="9"/>
+      <c r="K486" s="9"/>
+      <c r="L486" s="9"/>
+      <c r="M486" s="9" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A487" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B487" s="9"/>
+      <c r="C487" s="9"/>
+      <c r="D487" s="9"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="9"/>
+      <c r="G487" s="9"/>
+      <c r="H487" s="9"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="9"/>
+      <c r="K487" s="9"/>
+      <c r="L487" s="9"/>
+      <c r="M487" s="9" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A488" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B488" s="9"/>
+      <c r="C488" s="9"/>
+      <c r="D488" s="9"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="9"/>
+      <c r="G488" s="9"/>
+      <c r="H488" s="9"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="9"/>
+      <c r="K488" s="9"/>
+      <c r="L488" s="9"/>
+      <c r="M488" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A489" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B489" s="9"/>
+      <c r="C489" s="9"/>
+      <c r="D489" s="9"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="9"/>
+      <c r="G489" s="9"/>
+      <c r="H489" s="9"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="9"/>
+      <c r="K489" s="9"/>
+      <c r="L489" s="9"/>
+      <c r="M489" s="9" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="491" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="492" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="493" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="494" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="495" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="496" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="497" ht="18.75" customHeight="1"/>
     <row r="498" ht="18.75" customHeight="1"/>
     <row r="499" ht="18.75" customHeight="1"/>
@@ -7650,9 +8268,8 @@
     <row r="1019" ht="18.75" customHeight="1"/>
     <row r="1020" ht="18.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89ED1AF-425F-4FDC-B5EA-94E6D1F7DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917B62F8-C572-450C-A8DF-F8BB01568DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="896">
   <si>
     <t>English</t>
   </si>
@@ -2727,6 +2727,21 @@
   </si>
   <si>
     <t>尾張なな（帽子なし）</t>
+  </si>
+  <si>
+    <t>ShikishiroShiruku</t>
+  </si>
+  <si>
+    <t>識白シルク</t>
+  </si>
+  <si>
+    <t>ShikishiroShirukuNeco</t>
+  </si>
+  <si>
+    <t>ShikishiroShiruku(NekomataMode)</t>
+  </si>
+  <si>
+    <t>識白シルク(猫又モード)</t>
   </si>
 </sst>
 </file>
@@ -3041,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="A489" sqref="A489:M489"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="M450" sqref="M450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7252,132 +7267,82 @@
         <v>838</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="463" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A463" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="B463" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="C463" s="9"/>
+      <c r="D463" s="9"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="9"/>
+      <c r="G463" s="9"/>
+      <c r="H463" s="9"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="9"/>
+      <c r="K463" s="9"/>
+      <c r="L463" s="9"/>
+      <c r="M463" s="9" t="s">
+        <v>892</v>
+      </c>
+    </row>
     <row r="464" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B464" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="C464" s="9"/>
+      <c r="D464" s="9"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="9"/>
+      <c r="G464" s="9"/>
+      <c r="H464" s="9"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="9"/>
+      <c r="K464" s="9"/>
+      <c r="L464" s="9"/>
+      <c r="M464" s="9" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="466" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="467" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="468" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="469" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A469" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-      <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
-      <c r="H464" s="2"/>
-      <c r="I464" s="2"/>
-      <c r="J464" s="2"/>
-      <c r="K464" s="2"/>
-      <c r="L464" s="2"/>
-      <c r="M464" s="2" t="s">
+      <c r="B469" s="2"/>
+      <c r="C469" s="2"/>
+      <c r="D469" s="2"/>
+      <c r="E469" s="2"/>
+      <c r="F469" s="2"/>
+      <c r="G469" s="2"/>
+      <c r="H469" s="2"/>
+      <c r="I469" s="2"/>
+      <c r="J469" s="2"/>
+      <c r="K469" s="2"/>
+      <c r="L469" s="2"/>
+      <c r="M469" s="2" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A465" s="1" t="s">
+    <row r="470" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A470" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="M465" s="2" t="s">
+      <c r="M470" s="2" t="s">
         <v>842</v>
-      </c>
-    </row>
-    <row r="466" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A466" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="B466" s="9"/>
-      <c r="C466" s="9"/>
-      <c r="D466" s="9"/>
-      <c r="E466" s="9"/>
-      <c r="F466" s="9"/>
-      <c r="G466" s="9"/>
-      <c r="H466" s="9"/>
-      <c r="I466" s="9"/>
-      <c r="J466" s="9"/>
-      <c r="K466" s="9"/>
-      <c r="L466" s="9"/>
-      <c r="M466" s="9" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="467" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A467" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="B467" s="9"/>
-      <c r="C467" s="9"/>
-      <c r="D467" s="9"/>
-      <c r="E467" s="9"/>
-      <c r="F467" s="9"/>
-      <c r="G467" s="9"/>
-      <c r="H467" s="9"/>
-      <c r="I467" s="9"/>
-      <c r="J467" s="9"/>
-      <c r="K467" s="9"/>
-      <c r="L467" s="9"/>
-      <c r="M467" s="9" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="468" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A468" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="B468" s="9"/>
-      <c r="C468" s="9"/>
-      <c r="D468" s="9"/>
-      <c r="E468" s="9"/>
-      <c r="F468" s="9"/>
-      <c r="G468" s="9"/>
-      <c r="H468" s="9"/>
-      <c r="I468" s="9"/>
-      <c r="J468" s="9"/>
-      <c r="K468" s="9"/>
-      <c r="L468" s="9"/>
-      <c r="M468" s="9" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="469" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A469" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="B469" s="9"/>
-      <c r="C469" s="9"/>
-      <c r="D469" s="9"/>
-      <c r="E469" s="9"/>
-      <c r="F469" s="9"/>
-      <c r="G469" s="9"/>
-      <c r="H469" s="9"/>
-      <c r="I469" s="9"/>
-      <c r="J469" s="9"/>
-      <c r="K469" s="9"/>
-      <c r="L469" s="9"/>
-      <c r="M469" s="9" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="470" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A470" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="B470" s="9"/>
-      <c r="C470" s="9"/>
-      <c r="D470" s="9"/>
-      <c r="E470" s="9"/>
-      <c r="F470" s="9"/>
-      <c r="G470" s="9"/>
-      <c r="H470" s="9"/>
-      <c r="I470" s="9"/>
-      <c r="J470" s="9"/>
-      <c r="K470" s="9"/>
-      <c r="L470" s="9"/>
-      <c r="M470" s="9" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="471" spans="1:13" ht="18.75" customHeight="1">
       <c r="A471" s="9" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -7391,12 +7356,12 @@
       <c r="K471" s="9"/>
       <c r="L471" s="9"/>
       <c r="M471" s="9" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="472" spans="1:13" ht="18.75" customHeight="1">
       <c r="A472" s="9" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -7410,12 +7375,12 @@
       <c r="K472" s="9"/>
       <c r="L472" s="9"/>
       <c r="M472" s="9" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="18.75" customHeight="1">
       <c r="A473" s="9" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -7429,12 +7394,12 @@
       <c r="K473" s="9"/>
       <c r="L473" s="9"/>
       <c r="M473" s="9" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="474" spans="1:13" ht="18.75" customHeight="1">
       <c r="A474" s="9" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -7448,12 +7413,12 @@
       <c r="K474" s="9"/>
       <c r="L474" s="9"/>
       <c r="M474" s="9" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="475" spans="1:13" ht="18.75" customHeight="1">
       <c r="A475" s="9" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -7467,12 +7432,12 @@
       <c r="K475" s="9"/>
       <c r="L475" s="9"/>
       <c r="M475" s="9" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="476" spans="1:13" ht="18.75" customHeight="1">
       <c r="A476" s="9" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -7486,12 +7451,12 @@
       <c r="K476" s="9"/>
       <c r="L476" s="9"/>
       <c r="M476" s="9" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="477" spans="1:13" ht="18.75" customHeight="1">
       <c r="A477" s="9" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -7505,12 +7470,12 @@
       <c r="K477" s="9"/>
       <c r="L477" s="9"/>
       <c r="M477" s="9" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="18.75" customHeight="1">
       <c r="A478" s="9" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -7524,12 +7489,12 @@
       <c r="K478" s="9"/>
       <c r="L478" s="9"/>
       <c r="M478" s="9" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="479" spans="1:13" ht="18.75" customHeight="1">
       <c r="A479" s="9" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -7543,12 +7508,12 @@
       <c r="K479" s="9"/>
       <c r="L479" s="9"/>
       <c r="M479" s="9" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="480" spans="1:13" ht="18.75" customHeight="1">
       <c r="A480" s="9" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -7562,12 +7527,12 @@
       <c r="K480" s="9"/>
       <c r="L480" s="9"/>
       <c r="M480" s="9" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="18.75" customHeight="1">
       <c r="A481" s="9" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -7581,12 +7546,12 @@
       <c r="K481" s="9"/>
       <c r="L481" s="9"/>
       <c r="M481" s="9" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="482" spans="1:13" ht="18.75" customHeight="1">
       <c r="A482" s="9" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -7600,12 +7565,12 @@
       <c r="K482" s="9"/>
       <c r="L482" s="9"/>
       <c r="M482" s="9" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="483" spans="1:13" ht="18.75" customHeight="1">
       <c r="A483" s="9" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -7619,12 +7584,12 @@
       <c r="K483" s="9"/>
       <c r="L483" s="9"/>
       <c r="M483" s="9" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="484" spans="1:13" ht="18.75" customHeight="1">
       <c r="A484" s="9" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -7638,12 +7603,12 @@
       <c r="K484" s="9"/>
       <c r="L484" s="9"/>
       <c r="M484" s="9" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="485" spans="1:13" ht="18.75" customHeight="1">
       <c r="A485" s="9" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -7657,12 +7622,12 @@
       <c r="K485" s="9"/>
       <c r="L485" s="9"/>
       <c r="M485" s="9" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="486" spans="1:13" ht="18.75" customHeight="1">
       <c r="A486" s="9" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -7676,12 +7641,12 @@
       <c r="K486" s="9"/>
       <c r="L486" s="9"/>
       <c r="M486" s="9" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="487" spans="1:13" ht="18.75" customHeight="1">
       <c r="A487" s="9" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -7695,12 +7660,12 @@
       <c r="K487" s="9"/>
       <c r="L487" s="9"/>
       <c r="M487" s="9" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="488" spans="1:13" ht="18.75" customHeight="1">
       <c r="A488" s="9" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -7714,12 +7679,12 @@
       <c r="K488" s="9"/>
       <c r="L488" s="9"/>
       <c r="M488" s="9" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="489" spans="1:13" ht="18.75" customHeight="1">
       <c r="A489" s="9" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -7733,14 +7698,104 @@
       <c r="K489" s="9"/>
       <c r="L489" s="9"/>
       <c r="M489" s="9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A490" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="B490" s="9"/>
+      <c r="C490" s="9"/>
+      <c r="D490" s="9"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="9"/>
+      <c r="G490" s="9"/>
+      <c r="H490" s="9"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="9"/>
+      <c r="K490" s="9"/>
+      <c r="L490" s="9"/>
+      <c r="M490" s="9" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A491" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="B491" s="9"/>
+      <c r="C491" s="9"/>
+      <c r="D491" s="9"/>
+      <c r="E491" s="9"/>
+      <c r="F491" s="9"/>
+      <c r="G491" s="9"/>
+      <c r="H491" s="9"/>
+      <c r="I491" s="9"/>
+      <c r="J491" s="9"/>
+      <c r="K491" s="9"/>
+      <c r="L491" s="9"/>
+      <c r="M491" s="9" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A492" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B492" s="9"/>
+      <c r="C492" s="9"/>
+      <c r="D492" s="9"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="9"/>
+      <c r="G492" s="9"/>
+      <c r="H492" s="9"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="9"/>
+      <c r="K492" s="9"/>
+      <c r="L492" s="9"/>
+      <c r="M492" s="9" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A493" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B493" s="9"/>
+      <c r="C493" s="9"/>
+      <c r="D493" s="9"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="9"/>
+      <c r="G493" s="9"/>
+      <c r="H493" s="9"/>
+      <c r="I493" s="9"/>
+      <c r="J493" s="9"/>
+      <c r="K493" s="9"/>
+      <c r="L493" s="9"/>
+      <c r="M493" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A494" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B494" s="9"/>
+      <c r="C494" s="9"/>
+      <c r="D494" s="9"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="9"/>
+      <c r="G494" s="9"/>
+      <c r="H494" s="9"/>
+      <c r="I494" s="9"/>
+      <c r="J494" s="9"/>
+      <c r="K494" s="9"/>
+      <c r="L494" s="9"/>
+      <c r="M494" s="9" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="491" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="492" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="493" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="494" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="495" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="496" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="497" ht="18.75" customHeight="1"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917B62F8-C572-450C-A8DF-F8BB01568DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17FD46-122F-4B24-9FBC-034AE9DC8616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="1320" windowWidth="21630" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="898">
   <si>
     <t>English</t>
   </si>
@@ -2742,6 +2742,12 @@
   </si>
   <si>
     <t>識白シルク(猫又モード)</t>
+  </si>
+  <si>
+    <t>ShikishiroShirukuTrans</t>
+  </si>
+  <si>
+    <t>識白シルク(変身)</t>
   </si>
 </sst>
 </file>
@@ -3056,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="M450" sqref="M450"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="M460" sqref="M460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7309,7 +7315,25 @@
         <v>895</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="465" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A465" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B465" s="9"/>
+      <c r="C465" s="9"/>
+      <c r="D465" s="9"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="9"/>
+      <c r="G465" s="9"/>
+      <c r="H465" s="9"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="9"/>
+      <c r="K465" s="9"/>
+      <c r="L465" s="9"/>
+      <c r="M465" s="9" t="s">
+        <v>897</v>
+      </c>
+    </row>
     <row r="466" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="467" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="468" spans="1:13" ht="18.75" customHeight="1"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17FD46-122F-4B24-9FBC-034AE9DC8616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC3F833-0984-4494-8FEE-5CB7B0A5DE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1320" windowWidth="21630" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18930" yWindow="45" windowWidth="21630" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="904">
   <si>
     <t>English</t>
   </si>
@@ -2748,6 +2748,24 @@
   </si>
   <si>
     <t>識白シルク(変身)</t>
+  </si>
+  <si>
+    <t>seono_karappomon</t>
+  </si>
+  <si>
+    <t>セオノ&amp;からっぽもん作</t>
+  </si>
+  <si>
+    <t>ShikishiroShiruku_bommaimai</t>
+  </si>
+  <si>
+    <t>識白シルク（バクダンマイマイ入り）</t>
+  </si>
+  <si>
+    <t>ShikishiroShiruku_beermaimai</t>
+  </si>
+  <si>
+    <t>識白シルク（ビールマイマイ入り）</t>
   </si>
 </sst>
 </file>
@@ -3062,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="M460" sqref="M460"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:M502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7822,22 +7840,76 @@
     </row>
     <row r="495" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="496" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
+    <row r="497" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="498" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="499" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="500" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A500" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="B500" s="9"/>
+      <c r="C500" s="9"/>
+      <c r="D500" s="9"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="9"/>
+      <c r="G500" s="9"/>
+      <c r="H500" s="9"/>
+      <c r="I500" s="9"/>
+      <c r="J500" s="9"/>
+      <c r="K500" s="9"/>
+      <c r="L500" s="9"/>
+      <c r="M500" s="9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A501" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="B501" s="9"/>
+      <c r="C501" s="9"/>
+      <c r="D501" s="9"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="9"/>
+      <c r="G501" s="9"/>
+      <c r="H501" s="9"/>
+      <c r="I501" s="9"/>
+      <c r="J501" s="9"/>
+      <c r="K501" s="9"/>
+      <c r="L501" s="9"/>
+      <c r="M501" s="9" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A502" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="B502" s="9"/>
+      <c r="C502" s="9"/>
+      <c r="D502" s="9"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="9"/>
+      <c r="G502" s="9"/>
+      <c r="H502" s="9"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="9"/>
+      <c r="K502" s="9"/>
+      <c r="L502" s="9"/>
+      <c r="M502" s="9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="504" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="505" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="506" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="507" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="508" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="509" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="510" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="511" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="512" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="513" ht="18.75" customHeight="1"/>
     <row r="514" ht="18.75" customHeight="1"/>
     <row r="515" ht="18.75" customHeight="1"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\VisualStudioProject\AmongUs\ExtremeHat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC3F833-0984-4494-8FEE-5CB7B0A5DE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ED56EA-E878-4569-AF71-BD8761C0EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18930" yWindow="45" windowWidth="21630" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="910">
   <si>
     <t>English</t>
   </si>
@@ -2767,12 +2767,56 @@
   <si>
     <t>識白シルク（ビールマイマイ入り）</t>
   </si>
+  <si>
+    <t>ChaogoFan</t>
+  </si>
+  <si>
+    <t>HuLangaki_Fanashi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>朝ご飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>胡狼あき(髪あり)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>胡狼あき(髪なし)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HuLangaki_Faari</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2823,6 +2867,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2844,7 +2916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2861,6 +2933,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3081,7 +3162,7 @@
   <dimension ref="A1:Q1020"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:M502"/>
+      <selection activeCell="M506" sqref="M506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7902,9 +7983,52 @@
     </row>
     <row r="503" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="504" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="505" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="506" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="507" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="505" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A505" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B505" s="9"/>
+      <c r="C505" s="9"/>
+      <c r="D505" s="9"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="9"/>
+      <c r="G505" s="9"/>
+      <c r="H505" s="9"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="9"/>
+      <c r="K505" s="9"/>
+      <c r="L505" s="9"/>
+      <c r="M505" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A506" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="B506" s="9"/>
+      <c r="C506" s="9"/>
+      <c r="D506" s="9"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="9"/>
+      <c r="G506" s="9"/>
+      <c r="H506" s="9"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="9"/>
+      <c r="K506" s="9"/>
+      <c r="L506" s="9"/>
+      <c r="M506" s="12" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A507" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="M507" s="12" t="s">
+        <v>907</v>
+      </c>
+    </row>
     <row r="508" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="509" spans="1:13" ht="18.75" customHeight="1"/>
     <row r="510" spans="1:13" ht="18.75" customHeight="1"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="942">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -4047,6 +4047,105 @@
     <t xml:space="preserve">クリスマスケープ</t>
   </si>
   <si>
+    <t xml:space="preserve">ShikishiroShiruku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">識白シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShikishiroShirukuNeco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShikishiroShiruku(NekomataMode)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">識白シルク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">猫又モード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ShikishiroShirukuTrans</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">識白シルク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">変身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">sukoremon</t>
   </si>
   <si>
@@ -4057,6 +4156,234 @@
   </si>
   <si>
     <t xml:space="preserve">６面ダイス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[na]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「な」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[ku]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「く」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[no]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「の」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[zo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「ぞ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[Ren]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「認」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[Zhi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「知」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[shi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「し」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[te]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「て」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[Jian]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「建」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[She]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「設」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[Fan]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「反」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[Dui]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「対」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[Chu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「出」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[He]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「荷」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[yo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「よ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[BangYinki]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「棒引き」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[su]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「す」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[ru]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「る」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[JianSheFanDui]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「建設反対」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[ChuHeyo!]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「出荷よー！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoZu[susuruuuu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なの族「すするううう」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WeiZhangnana(MaoZiari)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尾張なな（帽子あり）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WeiZhangnana(MaoZinashi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尾張なな（帽子なし）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seono_karappomon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">セオノ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">からっぽもん作</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ShikishiroShiruku_bommaimai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">識白シルク（バクダンマイマイ入り）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShikishiroShiruku_beermaimai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">識白シルク（ビールマイマイ入り）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChaogoFan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">朝ご飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">作</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HuLangaki_Fanashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡狼あき(髪なし)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HuLangaki_Faari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡狼あき(髪あり)</t>
   </si>
 </sst>
 </file>
@@ -4067,7 +4394,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m\月d\日"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4104,8 +4431,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
@@ -4115,10 +4442,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -4164,7 +4512,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4185,6 +4533,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4201,12 +4553,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4218,6 +4586,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFCE9178"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4226,17 +4654,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1036"/>
+  <dimension ref="A1:Q1035"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A239" activeCellId="0" sqref="A239"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A216" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A239" activeCellId="0" sqref="A239:M254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="35.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="14" style="0" width="7.81"/>
@@ -6352,7 +6780,7 @@
       <c r="A234" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="M234" s="6" t="s">
+      <c r="M234" s="2" t="s">
         <v>441</v>
       </c>
     </row>
@@ -6360,7 +6788,7 @@
       <c r="A235" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="M235" s="6" t="s">
+      <c r="M235" s="2" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6368,7 +6796,7 @@
       <c r="A236" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="M236" s="6" t="s">
+      <c r="M236" s="2" t="s">
         <v>445</v>
       </c>
     </row>
@@ -6376,7 +6804,7 @@
       <c r="A237" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="M237" s="6" t="s">
+      <c r="M237" s="2" t="s">
         <v>447</v>
       </c>
     </row>
@@ -6384,748 +6812,766 @@
       <c r="A238" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="M238" s="6" t="s">
+      <c r="M238" s="2" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="M239" s="6" t="s">
+      <c r="M239" s="7" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M240" s="6" t="s">
+      <c r="M240" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M241" s="6" t="s">
+      <c r="M241" s="7" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="M242" s="6" t="s">
+      <c r="M242" s="7" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="M243" s="6" t="s">
+      <c r="M243" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="5" t="s">
+      <c r="A244" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="M244" s="6" t="s">
+      <c r="M244" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="M245" s="6" t="s">
+      <c r="M245" s="7" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="M246" s="6" t="s">
+      <c r="M246" s="7" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="M247" s="6" t="s">
+      <c r="M247" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="M248" s="6" t="s">
+      <c r="M248" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="M249" s="6" t="s">
+      <c r="M249" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="M250" s="6" t="s">
+      <c r="M250" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="M251" s="6" t="s">
+      <c r="M251" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="5" t="s">
+      <c r="A252" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="M252" s="6" t="s">
+      <c r="M252" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="M253" s="6" t="s">
+      <c r="M253" s="7" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="7" t="s">
+      <c r="A254" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="M254" s="6" t="s">
+      <c r="M254" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="256" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M257" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
     <row r="258" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="M261" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
     <row r="263" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="M264" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="M265" s="1" t="s">
+      <c r="M264" s="1" t="s">
         <v>495</v>
       </c>
     </row>
+    <row r="265" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="266" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="M267" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
     <row r="268" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M269" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>504</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N271" s="3"/>
     </row>
     <row r="272" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="N272" s="3"/>
+        <v>509</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="M276" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="M277" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
     <row r="278" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M279" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M284" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="3" t="s">
+      <c r="A284" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
-      <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
-      <c r="K285" s="3"/>
-      <c r="L285" s="3"/>
-      <c r="M285" s="3" t="s">
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
     <row r="287" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="M288" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M289" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
+      </c>
+      <c r="M289" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M290" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M291" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="3" t="s">
+      <c r="A291" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
-      <c r="J292" s="3"/>
-      <c r="K292" s="3"/>
-      <c r="L292" s="3"/>
-      <c r="M292" s="3" t="s">
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+      <c r="M291" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M293" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
     <row r="294" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M294" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="M295" s="2" t="s">
-        <v>548</v>
+      <c r="A295" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
-      <c r="F296" s="3"/>
-      <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
-      <c r="I296" s="3"/>
-      <c r="J296" s="3"/>
-      <c r="K296" s="3"/>
-      <c r="L296" s="3"/>
+        <v>551</v>
+      </c>
+      <c r="B296" s="9"/>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="9"/>
+      <c r="K296" s="9"/>
+      <c r="L296" s="9"/>
       <c r="M296" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B297" s="8"/>
-      <c r="C297" s="8"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-      <c r="G297" s="8"/>
-      <c r="H297" s="8"/>
-      <c r="I297" s="8"/>
-      <c r="J297" s="8"/>
-      <c r="K297" s="8"/>
-      <c r="L297" s="8"/>
+        <v>553</v>
+      </c>
+      <c r="B297" s="9"/>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="9"/>
+      <c r="K297" s="9"/>
+      <c r="L297" s="9"/>
       <c r="M297" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B298" s="8"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
-      <c r="G298" s="8"/>
-      <c r="H298" s="8"/>
-      <c r="I298" s="8"/>
-      <c r="J298" s="8"/>
-      <c r="K298" s="8"/>
-      <c r="L298" s="8"/>
-      <c r="M298" s="3" t="s">
-        <v>554</v>
+      <c r="A298" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B298" s="9"/>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="9"/>
+      <c r="K298" s="9"/>
+      <c r="L298" s="9"/>
+      <c r="M298" s="9" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-      <c r="G299" s="8"/>
-      <c r="H299" s="8"/>
-      <c r="I299" s="8"/>
-      <c r="J299" s="8"/>
-      <c r="K299" s="8"/>
-      <c r="L299" s="8"/>
-      <c r="M299" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="s">
+      <c r="A299" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M300" s="2" t="s">
+      <c r="M299" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B301" s="9"/>
+      <c r="C301" s="9"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="9"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="9"/>
+      <c r="K301" s="9"/>
+      <c r="L301" s="9"/>
+      <c r="M301" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
     <row r="302" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B302" s="8"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="8"/>
-      <c r="H302" s="8"/>
-      <c r="I302" s="8"/>
-      <c r="J302" s="8"/>
-      <c r="K302" s="8"/>
-      <c r="L302" s="8"/>
-      <c r="M302" s="8" t="s">
-        <v>560</v>
+      <c r="A302" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B302" s="9"/>
+      <c r="C302" s="9"/>
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
+      <c r="I302" s="9"/>
+      <c r="J302" s="9"/>
+      <c r="K302" s="9"/>
+      <c r="L302" s="9"/>
+      <c r="M302" s="9" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B303" s="8"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="8"/>
-      <c r="H303" s="8"/>
-      <c r="I303" s="8"/>
-      <c r="J303" s="8"/>
-      <c r="K303" s="8"/>
-      <c r="L303" s="8"/>
-      <c r="M303" s="8" t="s">
-        <v>562</v>
+      <c r="A303" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B303" s="9"/>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="9" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B304" s="8"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
-      <c r="G304" s="8"/>
-      <c r="H304" s="8"/>
-      <c r="I304" s="8"/>
-      <c r="J304" s="8"/>
-      <c r="K304" s="8"/>
-      <c r="L304" s="8"/>
-      <c r="M304" s="8" t="s">
-        <v>564</v>
+      <c r="A304" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B304" s="9"/>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="9"/>
+      <c r="K304" s="9"/>
+      <c r="L304" s="9"/>
+      <c r="M304" s="9" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B305" s="8"/>
-      <c r="C305" s="8"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
-      <c r="G305" s="8"/>
-      <c r="H305" s="8"/>
-      <c r="I305" s="8"/>
-      <c r="J305" s="8"/>
-      <c r="K305" s="8"/>
-      <c r="L305" s="8"/>
-      <c r="M305" s="8" t="s">
-        <v>566</v>
+      <c r="A305" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B305" s="9"/>
+      <c r="C305" s="9"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="9"/>
+      <c r="K305" s="9"/>
+      <c r="L305" s="9"/>
+      <c r="M305" s="9" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="B306" s="8"/>
-      <c r="C306" s="8"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
-      <c r="G306" s="8"/>
-      <c r="H306" s="8"/>
-      <c r="I306" s="8"/>
-      <c r="J306" s="8"/>
-      <c r="K306" s="8"/>
-      <c r="L306" s="8"/>
-      <c r="M306" s="8" t="s">
-        <v>568</v>
+      <c r="A306" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B306" s="9"/>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="9"/>
+      <c r="K306" s="9"/>
+      <c r="L306" s="9"/>
+      <c r="M306" s="9" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="B307" s="8"/>
-      <c r="C307" s="8"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
-      <c r="G307" s="8"/>
-      <c r="H307" s="8"/>
-      <c r="I307" s="8"/>
-      <c r="J307" s="8"/>
-      <c r="K307" s="8"/>
-      <c r="L307" s="8"/>
-      <c r="M307" s="8" t="s">
-        <v>570</v>
+      <c r="A307" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B307" s="9"/>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="9"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="9"/>
+      <c r="K307" s="9"/>
+      <c r="L307" s="9"/>
+      <c r="M307" s="9" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="B308" s="8"/>
-      <c r="C308" s="8"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="8"/>
-      <c r="H308" s="8"/>
-      <c r="I308" s="8"/>
-      <c r="J308" s="8"/>
-      <c r="K308" s="8"/>
-      <c r="L308" s="8"/>
-      <c r="M308" s="8" t="s">
-        <v>572</v>
+      <c r="A308" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B308" s="9"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="9"/>
+      <c r="K308" s="9"/>
+      <c r="L308" s="9"/>
+      <c r="M308" s="9" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B309" s="8"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
-      <c r="H309" s="8"/>
-      <c r="I309" s="8"/>
-      <c r="J309" s="8"/>
-      <c r="K309" s="8"/>
-      <c r="L309" s="8"/>
-      <c r="M309" s="8" t="s">
-        <v>574</v>
+      <c r="A309" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="M309" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="M310" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
+      </c>
+      <c r="M310" s="9" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="M311" s="8" t="s">
-        <v>578</v>
+      <c r="A311" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="M311" s="9" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="M312" s="8" t="s">
-        <v>580</v>
+      <c r="A312" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B312" s="9"/>
+      <c r="C312" s="9"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="9"/>
+      <c r="I312" s="9"/>
+      <c r="J312" s="9"/>
+      <c r="K312" s="9"/>
+      <c r="L312" s="9"/>
+      <c r="M312" s="9" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="B313" s="8"/>
-      <c r="C313" s="8"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
-      <c r="G313" s="8"/>
-      <c r="H313" s="8"/>
-      <c r="I313" s="8"/>
-      <c r="J313" s="8"/>
-      <c r="K313" s="8"/>
-      <c r="L313" s="8"/>
-      <c r="M313" s="8" t="s">
-        <v>582</v>
+      <c r="A313" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="M313" s="9" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="M314" s="8" t="s">
-        <v>584</v>
+      <c r="A314" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="M314" s="9" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="M315" s="8" t="s">
-        <v>586</v>
+      <c r="A315" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="M315" s="9" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="M316" s="8" t="s">
-        <v>588</v>
+      <c r="A316" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="3"/>
+      <c r="L316" s="3"/>
+      <c r="M316" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -7139,28 +7585,10 @@
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
       <c r="M317" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
-      <c r="I318" s="3"/>
-      <c r="J318" s="3"/>
-      <c r="K318" s="3"/>
-      <c r="L318" s="3"/>
-      <c r="M318" s="3" t="s">
         <v>592</v>
       </c>
     </row>
+    <row r="318" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="319" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="320" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="321" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7171,417 +7599,435 @@
     <row r="326" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="327" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="328" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="M329" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
     <row r="330" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="M330" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
+      </c>
+      <c r="M330" s="9" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="M331" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
+      </c>
+      <c r="M331" s="9" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="M332" s="8" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="M333" s="8" t="s">
+      <c r="M332" s="9" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="M334" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
     <row r="335" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="M335" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="M335" s="9" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="M336" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
+      </c>
+      <c r="M336" s="9" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="M337" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="M338" s="8" t="s">
+      <c r="M337" s="9" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M339" s="9" t="s">
+        <v>610</v>
+      </c>
+    </row>
     <row r="340" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="M340" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
+      </c>
+      <c r="M340" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="M341" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
+      </c>
+      <c r="M341" s="9" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="M342" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="M342" s="9" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="M343" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
+      </c>
+      <c r="M343" s="9" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="M344" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="M344" s="9" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="M345" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
+      </c>
+      <c r="M345" s="9" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="M346" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
+      </c>
+      <c r="M346" s="9" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="M347" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
+      </c>
+      <c r="M347" s="9" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="M348" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
+      </c>
+      <c r="M348" s="9" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="M349" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
+      </c>
+      <c r="M349" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="M350" s="8" t="s">
-        <v>609</v>
+        <v>630</v>
+      </c>
+      <c r="M350" s="9" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="M351" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="M352" s="2" t="s">
+      <c r="M351" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="M353" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
     <row r="354" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M354" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M355" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M357" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M360" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M361" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="M362" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M365" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="M366" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M367" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M368" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="M369" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="M370" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M371" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M372" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M373" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M374" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M375" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="M376" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="M377" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M378" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="M380" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="M380" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="M381" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="M382" s="8" t="s">
+      <c r="M381" s="9" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+      <c r="F383" s="3"/>
+      <c r="G383" s="3"/>
+      <c r="H383" s="3"/>
+      <c r="I383" s="3"/>
+      <c r="J383" s="3"/>
+      <c r="K383" s="3"/>
+      <c r="L383" s="3"/>
+      <c r="M383" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
     <row r="384" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -7595,14 +8041,16 @@
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
       <c r="M384" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="B385" s="3"/>
+        <v>697</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -7614,15 +8062,15 @@
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
       <c r="M385" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -7635,15 +8083,15 @@
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
       <c r="M386" s="3" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -7656,15 +8104,15 @@
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
       <c r="M387" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -7677,15 +8125,15 @@
       <c r="K388" s="3"/>
       <c r="L388" s="3"/>
       <c r="M388" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -7698,15 +8146,15 @@
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
       <c r="M389" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -7719,15 +8167,15 @@
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
       <c r="M390" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -7740,15 +8188,15 @@
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
       <c r="M391" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -7761,15 +8209,15 @@
       <c r="K392" s="3"/>
       <c r="L392" s="3"/>
       <c r="M392" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -7782,421 +8230,419 @@
       <c r="K393" s="3"/>
       <c r="L393" s="3"/>
       <c r="M393" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C394" s="3"/>
-      <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
-      <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
-      <c r="J394" s="3"/>
-      <c r="K394" s="3"/>
-      <c r="L394" s="3"/>
+        <v>715</v>
+      </c>
       <c r="M394" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M395" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="M396" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M397" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M398" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M399" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M400" s="3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M401" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M402" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M403" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M404" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M405" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M406" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M407" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M408" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M409" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M410" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="M411" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="M412" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M413" s="3" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M414" s="3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M415" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M416" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M417" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M418" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M419" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M420" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="M421" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M422" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="M423" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="M424" s="3" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M425" s="3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="M426" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M427" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M428" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="M429" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M430" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="M431" s="3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M432" s="3" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M433" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="M434" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="M435" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M436" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="M437" s="3" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M438" s="3" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="M439" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="M440" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M441" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="M442" s="3" t="s">
         <v>810</v>
       </c>
     </row>
+    <row r="442" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="443" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="444" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="445" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A446" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+      <c r="D446" s="3"/>
+      <c r="E446" s="3"/>
+      <c r="F446" s="3"/>
+      <c r="G446" s="3"/>
+      <c r="H446" s="3"/>
+      <c r="I446" s="3"/>
+      <c r="J446" s="3"/>
+      <c r="K446" s="3"/>
+      <c r="L446" s="3"/>
+      <c r="M446" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
     <row r="447" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -8210,12 +8656,12 @@
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
       <c r="M447" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -8229,12 +8675,12 @@
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
       <c r="M448" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -8248,32 +8694,32 @@
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
       <c r="M449" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="B450" s="3"/>
-      <c r="C450" s="3"/>
-      <c r="D450" s="3"/>
-      <c r="E450" s="3"/>
-      <c r="F450" s="3"/>
-      <c r="G450" s="3"/>
-      <c r="H450" s="3"/>
-      <c r="I450" s="3"/>
-      <c r="J450" s="3"/>
-      <c r="K450" s="3"/>
-      <c r="L450" s="3"/>
-      <c r="M450" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B451" s="3"/>
+      <c r="C451" s="3"/>
+      <c r="D451" s="3"/>
+      <c r="E451" s="3"/>
+      <c r="F451" s="3"/>
+      <c r="G451" s="3"/>
+      <c r="H451" s="3"/>
+      <c r="I451" s="3"/>
+      <c r="J451" s="3"/>
+      <c r="K451" s="3"/>
+      <c r="L451" s="3"/>
+      <c r="M451" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
     <row r="452" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -8287,12 +8733,12 @@
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
       <c r="M452" s="3" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -8306,12 +8752,12 @@
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
       <c r="M453" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -8325,12 +8771,12 @@
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
       <c r="M454" s="3" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="3" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -8344,12 +8790,12 @@
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
       <c r="M455" s="3" t="s">
-        <v>826</v>
+        <v>507</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -8363,279 +8809,848 @@
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
       <c r="M456" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="B457" s="3"/>
-      <c r="C457" s="3"/>
-      <c r="D457" s="3"/>
-      <c r="E457" s="3"/>
-      <c r="F457" s="3"/>
-      <c r="G457" s="3"/>
-      <c r="H457" s="3"/>
-      <c r="I457" s="3"/>
-      <c r="J457" s="3"/>
-      <c r="K457" s="3"/>
-      <c r="L457" s="3"/>
-      <c r="M457" s="3" t="s">
         <v>829</v>
       </c>
     </row>
+    <row r="457" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="458" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="M459" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
     <row r="460" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
+      </c>
+      <c r="B460" s="9" t="s">
+        <v>833</v>
       </c>
       <c r="M460" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B461" s="8" t="s">
-        <v>833</v>
-      </c>
+      <c r="A461" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="B461" s="9"/>
       <c r="M461" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="B462" s="8"/>
+      <c r="A462" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B462" s="9"/>
       <c r="M462" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="B463" s="8"/>
+      <c r="A463" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B463" s="9"/>
       <c r="M463" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="B464" s="8"/>
+      <c r="A464" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="B464" s="9"/>
       <c r="M464" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="B465" s="8"/>
+      <c r="A465" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B465" s="9"/>
       <c r="M465" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B466" s="8"/>
+        <v>845</v>
+      </c>
+      <c r="B466" s="9"/>
       <c r="M466" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B467" s="8"/>
+        <v>847</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>848</v>
+      </c>
       <c r="M467" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>848</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="B468" s="9"/>
       <c r="M468" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B469" s="8"/>
+        <v>852</v>
+      </c>
+      <c r="B469" s="9"/>
       <c r="M469" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B470" s="8"/>
+        <v>854</v>
+      </c>
+      <c r="B470" s="9"/>
       <c r="M470" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B471" s="8"/>
+        <v>856</v>
+      </c>
+      <c r="B471" s="9"/>
       <c r="M471" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B472" s="8"/>
+        <v>858</v>
+      </c>
+      <c r="B472" s="9"/>
       <c r="M472" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B473" s="8"/>
+        <v>860</v>
+      </c>
+      <c r="B473" s="9"/>
       <c r="M473" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B474" s="8"/>
-      <c r="M474" s="2" t="s">
-        <v>861</v>
+      <c r="A474" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B474" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="M474" s="9" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="B475" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="M475" s="8" t="s">
-        <v>863</v>
+      <c r="A475" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B475" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="M475" s="2" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B476" s="8" t="s">
-        <v>865</v>
+        <v>866</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>867</v>
       </c>
       <c r="M476" s="2" t="s">
-        <v>829</v>
+        <v>868</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>867</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="B477" s="9"/>
       <c r="M477" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B478" s="8"/>
-      <c r="M478" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A478" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="C478" s="12"/>
+      <c r="D478" s="12"/>
+      <c r="E478" s="12"/>
+      <c r="F478" s="12"/>
+      <c r="G478" s="12"/>
+      <c r="H478" s="12"/>
+      <c r="I478" s="12"/>
+      <c r="J478" s="12"/>
+      <c r="K478" s="12"/>
+      <c r="L478" s="12"/>
+      <c r="M478" s="13" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A479" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="B479" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="C479" s="13"/>
+      <c r="D479" s="13"/>
+      <c r="E479" s="13"/>
+      <c r="F479" s="13"/>
+      <c r="G479" s="13"/>
+      <c r="H479" s="13"/>
+      <c r="I479" s="13"/>
+      <c r="J479" s="13"/>
+      <c r="K479" s="13"/>
+      <c r="L479" s="13"/>
+      <c r="M479" s="13" t="s">
+        <v>875</v>
+      </c>
+    </row>
     <row r="480" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
-      <c r="D480" s="3"/>
-      <c r="E480" s="3"/>
-      <c r="F480" s="3"/>
-      <c r="G480" s="3"/>
-      <c r="H480" s="3"/>
-      <c r="I480" s="3"/>
-      <c r="J480" s="3"/>
-      <c r="K480" s="3"/>
-      <c r="L480" s="3"/>
-      <c r="M480" s="3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="M481" s="3" t="s">
-        <v>874</v>
-      </c>
-    </row>
+      <c r="A480" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="B480" s="13"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="13"/>
+      <c r="E480" s="13"/>
+      <c r="F480" s="13"/>
+      <c r="G480" s="13"/>
+      <c r="H480" s="13"/>
+      <c r="I480" s="13"/>
+      <c r="J480" s="13"/>
+      <c r="K480" s="13"/>
+      <c r="L480" s="13"/>
+      <c r="M480" s="13" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="482" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="483" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A484" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B484" s="3"/>
+      <c r="C484" s="3"/>
+      <c r="D484" s="3"/>
+      <c r="E484" s="3"/>
+      <c r="F484" s="3"/>
+      <c r="G484" s="3"/>
+      <c r="H484" s="3"/>
+      <c r="I484" s="3"/>
+      <c r="J484" s="3"/>
+      <c r="K484" s="3"/>
+      <c r="L484" s="3"/>
+      <c r="M484" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="M485" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A486" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="B486" s="13"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="13"/>
+      <c r="E486" s="13"/>
+      <c r="F486" s="13"/>
+      <c r="G486" s="13"/>
+      <c r="H486" s="13"/>
+      <c r="I486" s="13"/>
+      <c r="J486" s="13"/>
+      <c r="K486" s="13"/>
+      <c r="L486" s="13"/>
+      <c r="M486" s="13" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A487" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="B487" s="13"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="13"/>
+      <c r="E487" s="13"/>
+      <c r="F487" s="13"/>
+      <c r="G487" s="13"/>
+      <c r="H487" s="13"/>
+      <c r="I487" s="13"/>
+      <c r="J487" s="13"/>
+      <c r="K487" s="13"/>
+      <c r="L487" s="13"/>
+      <c r="M487" s="13" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A488" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="B488" s="13"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="13"/>
+      <c r="E488" s="13"/>
+      <c r="F488" s="13"/>
+      <c r="G488" s="13"/>
+      <c r="H488" s="13"/>
+      <c r="I488" s="13"/>
+      <c r="J488" s="13"/>
+      <c r="K488" s="13"/>
+      <c r="L488" s="13"/>
+      <c r="M488" s="13" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A489" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="B489" s="13"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="13"/>
+      <c r="E489" s="13"/>
+      <c r="F489" s="13"/>
+      <c r="G489" s="13"/>
+      <c r="H489" s="13"/>
+      <c r="I489" s="13"/>
+      <c r="J489" s="13"/>
+      <c r="K489" s="13"/>
+      <c r="L489" s="13"/>
+      <c r="M489" s="13" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A490" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="B490" s="13"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="13"/>
+      <c r="E490" s="13"/>
+      <c r="F490" s="13"/>
+      <c r="G490" s="13"/>
+      <c r="H490" s="13"/>
+      <c r="I490" s="13"/>
+      <c r="J490" s="13"/>
+      <c r="K490" s="13"/>
+      <c r="L490" s="13"/>
+      <c r="M490" s="13" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A491" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="B491" s="13"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="13"/>
+      <c r="E491" s="13"/>
+      <c r="F491" s="13"/>
+      <c r="G491" s="13"/>
+      <c r="H491" s="13"/>
+      <c r="I491" s="13"/>
+      <c r="J491" s="13"/>
+      <c r="K491" s="13"/>
+      <c r="L491" s="13"/>
+      <c r="M491" s="13" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A492" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="B492" s="13"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="13"/>
+      <c r="E492" s="13"/>
+      <c r="F492" s="13"/>
+      <c r="G492" s="13"/>
+      <c r="H492" s="13"/>
+      <c r="I492" s="13"/>
+      <c r="J492" s="13"/>
+      <c r="K492" s="13"/>
+      <c r="L492" s="13"/>
+      <c r="M492" s="13" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A493" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="B493" s="13"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="13"/>
+      <c r="E493" s="13"/>
+      <c r="F493" s="13"/>
+      <c r="G493" s="13"/>
+      <c r="H493" s="13"/>
+      <c r="I493" s="13"/>
+      <c r="J493" s="13"/>
+      <c r="K493" s="13"/>
+      <c r="L493" s="13"/>
+      <c r="M493" s="13" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A494" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="B494" s="13"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="13"/>
+      <c r="E494" s="13"/>
+      <c r="F494" s="13"/>
+      <c r="G494" s="13"/>
+      <c r="H494" s="13"/>
+      <c r="I494" s="13"/>
+      <c r="J494" s="13"/>
+      <c r="K494" s="13"/>
+      <c r="L494" s="13"/>
+      <c r="M494" s="13" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A495" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="B495" s="13"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="13"/>
+      <c r="E495" s="13"/>
+      <c r="F495" s="13"/>
+      <c r="G495" s="13"/>
+      <c r="H495" s="13"/>
+      <c r="I495" s="13"/>
+      <c r="J495" s="13"/>
+      <c r="K495" s="13"/>
+      <c r="L495" s="13"/>
+      <c r="M495" s="13" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A496" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="B496" s="13"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="13"/>
+      <c r="E496" s="13"/>
+      <c r="F496" s="13"/>
+      <c r="G496" s="13"/>
+      <c r="H496" s="13"/>
+      <c r="I496" s="13"/>
+      <c r="J496" s="13"/>
+      <c r="K496" s="13"/>
+      <c r="L496" s="13"/>
+      <c r="M496" s="13" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A497" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="B497" s="13"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="13"/>
+      <c r="E497" s="13"/>
+      <c r="F497" s="13"/>
+      <c r="G497" s="13"/>
+      <c r="H497" s="13"/>
+      <c r="I497" s="13"/>
+      <c r="J497" s="13"/>
+      <c r="K497" s="13"/>
+      <c r="L497" s="13"/>
+      <c r="M497" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A498" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="B498" s="13"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="13"/>
+      <c r="E498" s="13"/>
+      <c r="F498" s="13"/>
+      <c r="G498" s="13"/>
+      <c r="H498" s="13"/>
+      <c r="I498" s="13"/>
+      <c r="J498" s="13"/>
+      <c r="K498" s="13"/>
+      <c r="L498" s="13"/>
+      <c r="M498" s="13" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A499" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="B499" s="13"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="13"/>
+      <c r="E499" s="13"/>
+      <c r="F499" s="13"/>
+      <c r="G499" s="13"/>
+      <c r="H499" s="13"/>
+      <c r="I499" s="13"/>
+      <c r="J499" s="13"/>
+      <c r="K499" s="13"/>
+      <c r="L499" s="13"/>
+      <c r="M499" s="13" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A500" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="B500" s="13"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="13"/>
+      <c r="E500" s="13"/>
+      <c r="F500" s="13"/>
+      <c r="G500" s="13"/>
+      <c r="H500" s="13"/>
+      <c r="I500" s="13"/>
+      <c r="J500" s="13"/>
+      <c r="K500" s="13"/>
+      <c r="L500" s="13"/>
+      <c r="M500" s="13" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A501" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="B501" s="13"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="13"/>
+      <c r="E501" s="13"/>
+      <c r="F501" s="13"/>
+      <c r="G501" s="13"/>
+      <c r="H501" s="13"/>
+      <c r="I501" s="13"/>
+      <c r="J501" s="13"/>
+      <c r="K501" s="13"/>
+      <c r="L501" s="13"/>
+      <c r="M501" s="13" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A502" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="B502" s="13"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="13"/>
+      <c r="E502" s="13"/>
+      <c r="F502" s="13"/>
+      <c r="G502" s="13"/>
+      <c r="H502" s="13"/>
+      <c r="I502" s="13"/>
+      <c r="J502" s="13"/>
+      <c r="K502" s="13"/>
+      <c r="L502" s="13"/>
+      <c r="M502" s="13" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A503" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="B503" s="13"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="13"/>
+      <c r="E503" s="13"/>
+      <c r="F503" s="13"/>
+      <c r="G503" s="13"/>
+      <c r="H503" s="13"/>
+      <c r="I503" s="13"/>
+      <c r="J503" s="13"/>
+      <c r="K503" s="13"/>
+      <c r="L503" s="13"/>
+      <c r="M503" s="13" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A504" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="B504" s="13"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="13"/>
+      <c r="E504" s="13"/>
+      <c r="F504" s="13"/>
+      <c r="G504" s="13"/>
+      <c r="H504" s="13"/>
+      <c r="I504" s="13"/>
+      <c r="J504" s="13"/>
+      <c r="K504" s="13"/>
+      <c r="L504" s="13"/>
+      <c r="M504" s="13" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A505" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="B505" s="13"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="13"/>
+      <c r="E505" s="13"/>
+      <c r="F505" s="13"/>
+      <c r="G505" s="13"/>
+      <c r="H505" s="13"/>
+      <c r="I505" s="13"/>
+      <c r="J505" s="13"/>
+      <c r="K505" s="13"/>
+      <c r="L505" s="13"/>
+      <c r="M505" s="13" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A506" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="B506" s="13"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="13"/>
+      <c r="E506" s="13"/>
+      <c r="F506" s="13"/>
+      <c r="G506" s="13"/>
+      <c r="H506" s="13"/>
+      <c r="I506" s="13"/>
+      <c r="J506" s="13"/>
+      <c r="K506" s="13"/>
+      <c r="L506" s="13"/>
+      <c r="M506" s="13" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A507" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="B507" s="13"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="13"/>
+      <c r="E507" s="13"/>
+      <c r="F507" s="13"/>
+      <c r="G507" s="13"/>
+      <c r="H507" s="13"/>
+      <c r="I507" s="13"/>
+      <c r="J507" s="13"/>
+      <c r="K507" s="13"/>
+      <c r="L507" s="13"/>
+      <c r="M507" s="13" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A508" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="B508" s="13"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="13"/>
+      <c r="E508" s="13"/>
+      <c r="F508" s="13"/>
+      <c r="G508" s="13"/>
+      <c r="H508" s="13"/>
+      <c r="I508" s="13"/>
+      <c r="J508" s="13"/>
+      <c r="K508" s="13"/>
+      <c r="L508" s="13"/>
+      <c r="M508" s="13" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A509" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="B509" s="13"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="13"/>
+      <c r="E509" s="13"/>
+      <c r="F509" s="13"/>
+      <c r="G509" s="13"/>
+      <c r="H509" s="13"/>
+      <c r="I509" s="13"/>
+      <c r="J509" s="13"/>
+      <c r="K509" s="13"/>
+      <c r="L509" s="13"/>
+      <c r="M509" s="13" t="s">
+        <v>929</v>
+      </c>
+    </row>
     <row r="510" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="511" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="512" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="513" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="514" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A515" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="B515" s="13"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="13"/>
+      <c r="E515" s="13"/>
+      <c r="F515" s="13"/>
+      <c r="G515" s="13"/>
+      <c r="H515" s="13"/>
+      <c r="I515" s="13"/>
+      <c r="J515" s="13"/>
+      <c r="K515" s="13"/>
+      <c r="L515" s="13"/>
+      <c r="M515" s="13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A516" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="B516" s="13"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="13"/>
+      <c r="E516" s="13"/>
+      <c r="F516" s="13"/>
+      <c r="G516" s="13"/>
+      <c r="H516" s="13"/>
+      <c r="I516" s="13"/>
+      <c r="J516" s="13"/>
+      <c r="K516" s="13"/>
+      <c r="L516" s="13"/>
+      <c r="M516" s="13" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A517" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="B517" s="13"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="13"/>
+      <c r="E517" s="13"/>
+      <c r="F517" s="13"/>
+      <c r="G517" s="13"/>
+      <c r="H517" s="13"/>
+      <c r="I517" s="13"/>
+      <c r="J517" s="13"/>
+      <c r="K517" s="13"/>
+      <c r="L517" s="13"/>
+      <c r="M517" s="13" t="s">
+        <v>935</v>
+      </c>
+    </row>
     <row r="518" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="519" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A520" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="B520" s="13"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="13"/>
+      <c r="E520" s="13"/>
+      <c r="F520" s="13"/>
+      <c r="G520" s="13"/>
+      <c r="H520" s="13"/>
+      <c r="I520" s="13"/>
+      <c r="J520" s="13"/>
+      <c r="K520" s="13"/>
+      <c r="L520" s="13"/>
+      <c r="M520" s="14" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A521" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="B521" s="13"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="13"/>
+      <c r="E521" s="13"/>
+      <c r="F521" s="13"/>
+      <c r="G521" s="13"/>
+      <c r="H521" s="13"/>
+      <c r="I521" s="13"/>
+      <c r="J521" s="13"/>
+      <c r="K521" s="13"/>
+      <c r="L521" s="13"/>
+      <c r="M521" s="14" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A522" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="M522" s="14" t="s">
+        <v>941</v>
+      </c>
+    </row>
     <row r="523" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="524" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="525" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9149,7 +10164,6 @@
     <row r="1033" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1034" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1035" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1036" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="yuki"/>
+  <fileSharing readOnlyRecommended="0" userName="yukieiji"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="38640" windowHeight="21240" tabRatio="500"/>
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1695468141" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1695468141" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1695468141" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1695468141"/>
+      <pm:revision xmlns:pm="smNativeData" day="1697910041" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1697910041" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1697910041" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1697910041"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1030">
   <si>
     <t>English</t>
   </si>
@@ -92,7 +92,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -180,7 +180,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -200,7 +200,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -276,7 +276,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -316,7 +316,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -350,7 +350,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -370,7 +370,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -410,7 +410,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -430,7 +430,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -450,7 +450,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -787,7 +787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -807,7 +807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -827,7 +827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -873,7 +873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -916,7 +916,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -936,7 +936,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -956,7 +956,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1035,7 +1035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1055,7 +1055,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1075,7 +1075,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1109,7 +1109,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1129,7 +1129,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1149,7 +1149,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1189,7 +1189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1217,7 +1217,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1251,7 +1251,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1297,7 +1297,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1317,7 +1317,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1337,7 +1337,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1365,7 +1365,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1385,7 +1385,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1405,7 +1405,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1445,7 +1445,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1479,7 +1479,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1507,7 +1507,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1637,7 +1637,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1761,7 +1761,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1789,7 +1789,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1847,7 +1847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1867,7 +1867,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1887,7 +1887,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1907,7 +1907,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1935,7 +1935,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1955,7 +1955,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1989,7 +1989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2009,7 +2009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2097,7 +2097,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2117,7 +2117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2169,7 +2169,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2189,7 +2189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2397,7 +2397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2557,7 +2557,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2577,7 +2577,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2611,7 +2611,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2645,7 +2645,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2665,7 +2665,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2783,7 +2783,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3153,7 +3153,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3173,7 +3173,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3193,7 +3193,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3221,7 +3221,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3241,7 +3241,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3261,7 +3261,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3289,7 +3289,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3309,7 +3309,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3329,7 +3329,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3357,7 +3357,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3377,7 +3377,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3397,7 +3397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3425,7 +3425,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3445,7 +3445,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3465,7 +3465,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3493,7 +3493,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3513,7 +3513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3533,7 +3533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3561,7 +3561,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3581,7 +3581,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3601,7 +3601,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3629,7 +3629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3649,7 +3649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3669,7 +3669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3730,7 +3730,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3750,7 +3750,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3770,7 +3770,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3822,7 +3822,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3842,7 +3842,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3862,7 +3862,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3914,7 +3914,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3934,7 +3934,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3954,7 +3954,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3994,7 +3994,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4014,7 +4014,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4034,7 +4034,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4054,7 +4054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4514,7 +4514,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4548,7 +4548,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4621,7 +4621,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4649,7 +4649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4719,7 +4719,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4739,7 +4739,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4759,7 +4759,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4787,7 +4787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4807,7 +4807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4827,7 +4827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4837,6 +4837,69 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>SON_Ghost</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>おばけ</t>
+  </si>
+  <si>
+    <t>SON_GhostAda</t>
+  </si>
+  <si>
+    <t>Colorful Ghost</t>
+  </si>
+  <si>
+    <t>カラフルおばけ</t>
+  </si>
+  <si>
+    <t>SON_Bat</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>コウモリ</t>
+  </si>
+  <si>
+    <t>SON_Jack</t>
+  </si>
+  <si>
+    <t>Jack O Lantern</t>
+  </si>
+  <si>
+    <t>ジャック・オー・ランタン</t>
+  </si>
+  <si>
+    <t>SON_Spider</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>スパイダー</t>
+  </si>
+  <si>
+    <t>SON_Franken</t>
+  </si>
+  <si>
+    <t>Frankenstein</t>
+  </si>
+  <si>
+    <t>フランケンシュタイン</t>
+  </si>
+  <si>
+    <t>SON_witchi02</t>
+  </si>
+  <si>
+    <t>Witchi2</t>
+  </si>
+  <si>
+    <t>魔女2</t>
   </si>
   <si>
     <t>sukoremon</t>
@@ -5011,7 +5074,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5031,7 +5094,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5071,7 +5134,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695468141">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5324,7 +5387,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468141" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5339,7 +5402,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468141" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5354,7 +5417,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468141" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5369,7 +5432,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468141" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -5385,7 +5448,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468141" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5400,7 +5463,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468141" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5433,7 +5496,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695468141"/>
+          <pm:border xmlns:pm="smNativeData" id="1697910041"/>
         </ext>
       </extLst>
     </border>
@@ -5446,7 +5509,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -5461,7 +5524,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5487,10 +5549,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1695468141" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1697910041" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1695468141" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1697910041" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -5756,8 +5818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="M536" sqref="B542 M536"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="P478" sqref="P478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.122951" defaultRowHeight="19.65"/>
@@ -8037,7 +8099,7 @@
       </c>
     </row>
     <row r="254" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A254" s="10" t="s">
+      <c r="A254" s="7" t="s">
         <v>480</v>
       </c>
       <c r="M254" t="s">
@@ -9802,7 +9864,7 @@
       </c>
     </row>
     <row r="461" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A461" s="11" t="s">
+      <c r="A461" s="10" t="s">
         <v>835</v>
       </c>
       <c r="M461" t="s">
@@ -9810,7 +9872,7 @@
       </c>
     </row>
     <row r="462" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A462" s="11" t="s">
+      <c r="A462" s="10" t="s">
         <v>837</v>
       </c>
       <c r="M462" t="s">
@@ -9818,7 +9880,7 @@
       </c>
     </row>
     <row r="463" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A463" s="11" t="s">
+      <c r="A463" s="10" t="s">
         <v>839</v>
       </c>
       <c r="M463" t="s">
@@ -9826,7 +9888,7 @@
       </c>
     </row>
     <row r="464" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A464" s="11" t="s">
+      <c r="A464" s="10" t="s">
         <v>841</v>
       </c>
       <c r="M464" t="s">
@@ -9950,31 +10012,31 @@
       </c>
     </row>
     <row r="478" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A478" s="12" t="s">
+      <c r="A478" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="B478" s="12" t="s">
+      <c r="B478" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="C478" s="12"/>
-      <c r="D478" s="12"/>
-      <c r="E478" s="12"/>
-      <c r="F478" s="12"/>
-      <c r="G478" s="12"/>
-      <c r="H478" s="12"/>
-      <c r="I478" s="12"/>
-      <c r="J478" s="12"/>
-      <c r="K478" s="12"/>
-      <c r="L478" s="12"/>
+      <c r="C478" s="11"/>
+      <c r="D478" s="11"/>
+      <c r="E478" s="11"/>
+      <c r="F478" s="11"/>
+      <c r="G478" s="11"/>
+      <c r="H478" s="11"/>
+      <c r="I478" s="11"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="11"/>
+      <c r="L478" s="11"/>
       <c r="M478" s="8" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="479" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A479" s="12" t="s">
+      <c r="A479" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="B479" s="12" t="s">
+      <c r="B479" s="11" t="s">
         <v>874</v>
       </c>
       <c r="C479" s="8"/>
@@ -9992,7 +10054,7 @@
       </c>
     </row>
     <row r="480" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A480" s="12" t="s">
+      <c r="A480" s="11" t="s">
         <v>876</v>
       </c>
       <c r="B480" s="8"/>
@@ -10010,210 +10072,261 @@
         <v>877</v>
       </c>
     </row>
-    <row r="481" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="482" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="483" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="481" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A481" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="B481" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="C481" s="14"/>
+      <c r="D481" s="14"/>
+      <c r="E481" s="14"/>
+      <c r="F481" s="14"/>
+      <c r="G481" s="14"/>
+      <c r="H481" s="14"/>
+      <c r="I481" s="14"/>
+      <c r="J481" s="14"/>
+      <c r="K481" s="14"/>
+      <c r="L481" s="14"/>
+      <c r="M481" s="14" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A482" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="B482" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="C482" s="14"/>
+      <c r="D482" s="14"/>
+      <c r="E482" s="14"/>
+      <c r="F482" s="14"/>
+      <c r="G482" s="14"/>
+      <c r="H482" s="14"/>
+      <c r="I482" s="14"/>
+      <c r="J482" s="14"/>
+      <c r="K482" s="14"/>
+      <c r="L482" s="14"/>
+      <c r="M482" s="14" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A483" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="B483" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="C483" s="14"/>
+      <c r="D483" s="14"/>
+      <c r="E483" s="14"/>
+      <c r="F483" s="14"/>
+      <c r="G483" s="14"/>
+      <c r="H483" s="14"/>
+      <c r="I483" s="14"/>
+      <c r="J483" s="14"/>
+      <c r="K483" s="14"/>
+      <c r="L483" s="14"/>
+      <c r="M483" s="14" t="s">
+        <v>886</v>
+      </c>
+    </row>
     <row r="484" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A484" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="B484" s="8"/>
-      <c r="C484" s="8"/>
-      <c r="D484" s="8"/>
-      <c r="E484" s="8"/>
-      <c r="F484" s="8"/>
-      <c r="G484" s="8"/>
-      <c r="H484" s="8"/>
-      <c r="I484" s="8"/>
-      <c r="J484" s="8"/>
-      <c r="K484" s="8"/>
-      <c r="L484" s="8"/>
-      <c r="M484" s="8" t="s">
-        <v>879</v>
+      <c r="A484" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="B484" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="C484" s="14"/>
+      <c r="D484" s="14"/>
+      <c r="E484" s="14"/>
+      <c r="F484" s="14"/>
+      <c r="G484" s="14"/>
+      <c r="H484" s="14"/>
+      <c r="I484" s="14"/>
+      <c r="J484" s="14"/>
+      <c r="K484" s="14"/>
+      <c r="L484" s="14"/>
+      <c r="M484" s="14" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="485" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A485" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="M485" s="8" t="s">
-        <v>881</v>
+      <c r="A485" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="B485" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="C485" s="14"/>
+      <c r="D485" s="14"/>
+      <c r="E485" s="14"/>
+      <c r="F485" s="14"/>
+      <c r="G485" s="14"/>
+      <c r="H485" s="14"/>
+      <c r="I485" s="14"/>
+      <c r="J485" s="14"/>
+      <c r="K485" s="14"/>
+      <c r="L485" s="14"/>
+      <c r="M485" s="14" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="486" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A486" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="B486" s="8"/>
-      <c r="C486" s="8"/>
-      <c r="D486" s="8"/>
-      <c r="E486" s="8"/>
-      <c r="F486" s="8"/>
-      <c r="G486" s="8"/>
-      <c r="H486" s="8"/>
-      <c r="I486" s="8"/>
-      <c r="J486" s="8"/>
-      <c r="K486" s="8"/>
-      <c r="L486" s="8"/>
-      <c r="M486" s="8" t="s">
-        <v>883</v>
+      <c r="A486" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="B486" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="C486" s="14"/>
+      <c r="D486" s="14"/>
+      <c r="E486" s="14"/>
+      <c r="F486" s="14"/>
+      <c r="G486" s="14"/>
+      <c r="H486" s="14"/>
+      <c r="I486" s="14"/>
+      <c r="J486" s="14"/>
+      <c r="K486" s="14"/>
+      <c r="L486" s="14"/>
+      <c r="M486" s="14" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="487" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A487" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="B487" s="8"/>
-      <c r="C487" s="8"/>
-      <c r="D487" s="8"/>
-      <c r="E487" s="8"/>
-      <c r="F487" s="8"/>
-      <c r="G487" s="8"/>
-      <c r="H487" s="8"/>
-      <c r="I487" s="8"/>
-      <c r="J487" s="8"/>
-      <c r="K487" s="8"/>
-      <c r="L487" s="8"/>
-      <c r="M487" s="8" t="s">
-        <v>885</v>
+      <c r="A487" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="B487" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="C487" s="14"/>
+      <c r="D487" s="14"/>
+      <c r="E487" s="14"/>
+      <c r="F487" s="14"/>
+      <c r="G487" s="14"/>
+      <c r="H487" s="14"/>
+      <c r="I487" s="14"/>
+      <c r="J487" s="14"/>
+      <c r="K487" s="14"/>
+      <c r="L487" s="14"/>
+      <c r="M487" s="14" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="488" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A488" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="B488" s="8"/>
-      <c r="C488" s="8"/>
-      <c r="D488" s="8"/>
-      <c r="E488" s="8"/>
-      <c r="F488" s="8"/>
-      <c r="G488" s="8"/>
-      <c r="H488" s="8"/>
-      <c r="I488" s="8"/>
-      <c r="J488" s="8"/>
-      <c r="K488" s="8"/>
-      <c r="L488" s="8"/>
-      <c r="M488" s="8" t="s">
-        <v>887</v>
-      </c>
+      <c r="A488"/>
+      <c r="B488"/>
+      <c r="C488"/>
+      <c r="D488"/>
+      <c r="E488"/>
+      <c r="F488"/>
+      <c r="G488"/>
+      <c r="H488"/>
+      <c r="I488"/>
+      <c r="J488"/>
+      <c r="K488"/>
+      <c r="L488"/>
+      <c r="M488"/>
     </row>
     <row r="489" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A489" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="B489" s="8"/>
-      <c r="C489" s="8"/>
-      <c r="D489" s="8"/>
-      <c r="E489" s="8"/>
-      <c r="F489" s="8"/>
-      <c r="G489" s="8"/>
-      <c r="H489" s="8"/>
-      <c r="I489" s="8"/>
-      <c r="J489" s="8"/>
-      <c r="K489" s="8"/>
-      <c r="L489" s="8"/>
-      <c r="M489" s="8" t="s">
-        <v>889</v>
-      </c>
+      <c r="A489"/>
+      <c r="B489"/>
+      <c r="C489"/>
+      <c r="D489"/>
+      <c r="E489"/>
+      <c r="F489"/>
+      <c r="G489"/>
+      <c r="H489"/>
+      <c r="I489"/>
+      <c r="J489"/>
+      <c r="K489"/>
+      <c r="L489"/>
+      <c r="M489"/>
     </row>
     <row r="490" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A490" s="12" t="s">
-        <v>890</v>
-      </c>
-      <c r="B490" s="8"/>
-      <c r="C490" s="8"/>
-      <c r="D490" s="8"/>
-      <c r="E490" s="8"/>
-      <c r="F490" s="8"/>
-      <c r="G490" s="8"/>
-      <c r="H490" s="8"/>
-      <c r="I490" s="8"/>
-      <c r="J490" s="8"/>
-      <c r="K490" s="8"/>
-      <c r="L490" s="8"/>
-      <c r="M490" s="8" t="s">
-        <v>891</v>
-      </c>
+      <c r="A490"/>
+      <c r="B490"/>
+      <c r="C490"/>
+      <c r="D490"/>
+      <c r="E490"/>
+      <c r="F490"/>
+      <c r="G490"/>
+      <c r="H490"/>
+      <c r="I490"/>
+      <c r="J490"/>
+      <c r="K490"/>
+      <c r="L490"/>
+      <c r="M490"/>
     </row>
     <row r="491" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A491" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="B491" s="8"/>
-      <c r="C491" s="8"/>
-      <c r="D491" s="8"/>
-      <c r="E491" s="8"/>
-      <c r="F491" s="8"/>
-      <c r="G491" s="8"/>
-      <c r="H491" s="8"/>
-      <c r="I491" s="8"/>
-      <c r="J491" s="8"/>
-      <c r="K491" s="8"/>
-      <c r="L491" s="8"/>
-      <c r="M491" s="8" t="s">
-        <v>893</v>
-      </c>
+      <c r="A491"/>
+      <c r="B491"/>
+      <c r="C491"/>
+      <c r="D491"/>
+      <c r="E491"/>
+      <c r="F491"/>
+      <c r="G491"/>
+      <c r="H491"/>
+      <c r="I491"/>
+      <c r="J491"/>
+      <c r="K491"/>
+      <c r="L491"/>
+      <c r="M491"/>
     </row>
     <row r="492" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A492" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="B492" s="8"/>
-      <c r="C492" s="8"/>
-      <c r="D492" s="8"/>
-      <c r="E492" s="8"/>
-      <c r="F492" s="8"/>
-      <c r="G492" s="8"/>
-      <c r="H492" s="8"/>
-      <c r="I492" s="8"/>
-      <c r="J492" s="8"/>
-      <c r="K492" s="8"/>
-      <c r="L492" s="8"/>
-      <c r="M492" s="8" t="s">
-        <v>895</v>
-      </c>
+      <c r="A492"/>
+      <c r="B492"/>
+      <c r="C492"/>
+      <c r="D492"/>
+      <c r="E492"/>
+      <c r="F492"/>
+      <c r="G492"/>
+      <c r="H492"/>
+      <c r="I492"/>
+      <c r="J492"/>
+      <c r="K492"/>
+      <c r="L492"/>
+      <c r="M492"/>
     </row>
     <row r="493" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A493" s="12" t="s">
-        <v>896</v>
-      </c>
-      <c r="B493" s="8"/>
-      <c r="C493" s="8"/>
-      <c r="D493" s="8"/>
-      <c r="E493" s="8"/>
-      <c r="F493" s="8"/>
-      <c r="G493" s="8"/>
-      <c r="H493" s="8"/>
-      <c r="I493" s="8"/>
-      <c r="J493" s="8"/>
-      <c r="K493" s="8"/>
-      <c r="L493" s="8"/>
-      <c r="M493" s="8" t="s">
-        <v>897</v>
-      </c>
+      <c r="A493"/>
+      <c r="B493"/>
+      <c r="C493"/>
+      <c r="D493"/>
+      <c r="E493"/>
+      <c r="F493"/>
+      <c r="G493"/>
+      <c r="H493"/>
+      <c r="I493"/>
+      <c r="J493"/>
+      <c r="K493"/>
+      <c r="L493"/>
+      <c r="M493"/>
     </row>
     <row r="494" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A494" s="12" t="s">
-        <v>898</v>
-      </c>
-      <c r="B494" s="8"/>
-      <c r="C494" s="8"/>
-      <c r="D494" s="8"/>
-      <c r="E494" s="8"/>
-      <c r="F494" s="8"/>
-      <c r="G494" s="8"/>
-      <c r="H494" s="8"/>
-      <c r="I494" s="8"/>
-      <c r="J494" s="8"/>
-      <c r="K494" s="8"/>
-      <c r="L494" s="8"/>
-      <c r="M494" s="8" t="s">
+      <c r="A494"/>
+      <c r="B494"/>
+      <c r="C494"/>
+      <c r="D494"/>
+      <c r="E494"/>
+      <c r="F494"/>
+      <c r="G494"/>
+      <c r="H494"/>
+      <c r="I494"/>
+      <c r="J494"/>
+      <c r="K494"/>
+      <c r="L494"/>
+      <c r="M494"/>
+    </row>
+    <row r="495" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A495" s="8" t="s">
         <v>899</v>
-      </c>
-    </row>
-    <row r="495" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A495" s="12" t="s">
-        <v>900</v>
       </c>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
@@ -10227,31 +10340,31 @@
       <c r="K495" s="8"/>
       <c r="L495" s="8"/>
       <c r="M495" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A496" s="7" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="496" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A496" s="12" t="s">
+      <c r="B496"/>
+      <c r="C496"/>
+      <c r="D496"/>
+      <c r="E496"/>
+      <c r="F496"/>
+      <c r="G496"/>
+      <c r="H496"/>
+      <c r="I496"/>
+      <c r="J496"/>
+      <c r="K496"/>
+      <c r="L496"/>
+      <c r="M496" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="B496" s="8"/>
-      <c r="C496" s="8"/>
-      <c r="D496" s="8"/>
-      <c r="E496" s="8"/>
-      <c r="F496" s="8"/>
-      <c r="G496" s="8"/>
-      <c r="H496" s="8"/>
-      <c r="I496" s="8"/>
-      <c r="J496" s="8"/>
-      <c r="K496" s="8"/>
-      <c r="L496" s="8"/>
-      <c r="M496" s="8" t="s">
+    </row>
+    <row r="497" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A497" s="11" t="s">
         <v>903</v>
-      </c>
-    </row>
-    <row r="497" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A497" s="12" t="s">
-        <v>904</v>
       </c>
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
@@ -10265,12 +10378,12 @@
       <c r="K497" s="8"/>
       <c r="L497" s="8"/>
       <c r="M497" s="8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A498" s="11" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="498" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A498" s="12" t="s">
-        <v>906</v>
       </c>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
@@ -10284,12 +10397,12 @@
       <c r="K498" s="8"/>
       <c r="L498" s="8"/>
       <c r="M498" s="8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A499" s="11" t="s">
         <v>907</v>
-      </c>
-    </row>
-    <row r="499" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A499" s="12" t="s">
-        <v>908</v>
       </c>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
@@ -10303,12 +10416,12 @@
       <c r="K499" s="8"/>
       <c r="L499" s="8"/>
       <c r="M499" s="8" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A500" s="11" t="s">
         <v>909</v>
-      </c>
-    </row>
-    <row r="500" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A500" s="12" t="s">
-        <v>910</v>
       </c>
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
@@ -10322,12 +10435,12 @@
       <c r="K500" s="8"/>
       <c r="L500" s="8"/>
       <c r="M500" s="8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A501" s="11" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="501" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A501" s="12" t="s">
-        <v>912</v>
       </c>
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
@@ -10341,12 +10454,12 @@
       <c r="K501" s="8"/>
       <c r="L501" s="8"/>
       <c r="M501" s="8" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A502" s="11" t="s">
         <v>913</v>
-      </c>
-    </row>
-    <row r="502" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A502" s="12" t="s">
-        <v>914</v>
       </c>
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
@@ -10360,12 +10473,12 @@
       <c r="K502" s="8"/>
       <c r="L502" s="8"/>
       <c r="M502" s="8" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A503" s="11" t="s">
         <v>915</v>
-      </c>
-    </row>
-    <row r="503" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A503" s="12" t="s">
-        <v>916</v>
       </c>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -10379,12 +10492,12 @@
       <c r="K503" s="8"/>
       <c r="L503" s="8"/>
       <c r="M503" s="8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A504" s="11" t="s">
         <v>917</v>
-      </c>
-    </row>
-    <row r="504" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A504" s="12" t="s">
-        <v>918</v>
       </c>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -10398,12 +10511,12 @@
       <c r="K504" s="8"/>
       <c r="L504" s="8"/>
       <c r="M504" s="8" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A505" s="11" t="s">
         <v>919</v>
-      </c>
-    </row>
-    <row r="505" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A505" s="12" t="s">
-        <v>920</v>
       </c>
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
@@ -10417,12 +10530,12 @@
       <c r="K505" s="8"/>
       <c r="L505" s="8"/>
       <c r="M505" s="8" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A506" s="11" t="s">
         <v>921</v>
-      </c>
-    </row>
-    <row r="506" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A506" s="12" t="s">
-        <v>922</v>
       </c>
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
@@ -10436,12 +10549,12 @@
       <c r="K506" s="8"/>
       <c r="L506" s="8"/>
       <c r="M506" s="8" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A507" s="11" t="s">
         <v>923</v>
-      </c>
-    </row>
-    <row r="507" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A507" s="12" t="s">
-        <v>924</v>
       </c>
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
@@ -10455,12 +10568,12 @@
       <c r="K507" s="8"/>
       <c r="L507" s="8"/>
       <c r="M507" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A508" s="11" t="s">
         <v>925</v>
-      </c>
-    </row>
-    <row r="508" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A508" s="12" t="s">
-        <v>926</v>
       </c>
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
@@ -10474,12 +10587,12 @@
       <c r="K508" s="8"/>
       <c r="L508" s="8"/>
       <c r="M508" s="8" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A509" s="11" t="s">
         <v>927</v>
-      </c>
-    </row>
-    <row r="509" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A509" s="12" t="s">
-        <v>928</v>
       </c>
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
@@ -10493,17 +10606,107 @@
       <c r="K509" s="8"/>
       <c r="L509" s="8"/>
       <c r="M509" s="8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A510" s="11" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="511" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="512" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="513" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="514" spans="1:1" ht="18.75" customHeight="1"/>
+      <c r="B510" s="8"/>
+      <c r="C510" s="8"/>
+      <c r="D510" s="8"/>
+      <c r="E510" s="8"/>
+      <c r="F510" s="8"/>
+      <c r="G510" s="8"/>
+      <c r="H510" s="8"/>
+      <c r="I510" s="8"/>
+      <c r="J510" s="8"/>
+      <c r="K510" s="8"/>
+      <c r="L510" s="8"/>
+      <c r="M510" s="8" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A511" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="B511" s="8"/>
+      <c r="C511" s="8"/>
+      <c r="D511" s="8"/>
+      <c r="E511" s="8"/>
+      <c r="F511" s="8"/>
+      <c r="G511" s="8"/>
+      <c r="H511" s="8"/>
+      <c r="I511" s="8"/>
+      <c r="J511" s="8"/>
+      <c r="K511" s="8"/>
+      <c r="L511" s="8"/>
+      <c r="M511" s="8" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A512" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B512" s="8"/>
+      <c r="C512" s="8"/>
+      <c r="D512" s="8"/>
+      <c r="E512" s="8"/>
+      <c r="F512" s="8"/>
+      <c r="G512" s="8"/>
+      <c r="H512" s="8"/>
+      <c r="I512" s="8"/>
+      <c r="J512" s="8"/>
+      <c r="K512" s="8"/>
+      <c r="L512" s="8"/>
+      <c r="M512" s="8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A513" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B513" s="8"/>
+      <c r="C513" s="8"/>
+      <c r="D513" s="8"/>
+      <c r="E513" s="8"/>
+      <c r="F513" s="8"/>
+      <c r="G513" s="8"/>
+      <c r="H513" s="8"/>
+      <c r="I513" s="8"/>
+      <c r="J513" s="8"/>
+      <c r="K513" s="8"/>
+      <c r="L513" s="8"/>
+      <c r="M513" s="8" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A514" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="B514" s="8"/>
+      <c r="C514" s="8"/>
+      <c r="D514" s="8"/>
+      <c r="E514" s="8"/>
+      <c r="F514" s="8"/>
+      <c r="G514" s="8"/>
+      <c r="H514" s="8"/>
+      <c r="I514" s="8"/>
+      <c r="J514" s="8"/>
+      <c r="K514" s="8"/>
+      <c r="L514" s="8"/>
+      <c r="M514" s="8" t="s">
+        <v>938</v>
+      </c>
+    </row>
     <row r="515" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A515" s="12" t="s">
-        <v>930</v>
+      <c r="A515" s="11" t="s">
+        <v>939</v>
       </c>
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
@@ -10517,12 +10720,12 @@
       <c r="K515" s="8"/>
       <c r="L515" s="8"/>
       <c r="M515" s="8" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
     </row>
     <row r="516" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A516" s="12" t="s">
-        <v>932</v>
+      <c r="A516" s="11" t="s">
+        <v>941</v>
       </c>
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
@@ -10536,12 +10739,12 @@
       <c r="K516" s="8"/>
       <c r="L516" s="8"/>
       <c r="M516" s="8" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
     </row>
     <row r="517" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A517" s="12" t="s">
-        <v>934</v>
+      <c r="A517" s="11" t="s">
+        <v>943</v>
       </c>
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
@@ -10555,14 +10758,50 @@
       <c r="K517" s="8"/>
       <c r="L517" s="8"/>
       <c r="M517" s="8" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="519" spans="1:1" ht="18.75" customHeight="1"/>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A518" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="B518" s="8"/>
+      <c r="C518" s="8"/>
+      <c r="D518" s="8"/>
+      <c r="E518" s="8"/>
+      <c r="F518" s="8"/>
+      <c r="G518" s="8"/>
+      <c r="H518" s="8"/>
+      <c r="I518" s="8"/>
+      <c r="J518" s="8"/>
+      <c r="K518" s="8"/>
+      <c r="L518" s="8"/>
+      <c r="M518" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A519" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="B519" s="8"/>
+      <c r="C519" s="8"/>
+      <c r="D519" s="8"/>
+      <c r="E519" s="8"/>
+      <c r="F519" s="8"/>
+      <c r="G519" s="8"/>
+      <c r="H519" s="8"/>
+      <c r="I519" s="8"/>
+      <c r="J519" s="8"/>
+      <c r="K519" s="8"/>
+      <c r="L519" s="8"/>
+      <c r="M519" s="8" t="s">
+        <v>948</v>
+      </c>
+    </row>
     <row r="520" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A520" s="12" t="s">
-        <v>936</v>
+      <c r="A520" s="11" t="s">
+        <v>949</v>
       </c>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
@@ -10575,548 +10814,754 @@
       <c r="J520" s="8"/>
       <c r="K520" s="8"/>
       <c r="L520" s="8"/>
-      <c r="M520" s="13" t="s">
-        <v>937</v>
+      <c r="M520" s="8" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="521" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A521" s="12" t="s">
-        <v>938</v>
-      </c>
-      <c r="B521" s="8"/>
-      <c r="C521" s="8"/>
-      <c r="D521" s="8"/>
-      <c r="E521" s="8"/>
-      <c r="F521" s="8"/>
-      <c r="G521" s="8"/>
-      <c r="H521" s="8"/>
-      <c r="I521" s="8"/>
-      <c r="J521" s="8"/>
-      <c r="K521" s="8"/>
-      <c r="L521" s="8"/>
-      <c r="M521" s="13" t="s">
-        <v>939</v>
-      </c>
+      <c r="A521"/>
+      <c r="B521"/>
+      <c r="C521"/>
+      <c r="D521"/>
+      <c r="E521"/>
+      <c r="F521"/>
+      <c r="G521"/>
+      <c r="H521"/>
+      <c r="I521"/>
+      <c r="J521"/>
+      <c r="K521"/>
+      <c r="L521"/>
+      <c r="M521"/>
     </row>
     <row r="522" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A522" s="14" t="s">
-        <v>940</v>
-      </c>
-      <c r="M522" s="13" t="s">
-        <v>941</v>
-      </c>
+      <c r="A522"/>
+      <c r="B522"/>
+      <c r="C522"/>
+      <c r="D522"/>
+      <c r="E522"/>
+      <c r="F522"/>
+      <c r="G522"/>
+      <c r="H522"/>
+      <c r="I522"/>
+      <c r="J522"/>
+      <c r="K522"/>
+      <c r="L522"/>
+      <c r="M522"/>
     </row>
     <row r="523" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="524" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A524" t="s">
-        <v>942</v>
-      </c>
-      <c r="M524" t="s">
-        <v>943</v>
-      </c>
+      <c r="A524"/>
+      <c r="B524"/>
+      <c r="C524"/>
+      <c r="D524"/>
+      <c r="E524"/>
+      <c r="F524"/>
+      <c r="G524"/>
+      <c r="H524"/>
+      <c r="I524"/>
+      <c r="J524"/>
+      <c r="K524"/>
+      <c r="L524"/>
+      <c r="M524"/>
     </row>
     <row r="525" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A525" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="B525" s="6"/>
-      <c r="C525" s="6"/>
-      <c r="D525" s="6"/>
-      <c r="E525" s="6"/>
-      <c r="F525" s="6"/>
-      <c r="G525" s="6"/>
-      <c r="H525" s="6"/>
-      <c r="I525" s="6"/>
-      <c r="J525" s="6"/>
-      <c r="K525" s="6"/>
-      <c r="L525" s="6"/>
-      <c r="M525" s="6" t="s">
-        <v>945</v>
-      </c>
+      <c r="A525"/>
+      <c r="B525"/>
+      <c r="C525"/>
+      <c r="D525"/>
+      <c r="E525"/>
+      <c r="F525"/>
+      <c r="G525"/>
+      <c r="H525"/>
+      <c r="I525"/>
+      <c r="J525"/>
+      <c r="K525"/>
+      <c r="L525"/>
+      <c r="M525"/>
     </row>
     <row r="526" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A526" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="B526" s="6"/>
-      <c r="C526" s="6"/>
-      <c r="D526" s="6"/>
-      <c r="E526" s="6"/>
-      <c r="F526" s="6"/>
-      <c r="G526" s="6"/>
-      <c r="H526" s="6"/>
-      <c r="I526" s="6"/>
-      <c r="J526" s="6"/>
-      <c r="K526" s="6"/>
-      <c r="L526" s="6"/>
-      <c r="M526" s="6" t="s">
-        <v>947</v>
+      <c r="A526" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="B526" s="8"/>
+      <c r="C526" s="8"/>
+      <c r="D526" s="8"/>
+      <c r="E526" s="8"/>
+      <c r="F526" s="8"/>
+      <c r="G526" s="8"/>
+      <c r="H526" s="8"/>
+      <c r="I526" s="8"/>
+      <c r="J526" s="8"/>
+      <c r="K526" s="8"/>
+      <c r="L526" s="8"/>
+      <c r="M526" s="8" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="527" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A527" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="B527" s="6"/>
-      <c r="C527" s="6"/>
-      <c r="D527" s="6"/>
-      <c r="E527" s="6"/>
-      <c r="F527" s="6"/>
-      <c r="G527" s="6"/>
-      <c r="H527" s="6"/>
-      <c r="I527" s="6"/>
-      <c r="J527" s="6"/>
-      <c r="K527" s="6"/>
-      <c r="L527" s="6"/>
-      <c r="M527" s="6" t="s">
-        <v>949</v>
+      <c r="A527" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="B527" s="8"/>
+      <c r="C527" s="8"/>
+      <c r="D527" s="8"/>
+      <c r="E527" s="8"/>
+      <c r="F527" s="8"/>
+      <c r="G527" s="8"/>
+      <c r="H527" s="8"/>
+      <c r="I527" s="8"/>
+      <c r="J527" s="8"/>
+      <c r="K527" s="8"/>
+      <c r="L527" s="8"/>
+      <c r="M527" s="8" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="528" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A528" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="B528" s="6"/>
-      <c r="C528" s="6"/>
-      <c r="D528" s="6"/>
-      <c r="E528" s="6"/>
-      <c r="F528" s="6"/>
-      <c r="G528" s="6"/>
-      <c r="H528" s="6"/>
-      <c r="I528" s="6"/>
-      <c r="J528" s="6"/>
-      <c r="K528" s="6"/>
-      <c r="L528" s="6"/>
-      <c r="M528" s="6" t="s">
-        <v>951</v>
+      <c r="A528" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="B528" s="8"/>
+      <c r="C528" s="8"/>
+      <c r="D528" s="8"/>
+      <c r="E528" s="8"/>
+      <c r="F528" s="8"/>
+      <c r="G528" s="8"/>
+      <c r="H528" s="8"/>
+      <c r="I528" s="8"/>
+      <c r="J528" s="8"/>
+      <c r="K528" s="8"/>
+      <c r="L528" s="8"/>
+      <c r="M528" s="8" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="529" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A529" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="B529" s="6"/>
-      <c r="C529" s="6"/>
-      <c r="D529" s="6"/>
-      <c r="E529" s="6"/>
-      <c r="F529" s="6"/>
-      <c r="G529" s="6"/>
-      <c r="H529" s="6"/>
-      <c r="I529" s="6"/>
-      <c r="J529" s="6"/>
-      <c r="K529" s="6"/>
-      <c r="L529" s="6"/>
-      <c r="M529" s="6" t="s">
-        <v>953</v>
-      </c>
+      <c r="A529"/>
+      <c r="B529"/>
+      <c r="C529"/>
+      <c r="D529"/>
+      <c r="E529"/>
+      <c r="F529"/>
+      <c r="G529"/>
+      <c r="H529"/>
+      <c r="I529"/>
+      <c r="J529"/>
+      <c r="K529"/>
+      <c r="L529"/>
+      <c r="M529"/>
     </row>
     <row r="530" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A530" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="B530" s="6"/>
-      <c r="C530" s="6"/>
-      <c r="D530" s="6"/>
-      <c r="E530" s="6"/>
-      <c r="F530" s="6"/>
-      <c r="G530" s="6"/>
-      <c r="H530" s="6"/>
-      <c r="I530" s="6"/>
-      <c r="J530" s="6"/>
-      <c r="K530" s="6"/>
-      <c r="L530" s="6"/>
-      <c r="M530" s="6" t="s">
-        <v>955</v>
-      </c>
+      <c r="A530"/>
+      <c r="B530"/>
+      <c r="C530"/>
+      <c r="D530"/>
+      <c r="E530"/>
+      <c r="F530"/>
+      <c r="G530"/>
+      <c r="H530"/>
+      <c r="I530"/>
+      <c r="J530"/>
+      <c r="K530"/>
+      <c r="L530"/>
+      <c r="M530"/>
     </row>
     <row r="531" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A531" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="B531" s="6"/>
-      <c r="C531" s="6"/>
-      <c r="D531" s="6"/>
-      <c r="E531" s="6"/>
-      <c r="F531" s="6"/>
-      <c r="G531" s="6"/>
-      <c r="H531" s="6"/>
-      <c r="I531" s="6"/>
-      <c r="J531" s="6"/>
-      <c r="K531" s="6"/>
-      <c r="L531" s="6"/>
-      <c r="M531" s="6" t="s">
+      <c r="A531" s="11" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" ht="18.75" customHeight="1"/>
+      <c r="B531" s="8"/>
+      <c r="C531" s="8"/>
+      <c r="D531" s="8"/>
+      <c r="E531" s="8"/>
+      <c r="F531" s="8"/>
+      <c r="G531" s="8"/>
+      <c r="H531" s="8"/>
+      <c r="I531" s="8"/>
+      <c r="J531" s="8"/>
+      <c r="K531" s="8"/>
+      <c r="L531" s="8"/>
+      <c r="M531" s="12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A532" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="B532" s="8"/>
+      <c r="C532" s="8"/>
+      <c r="D532" s="8"/>
+      <c r="E532" s="8"/>
+      <c r="F532" s="8"/>
+      <c r="G532" s="8"/>
+      <c r="H532" s="8"/>
+      <c r="I532" s="8"/>
+      <c r="J532" s="8"/>
+      <c r="K532" s="8"/>
+      <c r="L532" s="8"/>
+      <c r="M532" s="12" t="s">
+        <v>960</v>
+      </c>
+    </row>
     <row r="533" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A533" s="8" t="s">
-        <v>958</v>
-      </c>
-      <c r="B533" s="8" t="s">
-        <v>959</v>
-      </c>
-      <c r="C533" s="8"/>
-      <c r="D533" s="8"/>
-      <c r="E533" s="8"/>
-      <c r="F533" s="8"/>
-      <c r="G533" s="8"/>
-      <c r="H533" s="8"/>
-      <c r="I533" s="8"/>
-      <c r="J533" s="8"/>
-      <c r="K533" s="8"/>
-      <c r="L533" s="8"/>
-      <c r="M533" s="8" t="s">
-        <v>960</v>
+      <c r="A533" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="B533"/>
+      <c r="C533"/>
+      <c r="D533"/>
+      <c r="E533"/>
+      <c r="F533"/>
+      <c r="G533"/>
+      <c r="H533"/>
+      <c r="I533"/>
+      <c r="J533"/>
+      <c r="K533"/>
+      <c r="L533"/>
+      <c r="M533" s="12" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="534" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A534" s="8" t="s">
-        <v>961</v>
-      </c>
-      <c r="B534" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="C534" s="8"/>
-      <c r="D534" s="8"/>
-      <c r="E534" s="8"/>
-      <c r="F534" s="8"/>
-      <c r="G534" s="8"/>
-      <c r="H534" s="8"/>
-      <c r="I534" s="8"/>
-      <c r="J534" s="8"/>
-      <c r="K534" s="8"/>
-      <c r="L534" s="8"/>
-      <c r="M534" s="8" t="s">
+      <c r="A534"/>
+      <c r="B534"/>
+      <c r="C534"/>
+      <c r="D534"/>
+      <c r="E534"/>
+      <c r="F534"/>
+      <c r="G534"/>
+      <c r="H534"/>
+      <c r="I534"/>
+      <c r="J534"/>
+      <c r="K534"/>
+      <c r="L534"/>
+      <c r="M534"/>
+    </row>
+    <row r="535" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A535" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="535" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A535" s="15" t="s">
+      <c r="B535"/>
+      <c r="C535"/>
+      <c r="D535"/>
+      <c r="E535"/>
+      <c r="F535"/>
+      <c r="G535"/>
+      <c r="H535"/>
+      <c r="I535"/>
+      <c r="J535"/>
+      <c r="K535"/>
+      <c r="L535"/>
+      <c r="M535" t="s">
         <v>964</v>
       </c>
-      <c r="B535" s="15" t="s">
+    </row>
+    <row r="536" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A536" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C535" s="15"/>
-      <c r="D535" s="15"/>
-      <c r="E535" s="15"/>
-      <c r="F535" s="15"/>
-      <c r="G535" s="15"/>
-      <c r="H535" s="15"/>
-      <c r="I535" s="15"/>
-      <c r="J535" s="15"/>
-      <c r="K535" s="15"/>
-      <c r="L535" s="15"/>
-      <c r="M535" s="15" t="s">
+      <c r="B536" s="6"/>
+      <c r="C536" s="6"/>
+      <c r="D536" s="6"/>
+      <c r="E536" s="6"/>
+      <c r="F536" s="6"/>
+      <c r="G536" s="6"/>
+      <c r="H536" s="6"/>
+      <c r="I536" s="6"/>
+      <c r="J536" s="6"/>
+      <c r="K536" s="6"/>
+      <c r="L536" s="6"/>
+      <c r="M536" s="6" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="536" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A536" s="15" t="s">
+    <row r="537" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A537" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="B536" s="15" t="s">
+      <c r="B537" s="6"/>
+      <c r="C537" s="6"/>
+      <c r="D537" s="6"/>
+      <c r="E537" s="6"/>
+      <c r="F537" s="6"/>
+      <c r="G537" s="6"/>
+      <c r="H537" s="6"/>
+      <c r="I537" s="6"/>
+      <c r="J537" s="6"/>
+      <c r="K537" s="6"/>
+      <c r="L537" s="6"/>
+      <c r="M537" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="C536" s="15"/>
-      <c r="D536" s="15"/>
-      <c r="E536" s="15"/>
-      <c r="F536" s="15"/>
-      <c r="G536" s="15"/>
-      <c r="H536" s="15"/>
-      <c r="I536" s="15"/>
-      <c r="J536" s="15"/>
-      <c r="K536" s="15"/>
-      <c r="L536" s="15"/>
-      <c r="M536" s="15" t="s">
+    </row>
+    <row r="538" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A538" s="6" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="537" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A537" s="15" t="s">
+      <c r="B538" s="6"/>
+      <c r="C538" s="6"/>
+      <c r="D538" s="6"/>
+      <c r="E538" s="6"/>
+      <c r="F538" s="6"/>
+      <c r="G538" s="6"/>
+      <c r="H538" s="6"/>
+      <c r="I538" s="6"/>
+      <c r="J538" s="6"/>
+      <c r="K538" s="6"/>
+      <c r="L538" s="6"/>
+      <c r="M538" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="B537" s="15" t="s">
+    </row>
+    <row r="539" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A539" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="C537" s="15"/>
-      <c r="D537" s="15"/>
-      <c r="E537" s="15"/>
-      <c r="F537" s="15"/>
-      <c r="G537" s="15"/>
-      <c r="H537" s="15"/>
-      <c r="I537" s="15"/>
-      <c r="J537" s="15"/>
-      <c r="K537" s="15"/>
-      <c r="L537" s="15"/>
-      <c r="M537" s="15" t="s">
+      <c r="B539" s="6"/>
+      <c r="C539" s="6"/>
+      <c r="D539" s="6"/>
+      <c r="E539" s="6"/>
+      <c r="F539" s="6"/>
+      <c r="G539" s="6"/>
+      <c r="H539" s="6"/>
+      <c r="I539" s="6"/>
+      <c r="J539" s="6"/>
+      <c r="K539" s="6"/>
+      <c r="L539" s="6"/>
+      <c r="M539" s="6" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A538" s="15" t="s">
+    <row r="540" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A540" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="B538" s="15" t="s">
+      <c r="B540" s="6"/>
+      <c r="C540" s="6"/>
+      <c r="D540" s="6"/>
+      <c r="E540" s="6"/>
+      <c r="F540" s="6"/>
+      <c r="G540" s="6"/>
+      <c r="H540" s="6"/>
+      <c r="I540" s="6"/>
+      <c r="J540" s="6"/>
+      <c r="K540" s="6"/>
+      <c r="L540" s="6"/>
+      <c r="M540" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="C538" s="15"/>
-      <c r="D538" s="15"/>
-      <c r="E538" s="15"/>
-      <c r="F538" s="15"/>
-      <c r="G538" s="15"/>
-      <c r="H538" s="15"/>
-      <c r="I538" s="15"/>
-      <c r="J538" s="15"/>
-      <c r="K538" s="15"/>
-      <c r="L538" s="15"/>
-      <c r="M538" s="15" t="s">
+    </row>
+    <row r="541" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A541" s="6" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="539" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A539" s="15" t="s">
+      <c r="B541" s="6"/>
+      <c r="C541" s="6"/>
+      <c r="D541" s="6"/>
+      <c r="E541" s="6"/>
+      <c r="F541" s="6"/>
+      <c r="G541" s="6"/>
+      <c r="H541" s="6"/>
+      <c r="I541" s="6"/>
+      <c r="J541" s="6"/>
+      <c r="K541" s="6"/>
+      <c r="L541" s="6"/>
+      <c r="M541" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="B539" s="15" t="s">
+    </row>
+    <row r="542" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A542" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="C539" s="15"/>
-      <c r="D539" s="15"/>
-      <c r="E539" s="15"/>
-      <c r="F539" s="15"/>
-      <c r="G539" s="15"/>
-      <c r="H539" s="15"/>
-      <c r="I539" s="15"/>
-      <c r="J539" s="15"/>
-      <c r="K539" s="15"/>
-      <c r="L539" s="15"/>
-      <c r="M539" s="15" t="s">
+      <c r="B542" s="6"/>
+      <c r="C542" s="6"/>
+      <c r="D542" s="6"/>
+      <c r="E542" s="6"/>
+      <c r="F542" s="6"/>
+      <c r="G542" s="6"/>
+      <c r="H542" s="6"/>
+      <c r="I542" s="6"/>
+      <c r="J542" s="6"/>
+      <c r="K542" s="6"/>
+      <c r="L542" s="6"/>
+      <c r="M542" s="6" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A540" s="15" t="s">
+    <row r="543" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A543"/>
+      <c r="B543"/>
+      <c r="C543"/>
+      <c r="D543"/>
+      <c r="E543"/>
+      <c r="F543"/>
+      <c r="G543"/>
+      <c r="H543"/>
+      <c r="I543"/>
+      <c r="J543"/>
+      <c r="K543"/>
+      <c r="L543"/>
+      <c r="M543"/>
+    </row>
+    <row r="544" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A544" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="B540" s="15" t="s">
+      <c r="B544" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="C540" s="15"/>
-      <c r="D540" s="15"/>
-      <c r="E540" s="15"/>
-      <c r="F540" s="15"/>
-      <c r="G540" s="15"/>
-      <c r="H540" s="15"/>
-      <c r="I540" s="15"/>
-      <c r="J540" s="15"/>
-      <c r="K540" s="15"/>
-      <c r="L540" s="15"/>
-      <c r="M540" s="15" t="s">
+      <c r="C544" s="8"/>
+      <c r="D544" s="8"/>
+      <c r="E544" s="8"/>
+      <c r="F544" s="8"/>
+      <c r="G544" s="8"/>
+      <c r="H544" s="8"/>
+      <c r="I544" s="8"/>
+      <c r="J544" s="8"/>
+      <c r="K544" s="8"/>
+      <c r="L544" s="8"/>
+      <c r="M544" s="8" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A541" s="15" t="s">
+    <row r="545" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A545" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="B541" s="15" t="s">
+      <c r="B545" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C541" s="15"/>
-      <c r="D541" s="15"/>
-      <c r="E541" s="15"/>
-      <c r="F541" s="15"/>
-      <c r="G541" s="15"/>
-      <c r="H541" s="15"/>
-      <c r="I541" s="15"/>
-      <c r="J541" s="15"/>
-      <c r="K541" s="15"/>
-      <c r="L541" s="15"/>
-      <c r="M541" s="15" t="s">
+      <c r="C545" s="8"/>
+      <c r="D545" s="8"/>
+      <c r="E545" s="8"/>
+      <c r="F545" s="8"/>
+      <c r="G545" s="8"/>
+      <c r="H545" s="8"/>
+      <c r="I545" s="8"/>
+      <c r="J545" s="8"/>
+      <c r="K545" s="8"/>
+      <c r="L545" s="8"/>
+      <c r="M545" s="8" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A542" s="15" t="s">
+    <row r="546" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A546" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B542" s="15" t="s">
+      <c r="B546" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="C542" s="15"/>
-      <c r="D542" s="15"/>
-      <c r="E542" s="15"/>
-      <c r="F542" s="15"/>
-      <c r="G542" s="15"/>
-      <c r="H542" s="15"/>
-      <c r="I542" s="15"/>
-      <c r="J542" s="15"/>
-      <c r="K542" s="15"/>
-      <c r="L542" s="15"/>
-      <c r="M542" s="15" t="s">
+      <c r="C546" s="6"/>
+      <c r="D546" s="6"/>
+      <c r="E546" s="6"/>
+      <c r="F546" s="6"/>
+      <c r="G546" s="6"/>
+      <c r="H546" s="6"/>
+      <c r="I546" s="6"/>
+      <c r="J546" s="6"/>
+      <c r="K546" s="6"/>
+      <c r="L546" s="6"/>
+      <c r="M546" s="6" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A543" s="15" t="s">
+    <row r="547" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A547" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="B543" s="15" t="s">
+      <c r="B547" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="C543" s="15"/>
-      <c r="D543" s="15"/>
-      <c r="E543" s="15"/>
-      <c r="F543" s="15"/>
-      <c r="G543" s="15"/>
-      <c r="H543" s="15"/>
-      <c r="I543" s="15"/>
-      <c r="J543" s="15"/>
-      <c r="K543" s="15"/>
-      <c r="L543" s="15"/>
-      <c r="M543" s="15" t="s">
+      <c r="C547" s="6"/>
+      <c r="D547" s="6"/>
+      <c r="E547" s="6"/>
+      <c r="F547" s="6"/>
+      <c r="G547" s="6"/>
+      <c r="H547" s="6"/>
+      <c r="I547" s="6"/>
+      <c r="J547" s="6"/>
+      <c r="K547" s="6"/>
+      <c r="L547" s="6"/>
+      <c r="M547" s="6" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A544" s="15" t="s">
+    <row r="548" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A548" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="B544" s="15" t="s">
+      <c r="B548" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="C544" s="15"/>
-      <c r="D544" s="15"/>
-      <c r="E544" s="15"/>
-      <c r="F544" s="15"/>
-      <c r="G544" s="15"/>
-      <c r="H544" s="15"/>
-      <c r="I544" s="15"/>
-      <c r="J544" s="15"/>
-      <c r="K544" s="15"/>
-      <c r="L544" s="15"/>
-      <c r="M544" s="15" t="s">
+      <c r="C548" s="6"/>
+      <c r="D548" s="6"/>
+      <c r="E548" s="6"/>
+      <c r="F548" s="6"/>
+      <c r="G548" s="6"/>
+      <c r="H548" s="6"/>
+      <c r="I548" s="6"/>
+      <c r="J548" s="6"/>
+      <c r="K548" s="6"/>
+      <c r="L548" s="6"/>
+      <c r="M548" s="6" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A545" s="15" t="s">
+    <row r="549" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A549" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="B545" s="15" t="s">
+      <c r="B549" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="C545" s="15"/>
-      <c r="D545" s="15"/>
-      <c r="E545" s="15"/>
-      <c r="F545" s="15"/>
-      <c r="G545" s="15"/>
-      <c r="H545" s="15"/>
-      <c r="I545" s="15"/>
-      <c r="J545" s="15"/>
-      <c r="K545" s="15"/>
-      <c r="L545" s="15"/>
-      <c r="M545" s="15" t="s">
+      <c r="C549" s="6"/>
+      <c r="D549" s="6"/>
+      <c r="E549" s="6"/>
+      <c r="F549" s="6"/>
+      <c r="G549" s="6"/>
+      <c r="H549" s="6"/>
+      <c r="I549" s="6"/>
+      <c r="J549" s="6"/>
+      <c r="K549" s="6"/>
+      <c r="L549" s="6"/>
+      <c r="M549" s="6" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A546" s="15" t="s">
+    <row r="550" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A550" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="B546" s="15" t="s">
+      <c r="B550" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="C546" s="15"/>
-      <c r="D546" s="15"/>
-      <c r="E546" s="15"/>
-      <c r="F546" s="15"/>
-      <c r="G546" s="15"/>
-      <c r="H546" s="15"/>
-      <c r="I546" s="15"/>
-      <c r="J546" s="15"/>
-      <c r="K546" s="15"/>
-      <c r="L546" s="15"/>
-      <c r="M546" s="15" t="s">
+      <c r="C550" s="6"/>
+      <c r="D550" s="6"/>
+      <c r="E550" s="6"/>
+      <c r="F550" s="6"/>
+      <c r="G550" s="6"/>
+      <c r="H550" s="6"/>
+      <c r="I550" s="6"/>
+      <c r="J550" s="6"/>
+      <c r="K550" s="6"/>
+      <c r="L550" s="6"/>
+      <c r="M550" s="6" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A547" s="15" t="s">
+    <row r="551" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A551" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="B547" s="15" t="s">
+      <c r="B551" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="C547" s="15"/>
-      <c r="D547" s="15"/>
-      <c r="E547" s="15"/>
-      <c r="F547" s="15"/>
-      <c r="G547" s="15"/>
-      <c r="H547" s="15"/>
-      <c r="I547" s="15"/>
-      <c r="J547" s="15"/>
-      <c r="K547" s="15"/>
-      <c r="L547" s="15"/>
-      <c r="M547" s="15" t="s">
+      <c r="C551" s="6"/>
+      <c r="D551" s="6"/>
+      <c r="E551" s="6"/>
+      <c r="F551" s="6"/>
+      <c r="G551" s="6"/>
+      <c r="H551" s="6"/>
+      <c r="I551" s="6"/>
+      <c r="J551" s="6"/>
+      <c r="K551" s="6"/>
+      <c r="L551" s="6"/>
+      <c r="M551" s="6" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A548" s="15" t="s">
+    <row r="552" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A552" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="B548" s="15" t="s">
+      <c r="B552" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="C548" s="15"/>
-      <c r="D548" s="15"/>
-      <c r="E548" s="15"/>
-      <c r="F548" s="15"/>
-      <c r="G548" s="15"/>
-      <c r="H548" s="15"/>
-      <c r="I548" s="15"/>
-      <c r="J548" s="15"/>
-      <c r="K548" s="15"/>
-      <c r="L548" s="15"/>
-      <c r="M548" s="15" t="s">
+      <c r="C552" s="6"/>
+      <c r="D552" s="6"/>
+      <c r="E552" s="6"/>
+      <c r="F552" s="6"/>
+      <c r="G552" s="6"/>
+      <c r="H552" s="6"/>
+      <c r="I552" s="6"/>
+      <c r="J552" s="6"/>
+      <c r="K552" s="6"/>
+      <c r="L552" s="6"/>
+      <c r="M552" s="6" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A549" s="15" t="s">
+    <row r="553" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A553" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B549" s="15" t="s">
+      <c r="B553" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="C549" s="15"/>
-      <c r="D549" s="15"/>
-      <c r="E549" s="15"/>
-      <c r="F549" s="15"/>
-      <c r="G549" s="15"/>
-      <c r="H549" s="15"/>
-      <c r="I549" s="15"/>
-      <c r="J549" s="15"/>
-      <c r="K549" s="15"/>
-      <c r="L549" s="15"/>
-      <c r="M549" s="15" t="s">
+      <c r="C553" s="6"/>
+      <c r="D553" s="6"/>
+      <c r="E553" s="6"/>
+      <c r="F553" s="6"/>
+      <c r="G553" s="6"/>
+      <c r="H553" s="6"/>
+      <c r="I553" s="6"/>
+      <c r="J553" s="6"/>
+      <c r="K553" s="6"/>
+      <c r="L553" s="6"/>
+      <c r="M553" s="6" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="550" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="551" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="552" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="553" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="554" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="555" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="556" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="557" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="558" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="559" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="560" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="554" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A554" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C554" s="6"/>
+      <c r="D554" s="6"/>
+      <c r="E554" s="6"/>
+      <c r="F554" s="6"/>
+      <c r="G554" s="6"/>
+      <c r="H554" s="6"/>
+      <c r="I554" s="6"/>
+      <c r="J554" s="6"/>
+      <c r="K554" s="6"/>
+      <c r="L554" s="6"/>
+      <c r="M554" s="6" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A555" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C555" s="6"/>
+      <c r="D555" s="6"/>
+      <c r="E555" s="6"/>
+      <c r="F555" s="6"/>
+      <c r="G555" s="6"/>
+      <c r="H555" s="6"/>
+      <c r="I555" s="6"/>
+      <c r="J555" s="6"/>
+      <c r="K555" s="6"/>
+      <c r="L555" s="6"/>
+      <c r="M555" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A556" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C556" s="6"/>
+      <c r="D556" s="6"/>
+      <c r="E556" s="6"/>
+      <c r="F556" s="6"/>
+      <c r="G556" s="6"/>
+      <c r="H556" s="6"/>
+      <c r="I556" s="6"/>
+      <c r="J556" s="6"/>
+      <c r="K556" s="6"/>
+      <c r="L556" s="6"/>
+      <c r="M556" s="6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A557" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C557" s="6"/>
+      <c r="D557" s="6"/>
+      <c r="E557" s="6"/>
+      <c r="F557" s="6"/>
+      <c r="G557" s="6"/>
+      <c r="H557" s="6"/>
+      <c r="I557" s="6"/>
+      <c r="J557" s="6"/>
+      <c r="K557" s="6"/>
+      <c r="L557" s="6"/>
+      <c r="M557" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A558" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C558" s="6"/>
+      <c r="D558" s="6"/>
+      <c r="E558" s="6"/>
+      <c r="F558" s="6"/>
+      <c r="G558" s="6"/>
+      <c r="H558" s="6"/>
+      <c r="I558" s="6"/>
+      <c r="J558" s="6"/>
+      <c r="K558" s="6"/>
+      <c r="L558" s="6"/>
+      <c r="M558" s="6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A559" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C559" s="6"/>
+      <c r="D559" s="6"/>
+      <c r="E559" s="6"/>
+      <c r="F559" s="6"/>
+      <c r="G559" s="6"/>
+      <c r="H559" s="6"/>
+      <c r="I559" s="6"/>
+      <c r="J559" s="6"/>
+      <c r="K559" s="6"/>
+      <c r="L559" s="6"/>
+      <c r="M559" s="6" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A560" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C560" s="6"/>
+      <c r="D560" s="6"/>
+      <c r="E560" s="6"/>
+      <c r="F560" s="6"/>
+      <c r="G560" s="6"/>
+      <c r="H560" s="6"/>
+      <c r="I560" s="6"/>
+      <c r="J560" s="6"/>
+      <c r="K560" s="6"/>
+      <c r="L560" s="6"/>
+      <c r="M560" s="6" t="s">
+        <v>1029</v>
+      </c>
+    </row>
     <row r="561" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="562" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="563" spans="1:1" ht="18.75" customHeight="1"/>
@@ -11596,7 +12041,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695468141" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1697910041" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11605,16 +12050,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695468141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695468141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695468141" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695468141" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1697910041" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1697910041" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697910041" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697910041" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695468141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697910041" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1697910041" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1697910041" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1697910041" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1697910041"/>
+      <pm:revision xmlns:pm="smNativeData" day="1701009764" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1701009764" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1701009764" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1701009764"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1039">
   <si>
     <t>English</t>
   </si>
@@ -92,7 +92,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -180,7 +180,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -200,7 +200,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -276,7 +276,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -316,7 +316,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -350,7 +350,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -370,7 +370,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -410,7 +410,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -430,7 +430,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -450,7 +450,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -787,7 +787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -807,7 +807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -827,7 +827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -873,7 +873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -916,7 +916,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -936,7 +936,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -956,7 +956,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1035,7 +1035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1055,7 +1055,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1075,7 +1075,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1109,7 +1109,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1129,7 +1129,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1149,7 +1149,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1189,7 +1189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1217,7 +1217,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1251,7 +1251,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1297,7 +1297,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1317,7 +1317,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1337,7 +1337,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1365,7 +1365,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1385,7 +1385,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1405,7 +1405,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1445,7 +1445,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1479,7 +1479,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1507,7 +1507,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1637,7 +1637,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1761,7 +1761,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1789,7 +1789,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1847,7 +1847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1867,7 +1867,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1887,7 +1887,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1907,7 +1907,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1935,7 +1935,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1955,7 +1955,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1989,7 +1989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2009,7 +2009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2097,7 +2097,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2117,7 +2117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2169,7 +2169,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2189,7 +2189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2397,7 +2397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2557,7 +2557,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2577,7 +2577,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2611,7 +2611,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2645,7 +2645,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2665,7 +2665,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2783,7 +2783,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3153,7 +3153,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3173,7 +3173,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3193,7 +3193,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3221,7 +3221,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3241,7 +3241,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3261,7 +3261,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3289,7 +3289,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3309,7 +3309,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3329,7 +3329,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3357,7 +3357,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3377,7 +3377,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3397,7 +3397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3425,7 +3425,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3445,7 +3445,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3465,7 +3465,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3493,7 +3493,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3513,7 +3513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3533,7 +3533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3561,7 +3561,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3581,7 +3581,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3601,7 +3601,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3629,7 +3629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3649,7 +3649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3669,7 +3669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3730,7 +3730,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3750,7 +3750,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3770,7 +3770,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3822,7 +3822,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3842,7 +3842,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3862,7 +3862,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3914,7 +3914,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3934,7 +3934,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3954,7 +3954,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3994,7 +3994,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4014,7 +4014,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4034,7 +4034,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4054,7 +4054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4514,7 +4514,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4548,7 +4548,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4621,7 +4621,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4649,7 +4649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4719,7 +4719,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4739,7 +4739,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4759,7 +4759,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4787,7 +4787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4807,7 +4807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4827,7 +4827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5074,7 +5074,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5094,7 +5094,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5134,7 +5134,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1697910041">
+            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5357,6 +5357,33 @@
   </si>
   <si>
     <t>韓国</t>
+  </si>
+  <si>
+    <t>animaru_kiui</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>キーウィ</t>
+  </si>
+  <si>
+    <t>omunaito</t>
+  </si>
+  <si>
+    <t>Omanyte</t>
+  </si>
+  <si>
+    <t>オムナイト</t>
+  </si>
+  <si>
+    <t>animaru_tonakai</t>
+  </si>
+  <si>
+    <t>Reindeer</t>
+  </si>
+  <si>
+    <t>トナカイ</t>
   </si>
 </sst>
 </file>
@@ -5387,7 +5414,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5402,7 +5429,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5417,7 +5444,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5432,7 +5459,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -5448,7 +5475,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5463,7 +5490,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697910041" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5472,15 +5499,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1701009764" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -5496,7 +5534,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1697910041"/>
+          <pm:border xmlns:pm="smNativeData" id="1701009764"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1701009764"/>
         </ext>
       </extLst>
     </border>
@@ -5549,10 +5606,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1697910041" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1701009764" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1697910041" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1701009764" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -5818,8 +5875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="P478" sqref="P478"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="B563" sqref="B563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.122951" defaultRowHeight="19.65"/>
@@ -10073,149 +10130,149 @@
       </c>
     </row>
     <row r="481" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A481" s="14" t="s">
+      <c r="A481" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="B481" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="C481" s="14"/>
-      <c r="D481" s="14"/>
-      <c r="E481" s="14"/>
-      <c r="F481" s="14"/>
-      <c r="G481" s="14"/>
-      <c r="H481" s="14"/>
-      <c r="I481" s="14"/>
-      <c r="J481" s="14"/>
-      <c r="K481" s="14"/>
-      <c r="L481" s="14"/>
-      <c r="M481" s="14" t="s">
+      <c r="C481" s="6"/>
+      <c r="D481" s="6"/>
+      <c r="E481" s="6"/>
+      <c r="F481" s="6"/>
+      <c r="G481" s="6"/>
+      <c r="H481" s="6"/>
+      <c r="I481" s="6"/>
+      <c r="J481" s="6"/>
+      <c r="K481" s="6"/>
+      <c r="L481" s="6"/>
+      <c r="M481" s="6" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="482" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A482" s="14" t="s">
+      <c r="A482" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="B482" s="14" t="s">
+      <c r="B482" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="C482" s="14"/>
-      <c r="D482" s="14"/>
-      <c r="E482" s="14"/>
-      <c r="F482" s="14"/>
-      <c r="G482" s="14"/>
-      <c r="H482" s="14"/>
-      <c r="I482" s="14"/>
-      <c r="J482" s="14"/>
-      <c r="K482" s="14"/>
-      <c r="L482" s="14"/>
-      <c r="M482" s="14" t="s">
+      <c r="C482" s="6"/>
+      <c r="D482" s="6"/>
+      <c r="E482" s="6"/>
+      <c r="F482" s="6"/>
+      <c r="G482" s="6"/>
+      <c r="H482" s="6"/>
+      <c r="I482" s="6"/>
+      <c r="J482" s="6"/>
+      <c r="K482" s="6"/>
+      <c r="L482" s="6"/>
+      <c r="M482" s="6" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="483" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A483" s="14" t="s">
+      <c r="A483" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="C483" s="14"/>
-      <c r="D483" s="14"/>
-      <c r="E483" s="14"/>
-      <c r="F483" s="14"/>
-      <c r="G483" s="14"/>
-      <c r="H483" s="14"/>
-      <c r="I483" s="14"/>
-      <c r="J483" s="14"/>
-      <c r="K483" s="14"/>
-      <c r="L483" s="14"/>
-      <c r="M483" s="14" t="s">
+      <c r="C483" s="6"/>
+      <c r="D483" s="6"/>
+      <c r="E483" s="6"/>
+      <c r="F483" s="6"/>
+      <c r="G483" s="6"/>
+      <c r="H483" s="6"/>
+      <c r="I483" s="6"/>
+      <c r="J483" s="6"/>
+      <c r="K483" s="6"/>
+      <c r="L483" s="6"/>
+      <c r="M483" s="6" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="484" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A484" s="14" t="s">
+      <c r="A484" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="B484" s="14" t="s">
+      <c r="B484" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="C484" s="14"/>
-      <c r="D484" s="14"/>
-      <c r="E484" s="14"/>
-      <c r="F484" s="14"/>
-      <c r="G484" s="14"/>
-      <c r="H484" s="14"/>
-      <c r="I484" s="14"/>
-      <c r="J484" s="14"/>
-      <c r="K484" s="14"/>
-      <c r="L484" s="14"/>
-      <c r="M484" s="14" t="s">
+      <c r="C484" s="6"/>
+      <c r="D484" s="6"/>
+      <c r="E484" s="6"/>
+      <c r="F484" s="6"/>
+      <c r="G484" s="6"/>
+      <c r="H484" s="6"/>
+      <c r="I484" s="6"/>
+      <c r="J484" s="6"/>
+      <c r="K484" s="6"/>
+      <c r="L484" s="6"/>
+      <c r="M484" s="6" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="485" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A485" s="14" t="s">
+      <c r="A485" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="B485" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="C485" s="14"/>
-      <c r="D485" s="14"/>
-      <c r="E485" s="14"/>
-      <c r="F485" s="14"/>
-      <c r="G485" s="14"/>
-      <c r="H485" s="14"/>
-      <c r="I485" s="14"/>
-      <c r="J485" s="14"/>
-      <c r="K485" s="14"/>
-      <c r="L485" s="14"/>
-      <c r="M485" s="14" t="s">
+      <c r="C485" s="6"/>
+      <c r="D485" s="6"/>
+      <c r="E485" s="6"/>
+      <c r="F485" s="6"/>
+      <c r="G485" s="6"/>
+      <c r="H485" s="6"/>
+      <c r="I485" s="6"/>
+      <c r="J485" s="6"/>
+      <c r="K485" s="6"/>
+      <c r="L485" s="6"/>
+      <c r="M485" s="6" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="486" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A486" s="14" t="s">
+      <c r="A486" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="B486" s="14" t="s">
+      <c r="B486" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="C486" s="14"/>
-      <c r="D486" s="14"/>
-      <c r="E486" s="14"/>
-      <c r="F486" s="14"/>
-      <c r="G486" s="14"/>
-      <c r="H486" s="14"/>
-      <c r="I486" s="14"/>
-      <c r="J486" s="14"/>
-      <c r="K486" s="14"/>
-      <c r="L486" s="14"/>
-      <c r="M486" s="14" t="s">
+      <c r="C486" s="6"/>
+      <c r="D486" s="6"/>
+      <c r="E486" s="6"/>
+      <c r="F486" s="6"/>
+      <c r="G486" s="6"/>
+      <c r="H486" s="6"/>
+      <c r="I486" s="6"/>
+      <c r="J486" s="6"/>
+      <c r="K486" s="6"/>
+      <c r="L486" s="6"/>
+      <c r="M486" s="6" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="487" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A487" s="14" t="s">
+      <c r="A487" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="B487" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="C487" s="14"/>
-      <c r="D487" s="14"/>
-      <c r="E487" s="14"/>
-      <c r="F487" s="14"/>
-      <c r="G487" s="14"/>
-      <c r="H487" s="14"/>
-      <c r="I487" s="14"/>
-      <c r="J487" s="14"/>
-      <c r="K487" s="14"/>
-      <c r="L487" s="14"/>
-      <c r="M487" s="14" t="s">
+      <c r="C487" s="6"/>
+      <c r="D487" s="6"/>
+      <c r="E487" s="6"/>
+      <c r="F487" s="6"/>
+      <c r="G487" s="6"/>
+      <c r="H487" s="6"/>
+      <c r="I487" s="6"/>
+      <c r="J487" s="6"/>
+      <c r="K487" s="6"/>
+      <c r="L487" s="6"/>
+      <c r="M487" s="6" t="s">
         <v>898</v>
       </c>
     </row>
@@ -11562,9 +11619,69 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="561" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="562" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="563" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="561" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A561" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B561" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C561" s="14"/>
+      <c r="D561" s="14"/>
+      <c r="E561" s="14"/>
+      <c r="F561" s="14"/>
+      <c r="G561" s="14"/>
+      <c r="H561" s="14"/>
+      <c r="I561" s="14"/>
+      <c r="J561" s="14"/>
+      <c r="K561" s="14"/>
+      <c r="L561" s="14"/>
+      <c r="M561" s="14" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A562" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B562" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C562" s="14"/>
+      <c r="D562" s="14"/>
+      <c r="E562" s="14"/>
+      <c r="F562" s="14"/>
+      <c r="G562" s="14"/>
+      <c r="H562" s="14"/>
+      <c r="I562" s="14"/>
+      <c r="J562" s="14"/>
+      <c r="K562" s="14"/>
+      <c r="L562" s="14"/>
+      <c r="M562" s="14" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A563" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B563" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C563" s="14"/>
+      <c r="D563" s="14"/>
+      <c r="E563" s="14"/>
+      <c r="F563" s="14"/>
+      <c r="G563" s="14"/>
+      <c r="H563" s="14"/>
+      <c r="I563" s="14"/>
+      <c r="J563" s="14"/>
+      <c r="K563" s="14"/>
+      <c r="L563" s="14"/>
+      <c r="M563" s="14" t="s">
+        <v>1038</v>
+      </c>
+    </row>
     <row r="564" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="565" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="566" spans="1:1" ht="18.75" customHeight="1"/>
@@ -12041,7 +12158,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1697910041" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1701009764" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12050,16 +12167,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1697910041" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1697910041" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697910041" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697910041" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1701009764" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1701009764" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1701009764" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1701009764" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697910041" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1701009764" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1701009764" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1701009764" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1701009764" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1701009764"/>
+      <pm:revision xmlns:pm="smNativeData" day="1706100567" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1706100567" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1706100567" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1706100567"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1042">
   <si>
     <t>English</t>
   </si>
@@ -92,7 +92,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -180,7 +180,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -200,7 +200,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -276,7 +276,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -316,7 +316,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -350,7 +350,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -370,7 +370,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -410,7 +410,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -430,7 +430,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -450,7 +450,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -787,7 +787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -807,7 +807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -827,7 +827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -873,7 +873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -916,7 +916,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -936,7 +936,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -956,7 +956,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1035,7 +1035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1055,7 +1055,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1075,7 +1075,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1109,7 +1109,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1129,7 +1129,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1149,7 +1149,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1189,7 +1189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1217,7 +1217,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1251,7 +1251,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1297,7 +1297,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1317,7 +1317,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1337,7 +1337,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1365,7 +1365,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1385,7 +1385,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1405,7 +1405,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1445,7 +1445,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1479,7 +1479,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1507,7 +1507,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1637,7 +1637,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1761,7 +1761,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1789,7 +1789,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1847,7 +1847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1867,7 +1867,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1887,7 +1887,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1907,7 +1907,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1935,7 +1935,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1955,7 +1955,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1989,7 +1989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2009,7 +2009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2097,7 +2097,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2117,7 +2117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2169,7 +2169,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2189,7 +2189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2397,7 +2397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2557,7 +2557,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2577,7 +2577,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2611,7 +2611,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2645,7 +2645,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2665,7 +2665,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2783,7 +2783,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3153,7 +3153,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3173,7 +3173,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3193,7 +3193,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3221,7 +3221,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3241,7 +3241,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3261,7 +3261,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3289,7 +3289,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3309,7 +3309,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3329,7 +3329,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3357,7 +3357,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3377,7 +3377,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3397,7 +3397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3425,7 +3425,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3445,7 +3445,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3465,7 +3465,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3493,7 +3493,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3513,7 +3513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3533,7 +3533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3561,7 +3561,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3581,7 +3581,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3601,7 +3601,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3629,7 +3629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3649,7 +3649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3669,7 +3669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3730,7 +3730,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3750,7 +3750,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3770,7 +3770,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3822,7 +3822,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3842,7 +3842,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3862,7 +3862,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3914,7 +3914,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3934,7 +3934,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3954,7 +3954,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3994,7 +3994,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4014,7 +4014,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4034,7 +4034,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4054,7 +4054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4514,7 +4514,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4548,7 +4548,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4621,7 +4621,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4649,7 +4649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4719,7 +4719,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4739,7 +4739,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4759,7 +4759,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4787,7 +4787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4807,7 +4807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4827,7 +4827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5074,7 +5074,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5094,7 +5094,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5134,7 +5134,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1701009764">
+            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5384,6 +5384,15 @@
   </si>
   <si>
     <t>トナカイ</t>
+  </si>
+  <si>
+    <t>nekonaika</t>
+  </si>
+  <si>
+    <t>Cattlefish</t>
+  </si>
+  <si>
+    <t>ネコなイカ</t>
   </si>
 </sst>
 </file>
@@ -5414,7 +5423,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5429,7 +5438,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5444,7 +5453,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5459,7 +5468,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -5475,7 +5484,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5490,7 +5499,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009764" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5499,26 +5508,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1701009764" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -5534,26 +5532,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1701009764"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1701009764"/>
+          <pm:border xmlns:pm="smNativeData" id="1706100567"/>
         </ext>
       </extLst>
     </border>
@@ -5606,10 +5585,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1701009764" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1706100567" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1701009764" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1706100567" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -5875,8 +5854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="B563" sqref="B563"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="M564" sqref="M564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.122951" defaultRowHeight="19.65"/>
@@ -11620,69 +11599,89 @@
       </c>
     </row>
     <row r="561" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A561" s="14" t="s">
+      <c r="A561" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="B561" s="14" t="s">
+      <c r="B561" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="C561" s="14"/>
-      <c r="D561" s="14"/>
-      <c r="E561" s="14"/>
-      <c r="F561" s="14"/>
-      <c r="G561" s="14"/>
-      <c r="H561" s="14"/>
-      <c r="I561" s="14"/>
-      <c r="J561" s="14"/>
-      <c r="K561" s="14"/>
-      <c r="L561" s="14"/>
-      <c r="M561" s="14" t="s">
+      <c r="C561" s="6"/>
+      <c r="D561" s="6"/>
+      <c r="E561" s="6"/>
+      <c r="F561" s="6"/>
+      <c r="G561" s="6"/>
+      <c r="H561" s="6"/>
+      <c r="I561" s="6"/>
+      <c r="J561" s="6"/>
+      <c r="K561" s="6"/>
+      <c r="L561" s="6"/>
+      <c r="M561" s="6" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="562" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A562" s="14" t="s">
+      <c r="A562" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="B562" s="14" t="s">
+      <c r="B562" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="C562" s="14"/>
-      <c r="D562" s="14"/>
-      <c r="E562" s="14"/>
-      <c r="F562" s="14"/>
-      <c r="G562" s="14"/>
-      <c r="H562" s="14"/>
-      <c r="I562" s="14"/>
-      <c r="J562" s="14"/>
-      <c r="K562" s="14"/>
-      <c r="L562" s="14"/>
-      <c r="M562" s="14" t="s">
+      <c r="C562" s="6"/>
+      <c r="D562" s="6"/>
+      <c r="E562" s="6"/>
+      <c r="F562" s="6"/>
+      <c r="G562" s="6"/>
+      <c r="H562" s="6"/>
+      <c r="I562" s="6"/>
+      <c r="J562" s="6"/>
+      <c r="K562" s="6"/>
+      <c r="L562" s="6"/>
+      <c r="M562" s="6" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="563" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A563" s="14" t="s">
+      <c r="A563" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="B563" s="14" t="s">
+      <c r="B563" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="C563" s="14"/>
-      <c r="D563" s="14"/>
-      <c r="E563" s="14"/>
-      <c r="F563" s="14"/>
-      <c r="G563" s="14"/>
-      <c r="H563" s="14"/>
-      <c r="I563" s="14"/>
-      <c r="J563" s="14"/>
-      <c r="K563" s="14"/>
-      <c r="L563" s="14"/>
-      <c r="M563" s="14" t="s">
+      <c r="C563" s="6"/>
+      <c r="D563" s="6"/>
+      <c r="E563" s="6"/>
+      <c r="F563" s="6"/>
+      <c r="G563" s="6"/>
+      <c r="H563" s="6"/>
+      <c r="I563" s="6"/>
+      <c r="J563" s="6"/>
+      <c r="K563" s="6"/>
+      <c r="L563" s="6"/>
+      <c r="M563" s="6" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="564" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="564" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A564" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B564" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C564" s="14"/>
+      <c r="D564" s="14"/>
+      <c r="E564" s="14"/>
+      <c r="F564" s="14"/>
+      <c r="G564" s="14"/>
+      <c r="H564" s="14"/>
+      <c r="I564" s="14"/>
+      <c r="J564" s="14"/>
+      <c r="K564" s="14"/>
+      <c r="L564" s="14"/>
+      <c r="M564" s="14" t="s">
+        <v>1041</v>
+      </c>
+    </row>
     <row r="565" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="566" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="567" spans="1:1" ht="18.75" customHeight="1"/>
@@ -12158,7 +12157,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1701009764" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1706100567" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12167,16 +12166,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1701009764" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1701009764" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1701009764" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1701009764" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1706100567" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1706100567" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706100567" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706100567" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1701009764" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706100567" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1706100567" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1706100567" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1706100567" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1706100567"/>
+      <pm:revision xmlns:pm="smNativeData" day="1714497764" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1714497764" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1714497764" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1714497764"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="1044">
   <si>
     <t>English</t>
   </si>
@@ -92,7 +92,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -180,7 +180,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -200,7 +200,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -276,7 +276,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -316,7 +316,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -350,7 +350,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -370,7 +370,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -410,7 +410,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -430,7 +430,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -450,7 +450,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -787,7 +787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -807,7 +807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -827,7 +827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -873,7 +873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -916,7 +916,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -936,7 +936,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -956,7 +956,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1035,7 +1035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1055,7 +1055,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1075,7 +1075,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1109,7 +1109,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1129,7 +1129,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1149,7 +1149,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1189,7 +1189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1217,7 +1217,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1251,7 +1251,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1297,7 +1297,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1317,7 +1317,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1337,7 +1337,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1365,7 +1365,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1385,7 +1385,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1405,7 +1405,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1445,7 +1445,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1479,7 +1479,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1507,7 +1507,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1637,7 +1637,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1761,7 +1761,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1789,7 +1789,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1847,7 +1847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1867,7 +1867,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1887,7 +1887,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1907,7 +1907,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1935,7 +1935,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1955,7 +1955,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1989,7 +1989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2009,7 +2009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2097,7 +2097,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2117,7 +2117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2169,7 +2169,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2189,7 +2189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2397,7 +2397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2557,7 +2557,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2577,7 +2577,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2611,7 +2611,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2645,7 +2645,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2665,7 +2665,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2783,7 +2783,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3153,7 +3153,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3173,7 +3173,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3193,7 +3193,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3221,7 +3221,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3241,7 +3241,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3261,7 +3261,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3289,7 +3289,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3309,7 +3309,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3329,7 +3329,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3357,7 +3357,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3377,7 +3377,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3397,7 +3397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3425,7 +3425,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3445,7 +3445,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3465,7 +3465,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3493,7 +3493,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3513,7 +3513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3533,7 +3533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3561,7 +3561,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3581,7 +3581,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3601,7 +3601,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3629,7 +3629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3649,7 +3649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3669,7 +3669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3730,7 +3730,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3750,7 +3750,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3770,7 +3770,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3822,7 +3822,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3842,7 +3842,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3862,7 +3862,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3914,7 +3914,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3934,7 +3934,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3954,7 +3954,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3994,7 +3994,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4014,7 +4014,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4034,7 +4034,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4054,7 +4054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4514,7 +4514,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4548,7 +4548,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4621,7 +4621,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4649,7 +4649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4719,7 +4719,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4739,7 +4739,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4759,7 +4759,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4787,7 +4787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4807,7 +4807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4827,7 +4827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5074,7 +5074,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5094,7 +5094,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5134,7 +5134,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1706100567">
+            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5393,6 +5393,12 @@
   </si>
   <si>
     <t>ネコなイカ</t>
+  </si>
+  <si>
+    <t>Taisho_Roman</t>
+  </si>
+  <si>
+    <t>大正ロマン</t>
   </si>
 </sst>
 </file>
@@ -5423,7 +5429,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5438,7 +5444,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5453,7 +5459,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5468,7 +5474,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -5484,7 +5490,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5499,7 +5505,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706100567" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5532,7 +5538,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706100567"/>
+          <pm:border xmlns:pm="smNativeData" id="1714497764"/>
         </ext>
       </extLst>
     </border>
@@ -5585,10 +5591,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1706100567" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1714497764" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1706100567" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1714497764" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -5855,7 +5861,7 @@
   <dimension ref="A1:Q1035"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="M564" sqref="M564"/>
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.122951" defaultRowHeight="19.65"/>
@@ -11662,27 +11668,47 @@
       </c>
     </row>
     <row r="564" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A564" s="14" t="s">
+      <c r="A564" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="B564" s="14" t="s">
+      <c r="B564" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="C564" s="14"/>
-      <c r="D564" s="14"/>
-      <c r="E564" s="14"/>
-      <c r="F564" s="14"/>
-      <c r="G564" s="14"/>
-      <c r="H564" s="14"/>
-      <c r="I564" s="14"/>
-      <c r="J564" s="14"/>
-      <c r="K564" s="14"/>
-      <c r="L564" s="14"/>
-      <c r="M564" s="14" t="s">
+      <c r="C564" s="6"/>
+      <c r="D564" s="6"/>
+      <c r="E564" s="6"/>
+      <c r="F564" s="6"/>
+      <c r="G564" s="6"/>
+      <c r="H564" s="6"/>
+      <c r="I564" s="6"/>
+      <c r="J564" s="6"/>
+      <c r="K564" s="6"/>
+      <c r="L564" s="6"/>
+      <c r="M564" s="6" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="565" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="565" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A565" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B565" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C565" s="14"/>
+      <c r="D565" s="14"/>
+      <c r="E565" s="14"/>
+      <c r="F565" s="14"/>
+      <c r="G565" s="14"/>
+      <c r="H565" s="14"/>
+      <c r="I565" s="14"/>
+      <c r="J565" s="14"/>
+      <c r="K565" s="14"/>
+      <c r="L565" s="14"/>
+      <c r="M565" s="14" t="s">
+        <v>1043</v>
+      </c>
+    </row>
     <row r="566" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="567" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="568" spans="1:1" ht="18.75" customHeight="1"/>
@@ -12157,7 +12183,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1706100567" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1714497764" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12166,16 +12192,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1706100567" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1706100567" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706100567" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706100567" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1714497764" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1714497764" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1714497764" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1714497764" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706100567" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1714497764" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/HatTransData.xlsx
+++ b/HatTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1714497764" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1714497764" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1714497764" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1714497764"/>
+      <pm:revision xmlns:pm="smNativeData" day="1722784111" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1722784111" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1722784111" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1722784111"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="1047">
   <si>
     <t>English</t>
   </si>
@@ -90,15 +90,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>公式作</t>
     </r>
@@ -178,15 +169,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>Q</t>
     </r>
@@ -198,15 +180,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>坊や</t>
     </r>
@@ -274,15 +247,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>ZERO</t>
     </r>
@@ -314,15 +278,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>チキくーださい</t>
     </r>
@@ -348,15 +303,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>P</t>
     </r>
@@ -368,15 +314,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>作</t>
     </r>
@@ -408,15 +345,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>レーへ</t>
     </r>
@@ -428,15 +356,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>T</t>
     </r>
@@ -448,15 +367,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>シャツ</t>
     </r>
@@ -785,15 +695,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -805,15 +706,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>帽子あり</t>
     </r>
@@ -825,15 +717,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -871,15 +754,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(Cevio)</t>
     </r>
@@ -914,15 +788,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -934,15 +799,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>きりたんぽ</t>
     </r>
@@ -954,15 +810,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -1033,15 +880,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -1053,15 +891,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>ディクソン</t>
     </r>
@@ -1073,15 +902,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -1107,15 +927,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -1127,15 +938,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>オタマン帽</t>
     </r>
@@ -1147,15 +949,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -1187,15 +980,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(Synthesizer V)</t>
     </r>
@@ -1215,15 +999,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>AI</t>
     </r>
@@ -1249,15 +1024,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(Synthesizer V)</t>
     </r>
@@ -1295,15 +1061,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -1315,15 +1072,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>きりたんぽ</t>
     </r>
@@ -1335,15 +1083,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -1363,15 +1102,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -1383,15 +1113,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>上着あり</t>
     </r>
@@ -1403,15 +1124,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -1443,15 +1155,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>AI</t>
     </r>
@@ -1477,15 +1180,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>AI</t>
     </r>
@@ -1505,15 +1199,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>AI</t>
     </r>
@@ -1635,15 +1320,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>白桜作</t>
     </r>
@@ -1759,15 +1435,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>ハッカー</t>
     </r>
@@ -1787,15 +1454,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>号</t>
     </r>
@@ -1845,15 +1503,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>5+</t>
     </r>
@@ -1865,15 +1514,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>ロリ</t>
     </r>
@@ -1885,15 +1525,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>=</t>
     </r>
@@ -1905,15 +1536,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>悟り</t>
     </r>
@@ -1933,15 +1555,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>:</t>
     </r>
@@ -1953,15 +1566,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>インポスター</t>
     </r>
@@ -1987,15 +1591,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>3</t>
     </r>
@@ -2007,15 +1602,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>秒前</t>
     </r>
@@ -2095,15 +1681,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>&amp;</t>
     </r>
@@ -2115,15 +1692,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>マフラー</t>
     </r>
@@ -2167,15 +1735,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>1</t>
     </r>
@@ -2187,15 +1746,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>つ</t>
     </r>
@@ -2395,15 +1945,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>Guess</t>
     </r>
@@ -2555,15 +2096,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>100</t>
     </r>
@@ -2575,15 +2107,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>個記念</t>
     </r>
@@ -2609,15 +2132,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>EB</t>
     </r>
@@ -2643,15 +2157,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>_</t>
     </r>
@@ -2663,15 +2168,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>茶</t>
     </r>
@@ -2781,15 +2277,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(FNF)</t>
     </r>
@@ -3151,15 +2638,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3171,15 +2649,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>青</t>
     </r>
@@ -3191,15 +2660,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3219,15 +2679,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3239,15 +2690,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>緑</t>
     </r>
@@ -3259,15 +2701,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3287,15 +2720,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3307,15 +2731,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>赤</t>
     </r>
@@ -3327,15 +2742,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3355,15 +2761,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3375,15 +2772,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>黄</t>
     </r>
@@ -3395,15 +2783,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3423,15 +2802,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3443,15 +2813,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>青・単</t>
     </r>
@@ -3463,15 +2824,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3491,15 +2843,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3511,15 +2854,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>緑・単</t>
     </r>
@@ -3531,15 +2865,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3559,15 +2884,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3579,15 +2895,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>赤・単</t>
     </r>
@@ -3599,15 +2906,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3627,15 +2925,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3647,15 +2936,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>黄・単</t>
     </r>
@@ -3667,15 +2947,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3728,15 +2999,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3748,15 +3010,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>カラー対応</t>
     </r>
@@ -3768,15 +3021,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3820,15 +3064,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3840,15 +3075,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>黄</t>
     </r>
@@ -3860,15 +3086,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3912,15 +3129,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -3932,15 +3140,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>白</t>
     </r>
@@ -3952,15 +3151,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -3992,15 +3182,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t xml:space="preserve">の帽子 </t>
     </r>
@@ -4012,15 +3193,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -4032,15 +3204,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>単体</t>
     </r>
@@ -4052,15 +3215,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -4512,15 +3666,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>Color</t>
     </r>
@@ -4546,15 +3691,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>Color</t>
     </r>
@@ -4619,15 +3755,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>TypeA</t>
     </r>
@@ -4647,15 +3774,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>TypeB</t>
     </r>
@@ -4717,15 +3835,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -4737,15 +3846,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>猫又モード</t>
     </r>
@@ -4757,15 +3857,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -4785,15 +3876,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>(</t>
     </r>
@@ -4805,15 +3887,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>変身</t>
     </r>
@@ -4825,15 +3898,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>)</t>
     </r>
@@ -5072,15 +4136,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>&amp;</t>
     </r>
@@ -5092,15 +4147,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>からっぽもん作</t>
     </r>
@@ -5132,15 +4178,6 @@
         <sz val="11"/>
         <b val="0"/>
         <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1714497764">
-              <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>作</t>
     </r>
@@ -5399,6 +4436,15 @@
   </si>
   <si>
     <t>大正ロマン</t>
+  </si>
+  <si>
+    <t>Animal_Pterosaurs</t>
+  </si>
+  <si>
+    <t>Pterosaurs</t>
+  </si>
+  <si>
+    <t>翼竜</t>
   </si>
 </sst>
 </file>
@@ -5429,7 +4475,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722784111" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5444,7 +4490,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722784111" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5459,7 +4505,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722784111" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5474,7 +4520,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722784111" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -5490,7 +4536,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722784111" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5505,7 +4551,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1714497764" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722784111" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5538,7 +4584,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1714497764"/>
+          <pm:border xmlns:pm="smNativeData" id="1722784111"/>
         </ext>
       </extLst>
     </border>
@@ -5591,10 +4637,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1714497764" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1722784111" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1714497764" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1722784111" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -5860,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="B549" sqref="B549"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="B568" sqref="B568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.122951" defaultRowHeight="19.65"/>
@@ -10261,111 +9307,13 @@
         <v>898</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A488"/>
-      <c r="B488"/>
-      <c r="C488"/>
-      <c r="D488"/>
-      <c r="E488"/>
-      <c r="F488"/>
-      <c r="G488"/>
-      <c r="H488"/>
-      <c r="I488"/>
-      <c r="J488"/>
-      <c r="K488"/>
-      <c r="L488"/>
-      <c r="M488"/>
-    </row>
-    <row r="489" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A489"/>
-      <c r="B489"/>
-      <c r="C489"/>
-      <c r="D489"/>
-      <c r="E489"/>
-      <c r="F489"/>
-      <c r="G489"/>
-      <c r="H489"/>
-      <c r="I489"/>
-      <c r="J489"/>
-      <c r="K489"/>
-      <c r="L489"/>
-      <c r="M489"/>
-    </row>
-    <row r="490" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A490"/>
-      <c r="B490"/>
-      <c r="C490"/>
-      <c r="D490"/>
-      <c r="E490"/>
-      <c r="F490"/>
-      <c r="G490"/>
-      <c r="H490"/>
-      <c r="I490"/>
-      <c r="J490"/>
-      <c r="K490"/>
-      <c r="L490"/>
-      <c r="M490"/>
-    </row>
-    <row r="491" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A491"/>
-      <c r="B491"/>
-      <c r="C491"/>
-      <c r="D491"/>
-      <c r="E491"/>
-      <c r="F491"/>
-      <c r="G491"/>
-      <c r="H491"/>
-      <c r="I491"/>
-      <c r="J491"/>
-      <c r="K491"/>
-      <c r="L491"/>
-      <c r="M491"/>
-    </row>
-    <row r="492" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A492"/>
-      <c r="B492"/>
-      <c r="C492"/>
-      <c r="D492"/>
-      <c r="E492"/>
-      <c r="F492"/>
-      <c r="G492"/>
-      <c r="H492"/>
-      <c r="I492"/>
-      <c r="J492"/>
-      <c r="K492"/>
-      <c r="L492"/>
-      <c r="M492"/>
-    </row>
-    <row r="493" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A493"/>
-      <c r="B493"/>
-      <c r="C493"/>
-      <c r="D493"/>
-      <c r="E493"/>
-      <c r="F493"/>
-      <c r="G493"/>
-      <c r="H493"/>
-      <c r="I493"/>
-      <c r="J493"/>
-      <c r="K493"/>
-      <c r="L493"/>
-      <c r="M493"/>
-    </row>
-    <row r="494" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A494"/>
-      <c r="B494"/>
-      <c r="C494"/>
-      <c r="D494"/>
-      <c r="E494"/>
-      <c r="F494"/>
-      <c r="G494"/>
-      <c r="H494"/>
-      <c r="I494"/>
-      <c r="J494"/>
-      <c r="K494"/>
-      <c r="L494"/>
-      <c r="M494"/>
-    </row>
+    <row r="488" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="489" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="490" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="491" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="492" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="493" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="494" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="495" spans="1:13" ht="18.75" customHeight="1">
       <c r="A495" s="8" t="s">
         <v>899</v>
@@ -10389,17 +9337,6 @@
       <c r="A496" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="B496"/>
-      <c r="C496"/>
-      <c r="D496"/>
-      <c r="E496"/>
-      <c r="F496"/>
-      <c r="G496"/>
-      <c r="H496"/>
-      <c r="I496"/>
-      <c r="J496"/>
-      <c r="K496"/>
-      <c r="L496"/>
       <c r="M496" s="8" t="s">
         <v>902</v>
       </c>
@@ -10860,67 +9797,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="521" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A521"/>
-      <c r="B521"/>
-      <c r="C521"/>
-      <c r="D521"/>
-      <c r="E521"/>
-      <c r="F521"/>
-      <c r="G521"/>
-      <c r="H521"/>
-      <c r="I521"/>
-      <c r="J521"/>
-      <c r="K521"/>
-      <c r="L521"/>
-      <c r="M521"/>
-    </row>
-    <row r="522" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A522"/>
-      <c r="B522"/>
-      <c r="C522"/>
-      <c r="D522"/>
-      <c r="E522"/>
-      <c r="F522"/>
-      <c r="G522"/>
-      <c r="H522"/>
-      <c r="I522"/>
-      <c r="J522"/>
-      <c r="K522"/>
-      <c r="L522"/>
-      <c r="M522"/>
-    </row>
+    <row r="521" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="522" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="523" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="524" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A524"/>
-      <c r="B524"/>
-      <c r="C524"/>
-      <c r="D524"/>
-      <c r="E524"/>
-      <c r="F524"/>
-      <c r="G524"/>
-      <c r="H524"/>
-      <c r="I524"/>
-      <c r="J524"/>
-      <c r="K524"/>
-      <c r="L524"/>
-      <c r="M524"/>
-    </row>
-    <row r="525" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A525"/>
-      <c r="B525"/>
-      <c r="C525"/>
-      <c r="D525"/>
-      <c r="E525"/>
-      <c r="F525"/>
-      <c r="G525"/>
-      <c r="H525"/>
-      <c r="I525"/>
-      <c r="J525"/>
-      <c r="K525"/>
-      <c r="L525"/>
-      <c r="M525"/>
-    </row>
+    <row r="524" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="525" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="526" spans="1:13" ht="18.75" customHeight="1">
       <c r="A526" s="11" t="s">
         <v>951</v>
@@ -10978,36 +9859,8 @@
         <v>956</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A529"/>
-      <c r="B529"/>
-      <c r="C529"/>
-      <c r="D529"/>
-      <c r="E529"/>
-      <c r="F529"/>
-      <c r="G529"/>
-      <c r="H529"/>
-      <c r="I529"/>
-      <c r="J529"/>
-      <c r="K529"/>
-      <c r="L529"/>
-      <c r="M529"/>
-    </row>
-    <row r="530" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A530"/>
-      <c r="B530"/>
-      <c r="C530"/>
-      <c r="D530"/>
-      <c r="E530"/>
-      <c r="F530"/>
-      <c r="G530"/>
-      <c r="H530"/>
-      <c r="I530"/>
-      <c r="J530"/>
-      <c r="K530"/>
-      <c r="L530"/>
-      <c r="M530"/>
-    </row>
+    <row r="529" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="530" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="531" spans="1:13" ht="18.75" customHeight="1">
       <c r="A531" s="11" t="s">
         <v>957</v>
@@ -11050,51 +9903,15 @@
       <c r="A533" s="13" t="s">
         <v>961</v>
       </c>
-      <c r="B533"/>
-      <c r="C533"/>
-      <c r="D533"/>
-      <c r="E533"/>
-      <c r="F533"/>
-      <c r="G533"/>
-      <c r="H533"/>
-      <c r="I533"/>
-      <c r="J533"/>
-      <c r="K533"/>
-      <c r="L533"/>
       <c r="M533" s="12" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A534"/>
-      <c r="B534"/>
-      <c r="C534"/>
-      <c r="D534"/>
-      <c r="E534"/>
-      <c r="F534"/>
-      <c r="G534"/>
-      <c r="H534"/>
-      <c r="I534"/>
-      <c r="J534"/>
-      <c r="K534"/>
-      <c r="L534"/>
-      <c r="M534"/>
-    </row>
+    <row r="534" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="535" spans="1:13" ht="18.75" customHeight="1">
       <c r="A535" t="s">
         <v>963</v>
       </c>
-      <c r="B535"/>
-      <c r="C535"/>
-      <c r="D535"/>
-      <c r="E535"/>
-      <c r="F535"/>
-      <c r="G535"/>
-      <c r="H535"/>
-      <c r="I535"/>
-      <c r="J535"/>
-      <c r="K535"/>
-      <c r="L535"/>
       <c r="M535" t="s">
         <v>964</v>
       </c>
@@ -11232,21 +10049,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A543"/>
-      <c r="B543"/>
-      <c r="C543"/>
-      <c r="D543"/>
-      <c r="E543"/>
-      <c r="F543"/>
-      <c r="G543"/>
-      <c r="H543"/>
-      <c r="I543"/>
-      <c r="J543"/>
-      <c r="K543"/>
-      <c r="L543"/>
-      <c r="M543"/>
-    </row>
+    <row r="543" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="544" spans="1:13" ht="18.75" customHeight="1">
       <c r="A544" s="8" t="s">
         <v>979</v>
@@ -11689,27 +10492,47 @@
       </c>
     </row>
     <row r="565" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A565" s="14" t="s">
+      <c r="A565" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="B565" s="14" t="s">
+      <c r="B565" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="C565" s="14"/>
-      <c r="D565" s="14"/>
-      <c r="E565" s="14"/>
-      <c r="F565" s="14"/>
-      <c r="G565" s="14"/>
-      <c r="H565" s="14"/>
-      <c r="I565" s="14"/>
-      <c r="J565" s="14"/>
-      <c r="K565" s="14"/>
-      <c r="L565" s="14"/>
-      <c r="M565" s="14" t="s">
+      <c r="C565" s="6"/>
+      <c r="D565" s="6"/>
+      <c r="E565" s="6"/>
+      <c r="F565" s="6"/>
+      <c r="G565" s="6"/>
+      <c r="H565" s="6"/>
+      <c r="I565" s="6"/>
+      <c r="J565" s="6"/>
+      <c r="K565" s="6"/>
+      <c r="L565" s="6"/>
+      <c r="M565" s="6" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="566" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="566" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A566" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B566" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C566" s="14"/>
+      <c r="D566" s="14"/>
+      <c r="E566" s="14"/>
+      <c r="F566" s="14"/>
+      <c r="G566" s="14"/>
+      <c r="H566" s="14"/>
+      <c r="I566" s="14"/>
+      <c r="J566" s="14"/>
+      <c r="K566" s="14"/>
+      <c r="L566" s="14"/>
+      <c r="M566" s="14" t="s">
+        <v>1046</v>
+      </c>
+    </row>
     <row r="567" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="568" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="569" spans="1:1" ht="18.75" customHeight="1"/>
@@ -12183,7 +11006,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1714497764" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722784111" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12192,16 +11015,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1714497764" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1714497764" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1714497764" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1714497764" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722784111" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722784111" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722784111" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722784111" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1714497764" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722784111" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
